--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Places</t>
   </si>
@@ -216,49 +216,128 @@
     <t>50.8030° N, 6.4811° E</t>
   </si>
   <si>
-    <t>dusseldorf</t>
-  </si>
-  <si>
-    <t>14.98.</t>
-  </si>
-  <si>
-    <t>15.12.</t>
-  </si>
-  <si>
-    <t>16.02.</t>
-  </si>
-  <si>
-    <t>15.7.</t>
-  </si>
-  <si>
-    <t>14.92.</t>
-  </si>
-  <si>
-    <t>15.42.</t>
-  </si>
-  <si>
-    <t>Hamm,DE</t>
-  </si>
-  <si>
-    <t>barrow,US</t>
-  </si>
-  <si>
-    <t>London,GB</t>
-  </si>
-  <si>
-    <t>London,US</t>
-  </si>
-  <si>
-    <t>London,AU</t>
-  </si>
-  <si>
-    <t>durban</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>jammu</t>
+  </si>
+  <si>
+    <t>moga</t>
+  </si>
+  <si>
+    <t>hisar</t>
+  </si>
+  <si>
+    <t>palwal</t>
+  </si>
+  <si>
+    <t>agra</t>
+  </si>
+  <si>
+    <t>udaipur</t>
+  </si>
+  <si>
+    <t>ajmer</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>chiplun</t>
+  </si>
+  <si>
+    <t>karwar</t>
+  </si>
+  <si>
+    <t>kannur</t>
+  </si>
+  <si>
+    <t>kozhikode</t>
+  </si>
+  <si>
+    <t>33.9.</t>
+  </si>
+  <si>
+    <t>33.02.</t>
+  </si>
+  <si>
+    <t>35.99.</t>
+  </si>
+  <si>
+    <t>31.2.</t>
+  </si>
+  <si>
+    <t>34.15.</t>
+  </si>
+  <si>
+    <t>25.5.</t>
+  </si>
+  <si>
+    <t>23.42.</t>
+  </si>
+  <si>
+    <t>29.99.</t>
+  </si>
+  <si>
+    <t>28.22.</t>
+  </si>
+  <si>
+    <t>27.11.</t>
+  </si>
+  <si>
+    <t>Temperature1</t>
+  </si>
+  <si>
+    <t>Temperature2</t>
+  </si>
+  <si>
+    <t>kasaragod</t>
+  </si>
+  <si>
+    <t>28.17.</t>
+  </si>
+  <si>
+    <t>29.84.</t>
+  </si>
+  <si>
+    <t>29.88.</t>
+  </si>
+  <si>
+    <t>30.32.</t>
+  </si>
+  <si>
+    <t>28.89.</t>
+  </si>
+  <si>
+    <t>22.56.</t>
+  </si>
+  <si>
+    <t>23.9.</t>
+  </si>
+  <si>
+    <t>27.02.</t>
+  </si>
+  <si>
+    <t>24.99.</t>
+  </si>
+  <si>
+    <t>25.75.</t>
+  </si>
+  <si>
+    <t>26.59.</t>
+  </si>
+  <si>
+    <t>25.37.</t>
+  </si>
+  <si>
+    <t>24.65.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,81 +677,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
+      <c r="C14" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -690,9 +854,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>Places</t>
   </si>
@@ -219,81 +219,15 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>jammu</t>
-  </si>
-  <si>
-    <t>moga</t>
-  </si>
-  <si>
-    <t>hisar</t>
-  </si>
-  <si>
-    <t>palwal</t>
-  </si>
-  <si>
-    <t>agra</t>
-  </si>
-  <si>
-    <t>udaipur</t>
-  </si>
-  <si>
-    <t>ajmer</t>
-  </si>
-  <si>
-    <t>surat</t>
-  </si>
-  <si>
-    <t>chiplun</t>
-  </si>
-  <si>
-    <t>karwar</t>
-  </si>
-  <si>
-    <t>kannur</t>
-  </si>
-  <si>
-    <t>kozhikode</t>
-  </si>
-  <si>
-    <t>33.9.</t>
-  </si>
-  <si>
-    <t>33.02.</t>
-  </si>
-  <si>
     <t>35.99.</t>
   </si>
   <si>
-    <t>31.2.</t>
-  </si>
-  <si>
-    <t>34.15.</t>
-  </si>
-  <si>
-    <t>25.5.</t>
-  </si>
-  <si>
-    <t>23.42.</t>
-  </si>
-  <si>
-    <t>29.99.</t>
-  </si>
-  <si>
-    <t>28.22.</t>
-  </si>
-  <si>
-    <t>27.11.</t>
-  </si>
-  <si>
     <t>Temperature1</t>
   </si>
   <si>
     <t>Temperature2</t>
   </si>
   <si>
-    <t>kasaragod</t>
-  </si>
-  <si>
     <t>28.17.</t>
   </si>
   <si>
@@ -303,34 +237,43 @@
     <t>29.88.</t>
   </si>
   <si>
-    <t>30.32.</t>
-  </si>
-  <si>
-    <t>28.89.</t>
-  </si>
-  <si>
-    <t>22.56.</t>
-  </si>
-  <si>
-    <t>23.9.</t>
-  </si>
-  <si>
-    <t>27.02.</t>
-  </si>
-  <si>
-    <t>24.99.</t>
-  </si>
-  <si>
-    <t>25.75.</t>
-  </si>
-  <si>
-    <t>26.59.</t>
-  </si>
-  <si>
-    <t>25.37.</t>
-  </si>
-  <si>
-    <t>24.65.</t>
+    <t>29.44.</t>
+  </si>
+  <si>
+    <t>srinagar</t>
+  </si>
+  <si>
+    <t>17.71.</t>
+  </si>
+  <si>
+    <t>skardu</t>
+  </si>
+  <si>
+    <t>Temperature3</t>
+  </si>
+  <si>
+    <t>Temperature4</t>
+  </si>
+  <si>
+    <t>Temperature5</t>
+  </si>
+  <si>
+    <t>Temperature6</t>
+  </si>
+  <si>
+    <t>Temperature7</t>
+  </si>
+  <si>
+    <t>Temperature8</t>
+  </si>
+  <si>
+    <t>gilgit</t>
+  </si>
+  <si>
+    <t>25.55.</t>
+  </si>
+  <si>
+    <t>21.54.</t>
   </si>
 </sst>
 </file>
@@ -677,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +631,16 @@
     <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,144 +648,97 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
       <c r="C4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Places</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>21.54.</t>
+  </si>
+  <si>
+    <t>25.48.</t>
+  </si>
+  <si>
+    <t>21.09.</t>
+  </si>
+  <si>
+    <t>17.52.</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
         <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,7 +724,7 @@
         <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -738,7 +747,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>Places</t>
   </si>
@@ -216,9 +216,6 @@
     <t>50.8030° N, 6.4811° E</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>35.99.</t>
   </si>
   <si>
@@ -231,24 +228,9 @@
     <t>28.17.</t>
   </si>
   <si>
-    <t>29.84.</t>
-  </si>
-  <si>
-    <t>29.88.</t>
-  </si>
-  <si>
     <t>29.44.</t>
   </si>
   <si>
-    <t>srinagar</t>
-  </si>
-  <si>
-    <t>17.71.</t>
-  </si>
-  <si>
-    <t>skardu</t>
-  </si>
-  <si>
     <t>Temperature3</t>
   </si>
   <si>
@@ -267,22 +249,85 @@
     <t>Temperature8</t>
   </si>
   <si>
-    <t>gilgit</t>
-  </si>
-  <si>
-    <t>25.55.</t>
-  </si>
-  <si>
-    <t>21.54.</t>
-  </si>
-  <si>
-    <t>25.48.</t>
-  </si>
-  <si>
-    <t>21.09.</t>
-  </si>
-  <si>
-    <t>17.52.</t>
+    <t>dusseldorf</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>Temperature9</t>
+  </si>
+  <si>
+    <t>Temperature10</t>
+  </si>
+  <si>
+    <t>Temperature11</t>
+  </si>
+  <si>
+    <t>Temperature12</t>
+  </si>
+  <si>
+    <t>Temperature13</t>
+  </si>
+  <si>
+    <t>Temperature14</t>
+  </si>
+  <si>
+    <t>Temperature15</t>
+  </si>
+  <si>
+    <t>Temperature16</t>
+  </si>
+  <si>
+    <t>Temperature17</t>
+  </si>
+  <si>
+    <t>Temperature18</t>
+  </si>
+  <si>
+    <t>13.37.</t>
+  </si>
+  <si>
+    <t>13.42.</t>
+  </si>
+  <si>
+    <t>19.35.</t>
+  </si>
+  <si>
+    <t>21.89.</t>
+  </si>
+  <si>
+    <t>13.28.</t>
+  </si>
+  <si>
+    <t>21.81.</t>
+  </si>
+  <si>
+    <t>13.3.</t>
+  </si>
+  <si>
+    <t>19.12.</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>16.04.$[[ChromeDriver: chrome on XP (70d13a5d04fcbe4353588bb598b793d3)] -&gt; id: xPat]</t>
+  </si>
+  <si>
+    <t>13.58.$[[ChromeDriver: chrome on XP (6467ec0d74fea02c0a3ac09ad57bcefb)] -&gt; id: xPat]</t>
+  </si>
+  <si>
+    <t>20.36.$[[ChromeDriver: chrome on XP (d2699a01bbe2d02d9fdb2c4a0859a00f)] -&gt; id: xPat]</t>
+  </si>
+  <si>
+    <t>21.96.$[[ChromeDriver: chrome on XP (52ab270f72e9e43db6022c5f290b4b9d)] -&gt; id: xPat]</t>
   </si>
 </sst>
 </file>
@@ -629,125 +674,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="83.03125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="83.03125" collapsed="true"/>
+    <col min="4" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="12" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>Places</t>
   </si>
@@ -328,6 +328,30 @@
   </si>
   <si>
     <t>21.96.$[[ChromeDriver: chrome on XP (52ab270f72e9e43db6022c5f290b4b9d)] -&gt; id: xPat]</t>
+  </si>
+  <si>
+    <t>51.2217,6.7762</t>
+  </si>
+  <si>
+    <t>15.82.</t>
+  </si>
+  <si>
+    <t>44,7.25</t>
+  </si>
+  <si>
+    <t>13.34.</t>
+  </si>
+  <si>
+    <t>43.3333,5.5</t>
+  </si>
+  <si>
+    <t>20.24.</t>
+  </si>
+  <si>
+    <t>43.7496,7.437</t>
+  </si>
+  <si>
+    <t>21.83.</t>
   </si>
 </sst>
 </file>
@@ -683,8 +707,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="83.03125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="83.03125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="82.52734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="82.52734375" collapsed="true"/>
     <col min="4" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="12" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
@@ -756,10 +780,10 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
         <v>97</v>
@@ -773,10 +797,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R3" t="s">
         <v>95</v>
@@ -790,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R4" t="s">
         <v>98</v>
@@ -807,10 +831,10 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R5" t="s">
         <v>96</v>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Places</t>
   </si>
@@ -216,21 +216,12 @@
     <t>50.8030° N, 6.4811° E</t>
   </si>
   <si>
-    <t>35.99.</t>
-  </si>
-  <si>
     <t>Temperature1</t>
   </si>
   <si>
     <t>Temperature2</t>
   </si>
   <si>
-    <t>28.17.</t>
-  </si>
-  <si>
-    <t>29.44.</t>
-  </si>
-  <si>
     <t>Temperature3</t>
   </si>
   <si>
@@ -252,15 +243,6 @@
     <t>dusseldorf</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Monte Carlo</t>
-  </si>
-  <si>
     <t>Temperature9</t>
   </si>
   <si>
@@ -291,18 +273,6 @@
     <t>Temperature18</t>
   </si>
   <si>
-    <t>13.37.</t>
-  </si>
-  <si>
-    <t>13.42.</t>
-  </si>
-  <si>
-    <t>19.35.</t>
-  </si>
-  <si>
-    <t>21.89.</t>
-  </si>
-  <si>
     <t>13.28.</t>
   </si>
   <si>
@@ -318,18 +288,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>16.04.$[[ChromeDriver: chrome on XP (70d13a5d04fcbe4353588bb598b793d3)] -&gt; id: xPat]</t>
-  </si>
-  <si>
-    <t>13.58.$[[ChromeDriver: chrome on XP (6467ec0d74fea02c0a3ac09ad57bcefb)] -&gt; id: xPat]</t>
-  </si>
-  <si>
-    <t>20.36.$[[ChromeDriver: chrome on XP (d2699a01bbe2d02d9fdb2c4a0859a00f)] -&gt; id: xPat]</t>
-  </si>
-  <si>
-    <t>21.96.$[[ChromeDriver: chrome on XP (52ab270f72e9e43db6022c5f290b4b9d)] -&gt; id: xPat]</t>
-  </si>
-  <si>
     <t>51.2217,6.7762</t>
   </si>
   <si>
@@ -352,6 +310,90 @@
   </si>
   <si>
     <t>21.83.</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>windhoek</t>
+  </si>
+  <si>
+    <t>Aire-sur-l'Adour</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>São João de Ver</t>
+  </si>
+  <si>
+    <t>Łódź</t>
+  </si>
+  <si>
+    <t>Tournai</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>17.77.</t>
+  </si>
+  <si>
+    <t>40.1811,44.5136</t>
+  </si>
+  <si>
+    <t>26.09.</t>
+  </si>
+  <si>
+    <t>51.2333,51.3667</t>
+  </si>
+  <si>
+    <t>21.99.</t>
+  </si>
+  <si>
+    <t>-22.5594,17.0832</t>
+  </si>
+  <si>
+    <t>10.06.</t>
+  </si>
+  <si>
+    <t>48.1482,17.1067</t>
+  </si>
+  <si>
+    <t>15.75.</t>
+  </si>
+  <si>
+    <t>50.6072,3.3893</t>
+  </si>
+  <si>
+    <t>18.14.</t>
+  </si>
+  <si>
+    <t>51.5,19.5</t>
+  </si>
+  <si>
+    <t>14.73.</t>
+  </si>
+  <si>
+    <t>40.9553,-8.5512</t>
+  </si>
+  <si>
+    <t>18.36.</t>
+  </si>
+  <si>
+    <t>-25.5478,-54.5881</t>
+  </si>
+  <si>
+    <t>21.49.</t>
+  </si>
+  <si>
+    <t>43.7018,-0.2645</t>
+  </si>
+  <si>
+    <t>19.48.</t>
   </si>
 </sst>
 </file>
@@ -359,13 +401,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -394,9 +442,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,17 +747,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="82.52734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="82.52734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
     <col min="4" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="12" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
@@ -718,133 +767,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
+      <c r="A3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="225">
   <si>
     <t>Places</t>
   </si>
@@ -216,132 +216,15 @@
     <t>50.8030° N, 6.4811° E</t>
   </si>
   <si>
-    <t>Temperature1</t>
-  </si>
-  <si>
-    <t>Temperature2</t>
-  </si>
-  <si>
-    <t>Temperature3</t>
-  </si>
-  <si>
-    <t>Temperature4</t>
-  </si>
-  <si>
-    <t>Temperature5</t>
-  </si>
-  <si>
-    <t>Temperature6</t>
-  </si>
-  <si>
-    <t>Temperature7</t>
-  </si>
-  <si>
-    <t>Temperature8</t>
-  </si>
-  <si>
     <t>dusseldorf</t>
   </si>
   <si>
-    <t>Temperature9</t>
-  </si>
-  <si>
-    <t>Temperature10</t>
-  </si>
-  <si>
-    <t>Temperature11</t>
-  </si>
-  <si>
-    <t>Temperature12</t>
-  </si>
-  <si>
-    <t>Temperature13</t>
-  </si>
-  <si>
-    <t>Temperature14</t>
-  </si>
-  <si>
-    <t>Temperature15</t>
-  </si>
-  <si>
-    <t>Temperature16</t>
-  </si>
-  <si>
-    <t>Temperature17</t>
-  </si>
-  <si>
-    <t>Temperature18</t>
-  </si>
-  <si>
-    <t>13.28.</t>
-  </si>
-  <si>
-    <t>21.81.</t>
-  </si>
-  <si>
-    <t>13.3.</t>
-  </si>
-  <si>
-    <t>19.12.</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>51.2217,6.7762</t>
   </si>
   <si>
-    <t>15.82.</t>
-  </si>
-  <si>
-    <t>44,7.25</t>
-  </si>
-  <si>
-    <t>13.34.</t>
-  </si>
-  <si>
-    <t>43.3333,5.5</t>
-  </si>
-  <si>
-    <t>20.24.</t>
-  </si>
-  <si>
-    <t>43.7496,7.437</t>
-  </si>
-  <si>
-    <t>21.83.</t>
-  </si>
-  <si>
-    <t>Yerevan</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>windhoek</t>
-  </si>
-  <si>
-    <t>Aire-sur-l'Adour</t>
-  </si>
-  <si>
-    <t>Foz do Iguaçu</t>
-  </si>
-  <si>
-    <t>São João de Ver</t>
-  </si>
-  <si>
-    <t>Łódź</t>
-  </si>
-  <si>
-    <t>Tournai</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>17.77.</t>
-  </si>
-  <si>
     <t>40.1811,44.5136</t>
   </si>
   <si>
@@ -351,56 +234,469 @@
     <t>51.2333,51.3667</t>
   </si>
   <si>
-    <t>21.99.</t>
-  </si>
-  <si>
     <t>-22.5594,17.0832</t>
   </si>
   <si>
-    <t>10.06.</t>
-  </si>
-  <si>
     <t>48.1482,17.1067</t>
   </si>
   <si>
-    <t>15.75.</t>
-  </si>
-  <si>
     <t>50.6072,3.3893</t>
   </si>
   <si>
-    <t>18.14.</t>
-  </si>
-  <si>
     <t>51.5,19.5</t>
   </si>
   <si>
-    <t>14.73.</t>
-  </si>
-  <si>
     <t>40.9553,-8.5512</t>
   </si>
   <si>
-    <t>18.36.</t>
-  </si>
-  <si>
     <t>-25.5478,-54.5881</t>
   </si>
   <si>
-    <t>21.49.</t>
-  </si>
-  <si>
     <t>43.7018,-0.2645</t>
   </si>
   <si>
-    <t>19.48.</t>
+    <t>20.09.</t>
+  </si>
+  <si>
+    <t>29.09.</t>
+  </si>
+  <si>
+    <t>32.99.</t>
+  </si>
+  <si>
+    <t>26.73.</t>
+  </si>
+  <si>
+    <t>25.26.</t>
+  </si>
+  <si>
+    <t>17.89.</t>
+  </si>
+  <si>
+    <t>23.18.</t>
+  </si>
+  <si>
+    <t>21.58.</t>
+  </si>
+  <si>
+    <t>24.45.</t>
+  </si>
+  <si>
+    <t>23.47.</t>
+  </si>
+  <si>
+    <t>51.0333,7</t>
+  </si>
+  <si>
+    <t>19.42.</t>
+  </si>
+  <si>
+    <t>37.5683,126.9778</t>
+  </si>
+  <si>
+    <t>23.63.</t>
+  </si>
+  <si>
+    <t>52.374,4.8897</t>
+  </si>
+  <si>
+    <t>19.46.</t>
+  </si>
+  <si>
+    <t>50.088,14.4208</t>
+  </si>
+  <si>
+    <t>23.75.</t>
+  </si>
+  <si>
+    <t>19.55.</t>
+  </si>
+  <si>
+    <t>26.54.</t>
+  </si>
+  <si>
+    <t>25.22.</t>
+  </si>
+  <si>
+    <t>17.76.</t>
+  </si>
+  <si>
+    <t>23.13.</t>
+  </si>
+  <si>
+    <t>21.09.</t>
+  </si>
+  <si>
+    <t>19.17.</t>
+  </si>
+  <si>
+    <t>19.47.</t>
+  </si>
+  <si>
+    <t>24.64.</t>
+  </si>
+  <si>
+    <t>19.4.</t>
+  </si>
+  <si>
+    <t>19.34.</t>
+  </si>
+  <si>
+    <t>17.67.</t>
+  </si>
+  <si>
+    <t>23.3.</t>
+  </si>
+  <si>
+    <t>21.05.</t>
+  </si>
+  <si>
+    <t>23.2.</t>
+  </si>
+  <si>
+    <t>19.38.</t>
+  </si>
+  <si>
+    <t>23.8.</t>
+  </si>
+  <si>
+    <t>24.67.</t>
+  </si>
+  <si>
+    <t>19.29.</t>
+  </si>
+  <si>
+    <t>19.15.</t>
+  </si>
+  <si>
+    <t>17.56.</t>
+  </si>
+  <si>
+    <t>23.14.</t>
+  </si>
+  <si>
+    <t>21.75.</t>
+  </si>
+  <si>
+    <t>27.75.</t>
+  </si>
+  <si>
+    <t>23.27.</t>
+  </si>
+  <si>
+    <t>19.08.</t>
+  </si>
+  <si>
+    <t>24.66.</t>
+  </si>
+  <si>
+    <t>23.25.</t>
+  </si>
+  <si>
+    <t>24.51.</t>
+  </si>
+  <si>
+    <t>19.21.</t>
+  </si>
+  <si>
+    <t>19.3.</t>
+  </si>
+  <si>
+    <t>25.62.</t>
+  </si>
+  <si>
+    <t>17.46.</t>
+  </si>
+  <si>
+    <t>23.35.</t>
+  </si>
+  <si>
+    <t>22.44.</t>
+  </si>
+  <si>
+    <t>27.41.</t>
+  </si>
+  <si>
+    <t>19.39.</t>
+  </si>
+  <si>
+    <t>24.7.</t>
+  </si>
+  <si>
+    <t>23.38.</t>
+  </si>
+  <si>
+    <t>24.43.</t>
+  </si>
+  <si>
+    <t>19.49.</t>
+  </si>
+  <si>
+    <t>19.45.</t>
+  </si>
+  <si>
+    <t>30.68.</t>
+  </si>
+  <si>
+    <t>31.99.</t>
+  </si>
+  <si>
+    <t>25.7.</t>
+  </si>
+  <si>
+    <t>17.37.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>20.94.</t>
+  </si>
+  <si>
+    <t>19.35.</t>
+  </si>
+  <si>
+    <t>24.74.</t>
+  </si>
+  <si>
+    <t>23.16.</t>
+  </si>
+  <si>
+    <t>23.98.</t>
+  </si>
+  <si>
+    <t>19.43.</t>
+  </si>
+  <si>
+    <t>19.62.</t>
+  </si>
+  <si>
+    <t>17.25.</t>
+  </si>
+  <si>
+    <t>23.23.</t>
+  </si>
+  <si>
+    <t>20.27.</t>
+  </si>
+  <si>
+    <t>23.32.</t>
+  </si>
+  <si>
+    <t>18.6.</t>
+  </si>
+  <si>
+    <t>24.71.</t>
+  </si>
+  <si>
+    <t>23.31.</t>
+  </si>
+  <si>
+    <t>25.5.</t>
+  </si>
+  <si>
+    <t>24.23.</t>
+  </si>
+  <si>
+    <t>17.18.</t>
+  </si>
+  <si>
+    <t>23.02.</t>
+  </si>
+  <si>
+    <t>19.2.</t>
+  </si>
+  <si>
+    <t>24.89.</t>
+  </si>
+  <si>
+    <t>19.33.</t>
+  </si>
+  <si>
+    <t>21.89.</t>
+  </si>
+  <si>
+    <t>19.01.</t>
+  </si>
+  <si>
+    <t>30.99.</t>
+  </si>
+  <si>
+    <t>24.24.</t>
+  </si>
+  <si>
+    <t>17.03.</t>
+  </si>
+  <si>
+    <t>22.98.</t>
+  </si>
+  <si>
+    <t>23.04.</t>
+  </si>
+  <si>
+    <t>19.04.</t>
+  </si>
+  <si>
+    <t>25.07.</t>
+  </si>
+  <si>
+    <t>18.93.</t>
+  </si>
+  <si>
+    <t>19.41.</t>
+  </si>
+  <si>
+    <t>24.25.</t>
+  </si>
+  <si>
+    <t>17.27.</t>
+  </si>
+  <si>
+    <t>21.68.</t>
+  </si>
+  <si>
+    <t>28.71.</t>
+  </si>
+  <si>
+    <t>22.92.</t>
+  </si>
+  <si>
+    <t>18.98.</t>
+  </si>
+  <si>
+    <t>26.36.</t>
+  </si>
+  <si>
+    <t>22.14.</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>dushanbe</t>
+  </si>
+  <si>
+    <t>termez</t>
+  </si>
+  <si>
+    <t>fergana</t>
+  </si>
+  <si>
+    <t>khujand</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>osh</t>
+  </si>
+  <si>
+    <t>ashgabat</t>
+  </si>
+  <si>
+    <t>taraz</t>
+  </si>
+  <si>
+    <t>qarshi</t>
+  </si>
+  <si>
+    <t>altay</t>
+  </si>
+  <si>
+    <t>suhbaatar</t>
+  </si>
+  <si>
+    <t>yakutsk</t>
+  </si>
+  <si>
+    <t>magadan</t>
+  </si>
+  <si>
+    <t>birobidzhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,10 +738,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,215 +1045,997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.90234375" collapsed="true"/>
-    <col min="4" max="11" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="12" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="44.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="7.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="I15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
+      <c r="K15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -974,9 +2054,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Places</t>
   </si>
@@ -368,6 +368,21 @@
   </si>
   <si>
     <t>23.92.</t>
+  </si>
+  <si>
+    <t>Zibin</t>
+  </si>
+  <si>
+    <t>440807</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>420</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1329,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,24 +1353,32 @@
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="6">
-        <v>1288683</v>
+      <c r="B2" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="6">
-        <v>143864</v>
+      <c r="B3" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="6">
-        <v>25825</v>
+      <c r="B4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="FPL" sheetId="4" r:id="rId4"/>
+    <sheet name="Top30" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="244">
   <si>
     <t>Places</t>
   </si>
@@ -301,15 +302,6 @@
     <t>CountryCode</t>
   </si>
   <si>
-    <t>15.18.</t>
-  </si>
-  <si>
-    <t>7.98.</t>
-  </si>
-  <si>
-    <t>14.36.</t>
-  </si>
-  <si>
     <t>algiers</t>
   </si>
   <si>
@@ -319,21 +311,6 @@
     <t>DZ</t>
   </si>
   <si>
-    <t>25.9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manager Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manager AieDee </t>
-  </si>
-  <si>
-    <t>Nishant Singh</t>
-  </si>
-  <si>
-    <t>Rohan Rai</t>
-  </si>
-  <si>
     <t>Avijit Das</t>
   </si>
   <si>
@@ -343,52 +320,443 @@
     <t>herat</t>
   </si>
   <si>
-    <t>bagram</t>
-  </si>
-  <si>
     <t>32.1167,20.0667</t>
   </si>
   <si>
     <t>LY</t>
   </si>
   <si>
-    <t>27.17.</t>
-  </si>
-  <si>
     <t>34.5,62</t>
   </si>
   <si>
     <t>AF</t>
   </si>
   <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>34.9334,69.2341</t>
-  </si>
-  <si>
-    <t>23.92.</t>
-  </si>
-  <si>
     <t>Zibin</t>
   </si>
   <si>
-    <t>440807</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>420</t>
+    <t>wellington,AU</t>
+  </si>
+  <si>
+    <t>wellington,CA</t>
+  </si>
+  <si>
+    <t>wellington,UK</t>
+  </si>
+  <si>
+    <t>wellington,NZ</t>
+  </si>
+  <si>
+    <t>wellington,US</t>
+  </si>
+  <si>
+    <t>wellington,ZA</t>
+  </si>
+  <si>
+    <t>zagreb</t>
+  </si>
+  <si>
+    <t>vienna</t>
+  </si>
+  <si>
+    <t>budapest</t>
+  </si>
+  <si>
+    <t>athens</t>
+  </si>
+  <si>
+    <t>porto</t>
+  </si>
+  <si>
+    <t>nuuk</t>
+  </si>
+  <si>
+    <t>aberdeen</t>
+  </si>
+  <si>
+    <t>tromso</t>
+  </si>
+  <si>
+    <t>molde</t>
+  </si>
+  <si>
+    <t>graz</t>
+  </si>
+  <si>
+    <t>goa</t>
+  </si>
+  <si>
+    <t>nagpur</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>vadakara</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>27.89.</t>
+  </si>
+  <si>
+    <t>23.86.</t>
+  </si>
+  <si>
+    <t>24.9.</t>
+  </si>
+  <si>
+    <t>45.8131,15.9775</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>17.4.</t>
+  </si>
+  <si>
+    <t>-32.55,148.95</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>2.81.</t>
+  </si>
+  <si>
+    <t>43.9501,-77.3495</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>52.7,-2.5167</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>16.39.</t>
+  </si>
+  <si>
+    <t>-41.2866,174.7756</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>9.47.</t>
+  </si>
+  <si>
+    <t>26.6587,-80.2414</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>32.26.</t>
+  </si>
+  <si>
+    <t>-33.6398,19.0112</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>13.08.</t>
+  </si>
+  <si>
+    <t>50.088,14.4208</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>16.24.</t>
+  </si>
+  <si>
+    <t>52.374,4.8897</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>15.58.</t>
+  </si>
+  <si>
+    <t>48.2085,16.3721</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>17.12.</t>
+  </si>
+  <si>
+    <t>47.498,19.0399</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>18.01.</t>
+  </si>
+  <si>
+    <t>37.9795,23.7162</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>28.22.</t>
+  </si>
+  <si>
+    <t>41.1496,-8.611</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>24.89.</t>
+  </si>
+  <si>
+    <t>64.1835,-51.7216</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>10.34.</t>
+  </si>
+  <si>
+    <t>57.1437,-2.0981</t>
+  </si>
+  <si>
+    <t>17.05.</t>
+  </si>
+  <si>
+    <t>69.6496,18.957</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>10.01.</t>
+  </si>
+  <si>
+    <t>59.9127,10.7461</t>
+  </si>
+  <si>
+    <t>18.22.</t>
+  </si>
+  <si>
+    <t>62.7375,7.1591</t>
+  </si>
+  <si>
+    <t>15.42.</t>
+  </si>
+  <si>
+    <t>60.1695,24.9355</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>18.13.</t>
+  </si>
+  <si>
+    <t>55.6059,13.0007</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>15.27.</t>
+  </si>
+  <si>
+    <t>47.0667,15.45</t>
+  </si>
+  <si>
+    <t>18.96.</t>
+  </si>
+  <si>
+    <t>15.3333,74.0833</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>23.75.</t>
+  </si>
+  <si>
+    <t>21.15,79.1</t>
+  </si>
+  <si>
+    <t>24.01.</t>
+  </si>
+  <si>
+    <t>28.6667,77.2167</t>
+  </si>
+  <si>
+    <t>32.05.</t>
+  </si>
+  <si>
+    <t>11.5971,75.5904</t>
+  </si>
+  <si>
+    <t>24.53.</t>
+  </si>
+  <si>
+    <t>22.5697,88.3697</t>
+  </si>
+  <si>
+    <t>28.97.</t>
+  </si>
+  <si>
+    <t>27.72.</t>
+  </si>
+  <si>
+    <t>22.5.</t>
+  </si>
+  <si>
+    <t>17.38.</t>
+  </si>
+  <si>
+    <t>16.19.</t>
+  </si>
+  <si>
+    <t>15.46.</t>
+  </si>
+  <si>
+    <t>17.04.</t>
+  </si>
+  <si>
+    <t>17.85.</t>
+  </si>
+  <si>
+    <t>28.09.</t>
+  </si>
+  <si>
+    <t>23.41.</t>
+  </si>
+  <si>
+    <t>17.95.</t>
+  </si>
+  <si>
+    <t>16.73.</t>
+  </si>
+  <si>
+    <t>32.41.</t>
+  </si>
+  <si>
+    <t>12.91.</t>
+  </si>
+  <si>
+    <t>16.09.</t>
+  </si>
+  <si>
+    <t>16.83.</t>
+  </si>
+  <si>
+    <t>7.54.</t>
+  </si>
+  <si>
+    <t>16.75.</t>
+  </si>
+  <si>
+    <t>17.47.</t>
+  </si>
+  <si>
+    <t>14.6.</t>
+  </si>
+  <si>
+    <t>17.76.</t>
+  </si>
+  <si>
+    <t>31.05.</t>
+  </si>
+  <si>
+    <t>sibenik</t>
+  </si>
+  <si>
+    <t>43.7272,15.9058</t>
+  </si>
+  <si>
+    <t>24.33.</t>
+  </si>
+  <si>
+    <t>jeddah</t>
+  </si>
+  <si>
+    <t>Latest Score</t>
+  </si>
+  <si>
+    <t>GW 1 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager_Name </t>
+  </si>
+  <si>
+    <t>Manager_iD</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Hogwarts</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>fifthTeam</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Tekirdag</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>rwterte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -445,6 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,40 +1116,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="7.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="5.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
+    <col min="6" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -874,67 +1231,72 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
+      <c r="A3" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -954,9 +1316,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,60 +1691,1448 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AC30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="FPL" sheetId="4" r:id="rId4"/>
     <sheet name="Top30" sheetId="5" r:id="rId5"/>
+    <sheet name="India" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
   <si>
     <t>Places</t>
   </si>
@@ -311,9 +312,6 @@
     <t>DZ</t>
   </si>
   <si>
-    <t>Avijit Das</t>
-  </si>
-  <si>
     <t>benghazi</t>
   </si>
   <si>
@@ -332,9 +330,6 @@
     <t>AF</t>
   </si>
   <si>
-    <t>Zibin</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -404,12 +399,6 @@
     <t>kolkata</t>
   </si>
   <si>
-    <t>27.89.</t>
-  </si>
-  <si>
-    <t>23.86.</t>
-  </si>
-  <si>
     <t>24.9.</t>
   </si>
   <si>
@@ -419,9 +408,6 @@
     <t>HR</t>
   </si>
   <si>
-    <t>17.4.</t>
-  </si>
-  <si>
     <t>-32.55,148.95</t>
   </si>
   <si>
@@ -491,45 +477,30 @@
     <t>NL</t>
   </si>
   <si>
-    <t>15.58.</t>
-  </si>
-  <si>
     <t>48.2085,16.3721</t>
   </si>
   <si>
     <t>AT</t>
   </si>
   <si>
-    <t>17.12.</t>
-  </si>
-  <si>
     <t>47.498,19.0399</t>
   </si>
   <si>
     <t>HU</t>
   </si>
   <si>
-    <t>18.01.</t>
-  </si>
-  <si>
     <t>37.9795,23.7162</t>
   </si>
   <si>
     <t>GR</t>
   </si>
   <si>
-    <t>28.22.</t>
-  </si>
-  <si>
     <t>41.1496,-8.611</t>
   </si>
   <si>
     <t>PT</t>
   </si>
   <si>
-    <t>24.89.</t>
-  </si>
-  <si>
     <t>64.1835,-51.7216</t>
   </si>
   <si>
@@ -572,9 +543,6 @@
     <t>FI</t>
   </si>
   <si>
-    <t>18.13.</t>
-  </si>
-  <si>
     <t>55.6059,13.0007</t>
   </si>
   <si>
@@ -587,9 +555,6 @@
     <t>47.0667,15.45</t>
   </si>
   <si>
-    <t>18.96.</t>
-  </si>
-  <si>
     <t>15.3333,74.0833</t>
   </si>
   <si>
@@ -728,9 +693,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>fifthTeam</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -750,6 +712,195 @@
   </si>
   <si>
     <t>rwterte</t>
+  </si>
+  <si>
+    <t>24.81.</t>
+  </si>
+  <si>
+    <t>21.5169,39.2192</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>34.92.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>27.01.</t>
+  </si>
+  <si>
+    <t>23.07.</t>
+  </si>
+  <si>
+    <t>22.9.</t>
+  </si>
+  <si>
+    <t>17.69.</t>
+  </si>
+  <si>
+    <t>6.85.</t>
+  </si>
+  <si>
+    <t>27.28.</t>
+  </si>
+  <si>
+    <t>14.44.</t>
+  </si>
+  <si>
+    <t>14.98.</t>
+  </si>
+  <si>
+    <t>29.96.</t>
+  </si>
+  <si>
+    <t>12.69.</t>
+  </si>
+  <si>
+    <t>11.02.</t>
+  </si>
+  <si>
+    <t>14.94.</t>
+  </si>
+  <si>
+    <t>12.75.</t>
+  </si>
+  <si>
+    <t>15.82.</t>
+  </si>
+  <si>
+    <t>23.73.</t>
+  </si>
+  <si>
+    <t>20.51.</t>
+  </si>
+  <si>
+    <t>8.34.</t>
+  </si>
+  <si>
+    <t>13.88.</t>
+  </si>
+  <si>
+    <t>9.01.</t>
+  </si>
+  <si>
+    <t>16.53.</t>
+  </si>
+  <si>
+    <t>13.15.</t>
+  </si>
+  <si>
+    <t>12.46.</t>
+  </si>
+  <si>
+    <t>15.11.</t>
+  </si>
+  <si>
+    <t>15.04.</t>
+  </si>
+  <si>
+    <t>25.21.</t>
+  </si>
+  <si>
+    <t>25.01.</t>
+  </si>
+  <si>
+    <t>29.05.</t>
+  </si>
+  <si>
+    <t>23.53.</t>
+  </si>
+  <si>
+    <t>27.97.</t>
+  </si>
+  <si>
+    <t>aizwal</t>
+  </si>
+  <si>
+    <t>kozhikode</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>dusseldorf</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>11.25,75.7667</t>
+  </si>
+  <si>
+    <t>23.65.</t>
+  </si>
+  <si>
+    <t>23.7333,92.7167</t>
+  </si>
+  <si>
+    <t>18.39.</t>
+  </si>
+  <si>
+    <t>19.0144,72.8479</t>
+  </si>
+  <si>
+    <t>27.99.</t>
+  </si>
+  <si>
+    <t>26.01.</t>
+  </si>
+  <si>
+    <t>13.0878,80.2785</t>
+  </si>
+  <si>
+    <t>17.3753,78.4744</t>
+  </si>
+  <si>
+    <t>25.09.</t>
+  </si>
+  <si>
+    <t>51.2217,6.7762</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>16.22.</t>
+  </si>
+  <si>
+    <t>51.5085,-0.1257</t>
+  </si>
+  <si>
+    <t>16.59.</t>
+  </si>
+  <si>
+    <t>16.88.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>28.69.</t>
+  </si>
+  <si>
+    <t>24.34.</t>
+  </si>
+  <si>
+    <t>16.07.</t>
+  </si>
+  <si>
+    <t>16.6.</t>
+  </si>
+  <si>
+    <t>16.65.</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1278,7 @@
     <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="5.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
     <col min="6" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
     <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
@@ -1231,72 +1382,81 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="S2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="T2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="U2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1678,12 +1838,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1693,7 +1864,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1701,77 +1872,77 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1786,14 +1957,15 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C1" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1887,22 +2059,22 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1930,22 +2102,22 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1982,13 +2154,13 @@
         <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2016,22 +2188,22 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2059,22 +2231,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2102,22 +2274,22 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2145,22 +2317,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2188,22 +2360,22 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2231,22 +2403,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2274,22 +2446,22 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2320,19 +2492,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2363,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2403,22 +2575,22 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2446,22 +2618,22 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2489,22 +2661,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2532,22 +2704,22 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2575,22 +2747,22 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2618,22 +2790,22 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2661,22 +2833,22 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2707,19 +2879,19 @@
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2747,22 +2919,22 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2793,19 +2965,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2836,19 +3008,19 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2876,22 +3048,22 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2919,22 +3091,22 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2962,22 +3134,22 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3005,22 +3177,22 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3048,22 +3220,22 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3091,22 +3263,22 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3135,4 +3307,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.078125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="286">
   <si>
     <t>Places</t>
   </si>
@@ -330,12 +330,6 @@
     <t>AF</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>wellington,AU</t>
   </si>
   <si>
@@ -675,45 +669,6 @@
     <t>Manager_iD</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Hogwarts</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Tekirdag</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>rwterte</t>
-  </si>
-  <si>
     <t>24.81.</t>
   </si>
   <si>
@@ -855,9 +810,6 @@
     <t>27.99.</t>
   </si>
   <si>
-    <t>26.01.</t>
-  </si>
-  <si>
     <t>13.0878,80.2785</t>
   </si>
   <si>
@@ -873,21 +825,9 @@
     <t>DE</t>
   </si>
   <si>
-    <t>16.22.</t>
-  </si>
-  <si>
     <t>51.5085,-0.1257</t>
   </si>
   <si>
-    <t>16.59.</t>
-  </si>
-  <si>
-    <t>16.88.</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>28.69.</t>
   </si>
   <si>
@@ -901,6 +841,46 @@
   </si>
   <si>
     <t>16.65.</t>
+  </si>
+  <si>
+    <t>38
+Reload</t>
+  </si>
+  <si>
+    <t>Points
+Reload</t>
+  </si>
+  <si>
+    <t>50
+Reload</t>
+  </si>
+  <si>
+    <t>18
+Reload</t>
+  </si>
+  <si>
+    <t>5123456</t>
+  </si>
+  <si>
+    <t>4408073</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Mogrem97</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>PINE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>jones</t>
   </si>
 </sst>
 </file>
@@ -908,7 +888,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +908,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1A1AA6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -956,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -965,6 +951,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,81 +1370,81 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>212</v>
-      </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1848,10 +1836,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1862,87 +1850,65 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>281</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>283</v>
+      </c>
+      <c r="B3" s="9">
+        <v>158870</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>226</v>
+      <c r="A4" t="s">
+        <v>285</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2068,13 +2034,13 @@
         <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2111,13 +2077,13 @@
         <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2154,13 +2120,13 @@
         <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2188,22 +2154,22 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2231,22 +2197,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2274,22 +2240,22 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2317,22 +2283,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2360,22 +2326,22 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2403,22 +2369,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2446,22 +2412,22 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2492,19 +2458,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2535,19 +2501,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2575,22 +2541,22 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2618,22 +2584,22 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2661,22 +2627,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2704,22 +2670,22 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2747,22 +2713,22 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2790,22 +2756,22 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2833,22 +2799,22 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2879,19 +2845,19 @@
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2919,22 +2885,22 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2965,19 +2931,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3008,19 +2974,19 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3048,22 +3014,22 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3091,22 +3057,22 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3134,22 +3100,22 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3177,22 +3143,22 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3220,22 +3186,22 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3263,22 +3229,22 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3313,18 +3279,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.078125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,203 +3316,203 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,19 +3520,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="FPL" sheetId="4" r:id="rId4"/>
     <sheet name="Top30" sheetId="5" r:id="rId5"/>
     <sheet name="India" sheetId="6" r:id="rId6"/>
+    <sheet name="bluePrint" sheetId="7" r:id="rId7"/>
+    <sheet name="turf" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="616">
   <si>
     <t>Places</t>
   </si>
@@ -843,44 +845,1030 @@
     <t>16.65.</t>
   </si>
   <si>
-    <t>38
-Reload</t>
-  </si>
-  <si>
-    <t>Points
-Reload</t>
-  </si>
-  <si>
-    <t>50
-Reload</t>
-  </si>
-  <si>
-    <t>18
-Reload</t>
-  </si>
-  <si>
-    <t>5123456</t>
-  </si>
-  <si>
-    <t>4408073</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Mogrem97</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>PINE</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>jones</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>MarxUnited</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Immortal</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>GAROBADHA</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>BUSBY</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SYAKREE</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>⚔️FURY⚔️</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>CHEMICAL</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Omk09</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Kung</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>BW4_11</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Gustavous</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Weightloss</t>
+  </si>
+  <si>
+    <t>Fußball-Mannschaft</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Gooner</t>
+  </si>
+  <si>
+    <t>hansing</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Deadhead</t>
+  </si>
+  <si>
+    <t>Prabin</t>
+  </si>
+  <si>
+    <t>RVFC</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>MCFC@1894</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Roing</t>
+  </si>
+  <si>
+    <t>WEIGHTLOSS</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager AieDee </t>
+  </si>
+  <si>
+    <t>GW 22 score</t>
+  </si>
+  <si>
+    <t>add info 05-02-2021</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Overall points</t>
+  </si>
+  <si>
+    <t>OVeraLL RanK</t>
+  </si>
+  <si>
+    <t>GW A.P= 57 H.P= 147</t>
+  </si>
+  <si>
+    <t>manager_Name</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Player_1</t>
+  </si>
+  <si>
+    <t>Player_2</t>
+  </si>
+  <si>
+    <t>Player_3</t>
+  </si>
+  <si>
+    <t>Player_4</t>
+  </si>
+  <si>
+    <t>Player_5</t>
+  </si>
+  <si>
+    <t>Player_6</t>
+  </si>
+  <si>
+    <t>Player_7</t>
+  </si>
+  <si>
+    <t>Player_8</t>
+  </si>
+  <si>
+    <t>Player_9</t>
+  </si>
+  <si>
+    <t>Player_10</t>
+  </si>
+  <si>
+    <t>Player_11</t>
+  </si>
+  <si>
+    <t>Player_12</t>
+  </si>
+  <si>
+    <t>Player_13</t>
+  </si>
+  <si>
+    <t>Player_14</t>
+  </si>
+  <si>
+    <t>Player_15</t>
+  </si>
+  <si>
+    <t>SXL</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count  </t>
+  </si>
+  <si>
+    <t>Nishant Singh</t>
+  </si>
+  <si>
+    <t>no chip played</t>
+  </si>
+  <si>
+    <t>11,04,828</t>
+  </si>
+  <si>
+    <t>4,77,922</t>
+  </si>
+  <si>
+    <t>Wildcard  GW4</t>
+  </si>
+  <si>
+    <t>Wildcard  GW17</t>
+  </si>
+  <si>
+    <t>Free Hit  GW18</t>
+  </si>
+  <si>
+    <t>Triple Captain  GW19</t>
+  </si>
+  <si>
+    <t>beta 11</t>
+  </si>
+  <si>
+    <t>Fabianski 2</t>
+  </si>
+  <si>
+    <t>Stones 6</t>
+  </si>
+  <si>
+    <t>Justin 15</t>
+  </si>
+  <si>
+    <t>Cancelo 6</t>
+  </si>
+  <si>
+    <t>Sterling 16$ captain</t>
+  </si>
+  <si>
+    <t>Salah 2</t>
+  </si>
+  <si>
+    <t>Fernandes 17</t>
+  </si>
+  <si>
+    <t>Soucek 9</t>
+  </si>
+  <si>
+    <t>Harrison 1</t>
+  </si>
+  <si>
+    <t>Watkins 6</t>
+  </si>
+  <si>
+    <t>Antonio 8</t>
+  </si>
+  <si>
+    <t>Pope 2</t>
+  </si>
+  <si>
+    <t>Bamford 5</t>
+  </si>
+  <si>
+    <t>Mee 1</t>
+  </si>
+  <si>
+    <t>Dallas 1</t>
+  </si>
+  <si>
+    <t>9( 8+1 )</t>
+  </si>
+  <si>
+    <t>Rohan Rai</t>
+  </si>
+  <si>
+    <t>18,31,341</t>
+  </si>
+  <si>
+    <t>Wildcard  GW3</t>
+  </si>
+  <si>
+    <t>Wildcard  GW19</t>
+  </si>
+  <si>
+    <t>FALSE 9</t>
+  </si>
+  <si>
+    <t>Martínez 4</t>
+  </si>
+  <si>
+    <t>Holding 1</t>
+  </si>
+  <si>
+    <t>Shaw 7</t>
+  </si>
+  <si>
+    <t>Sterling 8</t>
+  </si>
+  <si>
+    <t>Salah 4$ captain</t>
+  </si>
+  <si>
+    <t>Son 2</t>
+  </si>
+  <si>
+    <t>Maddison 11</t>
+  </si>
+  <si>
+    <t>Sánchez 7</t>
+  </si>
+  <si>
+    <t>Mitchell 0</t>
+  </si>
+  <si>
+    <t>Coufal 2</t>
+  </si>
+  <si>
+    <t>Brewster 0</t>
+  </si>
+  <si>
+    <t>8( 7+1 )</t>
+  </si>
+  <si>
+    <t>Avijit Das</t>
+  </si>
+  <si>
+    <t>1,42,956</t>
+  </si>
+  <si>
+    <t>5,13,712</t>
+  </si>
+  <si>
+    <t>Wildcard  GW5</t>
+  </si>
+  <si>
+    <t>WeAreTheArsenal</t>
+  </si>
+  <si>
+    <t>Cresswell 1</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka 17</t>
+  </si>
+  <si>
+    <t>Wilson 5</t>
+  </si>
+  <si>
+    <t>Calvert-Lewin 9</t>
+  </si>
+  <si>
+    <t>Steer 0</t>
+  </si>
+  <si>
+    <t>Ayling 0</t>
+  </si>
+  <si>
+    <t>Gaurav Shrestha</t>
+  </si>
+  <si>
+    <t>14,08,159</t>
+  </si>
+  <si>
+    <t>Wildcard  GW6</t>
+  </si>
+  <si>
+    <t>Raphinha 9</t>
+  </si>
+  <si>
+    <t>Forster 0</t>
+  </si>
+  <si>
+    <t>Dipen Thapa</t>
+  </si>
+  <si>
+    <t>14,94,326</t>
+  </si>
+  <si>
+    <t>31,41,604</t>
+  </si>
+  <si>
+    <t>Wildcard  GW21</t>
+  </si>
+  <si>
+    <t>Lokipower Reloaded</t>
+  </si>
+  <si>
+    <t>McCarthy 0</t>
+  </si>
+  <si>
+    <t>Mings 1</t>
+  </si>
+  <si>
+    <t>Zaha 1</t>
+  </si>
+  <si>
+    <t>Barnes 3</t>
+  </si>
+  <si>
+    <t>Taylor 0</t>
+  </si>
+  <si>
+    <t>Kilman 1</t>
+  </si>
+  <si>
+    <t>6( 5+1 )</t>
+  </si>
+  <si>
+    <t>Sibin _</t>
+  </si>
+  <si>
+    <t>1,84,076</t>
+  </si>
+  <si>
+    <t>42,19,545</t>
+  </si>
+  <si>
+    <t>Wildcard  GW16</t>
+  </si>
+  <si>
+    <t>FortunaDüsseldorfer</t>
+  </si>
+  <si>
+    <t>Ederson 5</t>
+  </si>
+  <si>
+    <t>Dias 6</t>
+  </si>
+  <si>
+    <t>Smith Rowe 2</t>
+  </si>
+  <si>
+    <t>Adams 2</t>
+  </si>
+  <si>
+    <t>Werner 5</t>
+  </si>
+  <si>
+    <t>Johnstone 2</t>
+  </si>
+  <si>
+    <t>Davies 2</t>
+  </si>
+  <si>
+    <t>Walker-Peters 0</t>
+  </si>
+  <si>
+    <t>7( 6+1 )</t>
+  </si>
+  <si>
+    <t>Kushal Sahota</t>
+  </si>
+  <si>
+    <t>17,10,863</t>
+  </si>
+  <si>
+    <t>47,20,742</t>
+  </si>
+  <si>
+    <t>FC ASSASSINS</t>
+  </si>
+  <si>
+    <t>Lloris 2</t>
+  </si>
+  <si>
+    <t>Alioski 1</t>
+  </si>
+  <si>
+    <t>Foden 0</t>
+  </si>
+  <si>
+    <t>Macey 0</t>
+  </si>
+  <si>
+    <t>Neco Williams 0</t>
+  </si>
+  <si>
+    <t>Bernardo 0</t>
+  </si>
+  <si>
+    <t>Oriol Romeu 0</t>
+  </si>
+  <si>
+    <t>5( 5+0 )</t>
+  </si>
+  <si>
+    <t>SATYAM RAI</t>
+  </si>
+  <si>
+    <t>Wildcard  GW9</t>
+  </si>
+  <si>
+    <t>Bench Boost  GW19</t>
+  </si>
+  <si>
+    <t>Gündogan 8</t>
+  </si>
+  <si>
+    <t>Peacock-Farrell 0</t>
+  </si>
+  <si>
+    <t>Chilwell 0</t>
+  </si>
+  <si>
+    <t>10( 9+1 )</t>
+  </si>
+  <si>
+    <t>ashim lama</t>
+  </si>
+  <si>
+    <t>2 (-4 pts)</t>
+  </si>
+  <si>
+    <t>8,69,053</t>
+  </si>
+  <si>
+    <t>10,58,631</t>
+  </si>
+  <si>
+    <t>Free Hit  GW19</t>
+  </si>
+  <si>
+    <t>Saka 2</t>
+  </si>
+  <si>
+    <t>Martin 0</t>
+  </si>
+  <si>
+    <t>7( 7+0 )</t>
+  </si>
+  <si>
+    <t>Indrajeet Singh</t>
+  </si>
+  <si>
+    <t>5,92,900</t>
+  </si>
+  <si>
+    <t>49,29,953</t>
+  </si>
+  <si>
+    <t>Wildcard  GW2</t>
+  </si>
+  <si>
+    <t>Kung fu Pandoos</t>
+  </si>
+  <si>
+    <t>Meslier 2</t>
+  </si>
+  <si>
+    <t>Bellerín 1</t>
+  </si>
+  <si>
+    <t>Maguire 5</t>
+  </si>
+  <si>
+    <t>Pereira 1</t>
+  </si>
+  <si>
+    <t>Henderson 0</t>
+  </si>
+  <si>
+    <t>Webster 6</t>
+  </si>
+  <si>
+    <t>7( 5+2 )</t>
+  </si>
+  <si>
+    <t>Vivek Lama</t>
+  </si>
+  <si>
+    <t>50,99,890</t>
+  </si>
+  <si>
+    <t>62,37,749</t>
+  </si>
+  <si>
+    <t>JOJOs LFC</t>
+  </si>
+  <si>
+    <t>Alisson 0</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 2</t>
+  </si>
+  <si>
+    <t>Egan 7</t>
+  </si>
+  <si>
+    <t>Saïss 0</t>
+  </si>
+  <si>
+    <t>Tielemans 3</t>
+  </si>
+  <si>
+    <t>Sterling 16</t>
+  </si>
+  <si>
+    <t>Saint-Maximin 1</t>
+  </si>
+  <si>
+    <t>Connolly 1</t>
+  </si>
+  <si>
+    <t>Ryan 0</t>
+  </si>
+  <si>
+    <t>Mané 0$ captain</t>
+  </si>
+  <si>
+    <t>Dunne 0</t>
+  </si>
+  <si>
+    <t>3( 3+0 )</t>
+  </si>
+  <si>
+    <t>Prabin Singh</t>
+  </si>
+  <si>
+    <t>37,28,246</t>
+  </si>
+  <si>
+    <t>33,55,274</t>
+  </si>
+  <si>
+    <t>Random XI</t>
+  </si>
+  <si>
+    <t>Mahrez 6$ captain</t>
+  </si>
+  <si>
+    <t>Grealish 6</t>
+  </si>
+  <si>
+    <t>Kane 0</t>
+  </si>
+  <si>
+    <t>8( 8+0 )</t>
+  </si>
+  <si>
+    <t>Kumar Anku</t>
+  </si>
+  <si>
+    <t>28,84,507</t>
+  </si>
+  <si>
+    <t>42,99,230</t>
+  </si>
+  <si>
+    <t>Galaxies Stars</t>
+  </si>
+  <si>
+    <t>Leno -1</t>
+  </si>
+  <si>
+    <t>Konsa 1</t>
+  </si>
+  <si>
+    <t>Digne 10$ captain</t>
+  </si>
+  <si>
+    <t>Sigurdsson 8</t>
+  </si>
+  <si>
+    <t>Martial 13</t>
+  </si>
+  <si>
+    <t>6( 6+0 )</t>
+  </si>
+  <si>
+    <t>Okdenri Longchari</t>
+  </si>
+  <si>
+    <t>2,92,294</t>
+  </si>
+  <si>
+    <t>20,94,700</t>
+  </si>
+  <si>
+    <t>Happy Williams</t>
+  </si>
+  <si>
+    <t>Dier 2</t>
+  </si>
+  <si>
+    <t>Dunk 8</t>
+  </si>
+  <si>
+    <t>9( 7+2 )</t>
+  </si>
+  <si>
+    <t>Omkar Subba</t>
+  </si>
+  <si>
+    <t>17,48,759</t>
+  </si>
+  <si>
+    <t>40,37,447</t>
+  </si>
+  <si>
+    <t>Targett 1</t>
+  </si>
+  <si>
+    <t>Robertson 2</t>
+  </si>
+  <si>
+    <t>Nyland 0</t>
+  </si>
+  <si>
+    <t>Bednarek -7</t>
+  </si>
+  <si>
+    <t>8( 6+2 )</t>
+  </si>
+  <si>
+    <t>Abhijeet Singh</t>
+  </si>
+  <si>
+    <t>6,37,147</t>
+  </si>
+  <si>
+    <t>Wildcard  GW8</t>
+  </si>
+  <si>
+    <t>Impact Creators</t>
+  </si>
+  <si>
+    <t>Fernandes 34$ captain</t>
+  </si>
+  <si>
+    <t>Riedewald 10</t>
+  </si>
+  <si>
+    <t>Johnson 1</t>
+  </si>
+  <si>
+    <t>Ashish Subba</t>
+  </si>
+  <si>
+    <t>6,35,309</t>
+  </si>
+  <si>
+    <t>22,29,965</t>
+  </si>
+  <si>
+    <t>GUSTAVOUS GUNNER</t>
+  </si>
+  <si>
+    <t>Lacazette 4</t>
+  </si>
+  <si>
+    <t>Davis 0</t>
+  </si>
+  <si>
+    <t>Nitesh Singh</t>
+  </si>
+  <si>
+    <t>3,68,952</t>
+  </si>
+  <si>
+    <t>57,71,887</t>
+  </si>
+  <si>
+    <t>Wildcard  GW18</t>
+  </si>
+  <si>
+    <t>Danapur United</t>
+  </si>
+  <si>
+    <t>Keane 1</t>
+  </si>
+  <si>
+    <t>Areola 2</t>
+  </si>
+  <si>
+    <t>Huggins 0</t>
+  </si>
+  <si>
+    <t>Diaby 0</t>
+  </si>
+  <si>
+    <t>Raj Kanango</t>
+  </si>
+  <si>
+    <t>10,61,490</t>
+  </si>
+  <si>
+    <t>Wildcard  GW12</t>
+  </si>
+  <si>
+    <t>Dream Killer</t>
+  </si>
+  <si>
+    <t>Firmino 2</t>
+  </si>
+  <si>
+    <t>Burke 1</t>
+  </si>
+  <si>
+    <t>Sahil Lampard</t>
+  </si>
+  <si>
+    <t>24,29,807</t>
+  </si>
+  <si>
+    <t>32,47,424</t>
+  </si>
+  <si>
+    <t>Marx 11</t>
+  </si>
+  <si>
+    <t>Bertrand -2</t>
+  </si>
+  <si>
+    <t>Klich 2</t>
+  </si>
+  <si>
+    <t>Reguilón 0</t>
+  </si>
+  <si>
+    <t>Delap 0</t>
+  </si>
+  <si>
+    <t>Casey 0</t>
+  </si>
+  <si>
+    <t>Pema Sherpa</t>
+  </si>
+  <si>
+    <t>18,72,793</t>
+  </si>
+  <si>
+    <t>8,92,882</t>
+  </si>
+  <si>
+    <t>Wildcard  GW20</t>
+  </si>
+  <si>
+    <t>CottonMouth XI</t>
+  </si>
+  <si>
+    <t>Bernardo Silva 6</t>
+  </si>
+  <si>
+    <t>Werner 10$ captain</t>
+  </si>
+  <si>
+    <t>Button 0</t>
+  </si>
+  <si>
+    <t>Tierney 0</t>
+  </si>
+  <si>
+    <t>pranam rai</t>
+  </si>
+  <si>
+    <t>16,47,966</t>
+  </si>
+  <si>
+    <t>68,43,880</t>
+  </si>
+  <si>
+    <t>SYAKREE F.C.</t>
+  </si>
+  <si>
+    <t>Guaita 3</t>
+  </si>
+  <si>
+    <t>Lacazette 8$ captain</t>
+  </si>
+  <si>
+    <t>Mané 0</t>
+  </si>
+  <si>
+    <t>Regean Lama</t>
+  </si>
+  <si>
+    <t>11,34,236</t>
+  </si>
+  <si>
+    <t>11,88,468</t>
+  </si>
+  <si>
+    <t>Busby Baby</t>
+  </si>
+  <si>
+    <t>Han Sing</t>
+  </si>
+  <si>
+    <t>3 (-4 pts)</t>
+  </si>
+  <si>
+    <t>3,72,467</t>
+  </si>
+  <si>
+    <t>25,68,143</t>
+  </si>
+  <si>
+    <t>de Gea 6</t>
+  </si>
+  <si>
+    <t>Lowton 1</t>
+  </si>
+  <si>
+    <t>Sanjeev Kumar</t>
+  </si>
+  <si>
+    <t>18,62,507</t>
+  </si>
+  <si>
+    <t>mendal11</t>
+  </si>
+  <si>
+    <t>Son 4$ captain</t>
+  </si>
+  <si>
+    <t>James 8</t>
+  </si>
+  <si>
+    <t>Ashish Rai</t>
+  </si>
+  <si>
+    <t>26,28,220</t>
+  </si>
+  <si>
+    <t>goooooooners</t>
+  </si>
+  <si>
+    <t>Cancelo 12$ captain</t>
+  </si>
+  <si>
+    <t>Lookman 2</t>
+  </si>
+  <si>
+    <t>Robinson 1</t>
+  </si>
+  <si>
+    <t>Pieters 1</t>
+  </si>
+  <si>
+    <t>Ravish Verma</t>
+  </si>
+  <si>
+    <t>1,93,842</t>
+  </si>
+  <si>
+    <t>30,02,049</t>
+  </si>
+  <si>
+    <t>Little Chilli FC</t>
+  </si>
+  <si>
+    <t>Bishal Rai</t>
+  </si>
+  <si>
+    <t>15,26,530</t>
+  </si>
+  <si>
+    <t>Gooner for Life</t>
+  </si>
+  <si>
+    <t>overallPoints</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>122</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,8 +1903,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,8 +1933,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9FDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD6433"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD705"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50FF7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0FF7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -938,11 +1990,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -951,8 +2018,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,17 +2936,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1880,35 +2966,354 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="9">
-        <v>158870</v>
+        <v>278</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4115919</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2324952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2522621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="8">
+        <v>488734</v>
+      </c>
+      <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1069199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1327409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2203632</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3998490</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="8">
+        <v>440807</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2184142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2795791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="8">
+        <v>228724</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2185186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2317783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="8">
+        <v>364277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1396639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1339989</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="8">
+        <v>474028</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1229286</v>
+      </c>
+      <c r="C22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2340261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1708392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2719892</v>
+      </c>
+      <c r="C25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="8">
+        <v>122847</v>
+      </c>
+      <c r="C26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="8">
+        <v>362369</v>
+      </c>
+      <c r="C27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="8">
+        <v>290784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="8">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="8">
+        <v>23487</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="8">
+        <v>360554</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2090014</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="8">
+        <v>158870</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +3328,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,22 +3340,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2024,22 +3429,22 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>187</v>
       </c>
       <c r="G2" s="3"/>
@@ -2067,22 +3472,22 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="3"/>
@@ -2110,22 +3515,22 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="3"/>
@@ -2153,22 +3558,22 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="G5" s="3"/>
@@ -2196,22 +3601,22 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G6" s="3"/>
@@ -2239,22 +3644,22 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>132</v>
       </c>
       <c r="G7" s="3"/>
@@ -2282,22 +3687,22 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G8" s="3"/>
@@ -2325,22 +3730,22 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G9" s="3"/>
@@ -2368,22 +3773,22 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G10" s="3"/>
@@ -2411,22 +3816,22 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>199</v>
       </c>
       <c r="G11" s="3"/>
@@ -2454,22 +3859,22 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>200</v>
       </c>
       <c r="G12" s="3"/>
@@ -2497,22 +3902,22 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>191</v>
       </c>
       <c r="G13" s="3"/>
@@ -2540,22 +3945,22 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="10" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="3"/>
@@ -2583,22 +3988,22 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>193</v>
       </c>
       <c r="G15" s="3"/>
@@ -2626,22 +4031,22 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="10" t="s">
         <v>194</v>
       </c>
       <c r="G16" s="3"/>
@@ -2669,22 +4074,22 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>195</v>
       </c>
       <c r="G17" s="3"/>
@@ -2712,22 +4117,22 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="G18" s="3"/>
@@ -2755,22 +4160,22 @@
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="3"/>
@@ -2798,22 +4203,22 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G20" s="3"/>
@@ -2841,22 +4246,22 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>204</v>
       </c>
       <c r="G21" s="3"/>
@@ -2884,22 +4289,22 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>205</v>
       </c>
       <c r="G22" s="3"/>
@@ -2927,22 +4332,22 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>206</v>
       </c>
       <c r="G23" s="3"/>
@@ -2970,22 +4375,22 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="10" t="s">
         <v>174</v>
       </c>
       <c r="G24" s="3"/>
@@ -3013,22 +4418,22 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G25" s="3"/>
@@ -3056,22 +4461,22 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="10" t="s">
         <v>178</v>
       </c>
       <c r="G26" s="3"/>
@@ -3099,22 +4504,22 @@
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="10" t="s">
         <v>180</v>
       </c>
       <c r="G27" s="3"/>
@@ -3142,22 +4547,22 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G28" s="3"/>
@@ -3185,22 +4590,22 @@
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="10" t="s">
         <v>184</v>
       </c>
       <c r="G29" s="3"/>
@@ -3228,22 +4633,22 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="10" t="s">
         <v>186</v>
       </c>
       <c r="G30" s="3"/>
@@ -3272,6 +4677,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3538,4 +4944,2892 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1">
+        <v>67.071428571428569</v>
+      </c>
+      <c r="Q1">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S1" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V1" t="s">
+        <v>339</v>
+      </c>
+      <c r="W1" t="s">
+        <v>340</v>
+      </c>
+      <c r="X1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2">
+        <v>1288683</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1252</v>
+      </c>
+      <c r="I2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R2" t="s">
+        <v>355</v>
+      </c>
+      <c r="S2" t="s">
+        <v>363</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI2">
+        <v>88</v>
+      </c>
+      <c r="AJ2">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3">
+        <v>143864</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1391</v>
+      </c>
+      <c r="I3" s="20">
+        <v>60442</v>
+      </c>
+      <c r="J3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" t="s">
+        <v>383</v>
+      </c>
+      <c r="R3" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI3">
+        <v>74</v>
+      </c>
+      <c r="AJ3">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4">
+        <v>25825</v>
+      </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" t="s">
+        <v>399</v>
+      </c>
+      <c r="L4" t="s">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>362</v>
+      </c>
+      <c r="R4" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4" t="s">
+        <v>401</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI4">
+        <v>87</v>
+      </c>
+      <c r="AJ4">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>2544322</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1386</v>
+      </c>
+      <c r="I5" s="20">
+        <v>71727</v>
+      </c>
+      <c r="J5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L5" t="s">
+        <v>410</v>
+      </c>
+      <c r="M5" t="s">
+        <v>361</v>
+      </c>
+      <c r="R5" t="s">
+        <v>408</v>
+      </c>
+      <c r="S5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI5">
+        <v>77</v>
+      </c>
+      <c r="AJ5">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6">
+        <v>3202275</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1225</v>
+      </c>
+      <c r="I6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" t="s">
+        <v>416</v>
+      </c>
+      <c r="R6" t="s">
+        <v>413</v>
+      </c>
+      <c r="S6" t="s">
+        <v>417</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI6">
+        <v>64</v>
+      </c>
+      <c r="AJ6">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7">
+        <v>1530227</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1352</v>
+      </c>
+      <c r="I7" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M7" t="s">
+        <v>361</v>
+      </c>
+      <c r="R7" t="s">
+        <v>425</v>
+      </c>
+      <c r="S7" t="s">
+        <v>429</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD7" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI7">
+        <v>56</v>
+      </c>
+      <c r="AJ7">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8">
+        <v>1808381</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1211</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" t="s">
+        <v>428</v>
+      </c>
+      <c r="R8" t="s">
+        <v>439</v>
+      </c>
+      <c r="S8" t="s">
+        <v>442</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI8">
+        <v>52</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9">
+        <v>30839</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1399</v>
+      </c>
+      <c r="I9" s="20">
+        <v>47016</v>
+      </c>
+      <c r="J9" t="s">
+        <v>399</v>
+      </c>
+      <c r="L9" t="s">
+        <v>452</v>
+      </c>
+      <c r="M9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R9" t="s">
+        <v>451</v>
+      </c>
+      <c r="S9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF9" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH9" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI9">
+        <v>87</v>
+      </c>
+      <c r="AJ9">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10">
+        <v>1555875</v>
+      </c>
+      <c r="C10">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10">
+        <v>1270</v>
+      </c>
+      <c r="I10" t="s">
+        <v>460</v>
+      </c>
+      <c r="J10" t="s">
+        <v>461</v>
+      </c>
+      <c r="L10" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" t="s">
+        <v>462</v>
+      </c>
+      <c r="R10" t="s">
+        <v>458</v>
+      </c>
+      <c r="S10" t="s">
+        <v>292</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI10">
+        <v>81</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11">
+        <v>1507506</v>
+      </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1295</v>
+      </c>
+      <c r="I11" t="s">
+        <v>467</v>
+      </c>
+      <c r="J11" t="s">
+        <v>468</v>
+      </c>
+      <c r="L11" t="s">
+        <v>469</v>
+      </c>
+      <c r="R11" t="s">
+        <v>466</v>
+      </c>
+      <c r="S11" t="s">
+        <v>470</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA11" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="AF11" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI11">
+        <v>51</v>
+      </c>
+      <c r="AJ11">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12">
+        <v>3171178</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>992</v>
+      </c>
+      <c r="I12" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" t="s">
+        <v>480</v>
+      </c>
+      <c r="R12" t="s">
+        <v>478</v>
+      </c>
+      <c r="S12" t="s">
+        <v>481</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI12">
+        <v>39</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B13">
+        <v>4363524</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1091</v>
+      </c>
+      <c r="I13" t="s">
+        <v>495</v>
+      </c>
+      <c r="J13" t="s">
+        <v>496</v>
+      </c>
+      <c r="L13" t="s">
+        <v>382</v>
+      </c>
+      <c r="R13" t="s">
+        <v>494</v>
+      </c>
+      <c r="S13" t="s">
+        <v>497</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI13">
+        <v>63</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14">
+        <v>1391491</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1142</v>
+      </c>
+      <c r="I14" t="s">
+        <v>503</v>
+      </c>
+      <c r="J14" t="s">
+        <v>504</v>
+      </c>
+      <c r="L14" t="s">
+        <v>382</v>
+      </c>
+      <c r="M14" t="s">
+        <v>462</v>
+      </c>
+      <c r="R14" t="s">
+        <v>502</v>
+      </c>
+      <c r="S14" t="s">
+        <v>505</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="W14" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD14" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI14">
+        <v>56</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15">
+        <v>1150009</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1332</v>
+      </c>
+      <c r="I15" t="s">
+        <v>513</v>
+      </c>
+      <c r="J15" t="s">
+        <v>514</v>
+      </c>
+      <c r="L15" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" t="s">
+        <v>512</v>
+      </c>
+      <c r="S15" t="s">
+        <v>515</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="AI15">
+        <v>72</v>
+      </c>
+      <c r="AJ15">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16">
+        <v>1099725</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>520</v>
+      </c>
+      <c r="J16" t="s">
+        <v>521</v>
+      </c>
+      <c r="L16" t="s">
+        <v>382</v>
+      </c>
+      <c r="M16" t="s">
+        <v>361</v>
+      </c>
+      <c r="R16" t="s">
+        <v>519</v>
+      </c>
+      <c r="S16" t="s">
+        <v>298</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF16" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI16">
+        <v>58</v>
+      </c>
+      <c r="AJ16">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17">
+        <v>1009666</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1291</v>
+      </c>
+      <c r="I17" t="s">
+        <v>528</v>
+      </c>
+      <c r="J17" s="20">
+        <v>94896</v>
+      </c>
+      <c r="L17" t="s">
+        <v>529</v>
+      </c>
+      <c r="R17" t="s">
+        <v>527</v>
+      </c>
+      <c r="S17" t="s">
+        <v>530</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y17" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG17" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI17">
+        <v>99</v>
+      </c>
+      <c r="AJ17">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18">
+        <v>753323</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1291</v>
+      </c>
+      <c r="I18" t="s">
+        <v>535</v>
+      </c>
+      <c r="J18" t="s">
+        <v>536</v>
+      </c>
+      <c r="L18" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" t="s">
+        <v>361</v>
+      </c>
+      <c r="R18" t="s">
+        <v>534</v>
+      </c>
+      <c r="S18" t="s">
+        <v>537</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI18">
+        <v>71</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19">
+        <v>947098</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1321</v>
+      </c>
+      <c r="I19" t="s">
+        <v>541</v>
+      </c>
+      <c r="J19" t="s">
+        <v>542</v>
+      </c>
+      <c r="L19" t="s">
+        <v>410</v>
+      </c>
+      <c r="M19" t="s">
+        <v>543</v>
+      </c>
+      <c r="R19" t="s">
+        <v>540</v>
+      </c>
+      <c r="S19" t="s">
+        <v>544</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE19" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF19" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="AH19" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI19">
+        <v>44</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20">
+        <v>972259</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1255</v>
+      </c>
+      <c r="I20" t="s">
+        <v>550</v>
+      </c>
+      <c r="J20" t="s">
+        <v>496</v>
+      </c>
+      <c r="L20" t="s">
+        <v>551</v>
+      </c>
+      <c r="M20" t="s">
+        <v>361</v>
+      </c>
+      <c r="R20" t="s">
+        <v>549</v>
+      </c>
+      <c r="S20" t="s">
+        <v>552</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB20" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG20" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI20">
+        <v>63</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21">
+        <v>2169583</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1168</v>
+      </c>
+      <c r="I21" t="s">
+        <v>556</v>
+      </c>
+      <c r="J21" t="s">
+        <v>557</v>
+      </c>
+      <c r="L21" t="s">
+        <v>400</v>
+      </c>
+      <c r="M21" t="s">
+        <v>362</v>
+      </c>
+      <c r="R21" t="s">
+        <v>555</v>
+      </c>
+      <c r="S21" t="s">
+        <v>558</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB21" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI21">
+        <v>64</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22">
+        <v>3729374</v>
+      </c>
+      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1201</v>
+      </c>
+      <c r="I22" t="s">
+        <v>565</v>
+      </c>
+      <c r="J22" t="s">
+        <v>566</v>
+      </c>
+      <c r="L22" t="s">
+        <v>382</v>
+      </c>
+      <c r="M22" t="s">
+        <v>462</v>
+      </c>
+      <c r="N22" t="s">
+        <v>567</v>
+      </c>
+      <c r="R22" t="s">
+        <v>564</v>
+      </c>
+      <c r="S22" t="s">
+        <v>568</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC22" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF22" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI22">
+        <v>82</v>
+      </c>
+      <c r="AJ22">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23">
+        <v>1384222</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1215</v>
+      </c>
+      <c r="I23" t="s">
+        <v>574</v>
+      </c>
+      <c r="J23" t="s">
+        <v>575</v>
+      </c>
+      <c r="L23" t="s">
+        <v>382</v>
+      </c>
+      <c r="M23" t="s">
+        <v>360</v>
+      </c>
+      <c r="N23" t="s">
+        <v>362</v>
+      </c>
+      <c r="R23" t="s">
+        <v>573</v>
+      </c>
+      <c r="S23" t="s">
+        <v>576</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD23" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE23" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG23" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH23" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI23">
+        <v>33</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B24">
+        <v>2381459</v>
+      </c>
+      <c r="C24">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1250</v>
+      </c>
+      <c r="I24" t="s">
+        <v>581</v>
+      </c>
+      <c r="J24" t="s">
+        <v>582</v>
+      </c>
+      <c r="L24" t="s">
+        <v>361</v>
+      </c>
+      <c r="R24" t="s">
+        <v>580</v>
+      </c>
+      <c r="S24" t="s">
+        <v>583</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z24" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC24" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD24" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH24" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI24">
+        <v>79</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25">
+        <v>437359</v>
+      </c>
+      <c r="C25">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25">
+        <v>1321</v>
+      </c>
+      <c r="I25" t="s">
+        <v>586</v>
+      </c>
+      <c r="J25" t="s">
+        <v>587</v>
+      </c>
+      <c r="L25" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" t="s">
+        <v>362</v>
+      </c>
+      <c r="R25" t="s">
+        <v>584</v>
+      </c>
+      <c r="S25" t="s">
+        <v>314</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH25" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI25">
+        <v>69</v>
+      </c>
+      <c r="AJ25">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26">
+        <v>3732429</v>
+      </c>
+      <c r="C26">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1202</v>
+      </c>
+      <c r="I26" t="s">
+        <v>591</v>
+      </c>
+      <c r="J26" t="s">
+        <v>514</v>
+      </c>
+      <c r="L26" t="s">
+        <v>382</v>
+      </c>
+      <c r="M26" t="s">
+        <v>361</v>
+      </c>
+      <c r="N26" t="s">
+        <v>453</v>
+      </c>
+      <c r="O26" t="s">
+        <v>567</v>
+      </c>
+      <c r="R26" t="s">
+        <v>590</v>
+      </c>
+      <c r="S26" t="s">
+        <v>592</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG26" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="AH26" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI26">
+        <v>72</v>
+      </c>
+      <c r="AJ26">
+        <v>8</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B27">
+        <v>1170113</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>596</v>
+      </c>
+      <c r="J27" t="s">
+        <v>427</v>
+      </c>
+      <c r="L27" t="s">
+        <v>428</v>
+      </c>
+      <c r="M27" t="s">
+        <v>361</v>
+      </c>
+      <c r="N27" t="s">
+        <v>453</v>
+      </c>
+      <c r="R27" t="s">
+        <v>595</v>
+      </c>
+      <c r="S27" t="s">
+        <v>597</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG27" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="AH27" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI27">
+        <v>56</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B28">
+        <v>74211</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>356</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1350</v>
+      </c>
+      <c r="I28" t="s">
+        <v>603</v>
+      </c>
+      <c r="J28" t="s">
+        <v>604</v>
+      </c>
+      <c r="L28" t="s">
+        <v>551</v>
+      </c>
+      <c r="R28" t="s">
+        <v>602</v>
+      </c>
+      <c r="S28" t="s">
+        <v>605</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD28" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE28" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF28" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH28" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="AI28">
+        <v>65</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29">
+        <v>2517295</v>
+      </c>
+      <c r="C29">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1403</v>
+      </c>
+      <c r="I29" s="20">
+        <v>40751</v>
+      </c>
+      <c r="J29" t="s">
+        <v>607</v>
+      </c>
+      <c r="L29" t="s">
+        <v>382</v>
+      </c>
+      <c r="M29" t="s">
+        <v>361</v>
+      </c>
+      <c r="N29" t="s">
+        <v>453</v>
+      </c>
+      <c r="R29" t="s">
+        <v>606</v>
+      </c>
+      <c r="S29" t="s">
+        <v>608</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA29" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF29" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG29" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH29" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI29">
+        <v>76</v>
+      </c>
+      <c r="AJ29">
+        <v>3</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2">
+        <v>1288683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3">
+        <v>143864</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4">
+        <v>25825</v>
+      </c>
+      <c r="C4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>2544322</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="India" sheetId="6" r:id="rId6"/>
     <sheet name="bluePrint" sheetId="7" r:id="rId7"/>
     <sheet name="turf" sheetId="8" r:id="rId8"/>
+    <sheet name="sept" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="638">
   <si>
     <t>Places</t>
   </si>
@@ -1869,13 +1870,78 @@
   </si>
   <si>
     <t>122</t>
+  </si>
+  <si>
+    <t>25.65.</t>
+  </si>
+  <si>
+    <t>19.34.</t>
+  </si>
+  <si>
+    <t>26.05.</t>
+  </si>
+  <si>
+    <t>30.97.</t>
+  </si>
+  <si>
+    <t>26.99.</t>
+  </si>
+  <si>
+    <t>29.99.</t>
+  </si>
+  <si>
+    <t>24.23.</t>
+  </si>
+  <si>
+    <t>17.26.</t>
+  </si>
+  <si>
+    <t>18.03.</t>
+  </si>
+  <si>
+    <t>20.09.</t>
+  </si>
+  <si>
+    <t>20.17.</t>
+  </si>
+  <si>
+    <t>25.99.</t>
+  </si>
+  <si>
+    <t>18.16.</t>
+  </si>
+  <si>
+    <t>17.2.</t>
+  </si>
+  <si>
+    <t>17.19.</t>
+  </si>
+  <si>
+    <t>18.2.</t>
+  </si>
+  <si>
+    <t>19.84.</t>
+  </si>
+  <si>
+    <t>18.15.</t>
+  </si>
+  <si>
+    <t>17.27.</t>
+  </si>
+  <si>
+    <t>19.73.</t>
+  </si>
+  <si>
+    <t>29.97.</t>
+  </si>
+  <si>
+    <t>18.14.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2349,20 +2415,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="4.85546875" collapsed="true"/>
-    <col min="6" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
-    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2550,9 +2616,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +3010,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,10 +3399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -4683,18 +4749,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4825,119 +4891,125 @@
       <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" t="s">
-        <v>270</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" t="s">
-        <v>268</v>
+        <v>255</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>273</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>273</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4956,12 +5028,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -7731,17 +7803,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,4 +7904,517 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K2" t="s">
+        <v>616</v>
+      </c>
+      <c r="L2" t="s">
+        <v>616</v>
+      </c>
+      <c r="M2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K3" t="s">
+        <v>617</v>
+      </c>
+      <c r="L3" t="s">
+        <v>617</v>
+      </c>
+      <c r="M3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4" t="s">
+        <v>618</v>
+      </c>
+      <c r="G4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" t="s">
+        <v>618</v>
+      </c>
+      <c r="I4" t="s">
+        <v>618</v>
+      </c>
+      <c r="J4" t="s">
+        <v>618</v>
+      </c>
+      <c r="K4" t="s">
+        <v>618</v>
+      </c>
+      <c r="L4" t="s">
+        <v>618</v>
+      </c>
+      <c r="M4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G5" t="s">
+        <v>619</v>
+      </c>
+      <c r="H5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J5" t="s">
+        <v>619</v>
+      </c>
+      <c r="K5" t="s">
+        <v>619</v>
+      </c>
+      <c r="L5" t="s">
+        <v>636</v>
+      </c>
+      <c r="M5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" t="s">
+        <v>627</v>
+      </c>
+      <c r="H6" t="s">
+        <v>627</v>
+      </c>
+      <c r="I6" t="s">
+        <v>627</v>
+      </c>
+      <c r="J6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K6" t="s">
+        <v>627</v>
+      </c>
+      <c r="L6" t="s">
+        <v>627</v>
+      </c>
+      <c r="M6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F8" t="s">
+        <v>621</v>
+      </c>
+      <c r="G8" t="s">
+        <v>621</v>
+      </c>
+      <c r="H8" t="s">
+        <v>621</v>
+      </c>
+      <c r="I8" t="s">
+        <v>621</v>
+      </c>
+      <c r="J8" t="s">
+        <v>621</v>
+      </c>
+      <c r="K8" t="s">
+        <v>621</v>
+      </c>
+      <c r="L8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" t="s">
+        <v>622</v>
+      </c>
+      <c r="G9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J9" t="s">
+        <v>622</v>
+      </c>
+      <c r="K9" t="s">
+        <v>622</v>
+      </c>
+      <c r="L9" t="s">
+        <v>622</v>
+      </c>
+      <c r="M9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" t="s">
+        <v>623</v>
+      </c>
+      <c r="F10" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10" t="s">
+        <v>629</v>
+      </c>
+      <c r="H10" t="s">
+        <v>630</v>
+      </c>
+      <c r="I10" t="s">
+        <v>630</v>
+      </c>
+      <c r="J10" t="s">
+        <v>630</v>
+      </c>
+      <c r="K10" t="s">
+        <v>634</v>
+      </c>
+      <c r="L10" t="s">
+        <v>634</v>
+      </c>
+      <c r="M10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F11" t="s">
+        <v>628</v>
+      </c>
+      <c r="G11" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" t="s">
+        <v>631</v>
+      </c>
+      <c r="I11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J11" t="s">
+        <v>633</v>
+      </c>
+      <c r="K11" t="s">
+        <v>633</v>
+      </c>
+      <c r="L11" t="s">
+        <v>633</v>
+      </c>
+      <c r="M11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F12" t="s">
+        <v>626</v>
+      </c>
+      <c r="G12" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" t="s">
+        <v>632</v>
+      </c>
+      <c r="I12" t="s">
+        <v>632</v>
+      </c>
+      <c r="J12" t="s">
+        <v>632</v>
+      </c>
+      <c r="K12" t="s">
+        <v>635</v>
+      </c>
+      <c r="L12" t="s">
+        <v>635</v>
+      </c>
+      <c r="M12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="649">
   <si>
     <t>Places</t>
   </si>
@@ -672,18 +672,12 @@
     <t>Manager_iD</t>
   </si>
   <si>
-    <t>24.81.</t>
-  </si>
-  <si>
     <t>21.5169,39.2192</t>
   </si>
   <si>
     <t>SA</t>
   </si>
   <si>
-    <t>34.92.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1884,24 +1878,12 @@
     <t>30.97.</t>
   </si>
   <si>
-    <t>26.99.</t>
-  </si>
-  <si>
     <t>29.99.</t>
   </si>
   <si>
     <t>24.23.</t>
   </si>
   <si>
-    <t>17.26.</t>
-  </si>
-  <si>
-    <t>18.03.</t>
-  </si>
-  <si>
-    <t>20.09.</t>
-  </si>
-  <si>
     <t>20.17.</t>
   </si>
   <si>
@@ -1936,6 +1918,57 @@
   </si>
   <si>
     <t>18.14.</t>
+  </si>
+  <si>
+    <t>18.6.</t>
+  </si>
+  <si>
+    <t>28.05.</t>
+  </si>
+  <si>
+    <t>26.01.</t>
+  </si>
+  <si>
+    <t>28.99.</t>
+  </si>
+  <si>
+    <t>24.73.</t>
+  </si>
+  <si>
+    <t>19.57.</t>
+  </si>
+  <si>
+    <t>21.77.</t>
+  </si>
+  <si>
+    <t>17.13.</t>
+  </si>
+  <si>
+    <t>24.65.</t>
+  </si>
+  <si>
+    <t>21.57.</t>
+  </si>
+  <si>
+    <t>17.35.</t>
+  </si>
+  <si>
+    <t>madrid</t>
+  </si>
+  <si>
+    <t>22.22.</t>
+  </si>
+  <si>
+    <t>31.92.</t>
+  </si>
+  <si>
+    <t>40.4165,-3.7026</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>23.3.</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,9 +2451,9 @@
     <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
@@ -2524,64 +2557,64 @@
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T2" t="s">
-        <v>210</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2589,14 +2622,28 @@
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
+      <c r="D3" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -2988,10 +3035,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3032,354 +3079,354 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="8">
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="8">
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="8">
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" s="8">
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>187</v>
@@ -3548,7 +3595,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>188</v>
@@ -3591,7 +3638,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
@@ -3634,7 +3681,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>189</v>
@@ -3677,7 +3724,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>129</v>
@@ -3720,7 +3767,7 @@
         <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>132</v>
@@ -3763,7 +3810,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>135</v>
@@ -3806,7 +3853,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>138</v>
@@ -3849,7 +3896,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>141</v>
@@ -3892,7 +3939,7 @@
         <v>143</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>144</v>
@@ -3935,7 +3982,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>190</v>
@@ -3978,7 +4025,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>191</v>
@@ -4021,7 +4068,7 @@
         <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>192</v>
@@ -4064,7 +4111,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>193</v>
@@ -4107,7 +4154,7 @@
         <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>194</v>
@@ -4150,7 +4197,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>195</v>
@@ -4193,7 +4240,7 @@
         <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>160</v>
@@ -4236,7 +4283,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>162</v>
@@ -4279,7 +4326,7 @@
         <v>164</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>165</v>
@@ -4322,7 +4369,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>167</v>
@@ -4365,7 +4412,7 @@
         <v>164</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>169</v>
@@ -4408,7 +4455,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>196</v>
@@ -4451,7 +4498,7 @@
         <v>173</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>174</v>
@@ -4494,7 +4541,7 @@
         <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>197</v>
@@ -4537,7 +4584,7 @@
         <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>178</v>
@@ -4580,7 +4627,7 @@
         <v>177</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>180</v>
@@ -4623,7 +4670,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>182</v>
@@ -4666,7 +4713,7 @@
         <v>177</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>184</v>
@@ -4709,7 +4756,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>186</v>
@@ -4751,7 +4798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4788,43 +4835,43 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4838,13 +4885,13 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4858,33 +4905,33 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4904,93 +4951,93 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5004,13 +5051,13 @@
         <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5038,31 +5085,31 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
         <v>212</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" t="s">
         <v>329</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>331</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>332</v>
-      </c>
-      <c r="I1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" t="s">
-        <v>334</v>
       </c>
       <c r="M1">
         <v>67.071428571428569</v>
@@ -5071,69 +5118,69 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" t="s">
         <v>335</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>336</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>337</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>338</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>339</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>340</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>341</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>342</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>343</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>344</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>345</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" t="s">
         <v>350</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" t="s">
         <v>351</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>352</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2">
         <v>1288683</v>
@@ -5145,7 +5192,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5154,73 +5201,73 @@
         <v>1252</v>
       </c>
       <c r="I2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" t="s">
         <v>357</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>358</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>359</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>360</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>353</v>
+      </c>
+      <c r="S2" t="s">
         <v>361</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="R2" t="s">
-        <v>355</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="V2" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AA2" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AC2" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AD2" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AF2" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AH2" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="AI2">
         <v>88</v>
@@ -5229,12 +5276,12 @@
         <v>9</v>
       </c>
       <c r="AK2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B3">
         <v>143864</v>
@@ -5246,7 +5293,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5258,67 +5305,67 @@
         <v>60442</v>
       </c>
       <c r="J3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N3" t="s">
         <v>381</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
+        <v>378</v>
+      </c>
+      <c r="S3" t="s">
         <v>382</v>
       </c>
-      <c r="M3" t="s">
-        <v>361</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="T3" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="R3" t="s">
-        <v>380</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="W3" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="X3" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Z3" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AA3" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AB3" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AF3" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="AI3">
         <v>74</v>
@@ -5327,12 +5374,12 @@
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B4">
         <v>25825</v>
@@ -5344,7 +5391,7 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5353,67 +5400,67 @@
         <v>1362</v>
       </c>
       <c r="I4" t="s">
+        <v>396</v>
+      </c>
+      <c r="J4" t="s">
+        <v>397</v>
+      </c>
+      <c r="L4" t="s">
         <v>398</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>360</v>
+      </c>
+      <c r="R4" t="s">
+        <v>395</v>
+      </c>
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="M4" t="s">
-        <v>362</v>
-      </c>
-      <c r="R4" t="s">
-        <v>397</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="X4" s="17" t="s">
+      <c r="AE4" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="Y4" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AH4" s="13" t="s">
         <v>405</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF4" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="AI4">
         <v>87</v>
@@ -5422,12 +5469,12 @@
         <v>9</v>
       </c>
       <c r="AK4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>2544322</v>
@@ -5439,7 +5486,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5451,64 +5498,64 @@
         <v>71727</v>
       </c>
       <c r="J5" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" t="s">
+        <v>359</v>
+      </c>
+      <c r="R5" t="s">
+        <v>406</v>
+      </c>
+      <c r="S5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE5" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="M5" t="s">
-        <v>361</v>
-      </c>
-      <c r="R5" t="s">
-        <v>408</v>
-      </c>
-      <c r="S5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>412</v>
-      </c>
       <c r="AF5" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AI5">
         <v>77</v>
@@ -5517,12 +5564,12 @@
         <v>11</v>
       </c>
       <c r="AK5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B6">
         <v>3202275</v>
@@ -5534,7 +5581,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5543,70 +5590,70 @@
         <v>1225</v>
       </c>
       <c r="I6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" t="s">
         <v>414</v>
       </c>
-      <c r="J6" t="s">
+      <c r="R6" t="s">
+        <v>411</v>
+      </c>
+      <c r="S6" t="s">
         <v>415</v>
       </c>
-      <c r="L6" t="s">
-        <v>382</v>
-      </c>
-      <c r="M6" t="s">
-        <v>361</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="T6" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="R6" t="s">
-        <v>413</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="U6" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="X6" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y6" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="W6" s="13" t="s">
+      <c r="Z6" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AB6" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="AI6">
         <v>64</v>
@@ -5615,12 +5662,12 @@
         <v>13</v>
       </c>
       <c r="AK6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B7">
         <v>1530227</v>
@@ -5632,7 +5679,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5641,67 +5688,67 @@
         <v>1352</v>
       </c>
       <c r="I7" t="s">
+        <v>424</v>
+      </c>
+      <c r="J7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L7" t="s">
         <v>426</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" t="s">
+        <v>423</v>
+      </c>
+      <c r="S7" t="s">
         <v>427</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="M7" t="s">
-        <v>361</v>
-      </c>
-      <c r="R7" t="s">
-        <v>425</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="U7" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="W7" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="AA7" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD7" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="AA7" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AC7" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AF7" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG7" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH7" s="13" t="s">
-        <v>437</v>
       </c>
       <c r="AI7">
         <v>56</v>
@@ -5710,12 +5757,12 @@
         <v>13</v>
       </c>
       <c r="AK7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B8">
         <v>1808381</v>
@@ -5727,7 +5774,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5736,64 +5783,64 @@
         <v>1211</v>
       </c>
       <c r="I8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J8" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8" t="s">
+        <v>426</v>
+      </c>
+      <c r="R8" t="s">
+        <v>437</v>
+      </c>
+      <c r="S8" t="s">
         <v>440</v>
       </c>
-      <c r="J8" t="s">
+      <c r="T8" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="L8" t="s">
-        <v>428</v>
-      </c>
-      <c r="R8" t="s">
-        <v>439</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="U8" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="X8" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="Y8" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="V8" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="W8" s="13" t="s">
+      <c r="AC8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="AI8">
         <v>52</v>
@@ -5802,12 +5849,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B9">
         <v>30839</v>
@@ -5819,7 +5866,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5831,64 +5878,64 @@
         <v>47016</v>
       </c>
       <c r="J9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L9" t="s">
+        <v>450</v>
+      </c>
+      <c r="M9" t="s">
+        <v>451</v>
+      </c>
+      <c r="R9" t="s">
+        <v>449</v>
+      </c>
+      <c r="S9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Y9" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE9" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="R9" t="s">
-        <v>451</v>
-      </c>
-      <c r="S9" t="s">
-        <v>274</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="AF9" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG9" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="AF9" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>456</v>
-      </c>
       <c r="AH9" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AI9">
         <v>87</v>
@@ -5897,12 +5944,12 @@
         <v>11</v>
       </c>
       <c r="AK9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B10">
         <v>1555875</v>
@@ -5914,76 +5961,76 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H10">
         <v>1270</v>
       </c>
       <c r="I10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" t="s">
+        <v>459</v>
+      </c>
+      <c r="L10" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" t="s">
         <v>460</v>
       </c>
-      <c r="J10" t="s">
+      <c r="R10" t="s">
+        <v>456</v>
+      </c>
+      <c r="S10" t="s">
+        <v>290</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z10" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="L10" t="s">
-        <v>382</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="AA10" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="R10" t="s">
-        <v>458</v>
-      </c>
-      <c r="S10" t="s">
-        <v>292</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>464</v>
-      </c>
       <c r="AF10" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AI10">
         <v>81</v>
@@ -5992,12 +6039,12 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B11">
         <v>1507506</v>
@@ -6009,7 +6056,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6018,64 +6065,64 @@
         <v>1295</v>
       </c>
       <c r="I11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J11" t="s">
+        <v>466</v>
+      </c>
+      <c r="L11" t="s">
         <v>467</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
+        <v>464</v>
+      </c>
+      <c r="S11" t="s">
         <v>468</v>
       </c>
-      <c r="L11" t="s">
+      <c r="T11" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="R11" t="s">
-        <v>466</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="U11" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="W11" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="AB11" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="W11" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AF11" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG11" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="AB11" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="AF11" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>476</v>
-      </c>
       <c r="AH11" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AI11">
         <v>51</v>
@@ -6084,12 +6131,12 @@
         <v>15</v>
       </c>
       <c r="AK11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B12">
         <v>3171178</v>
@@ -6101,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6110,61 +6157,61 @@
         <v>992</v>
       </c>
       <c r="I12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J12" t="s">
+        <v>478</v>
+      </c>
+      <c r="R12" t="s">
+        <v>476</v>
+      </c>
+      <c r="S12" t="s">
         <v>479</v>
       </c>
-      <c r="J12" t="s">
+      <c r="T12" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="R12" t="s">
-        <v>478</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="U12" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="V12" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="AA12" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD12" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AF12" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH12" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>492</v>
       </c>
       <c r="AI12">
         <v>39</v>
@@ -6173,12 +6220,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13">
         <v>4363524</v>
@@ -6190,7 +6237,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6199,64 +6246,64 @@
         <v>1091</v>
       </c>
       <c r="I13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J13" t="s">
+        <v>494</v>
+      </c>
+      <c r="L13" t="s">
+        <v>380</v>
+      </c>
+      <c r="R13" t="s">
+        <v>492</v>
+      </c>
+      <c r="S13" t="s">
         <v>495</v>
       </c>
-      <c r="J13" t="s">
+      <c r="T13" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z13" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="L13" t="s">
-        <v>382</v>
-      </c>
-      <c r="R13" t="s">
-        <v>494</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB13" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="T13" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z13" s="25" t="s">
+      <c r="AC13" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG13" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>500</v>
-      </c>
       <c r="AH13" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AI13">
         <v>63</v>
@@ -6265,12 +6312,12 @@
         <v>2</v>
       </c>
       <c r="AK13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B14">
         <v>1391491</v>
@@ -6282,7 +6329,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6291,67 +6338,67 @@
         <v>1142</v>
       </c>
       <c r="I14" t="s">
+        <v>501</v>
+      </c>
+      <c r="J14" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" t="s">
+        <v>460</v>
+      </c>
+      <c r="R14" t="s">
+        <v>500</v>
+      </c>
+      <c r="S14" t="s">
         <v>503</v>
       </c>
-      <c r="J14" t="s">
+      <c r="T14" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="L14" t="s">
-        <v>382</v>
-      </c>
-      <c r="M14" t="s">
-        <v>462</v>
-      </c>
-      <c r="R14" t="s">
-        <v>502</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="U14" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="V14" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="W14" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="X14" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="W14" s="26" t="s">
+      <c r="AC14" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD14" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="X14" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD14" s="15" t="s">
-        <v>510</v>
-      </c>
       <c r="AE14" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AI14">
         <v>56</v>
@@ -6360,12 +6407,12 @@
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B15">
         <v>1150009</v>
@@ -6377,7 +6424,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6386,64 +6433,64 @@
         <v>1332</v>
       </c>
       <c r="I15" t="s">
+        <v>511</v>
+      </c>
+      <c r="J15" t="s">
+        <v>512</v>
+      </c>
+      <c r="L15" t="s">
+        <v>380</v>
+      </c>
+      <c r="R15" t="s">
+        <v>510</v>
+      </c>
+      <c r="S15" t="s">
         <v>513</v>
       </c>
-      <c r="J15" t="s">
+      <c r="T15" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="L15" t="s">
-        <v>382</v>
-      </c>
-      <c r="R15" t="s">
-        <v>512</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AH15" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF15" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>517</v>
       </c>
       <c r="AI15">
         <v>72</v>
@@ -6452,12 +6499,12 @@
         <v>19</v>
       </c>
       <c r="AK15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B16">
         <v>1099725</v>
@@ -6469,7 +6516,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6478,67 +6525,67 @@
         <v>1209</v>
       </c>
       <c r="I16" t="s">
+        <v>518</v>
+      </c>
+      <c r="J16" t="s">
+        <v>519</v>
+      </c>
+      <c r="L16" t="s">
+        <v>380</v>
+      </c>
+      <c r="M16" t="s">
+        <v>359</v>
+      </c>
+      <c r="R16" t="s">
+        <v>517</v>
+      </c>
+      <c r="S16" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="J16" t="s">
+      <c r="W16" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="L16" t="s">
-        <v>382</v>
-      </c>
-      <c r="M16" t="s">
-        <v>361</v>
-      </c>
-      <c r="R16" t="s">
-        <v>519</v>
-      </c>
-      <c r="S16" t="s">
-        <v>298</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V16" s="13" t="s">
+      <c r="X16" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="AF16" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH16" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG16" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="AI16">
         <v>58</v>
@@ -6547,12 +6594,12 @@
         <v>17</v>
       </c>
       <c r="AK16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B17">
         <v>1009666</v>
@@ -6564,7 +6611,7 @@
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6573,64 +6620,64 @@
         <v>1291</v>
       </c>
       <c r="I17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J17" s="20">
         <v>94896</v>
       </c>
       <c r="L17" t="s">
+        <v>527</v>
+      </c>
+      <c r="R17" t="s">
+        <v>525</v>
+      </c>
+      <c r="S17" t="s">
+        <v>528</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="X17" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="R17" t="s">
-        <v>527</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="Y17" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG17" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="X17" s="16" t="s">
+      <c r="AH17" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG17" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>533</v>
       </c>
       <c r="AI17">
         <v>99</v>
@@ -6639,12 +6686,12 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B18">
         <v>753323</v>
@@ -6656,7 +6703,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6665,67 +6712,67 @@
         <v>1291</v>
       </c>
       <c r="I18" t="s">
+        <v>533</v>
+      </c>
+      <c r="J18" t="s">
+        <v>534</v>
+      </c>
+      <c r="L18" t="s">
+        <v>380</v>
+      </c>
+      <c r="M18" t="s">
+        <v>359</v>
+      </c>
+      <c r="R18" t="s">
+        <v>532</v>
+      </c>
+      <c r="S18" t="s">
         <v>535</v>
       </c>
-      <c r="J18" t="s">
+      <c r="T18" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC18" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="L18" t="s">
-        <v>382</v>
-      </c>
-      <c r="M18" t="s">
-        <v>361</v>
-      </c>
-      <c r="R18" t="s">
-        <v>534</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH18" s="13" t="s">
         <v>537</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF18" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH18" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="AI18">
         <v>71</v>
@@ -6734,12 +6781,12 @@
         <v>1</v>
       </c>
       <c r="AK18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B19">
         <v>947098</v>
@@ -6751,7 +6798,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6760,67 +6807,67 @@
         <v>1321</v>
       </c>
       <c r="I19" t="s">
+        <v>539</v>
+      </c>
+      <c r="J19" t="s">
+        <v>540</v>
+      </c>
+      <c r="L19" t="s">
+        <v>408</v>
+      </c>
+      <c r="M19" t="s">
         <v>541</v>
       </c>
-      <c r="J19" t="s">
+      <c r="R19" t="s">
+        <v>538</v>
+      </c>
+      <c r="S19" t="s">
         <v>542</v>
       </c>
-      <c r="L19" t="s">
-        <v>410</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="T19" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="R19" t="s">
-        <v>540</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="W19" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="AF19" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG19" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AH19" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="AG19" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="AH19" s="13" t="s">
-        <v>548</v>
       </c>
       <c r="AI19">
         <v>44</v>
@@ -6829,12 +6876,12 @@
         <v>2</v>
       </c>
       <c r="AK19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B20">
         <v>972259</v>
@@ -6846,7 +6893,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6855,67 +6902,67 @@
         <v>1255</v>
       </c>
       <c r="I20" t="s">
+        <v>548</v>
+      </c>
+      <c r="J20" t="s">
+        <v>494</v>
+      </c>
+      <c r="L20" t="s">
+        <v>549</v>
+      </c>
+      <c r="M20" t="s">
+        <v>359</v>
+      </c>
+      <c r="R20" t="s">
+        <v>547</v>
+      </c>
+      <c r="S20" t="s">
         <v>550</v>
       </c>
-      <c r="J20" t="s">
-        <v>496</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="T20" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="M20" t="s">
-        <v>361</v>
-      </c>
-      <c r="R20" t="s">
-        <v>549</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG20" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF20" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>554</v>
-      </c>
       <c r="AH20" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AI20">
         <v>63</v>
@@ -6924,12 +6971,12 @@
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B21">
         <v>2169583</v>
@@ -6941,7 +6988,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -6950,67 +6997,67 @@
         <v>1168</v>
       </c>
       <c r="I21" t="s">
+        <v>554</v>
+      </c>
+      <c r="J21" t="s">
+        <v>555</v>
+      </c>
+      <c r="L21" t="s">
+        <v>398</v>
+      </c>
+      <c r="M21" t="s">
+        <v>360</v>
+      </c>
+      <c r="R21" t="s">
+        <v>553</v>
+      </c>
+      <c r="S21" t="s">
         <v>556</v>
       </c>
-      <c r="J21" t="s">
+      <c r="T21" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="L21" t="s">
-        <v>400</v>
-      </c>
-      <c r="M21" t="s">
-        <v>362</v>
-      </c>
-      <c r="R21" t="s">
-        <v>555</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="V21" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U21" s="13" t="s">
+      <c r="AC21" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA21" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="AC21" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD21" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AH21" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>563</v>
       </c>
       <c r="AI21">
         <v>64</v>
@@ -7019,12 +7066,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B22">
         <v>3729374</v>
@@ -7036,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7045,70 +7092,70 @@
         <v>1201</v>
       </c>
       <c r="I22" t="s">
+        <v>563</v>
+      </c>
+      <c r="J22" t="s">
+        <v>564</v>
+      </c>
+      <c r="L22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M22" t="s">
+        <v>460</v>
+      </c>
+      <c r="N22" t="s">
         <v>565</v>
       </c>
-      <c r="J22" t="s">
+      <c r="R22" t="s">
+        <v>562</v>
+      </c>
+      <c r="S22" t="s">
         <v>566</v>
       </c>
-      <c r="L22" t="s">
-        <v>382</v>
-      </c>
-      <c r="M22" t="s">
-        <v>462</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="T22" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y22" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="R22" t="s">
-        <v>564</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="Z22" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC22" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y22" s="14" t="s">
+      <c r="AD22" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE22" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB22" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AF22" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="AD22" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF22" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>572</v>
-      </c>
       <c r="AH22" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AI22">
         <v>82</v>
@@ -7117,12 +7164,12 @@
         <v>12</v>
       </c>
       <c r="AK22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B23">
         <v>1384222</v>
@@ -7134,7 +7181,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7143,70 +7190,70 @@
         <v>1215</v>
       </c>
       <c r="I23" t="s">
+        <v>572</v>
+      </c>
+      <c r="J23" t="s">
+        <v>573</v>
+      </c>
+      <c r="L23" t="s">
+        <v>380</v>
+      </c>
+      <c r="M23" t="s">
+        <v>358</v>
+      </c>
+      <c r="N23" t="s">
+        <v>360</v>
+      </c>
+      <c r="R23" t="s">
+        <v>571</v>
+      </c>
+      <c r="S23" t="s">
         <v>574</v>
       </c>
-      <c r="J23" t="s">
+      <c r="T23" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="L23" t="s">
-        <v>382</v>
-      </c>
-      <c r="M23" t="s">
-        <v>360</v>
-      </c>
-      <c r="N23" t="s">
-        <v>362</v>
-      </c>
-      <c r="R23" t="s">
-        <v>573</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="U23" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD23" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="AE23" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA23" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="AE23" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>579</v>
-      </c>
       <c r="AH23" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AI23">
         <v>33</v>
@@ -7215,12 +7262,12 @@
         <v>4</v>
       </c>
       <c r="AK23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B24">
         <v>2381459</v>
@@ -7232,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7241,64 +7288,64 @@
         <v>1250</v>
       </c>
       <c r="I24" t="s">
+        <v>579</v>
+      </c>
+      <c r="J24" t="s">
+        <v>580</v>
+      </c>
+      <c r="L24" t="s">
+        <v>359</v>
+      </c>
+      <c r="R24" t="s">
+        <v>578</v>
+      </c>
+      <c r="S24" t="s">
         <v>581</v>
       </c>
-      <c r="J24" t="s">
-        <v>582</v>
-      </c>
-      <c r="L24" t="s">
-        <v>361</v>
-      </c>
-      <c r="R24" t="s">
-        <v>580</v>
-      </c>
-      <c r="S24" t="s">
-        <v>583</v>
-      </c>
       <c r="T24" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W24" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y24" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="X24" s="13" t="s">
+      <c r="Z24" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="AA24" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="Z24" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA24" s="23" t="s">
-        <v>370</v>
-      </c>
       <c r="AB24" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC24" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AI24">
         <v>79</v>
@@ -7307,12 +7354,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B25">
         <v>437359</v>
@@ -7324,76 +7371,76 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H25">
         <v>1321</v>
       </c>
       <c r="I25" t="s">
+        <v>584</v>
+      </c>
+      <c r="J25" t="s">
+        <v>585</v>
+      </c>
+      <c r="L25" t="s">
+        <v>380</v>
+      </c>
+      <c r="M25" t="s">
+        <v>360</v>
+      </c>
+      <c r="R25" t="s">
+        <v>582</v>
+      </c>
+      <c r="S25" t="s">
+        <v>312</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="J25" t="s">
+      <c r="U25" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="L25" t="s">
-        <v>382</v>
-      </c>
-      <c r="M25" t="s">
-        <v>362</v>
-      </c>
-      <c r="R25" t="s">
-        <v>584</v>
-      </c>
-      <c r="S25" t="s">
-        <v>314</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>589</v>
-      </c>
       <c r="AH25" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AI25">
         <v>69</v>
@@ -7402,12 +7449,12 @@
         <v>3</v>
       </c>
       <c r="AK25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B26">
         <v>3732429</v>
@@ -7419,7 +7466,7 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7428,73 +7475,73 @@
         <v>1202</v>
       </c>
       <c r="I26" t="s">
+        <v>589</v>
+      </c>
+      <c r="J26" t="s">
+        <v>512</v>
+      </c>
+      <c r="L26" t="s">
+        <v>380</v>
+      </c>
+      <c r="M26" t="s">
+        <v>359</v>
+      </c>
+      <c r="N26" t="s">
+        <v>451</v>
+      </c>
+      <c r="O26" t="s">
+        <v>565</v>
+      </c>
+      <c r="R26" t="s">
+        <v>588</v>
+      </c>
+      <c r="S26" t="s">
+        <v>590</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y26" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="J26" t="s">
-        <v>514</v>
-      </c>
-      <c r="L26" t="s">
-        <v>382</v>
-      </c>
-      <c r="M26" t="s">
-        <v>361</v>
-      </c>
-      <c r="N26" t="s">
-        <v>453</v>
-      </c>
-      <c r="O26" t="s">
-        <v>567</v>
-      </c>
-      <c r="R26" t="s">
-        <v>590</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="Z26" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG26" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="T26" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE26" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>594</v>
-      </c>
       <c r="AH26" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AI26">
         <v>72</v>
@@ -7503,12 +7550,12 @@
         <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B27">
         <v>1170113</v>
@@ -7520,7 +7567,7 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7529,70 +7576,70 @@
         <v>1157</v>
       </c>
       <c r="I27" t="s">
+        <v>594</v>
+      </c>
+      <c r="J27" t="s">
+        <v>425</v>
+      </c>
+      <c r="L27" t="s">
+        <v>426</v>
+      </c>
+      <c r="M27" t="s">
+        <v>359</v>
+      </c>
+      <c r="N27" t="s">
+        <v>451</v>
+      </c>
+      <c r="R27" t="s">
+        <v>593</v>
+      </c>
+      <c r="S27" t="s">
+        <v>595</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="J27" t="s">
-        <v>427</v>
-      </c>
-      <c r="L27" t="s">
-        <v>428</v>
-      </c>
-      <c r="M27" t="s">
-        <v>361</v>
-      </c>
-      <c r="N27" t="s">
-        <v>453</v>
-      </c>
-      <c r="R27" t="s">
-        <v>595</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="W27" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="X27" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="V27" s="26" t="s">
+      <c r="Y27" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="X27" s="13" t="s">
+      <c r="AH27" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="AI27">
         <v>56</v>
@@ -7601,12 +7648,12 @@
         <v>4</v>
       </c>
       <c r="AK27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B28">
         <v>74211</v>
@@ -7618,7 +7665,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7627,64 +7674,64 @@
         <v>1350</v>
       </c>
       <c r="I28" t="s">
+        <v>601</v>
+      </c>
+      <c r="J28" t="s">
+        <v>602</v>
+      </c>
+      <c r="L28" t="s">
+        <v>549</v>
+      </c>
+      <c r="R28" t="s">
+        <v>600</v>
+      </c>
+      <c r="S28" t="s">
         <v>603</v>
       </c>
-      <c r="J28" t="s">
-        <v>604</v>
-      </c>
-      <c r="L28" t="s">
-        <v>551</v>
-      </c>
-      <c r="R28" t="s">
-        <v>602</v>
-      </c>
-      <c r="S28" t="s">
-        <v>605</v>
-      </c>
       <c r="T28" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB28" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="X28" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB28" s="14" t="s">
-        <v>404</v>
-      </c>
       <c r="AC28" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AD28" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AH28" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AI28">
         <v>65</v>
@@ -7693,12 +7740,12 @@
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B29">
         <v>2517295</v>
@@ -7710,7 +7757,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -7722,67 +7769,67 @@
         <v>40751</v>
       </c>
       <c r="J29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="R29" t="s">
+        <v>604</v>
+      </c>
+      <c r="S29" t="s">
         <v>606</v>
       </c>
-      <c r="S29" t="s">
-        <v>608</v>
-      </c>
       <c r="T29" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Y29" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AC29" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AD29" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AI29">
         <v>76</v>
@@ -7791,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="AK29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7827,78 +7874,78 @@
         <v>212</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2">
         <v>1288683</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B3">
         <v>143864</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B4">
         <v>25825</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>2544322</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -7965,84 +8012,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="G2" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="G3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8056,34 +8103,34 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="E4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="G4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8097,75 +8144,75 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>619</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>619</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>619</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="H6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="L6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="M6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8179,198 +8226,198 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>634</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>634</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>634</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>634</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F8" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="G9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="H9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
+        <v>637</v>
+      </c>
+      <c r="E10" t="s">
+        <v>637</v>
+      </c>
+      <c r="F10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G10" t="s">
         <v>623</v>
       </c>
-      <c r="E10" t="s">
-        <v>623</v>
-      </c>
-      <c r="F10" t="s">
-        <v>623</v>
-      </c>
-      <c r="G10" t="s">
-        <v>629</v>
-      </c>
       <c r="H10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="L10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="E11" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="F11" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="G11" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H11" t="s">
+        <v>625</v>
+      </c>
+      <c r="I11" t="s">
+        <v>625</v>
+      </c>
+      <c r="J11" t="s">
+        <v>627</v>
+      </c>
+      <c r="K11" t="s">
+        <v>627</v>
+      </c>
+      <c r="L11" t="s">
+        <v>627</v>
+      </c>
+      <c r="M11" t="s">
         <v>631</v>
-      </c>
-      <c r="I11" t="s">
-        <v>631</v>
-      </c>
-      <c r="J11" t="s">
-        <v>633</v>
-      </c>
-      <c r="K11" t="s">
-        <v>633</v>
-      </c>
-      <c r="L11" t="s">
-        <v>633</v>
-      </c>
-      <c r="M11" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8384,34 +8431,34 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="E12" t="s">
+        <v>639</v>
+      </c>
+      <c r="F12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12" t="s">
+        <v>620</v>
+      </c>
+      <c r="H12" t="s">
         <v>626</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>626</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>626</v>
       </c>
-      <c r="H12" t="s">
-        <v>632</v>
-      </c>
-      <c r="I12" t="s">
-        <v>632</v>
-      </c>
-      <c r="J12" t="s">
-        <v>632</v>
-      </c>
       <c r="K12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="L12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="M12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="647">
   <si>
     <t>Places</t>
   </si>
@@ -657,9 +657,6 @@
     <t>24.33.</t>
   </si>
   <si>
-    <t>jeddah</t>
-  </si>
-  <si>
     <t>Latest Score</t>
   </si>
   <si>
@@ -1957,9 +1954,6 @@
   </si>
   <si>
     <t>22.22.</t>
-  </si>
-  <si>
-    <t>31.92.</t>
   </si>
   <si>
     <t>40.4165,-3.7026</t>
@@ -2443,7 +2437,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,11 +2557,8 @@
       <c r="C2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>644</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>210</v>
@@ -2620,30 +2611,27 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -3035,10 +3023,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3065,368 +3053,368 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="8">
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="8">
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="8">
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" s="8">
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>187</v>
@@ -3595,7 +3583,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>188</v>
@@ -3638,7 +3626,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
@@ -3681,7 +3669,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>189</v>
@@ -3724,7 +3712,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>129</v>
@@ -3767,7 +3755,7 @@
         <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>132</v>
@@ -3810,7 +3798,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>135</v>
@@ -3853,7 +3841,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>138</v>
@@ -3896,7 +3884,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>141</v>
@@ -3939,7 +3927,7 @@
         <v>143</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>144</v>
@@ -3982,7 +3970,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>190</v>
@@ -4025,7 +4013,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>191</v>
@@ -4068,7 +4056,7 @@
         <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>192</v>
@@ -4111,7 +4099,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>193</v>
@@ -4154,7 +4142,7 @@
         <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>194</v>
@@ -4197,7 +4185,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>195</v>
@@ -4240,7 +4228,7 @@
         <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>160</v>
@@ -4283,7 +4271,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>162</v>
@@ -4326,7 +4314,7 @@
         <v>164</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>165</v>
@@ -4369,7 +4357,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>167</v>
@@ -4412,7 +4400,7 @@
         <v>164</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>169</v>
@@ -4455,7 +4443,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>196</v>
@@ -4498,7 +4486,7 @@
         <v>173</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>174</v>
@@ -4541,7 +4529,7 @@
         <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>197</v>
@@ -4584,7 +4572,7 @@
         <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>178</v>
@@ -4627,7 +4615,7 @@
         <v>177</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>180</v>
@@ -4670,7 +4658,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>182</v>
@@ -4713,7 +4701,7 @@
         <v>177</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>184</v>
@@ -4756,7 +4744,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>186</v>
@@ -4835,43 +4823,43 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4885,13 +4873,13 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4905,33 +4893,33 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4951,93 +4939,93 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
         <v>264</v>
       </c>
-      <c r="C11" t="s">
-        <v>265</v>
-      </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,13 +5039,13 @@
         <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5085,31 +5073,31 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" t="s">
         <v>325</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" t="s">
         <v>327</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>328</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>331</v>
-      </c>
-      <c r="J1" t="s">
-        <v>332</v>
       </c>
       <c r="M1">
         <v>67.071428571428569</v>
@@ -5118,69 +5106,69 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" t="s">
         <v>333</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>334</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>335</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>336</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>337</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>338</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>339</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>340</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>341</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>342</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>343</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>344</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" t="s">
         <v>349</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>350</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>351</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2">
         <v>1288683</v>
@@ -5192,7 +5180,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5201,73 +5189,73 @@
         <v>1252</v>
       </c>
       <c r="I2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>356</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>357</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>358</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>359</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S2" t="s">
         <v>360</v>
       </c>
-      <c r="R2" t="s">
-        <v>353</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AE2" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AF2" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AG2" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>376</v>
       </c>
       <c r="AI2">
         <v>88</v>
@@ -5276,12 +5264,12 @@
         <v>9</v>
       </c>
       <c r="AK2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3">
         <v>143864</v>
@@ -5293,7 +5281,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5305,67 +5293,67 @@
         <v>60442</v>
       </c>
       <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" t="s">
         <v>379</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" t="s">
         <v>380</v>
       </c>
-      <c r="M3" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
+        <v>377</v>
+      </c>
+      <c r="S3" t="s">
         <v>381</v>
       </c>
-      <c r="R3" t="s">
-        <v>378</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Z3" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AA3" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="AI3">
         <v>74</v>
@@ -5374,12 +5362,12 @@
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>25825</v>
@@ -5391,7 +5379,7 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5400,67 +5388,67 @@
         <v>1362</v>
       </c>
       <c r="I4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J4" t="s">
         <v>396</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>397</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>359</v>
+      </c>
+      <c r="R4" t="s">
+        <v>394</v>
+      </c>
+      <c r="S4" t="s">
         <v>398</v>
       </c>
-      <c r="M4" t="s">
-        <v>360</v>
-      </c>
-      <c r="R4" t="s">
-        <v>395</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="V4" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF4" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="Z4" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH4" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="AF4" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="AI4">
         <v>87</v>
@@ -5469,12 +5457,12 @@
         <v>9</v>
       </c>
       <c r="AK4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5">
         <v>2544322</v>
@@ -5486,7 +5474,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5498,64 +5486,64 @@
         <v>71727</v>
       </c>
       <c r="J5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L5" t="s">
         <v>407</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="R5" t="s">
+        <v>405</v>
+      </c>
+      <c r="S5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="M5" t="s">
-        <v>359</v>
-      </c>
-      <c r="R5" t="s">
-        <v>406</v>
-      </c>
-      <c r="S5" t="s">
-        <v>309</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X5" s="15" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF5" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="Y5" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="AF5" s="22" t="s">
-        <v>369</v>
-      </c>
       <c r="AG5" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI5">
         <v>77</v>
@@ -5564,12 +5552,12 @@
         <v>11</v>
       </c>
       <c r="AK5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6">
         <v>3202275</v>
@@ -5581,7 +5569,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5590,70 +5578,70 @@
         <v>1225</v>
       </c>
       <c r="I6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" t="s">
         <v>412</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
         <v>413</v>
       </c>
-      <c r="L6" t="s">
-        <v>380</v>
-      </c>
-      <c r="M6" t="s">
-        <v>359</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
+        <v>410</v>
+      </c>
+      <c r="S6" t="s">
         <v>414</v>
       </c>
-      <c r="R6" t="s">
-        <v>411</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="U6" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="W6" s="13" t="s">
+      <c r="X6" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y6" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="Z6" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AA6" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AB6" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="AB6" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="AI6">
         <v>64</v>
@@ -5662,12 +5650,12 @@
         <v>13</v>
       </c>
       <c r="AK6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7">
         <v>1530227</v>
@@ -5679,7 +5667,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5688,67 +5676,67 @@
         <v>1352</v>
       </c>
       <c r="I7" t="s">
+        <v>423</v>
+      </c>
+      <c r="J7" t="s">
         <v>424</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>425</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>358</v>
+      </c>
+      <c r="R7" t="s">
+        <v>422</v>
+      </c>
+      <c r="S7" t="s">
         <v>426</v>
       </c>
-      <c r="M7" t="s">
-        <v>359</v>
-      </c>
-      <c r="R7" t="s">
-        <v>423</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AA7" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AA7" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD7" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="AC7" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AE7" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AF7" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG7" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AF7" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>434</v>
-      </c>
-      <c r="AH7" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="AI7">
         <v>56</v>
@@ -5757,12 +5745,12 @@
         <v>13</v>
       </c>
       <c r="AK7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8">
         <v>1808381</v>
@@ -5774,7 +5762,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5783,64 +5771,64 @@
         <v>1211</v>
       </c>
       <c r="I8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" t="s">
         <v>438</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>425</v>
+      </c>
+      <c r="R8" t="s">
+        <v>436</v>
+      </c>
+      <c r="S8" t="s">
         <v>439</v>
       </c>
-      <c r="L8" t="s">
-        <v>426</v>
-      </c>
-      <c r="R8" t="s">
-        <v>437</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="U8" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="W8" s="13" t="s">
+      <c r="X8" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="Y8" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>446</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>447</v>
       </c>
       <c r="AI8">
         <v>52</v>
@@ -5849,12 +5837,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9">
         <v>30839</v>
@@ -5866,7 +5854,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5878,64 +5866,64 @@
         <v>47016</v>
       </c>
       <c r="J9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L9" t="s">
+        <v>449</v>
+      </c>
+      <c r="M9" t="s">
         <v>450</v>
       </c>
-      <c r="M9" t="s">
+      <c r="R9" t="s">
+        <v>448</v>
+      </c>
+      <c r="S9" t="s">
+        <v>271</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="R9" t="s">
-        <v>449</v>
-      </c>
-      <c r="S9" t="s">
-        <v>272</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V9" s="14" t="s">
+      <c r="Y9" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z9" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="W9" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="AA9" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE9" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="AF9" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="Z9" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE9" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="AF9" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>454</v>
-      </c>
       <c r="AH9" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AI9">
         <v>87</v>
@@ -5944,12 +5932,12 @@
         <v>11</v>
       </c>
       <c r="AK9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10">
         <v>1555875</v>
@@ -5961,76 +5949,76 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H10">
         <v>1270</v>
       </c>
       <c r="I10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J10" t="s">
         <v>458</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>379</v>
+      </c>
+      <c r="M10" t="s">
         <v>459</v>
       </c>
-      <c r="L10" t="s">
-        <v>380</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="R10" t="s">
+        <v>455</v>
+      </c>
+      <c r="S10" t="s">
+        <v>289</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z10" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="R10" t="s">
-        <v>456</v>
-      </c>
-      <c r="S10" t="s">
-        <v>290</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="X10" s="16" t="s">
+      <c r="AA10" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB10" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="Y10" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z10" s="13" t="s">
+      <c r="AC10" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="AA10" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>462</v>
-      </c>
       <c r="AF10" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI10">
         <v>81</v>
@@ -6039,12 +6027,12 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B11">
         <v>1507506</v>
@@ -6056,7 +6044,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6065,64 +6053,64 @@
         <v>1295</v>
       </c>
       <c r="I11" t="s">
+        <v>464</v>
+      </c>
+      <c r="J11" t="s">
         <v>465</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>466</v>
       </c>
-      <c r="L11" t="s">
+      <c r="R11" t="s">
+        <v>463</v>
+      </c>
+      <c r="S11" t="s">
         <v>467</v>
       </c>
-      <c r="R11" t="s">
-        <v>464</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="U11" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="W11" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AB11" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="AB11" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC11" s="14" t="s">
+      <c r="AF11" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="AD11" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AG11" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="AF11" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>474</v>
-      </c>
       <c r="AH11" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AI11">
         <v>51</v>
@@ -6131,12 +6119,12 @@
         <v>15</v>
       </c>
       <c r="AK11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12">
         <v>3171178</v>
@@ -6148,7 +6136,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6157,61 +6145,61 @@
         <v>992</v>
       </c>
       <c r="I12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" t="s">
         <v>477</v>
       </c>
-      <c r="J12" t="s">
+      <c r="R12" t="s">
+        <v>475</v>
+      </c>
+      <c r="S12" t="s">
         <v>478</v>
       </c>
-      <c r="R12" t="s">
-        <v>476</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="U12" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="V12" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AA12" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD12" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AF12" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="AF12" s="21" t="s">
+      <c r="AG12" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH12" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="AI12">
         <v>39</v>
@@ -6220,12 +6208,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B13">
         <v>4363524</v>
@@ -6237,7 +6225,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6246,64 +6234,64 @@
         <v>1091</v>
       </c>
       <c r="I13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" t="s">
         <v>493</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>379</v>
+      </c>
+      <c r="R13" t="s">
+        <v>491</v>
+      </c>
+      <c r="S13" t="s">
         <v>494</v>
       </c>
-      <c r="L13" t="s">
-        <v>380</v>
-      </c>
-      <c r="R13" t="s">
-        <v>492</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z13" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="T13" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z13" s="25" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB13" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB13" s="14" t="s">
+      <c r="AC13" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG13" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="AC13" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>498</v>
-      </c>
       <c r="AH13" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AI13">
         <v>63</v>
@@ -6312,12 +6300,12 @@
         <v>2</v>
       </c>
       <c r="AK13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14">
         <v>1391491</v>
@@ -6329,7 +6317,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6338,67 +6326,67 @@
         <v>1142</v>
       </c>
       <c r="I14" t="s">
+        <v>500</v>
+      </c>
+      <c r="J14" t="s">
         <v>501</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>379</v>
+      </c>
+      <c r="M14" t="s">
+        <v>459</v>
+      </c>
+      <c r="R14" t="s">
+        <v>499</v>
+      </c>
+      <c r="S14" t="s">
         <v>502</v>
       </c>
-      <c r="L14" t="s">
-        <v>380</v>
-      </c>
-      <c r="M14" t="s">
-        <v>460</v>
-      </c>
-      <c r="R14" t="s">
-        <v>500</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="U14" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="W14" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="W14" s="26" t="s">
+      <c r="X14" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="X14" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB14" s="14" t="s">
+      <c r="AC14" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD14" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="AC14" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD14" s="15" t="s">
-        <v>508</v>
-      </c>
       <c r="AE14" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AI14">
         <v>56</v>
@@ -6407,12 +6395,12 @@
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15">
         <v>1150009</v>
@@ -6424,7 +6412,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6433,64 +6421,64 @@
         <v>1332</v>
       </c>
       <c r="I15" t="s">
+        <v>510</v>
+      </c>
+      <c r="J15" t="s">
         <v>511</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>379</v>
+      </c>
+      <c r="R15" t="s">
+        <v>509</v>
+      </c>
+      <c r="S15" t="s">
         <v>512</v>
       </c>
-      <c r="L15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R15" t="s">
-        <v>510</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="T15" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF15" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AH15" s="19" t="s">
         <v>514</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>515</v>
       </c>
       <c r="AI15">
         <v>72</v>
@@ -6499,12 +6487,12 @@
         <v>19</v>
       </c>
       <c r="AK15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16">
         <v>1099725</v>
@@ -6516,7 +6504,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6525,67 +6513,67 @@
         <v>1209</v>
       </c>
       <c r="I16" t="s">
+        <v>517</v>
+      </c>
+      <c r="J16" t="s">
         <v>518</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>379</v>
+      </c>
+      <c r="M16" t="s">
+        <v>358</v>
+      </c>
+      <c r="R16" t="s">
+        <v>516</v>
+      </c>
+      <c r="S16" t="s">
+        <v>295</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="L16" t="s">
-        <v>380</v>
-      </c>
-      <c r="M16" t="s">
-        <v>359</v>
-      </c>
-      <c r="R16" t="s">
-        <v>517</v>
-      </c>
-      <c r="S16" t="s">
-        <v>296</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="U16" s="14" t="s">
+      <c r="W16" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF16" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="V16" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD16" s="14" t="s">
+      <c r="AG16" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AH16" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG16" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="AI16">
         <v>58</v>
@@ -6594,12 +6582,12 @@
         <v>17</v>
       </c>
       <c r="AK16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B17">
         <v>1009666</v>
@@ -6611,7 +6599,7 @@
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6620,64 +6608,64 @@
         <v>1291</v>
       </c>
       <c r="I17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J17" s="20">
         <v>94896</v>
       </c>
       <c r="L17" t="s">
+        <v>526</v>
+      </c>
+      <c r="R17" t="s">
+        <v>524</v>
+      </c>
+      <c r="S17" t="s">
         <v>527</v>
       </c>
-      <c r="R17" t="s">
-        <v>525</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="X17" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="X17" s="16" t="s">
+      <c r="Y17" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG17" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="Y17" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG17" s="22" t="s">
+      <c r="AH17" s="13" t="s">
         <v>530</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>531</v>
       </c>
       <c r="AI17">
         <v>99</v>
@@ -6686,12 +6674,12 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B18">
         <v>753323</v>
@@ -6703,7 +6691,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6712,67 +6700,67 @@
         <v>1291</v>
       </c>
       <c r="I18" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" t="s">
         <v>533</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
+        <v>379</v>
+      </c>
+      <c r="M18" t="s">
+        <v>358</v>
+      </c>
+      <c r="R18" t="s">
+        <v>531</v>
+      </c>
+      <c r="S18" t="s">
         <v>534</v>
       </c>
-      <c r="L18" t="s">
-        <v>380</v>
-      </c>
-      <c r="M18" t="s">
-        <v>359</v>
-      </c>
-      <c r="R18" t="s">
-        <v>532</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="T18" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC18" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="AC18" s="13" t="s">
+      <c r="AD18" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH18" s="13" t="s">
         <v>536</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF18" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH18" s="13" t="s">
-        <v>537</v>
       </c>
       <c r="AI18">
         <v>71</v>
@@ -6781,12 +6769,12 @@
         <v>1</v>
       </c>
       <c r="AK18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B19">
         <v>947098</v>
@@ -6798,7 +6786,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6807,67 +6795,67 @@
         <v>1321</v>
       </c>
       <c r="I19" t="s">
+        <v>538</v>
+      </c>
+      <c r="J19" t="s">
         <v>539</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
+        <v>407</v>
+      </c>
+      <c r="M19" t="s">
         <v>540</v>
       </c>
-      <c r="L19" t="s">
-        <v>408</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="R19" t="s">
+        <v>537</v>
+      </c>
+      <c r="S19" t="s">
         <v>541</v>
       </c>
-      <c r="R19" t="s">
-        <v>538</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="W19" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AF19" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG19" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="AF19" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG19" s="13" t="s">
+      <c r="AH19" s="13" t="s">
         <v>545</v>
-      </c>
-      <c r="AH19" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="AI19">
         <v>44</v>
@@ -6876,12 +6864,12 @@
         <v>2</v>
       </c>
       <c r="AK19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B20">
         <v>972259</v>
@@ -6893,7 +6881,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6902,67 +6890,67 @@
         <v>1255</v>
       </c>
       <c r="I20" t="s">
+        <v>547</v>
+      </c>
+      <c r="J20" t="s">
+        <v>493</v>
+      </c>
+      <c r="L20" t="s">
         <v>548</v>
       </c>
-      <c r="J20" t="s">
-        <v>494</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>358</v>
+      </c>
+      <c r="R20" t="s">
+        <v>546</v>
+      </c>
+      <c r="S20" t="s">
         <v>549</v>
       </c>
-      <c r="M20" t="s">
-        <v>359</v>
-      </c>
-      <c r="R20" t="s">
-        <v>547</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="T20" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AC20" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG20" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="AC20" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF20" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>552</v>
-      </c>
       <c r="AH20" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AI20">
         <v>63</v>
@@ -6971,12 +6959,12 @@
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B21">
         <v>2169583</v>
@@ -6988,7 +6976,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -6997,67 +6985,67 @@
         <v>1168</v>
       </c>
       <c r="I21" t="s">
+        <v>553</v>
+      </c>
+      <c r="J21" t="s">
         <v>554</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
+        <v>397</v>
+      </c>
+      <c r="M21" t="s">
+        <v>359</v>
+      </c>
+      <c r="R21" t="s">
+        <v>552</v>
+      </c>
+      <c r="S21" t="s">
         <v>555</v>
       </c>
-      <c r="L21" t="s">
-        <v>398</v>
-      </c>
-      <c r="M21" t="s">
-        <v>360</v>
-      </c>
-      <c r="R21" t="s">
-        <v>553</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U21" s="13" t="s">
+      <c r="V21" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA21" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AC21" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="AC21" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD21" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="AG21" s="13" t="s">
+      <c r="AH21" s="13" t="s">
         <v>560</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>561</v>
       </c>
       <c r="AI21">
         <v>64</v>
@@ -7066,12 +7054,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B22">
         <v>3729374</v>
@@ -7083,7 +7071,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7092,70 +7080,70 @@
         <v>1201</v>
       </c>
       <c r="I22" t="s">
+        <v>562</v>
+      </c>
+      <c r="J22" t="s">
         <v>563</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
+        <v>379</v>
+      </c>
+      <c r="M22" t="s">
+        <v>459</v>
+      </c>
+      <c r="N22" t="s">
         <v>564</v>
       </c>
-      <c r="L22" t="s">
-        <v>380</v>
-      </c>
-      <c r="M22" t="s">
-        <v>460</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="R22" t="s">
+        <v>561</v>
+      </c>
+      <c r="S22" t="s">
         <v>565</v>
       </c>
-      <c r="R22" t="s">
-        <v>562</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y22" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="X22" s="24" t="s">
+      <c r="Z22" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC22" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF22" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="Y22" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB22" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC22" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="AD22" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AG22" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="AF22" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>570</v>
-      </c>
       <c r="AH22" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI22">
         <v>82</v>
@@ -7164,12 +7152,12 @@
         <v>12</v>
       </c>
       <c r="AK22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B23">
         <v>1384222</v>
@@ -7181,7 +7169,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7190,70 +7178,70 @@
         <v>1215</v>
       </c>
       <c r="I23" t="s">
+        <v>571</v>
+      </c>
+      <c r="J23" t="s">
         <v>572</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
+        <v>379</v>
+      </c>
+      <c r="M23" t="s">
+        <v>357</v>
+      </c>
+      <c r="N23" t="s">
+        <v>359</v>
+      </c>
+      <c r="R23" t="s">
+        <v>570</v>
+      </c>
+      <c r="S23" t="s">
         <v>573</v>
       </c>
-      <c r="L23" t="s">
-        <v>380</v>
-      </c>
-      <c r="M23" t="s">
-        <v>358</v>
-      </c>
-      <c r="N23" t="s">
-        <v>360</v>
-      </c>
-      <c r="R23" t="s">
-        <v>571</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="T23" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="U23" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD23" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA23" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD23" s="25" t="s">
+      <c r="AE23" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="AE23" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>577</v>
-      </c>
       <c r="AH23" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI23">
         <v>33</v>
@@ -7262,12 +7250,12 @@
         <v>4</v>
       </c>
       <c r="AK23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B24">
         <v>2381459</v>
@@ -7279,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7288,64 +7276,64 @@
         <v>1250</v>
       </c>
       <c r="I24" t="s">
+        <v>578</v>
+      </c>
+      <c r="J24" t="s">
         <v>579</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
+        <v>358</v>
+      </c>
+      <c r="R24" t="s">
+        <v>577</v>
+      </c>
+      <c r="S24" t="s">
         <v>580</v>
       </c>
-      <c r="L24" t="s">
-        <v>359</v>
-      </c>
-      <c r="R24" t="s">
-        <v>578</v>
-      </c>
-      <c r="S24" t="s">
-        <v>581</v>
-      </c>
       <c r="T24" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V24" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z24" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC24" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD24" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF24" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="W24" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z24" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA24" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC24" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD24" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE24" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF24" s="13" t="s">
-        <v>393</v>
-      </c>
       <c r="AG24" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI24">
         <v>79</v>
@@ -7354,12 +7342,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25">
         <v>437359</v>
@@ -7371,76 +7359,76 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H25">
         <v>1321</v>
       </c>
       <c r="I25" t="s">
+        <v>583</v>
+      </c>
+      <c r="J25" t="s">
         <v>584</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>379</v>
+      </c>
+      <c r="M25" t="s">
+        <v>359</v>
+      </c>
+      <c r="R25" t="s">
+        <v>581</v>
+      </c>
+      <c r="S25" t="s">
+        <v>311</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="L25" t="s">
-        <v>380</v>
-      </c>
-      <c r="M25" t="s">
-        <v>360</v>
-      </c>
-      <c r="R25" t="s">
-        <v>582</v>
-      </c>
-      <c r="S25" t="s">
-        <v>312</v>
-      </c>
-      <c r="T25" s="14" t="s">
+      <c r="U25" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>587</v>
-      </c>
       <c r="AH25" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI25">
         <v>69</v>
@@ -7449,12 +7437,12 @@
         <v>3</v>
       </c>
       <c r="AK25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B26">
         <v>3732429</v>
@@ -7466,7 +7454,7 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7475,73 +7463,73 @@
         <v>1202</v>
       </c>
       <c r="I26" t="s">
+        <v>588</v>
+      </c>
+      <c r="J26" t="s">
+        <v>511</v>
+      </c>
+      <c r="L26" t="s">
+        <v>379</v>
+      </c>
+      <c r="M26" t="s">
+        <v>358</v>
+      </c>
+      <c r="N26" t="s">
+        <v>450</v>
+      </c>
+      <c r="O26" t="s">
+        <v>564</v>
+      </c>
+      <c r="R26" t="s">
+        <v>587</v>
+      </c>
+      <c r="S26" t="s">
         <v>589</v>
       </c>
-      <c r="J26" t="s">
-        <v>512</v>
-      </c>
-      <c r="L26" t="s">
-        <v>380</v>
-      </c>
-      <c r="M26" t="s">
-        <v>359</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="T26" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB26" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="O26" t="s">
-        <v>565</v>
-      </c>
-      <c r="R26" t="s">
-        <v>588</v>
-      </c>
-      <c r="S26" t="s">
-        <v>590</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="X26" s="14" t="s">
+      <c r="AC26" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG26" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH26" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE26" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="AH26" s="13" t="s">
-        <v>498</v>
       </c>
       <c r="AI26">
         <v>72</v>
@@ -7550,12 +7538,12 @@
         <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B27">
         <v>1170113</v>
@@ -7567,7 +7555,7 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7576,70 +7564,70 @@
         <v>1157</v>
       </c>
       <c r="I27" t="s">
+        <v>593</v>
+      </c>
+      <c r="J27" t="s">
+        <v>424</v>
+      </c>
+      <c r="L27" t="s">
+        <v>425</v>
+      </c>
+      <c r="M27" t="s">
+        <v>358</v>
+      </c>
+      <c r="N27" t="s">
+        <v>450</v>
+      </c>
+      <c r="R27" t="s">
+        <v>592</v>
+      </c>
+      <c r="S27" t="s">
         <v>594</v>
       </c>
-      <c r="J27" t="s">
-        <v>425</v>
-      </c>
-      <c r="L27" t="s">
-        <v>426</v>
-      </c>
-      <c r="M27" t="s">
-        <v>359</v>
-      </c>
-      <c r="N27" t="s">
-        <v>451</v>
-      </c>
-      <c r="R27" t="s">
-        <v>593</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="T27" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="V27" s="26" t="s">
+      <c r="W27" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="X27" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="X27" s="13" t="s">
+      <c r="Y27" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="Y27" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG27" s="13" t="s">
+      <c r="AH27" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="AI27">
         <v>56</v>
@@ -7648,12 +7636,12 @@
         <v>4</v>
       </c>
       <c r="AK27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B28">
         <v>74211</v>
@@ -7665,7 +7653,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7674,64 +7662,64 @@
         <v>1350</v>
       </c>
       <c r="I28" t="s">
+        <v>600</v>
+      </c>
+      <c r="J28" t="s">
         <v>601</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
+        <v>548</v>
+      </c>
+      <c r="R28" t="s">
+        <v>599</v>
+      </c>
+      <c r="S28" t="s">
         <v>602</v>
       </c>
-      <c r="L28" t="s">
-        <v>549</v>
-      </c>
-      <c r="R28" t="s">
-        <v>600</v>
-      </c>
-      <c r="S28" t="s">
-        <v>603</v>
-      </c>
       <c r="T28" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W28" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X28" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y28" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AB28" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD28" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="AC28" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD28" s="17" t="s">
-        <v>403</v>
-      </c>
       <c r="AE28" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AH28" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AI28">
         <v>65</v>
@@ -7740,12 +7728,12 @@
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B29">
         <v>2517295</v>
@@ -7757,7 +7745,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -7769,67 +7757,67 @@
         <v>40751</v>
       </c>
       <c r="J29" t="s">
+        <v>604</v>
+      </c>
+      <c r="L29" t="s">
+        <v>379</v>
+      </c>
+      <c r="M29" t="s">
+        <v>358</v>
+      </c>
+      <c r="N29" t="s">
+        <v>450</v>
+      </c>
+      <c r="R29" t="s">
+        <v>603</v>
+      </c>
+      <c r="S29" t="s">
         <v>605</v>
       </c>
-      <c r="L29" t="s">
-        <v>380</v>
-      </c>
-      <c r="M29" t="s">
-        <v>359</v>
-      </c>
-      <c r="N29" t="s">
-        <v>451</v>
-      </c>
-      <c r="R29" t="s">
-        <v>604</v>
-      </c>
-      <c r="S29" t="s">
-        <v>606</v>
-      </c>
       <c r="T29" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Y29" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AC29" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AD29" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI29">
         <v>76</v>
@@ -7838,7 +7826,7 @@
         <v>3</v>
       </c>
       <c r="AK29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7865,87 +7853,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
         <v>607</v>
-      </c>
-      <c r="E1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2">
         <v>1288683</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3">
         <v>143864</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>25825</v>
       </c>
       <c r="C4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" t="s">
         <v>611</v>
       </c>
-      <c r="D4" t="s">
-        <v>612</v>
-      </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5">
         <v>2544322</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -8012,84 +8000,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8103,34 +8091,34 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8144,75 +8132,75 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8226,198 +8214,198 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" t="s">
-        <v>265</v>
-      </c>
       <c r="D10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H10" t="s">
         <v>623</v>
       </c>
-      <c r="H10" t="s">
-        <v>624</v>
-      </c>
       <c r="I10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8431,34 +8419,34 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="652">
   <si>
     <t>Places</t>
   </si>
@@ -669,12 +669,6 @@
     <t>Manager_iD</t>
   </si>
   <si>
-    <t>21.5169,39.2192</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1962,13 +1956,35 @@
     <t>ES</t>
   </si>
   <si>
-    <t>23.3.</t>
+    <t>20.16.</t>
+  </si>
+  <si>
+    <t>13.84.</t>
+  </si>
+  <si>
+    <t>22.39.</t>
+  </si>
+  <si>
+    <t>barcelona</t>
+  </si>
+  <si>
+    <t>12.86.</t>
+  </si>
+  <si>
+    <t>22.2.</t>
+  </si>
+  <si>
+    <t>41.3888,2.159</t>
+  </si>
+  <si>
+    <t>24.64.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2434,28 +2450,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.078125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2557,14 +2575,17 @@
       <c r="C2" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="D2" t="s">
+        <v>644</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>644</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>210</v>
+        <v>644</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>210</v>
@@ -2614,24 +2635,68 @@
         <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>644</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
+      </c>
+      <c r="E4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G5" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -2651,9 +2716,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +3088,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3045,10 +3110,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,354 +3132,354 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" s="8">
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" s="8">
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="8">
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" s="8">
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3434,10 +3499,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3540,7 +3605,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>187</v>
@@ -3583,7 +3648,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>188</v>
@@ -3626,7 +3691,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
@@ -3669,7 +3734,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>189</v>
@@ -3712,7 +3777,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>129</v>
@@ -3755,7 +3820,7 @@
         <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>132</v>
@@ -3798,7 +3863,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>135</v>
@@ -3841,7 +3906,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>138</v>
@@ -3884,7 +3949,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>141</v>
@@ -3927,7 +3992,7 @@
         <v>143</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>144</v>
@@ -3970,7 +4035,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>190</v>
@@ -4013,7 +4078,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>191</v>
@@ -4056,7 +4121,7 @@
         <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>192</v>
@@ -4099,7 +4164,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>193</v>
@@ -4142,7 +4207,7 @@
         <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>194</v>
@@ -4185,7 +4250,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>195</v>
@@ -4228,7 +4293,7 @@
         <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>160</v>
@@ -4271,7 +4336,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>162</v>
@@ -4314,7 +4379,7 @@
         <v>164</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>165</v>
@@ -4357,7 +4422,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>167</v>
@@ -4400,7 +4465,7 @@
         <v>164</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>169</v>
@@ -4443,7 +4508,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>196</v>
@@ -4486,7 +4551,7 @@
         <v>173</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>174</v>
@@ -4529,7 +4594,7 @@
         <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>197</v>
@@ -4572,7 +4637,7 @@
         <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>178</v>
@@ -4615,7 +4680,7 @@
         <v>177</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>180</v>
@@ -4658,7 +4723,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>182</v>
@@ -4701,7 +4766,7 @@
         <v>177</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>184</v>
@@ -4744,7 +4809,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>186</v>
@@ -4792,10 +4857,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,43 +4888,43 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4873,13 +4938,13 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4893,33 +4958,33 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,93 +5004,93 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5039,13 +5104,13 @@
         <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5063,41 +5128,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>329</v>
-      </c>
-      <c r="I1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" t="s">
-        <v>331</v>
       </c>
       <c r="M1">
         <v>67.071428571428569</v>
@@ -5106,69 +5171,69 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" t="s">
         <v>332</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>333</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>334</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>335</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>336</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>337</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>338</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>339</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>340</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>341</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>342</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" t="s">
         <v>347</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" t="s">
         <v>348</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>349</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2">
         <v>1288683</v>
@@ -5180,7 +5245,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5189,73 +5254,73 @@
         <v>1252</v>
       </c>
       <c r="I2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
         <v>354</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>355</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>356</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>357</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S2" t="s">
         <v>358</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="R2" t="s">
-        <v>352</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="V2" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AA2" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AC2" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AD2" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AF2" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AH2" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="AI2">
         <v>88</v>
@@ -5264,12 +5329,12 @@
         <v>9</v>
       </c>
       <c r="AK2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B3">
         <v>143864</v>
@@ -5281,7 +5346,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5293,67 +5358,67 @@
         <v>60442</v>
       </c>
       <c r="J3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N3" t="s">
         <v>378</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
+        <v>375</v>
+      </c>
+      <c r="S3" t="s">
         <v>379</v>
       </c>
-      <c r="M3" t="s">
-        <v>358</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="T3" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="R3" t="s">
-        <v>377</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="W3" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="X3" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Z3" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AA3" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AB3" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AF3" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>392</v>
       </c>
       <c r="AI3">
         <v>74</v>
@@ -5362,12 +5427,12 @@
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B4">
         <v>25825</v>
@@ -5379,7 +5444,7 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5388,67 +5453,67 @@
         <v>1362</v>
       </c>
       <c r="I4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" t="s">
         <v>395</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>357</v>
+      </c>
+      <c r="R4" t="s">
+        <v>392</v>
+      </c>
+      <c r="S4" t="s">
         <v>396</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="M4" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" t="s">
-        <v>394</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="X4" s="17" t="s">
+      <c r="AE4" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="Y4" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AH4" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF4" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="AI4">
         <v>87</v>
@@ -5457,12 +5522,12 @@
         <v>9</v>
       </c>
       <c r="AK4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B5">
         <v>2544322</v>
@@ -5474,7 +5539,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5486,64 +5551,64 @@
         <v>71727</v>
       </c>
       <c r="J5" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" t="s">
+        <v>403</v>
+      </c>
+      <c r="S5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE5" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="M5" t="s">
-        <v>358</v>
-      </c>
-      <c r="R5" t="s">
-        <v>405</v>
-      </c>
-      <c r="S5" t="s">
-        <v>308</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>409</v>
-      </c>
       <c r="AF5" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AI5">
         <v>77</v>
@@ -5552,12 +5617,12 @@
         <v>11</v>
       </c>
       <c r="AK5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6">
         <v>3202275</v>
@@ -5569,7 +5634,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5578,70 +5643,70 @@
         <v>1225</v>
       </c>
       <c r="I6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J6" t="s">
+        <v>410</v>
+      </c>
+      <c r="L6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" t="s">
+        <v>356</v>
+      </c>
+      <c r="N6" t="s">
         <v>411</v>
       </c>
-      <c r="J6" t="s">
+      <c r="R6" t="s">
+        <v>408</v>
+      </c>
+      <c r="S6" t="s">
         <v>412</v>
       </c>
-      <c r="L6" t="s">
-        <v>379</v>
-      </c>
-      <c r="M6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="T6" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="R6" t="s">
-        <v>410</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="U6" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="X6" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y6" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="W6" s="13" t="s">
+      <c r="Z6" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AB6" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>418</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>420</v>
       </c>
       <c r="AI6">
         <v>64</v>
@@ -5650,12 +5715,12 @@
         <v>13</v>
       </c>
       <c r="AK6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B7">
         <v>1530227</v>
@@ -5667,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5676,67 +5741,67 @@
         <v>1352</v>
       </c>
       <c r="I7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L7" t="s">
         <v>423</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
+        <v>356</v>
+      </c>
+      <c r="R7" t="s">
+        <v>420</v>
+      </c>
+      <c r="S7" t="s">
         <v>424</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="M7" t="s">
-        <v>358</v>
-      </c>
-      <c r="R7" t="s">
-        <v>422</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="U7" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="W7" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="AA7" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD7" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="AA7" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AC7" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AF7" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG7" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH7" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="AI7">
         <v>56</v>
@@ -5745,12 +5810,12 @@
         <v>13</v>
       </c>
       <c r="AK7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>1808381</v>
@@ -5762,7 +5827,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5771,64 +5836,64 @@
         <v>1211</v>
       </c>
       <c r="I8" t="s">
+        <v>435</v>
+      </c>
+      <c r="J8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L8" t="s">
+        <v>423</v>
+      </c>
+      <c r="R8" t="s">
+        <v>434</v>
+      </c>
+      <c r="S8" t="s">
         <v>437</v>
       </c>
-      <c r="J8" t="s">
+      <c r="T8" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="L8" t="s">
-        <v>425</v>
-      </c>
-      <c r="R8" t="s">
-        <v>436</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="U8" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="X8" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="Y8" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="V8" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="W8" s="13" t="s">
+      <c r="AC8" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="AI8">
         <v>52</v>
@@ -5837,12 +5902,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B9">
         <v>30839</v>
@@ -5854,7 +5919,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5866,64 +5931,64 @@
         <v>47016</v>
       </c>
       <c r="J9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L9" t="s">
+        <v>447</v>
+      </c>
+      <c r="M9" t="s">
+        <v>448</v>
+      </c>
+      <c r="R9" t="s">
+        <v>446</v>
+      </c>
+      <c r="S9" t="s">
+        <v>269</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Y9" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE9" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="R9" t="s">
-        <v>448</v>
-      </c>
-      <c r="S9" t="s">
-        <v>271</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="AF9" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG9" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF9" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>453</v>
-      </c>
       <c r="AH9" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AI9">
         <v>87</v>
@@ -5932,12 +5997,12 @@
         <v>11</v>
       </c>
       <c r="AK9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B10">
         <v>1555875</v>
@@ -5949,76 +6014,76 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H10">
         <v>1270</v>
       </c>
       <c r="I10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L10" t="s">
+        <v>377</v>
+      </c>
+      <c r="M10" t="s">
         <v>457</v>
       </c>
-      <c r="J10" t="s">
+      <c r="R10" t="s">
+        <v>453</v>
+      </c>
+      <c r="S10" t="s">
+        <v>287</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z10" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="L10" t="s">
-        <v>379</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="AA10" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="R10" t="s">
-        <v>455</v>
-      </c>
-      <c r="S10" t="s">
-        <v>289</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>461</v>
-      </c>
       <c r="AF10" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AI10">
         <v>81</v>
@@ -6027,12 +6092,12 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B11">
         <v>1507506</v>
@@ -6044,7 +6109,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6053,64 +6118,64 @@
         <v>1295</v>
       </c>
       <c r="I11" t="s">
+        <v>462</v>
+      </c>
+      <c r="J11" t="s">
+        <v>463</v>
+      </c>
+      <c r="L11" t="s">
         <v>464</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
+        <v>461</v>
+      </c>
+      <c r="S11" t="s">
         <v>465</v>
       </c>
-      <c r="L11" t="s">
+      <c r="T11" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="R11" t="s">
-        <v>463</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="U11" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="W11" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="AB11" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="W11" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AF11" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG11" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="AB11" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="AF11" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>473</v>
-      </c>
       <c r="AH11" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AI11">
         <v>51</v>
@@ -6119,12 +6184,12 @@
         <v>15</v>
       </c>
       <c r="AK11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B12">
         <v>3171178</v>
@@ -6136,7 +6201,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6145,61 +6210,61 @@
         <v>992</v>
       </c>
       <c r="I12" t="s">
+        <v>474</v>
+      </c>
+      <c r="J12" t="s">
+        <v>475</v>
+      </c>
+      <c r="R12" t="s">
+        <v>473</v>
+      </c>
+      <c r="S12" t="s">
         <v>476</v>
       </c>
-      <c r="J12" t="s">
+      <c r="T12" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="R12" t="s">
-        <v>475</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="U12" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="V12" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="AA12" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD12" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AF12" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH12" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="AI12">
         <v>39</v>
@@ -6208,12 +6273,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B13">
         <v>4363524</v>
@@ -6225,7 +6290,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6234,64 +6299,64 @@
         <v>1091</v>
       </c>
       <c r="I13" t="s">
+        <v>490</v>
+      </c>
+      <c r="J13" t="s">
+        <v>491</v>
+      </c>
+      <c r="L13" t="s">
+        <v>377</v>
+      </c>
+      <c r="R13" t="s">
+        <v>489</v>
+      </c>
+      <c r="S13" t="s">
         <v>492</v>
       </c>
-      <c r="J13" t="s">
+      <c r="T13" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z13" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="L13" t="s">
-        <v>379</v>
-      </c>
-      <c r="R13" t="s">
-        <v>491</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB13" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="T13" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z13" s="25" t="s">
+      <c r="AC13" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG13" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>497</v>
-      </c>
       <c r="AH13" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AI13">
         <v>63</v>
@@ -6300,12 +6365,12 @@
         <v>2</v>
       </c>
       <c r="AK13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B14">
         <v>1391491</v>
@@ -6317,7 +6382,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6326,67 +6391,67 @@
         <v>1142</v>
       </c>
       <c r="I14" t="s">
+        <v>498</v>
+      </c>
+      <c r="J14" t="s">
+        <v>499</v>
+      </c>
+      <c r="L14" t="s">
+        <v>377</v>
+      </c>
+      <c r="M14" t="s">
+        <v>457</v>
+      </c>
+      <c r="R14" t="s">
+        <v>497</v>
+      </c>
+      <c r="S14" t="s">
         <v>500</v>
       </c>
-      <c r="J14" t="s">
+      <c r="T14" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="L14" t="s">
-        <v>379</v>
-      </c>
-      <c r="M14" t="s">
-        <v>459</v>
-      </c>
-      <c r="R14" t="s">
-        <v>499</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="U14" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="V14" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="W14" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="X14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="W14" s="26" t="s">
+      <c r="AC14" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD14" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="X14" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD14" s="15" t="s">
-        <v>507</v>
-      </c>
       <c r="AE14" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AI14">
         <v>56</v>
@@ -6395,12 +6460,12 @@
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15">
         <v>1150009</v>
@@ -6412,7 +6477,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6421,64 +6486,64 @@
         <v>1332</v>
       </c>
       <c r="I15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J15" t="s">
+        <v>509</v>
+      </c>
+      <c r="L15" t="s">
+        <v>377</v>
+      </c>
+      <c r="R15" t="s">
+        <v>507</v>
+      </c>
+      <c r="S15" t="s">
         <v>510</v>
       </c>
-      <c r="J15" t="s">
+      <c r="T15" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="L15" t="s">
-        <v>379</v>
-      </c>
-      <c r="R15" t="s">
-        <v>509</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AH15" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF15" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>514</v>
       </c>
       <c r="AI15">
         <v>72</v>
@@ -6487,12 +6552,12 @@
         <v>19</v>
       </c>
       <c r="AK15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B16">
         <v>1099725</v>
@@ -6504,7 +6569,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6513,67 +6578,67 @@
         <v>1209</v>
       </c>
       <c r="I16" t="s">
+        <v>515</v>
+      </c>
+      <c r="J16" t="s">
+        <v>516</v>
+      </c>
+      <c r="L16" t="s">
+        <v>377</v>
+      </c>
+      <c r="M16" t="s">
+        <v>356</v>
+      </c>
+      <c r="R16" t="s">
+        <v>514</v>
+      </c>
+      <c r="S16" t="s">
+        <v>293</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="J16" t="s">
+      <c r="W16" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="L16" t="s">
-        <v>379</v>
-      </c>
-      <c r="M16" t="s">
-        <v>358</v>
-      </c>
-      <c r="R16" t="s">
-        <v>516</v>
-      </c>
-      <c r="S16" t="s">
-        <v>295</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V16" s="13" t="s">
+      <c r="X16" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="AF16" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH16" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG16" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="AI16">
         <v>58</v>
@@ -6582,12 +6647,12 @@
         <v>17</v>
       </c>
       <c r="AK16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B17">
         <v>1009666</v>
@@ -6599,7 +6664,7 @@
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6608,64 +6673,64 @@
         <v>1291</v>
       </c>
       <c r="I17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J17" s="20">
         <v>94896</v>
       </c>
       <c r="L17" t="s">
+        <v>524</v>
+      </c>
+      <c r="R17" t="s">
+        <v>522</v>
+      </c>
+      <c r="S17" t="s">
+        <v>525</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="X17" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="R17" t="s">
-        <v>524</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="Y17" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG17" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="X17" s="16" t="s">
+      <c r="AH17" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG17" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="AI17">
         <v>99</v>
@@ -6674,12 +6739,12 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B18">
         <v>753323</v>
@@ -6691,7 +6756,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6700,67 +6765,67 @@
         <v>1291</v>
       </c>
       <c r="I18" t="s">
+        <v>530</v>
+      </c>
+      <c r="J18" t="s">
+        <v>531</v>
+      </c>
+      <c r="L18" t="s">
+        <v>377</v>
+      </c>
+      <c r="M18" t="s">
+        <v>356</v>
+      </c>
+      <c r="R18" t="s">
+        <v>529</v>
+      </c>
+      <c r="S18" t="s">
         <v>532</v>
       </c>
-      <c r="J18" t="s">
+      <c r="T18" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC18" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="L18" t="s">
-        <v>379</v>
-      </c>
-      <c r="M18" t="s">
-        <v>358</v>
-      </c>
-      <c r="R18" t="s">
-        <v>531</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH18" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF18" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH18" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="AI18">
         <v>71</v>
@@ -6769,12 +6834,12 @@
         <v>1</v>
       </c>
       <c r="AK18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B19">
         <v>947098</v>
@@ -6786,7 +6851,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -6795,67 +6860,67 @@
         <v>1321</v>
       </c>
       <c r="I19" t="s">
+        <v>536</v>
+      </c>
+      <c r="J19" t="s">
+        <v>537</v>
+      </c>
+      <c r="L19" t="s">
+        <v>405</v>
+      </c>
+      <c r="M19" t="s">
         <v>538</v>
       </c>
-      <c r="J19" t="s">
+      <c r="R19" t="s">
+        <v>535</v>
+      </c>
+      <c r="S19" t="s">
         <v>539</v>
       </c>
-      <c r="L19" t="s">
-        <v>407</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="T19" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="R19" t="s">
-        <v>537</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="W19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="AF19" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG19" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AH19" s="13" t="s">
         <v>543</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG19" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="AH19" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="AI19">
         <v>44</v>
@@ -6864,12 +6929,12 @@
         <v>2</v>
       </c>
       <c r="AK19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B20">
         <v>972259</v>
@@ -6881,7 +6946,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -6890,67 +6955,67 @@
         <v>1255</v>
       </c>
       <c r="I20" t="s">
+        <v>545</v>
+      </c>
+      <c r="J20" t="s">
+        <v>491</v>
+      </c>
+      <c r="L20" t="s">
+        <v>546</v>
+      </c>
+      <c r="M20" t="s">
+        <v>356</v>
+      </c>
+      <c r="R20" t="s">
+        <v>544</v>
+      </c>
+      <c r="S20" t="s">
         <v>547</v>
       </c>
-      <c r="J20" t="s">
-        <v>493</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="T20" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M20" t="s">
-        <v>358</v>
-      </c>
-      <c r="R20" t="s">
-        <v>546</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG20" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF20" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>551</v>
-      </c>
       <c r="AH20" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AI20">
         <v>63</v>
@@ -6959,12 +7024,12 @@
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B21">
         <v>2169583</v>
@@ -6976,7 +7041,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -6985,67 +7050,67 @@
         <v>1168</v>
       </c>
       <c r="I21" t="s">
+        <v>551</v>
+      </c>
+      <c r="J21" t="s">
+        <v>552</v>
+      </c>
+      <c r="L21" t="s">
+        <v>395</v>
+      </c>
+      <c r="M21" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21" t="s">
+        <v>550</v>
+      </c>
+      <c r="S21" t="s">
         <v>553</v>
       </c>
-      <c r="J21" t="s">
+      <c r="T21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="L21" t="s">
-        <v>397</v>
-      </c>
-      <c r="M21" t="s">
-        <v>359</v>
-      </c>
-      <c r="R21" t="s">
-        <v>552</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="V21" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U21" s="13" t="s">
+      <c r="AC21" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA21" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="AC21" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD21" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AH21" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>560</v>
       </c>
       <c r="AI21">
         <v>64</v>
@@ -7054,12 +7119,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B22">
         <v>3729374</v>
@@ -7071,7 +7136,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7080,70 +7145,70 @@
         <v>1201</v>
       </c>
       <c r="I22" t="s">
+        <v>560</v>
+      </c>
+      <c r="J22" t="s">
+        <v>561</v>
+      </c>
+      <c r="L22" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22" t="s">
+        <v>457</v>
+      </c>
+      <c r="N22" t="s">
         <v>562</v>
       </c>
-      <c r="J22" t="s">
+      <c r="R22" t="s">
+        <v>559</v>
+      </c>
+      <c r="S22" t="s">
         <v>563</v>
       </c>
-      <c r="L22" t="s">
-        <v>379</v>
-      </c>
-      <c r="M22" t="s">
-        <v>459</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="T22" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y22" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="R22" t="s">
-        <v>561</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="Z22" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC22" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y22" s="14" t="s">
+      <c r="AD22" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE22" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB22" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AF22" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="AD22" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF22" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>569</v>
-      </c>
       <c r="AH22" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AI22">
         <v>82</v>
@@ -7152,12 +7217,12 @@
         <v>12</v>
       </c>
       <c r="AK22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B23">
         <v>1384222</v>
@@ -7169,7 +7234,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7178,70 +7243,70 @@
         <v>1215</v>
       </c>
       <c r="I23" t="s">
+        <v>569</v>
+      </c>
+      <c r="J23" t="s">
+        <v>570</v>
+      </c>
+      <c r="L23" t="s">
+        <v>377</v>
+      </c>
+      <c r="M23" t="s">
+        <v>355</v>
+      </c>
+      <c r="N23" t="s">
+        <v>357</v>
+      </c>
+      <c r="R23" t="s">
+        <v>568</v>
+      </c>
+      <c r="S23" t="s">
         <v>571</v>
       </c>
-      <c r="J23" t="s">
+      <c r="T23" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="L23" t="s">
-        <v>379</v>
-      </c>
-      <c r="M23" t="s">
-        <v>357</v>
-      </c>
-      <c r="N23" t="s">
-        <v>359</v>
-      </c>
-      <c r="R23" t="s">
-        <v>570</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="U23" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD23" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="AE23" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA23" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="AE23" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>576</v>
-      </c>
       <c r="AH23" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AI23">
         <v>33</v>
@@ -7250,12 +7315,12 @@
         <v>4</v>
       </c>
       <c r="AK23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B24">
         <v>2381459</v>
@@ -7267,7 +7332,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7276,64 +7341,64 @@
         <v>1250</v>
       </c>
       <c r="I24" t="s">
+        <v>576</v>
+      </c>
+      <c r="J24" t="s">
+        <v>577</v>
+      </c>
+      <c r="L24" t="s">
+        <v>356</v>
+      </c>
+      <c r="R24" t="s">
+        <v>575</v>
+      </c>
+      <c r="S24" t="s">
         <v>578</v>
       </c>
-      <c r="J24" t="s">
-        <v>579</v>
-      </c>
-      <c r="L24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" t="s">
-        <v>577</v>
-      </c>
-      <c r="S24" t="s">
-        <v>580</v>
-      </c>
       <c r="T24" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W24" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y24" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="X24" s="13" t="s">
+      <c r="Z24" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="AA24" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="Z24" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA24" s="23" t="s">
-        <v>367</v>
-      </c>
       <c r="AB24" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AC24" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AI24">
         <v>79</v>
@@ -7342,12 +7407,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B25">
         <v>437359</v>
@@ -7359,76 +7424,76 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H25">
         <v>1321</v>
       </c>
       <c r="I25" t="s">
+        <v>581</v>
+      </c>
+      <c r="J25" t="s">
+        <v>582</v>
+      </c>
+      <c r="L25" t="s">
+        <v>377</v>
+      </c>
+      <c r="M25" t="s">
+        <v>357</v>
+      </c>
+      <c r="R25" t="s">
+        <v>579</v>
+      </c>
+      <c r="S25" t="s">
+        <v>309</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="J25" t="s">
+      <c r="U25" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="L25" t="s">
-        <v>379</v>
-      </c>
-      <c r="M25" t="s">
-        <v>359</v>
-      </c>
-      <c r="R25" t="s">
-        <v>581</v>
-      </c>
-      <c r="S25" t="s">
-        <v>311</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>586</v>
-      </c>
       <c r="AH25" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AI25">
         <v>69</v>
@@ -7437,12 +7502,12 @@
         <v>3</v>
       </c>
       <c r="AK25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B26">
         <v>3732429</v>
@@ -7454,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7463,73 +7528,73 @@
         <v>1202</v>
       </c>
       <c r="I26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J26" t="s">
+        <v>509</v>
+      </c>
+      <c r="L26" t="s">
+        <v>377</v>
+      </c>
+      <c r="M26" t="s">
+        <v>356</v>
+      </c>
+      <c r="N26" t="s">
+        <v>448</v>
+      </c>
+      <c r="O26" t="s">
+        <v>562</v>
+      </c>
+      <c r="R26" t="s">
+        <v>585</v>
+      </c>
+      <c r="S26" t="s">
+        <v>587</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y26" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="J26" t="s">
-        <v>511</v>
-      </c>
-      <c r="L26" t="s">
-        <v>379</v>
-      </c>
-      <c r="M26" t="s">
-        <v>358</v>
-      </c>
-      <c r="N26" t="s">
-        <v>450</v>
-      </c>
-      <c r="O26" t="s">
-        <v>564</v>
-      </c>
-      <c r="R26" t="s">
-        <v>587</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="Z26" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG26" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="T26" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE26" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>591</v>
-      </c>
       <c r="AH26" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AI26">
         <v>72</v>
@@ -7538,12 +7603,12 @@
         <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B27">
         <v>1170113</v>
@@ -7555,7 +7620,7 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7564,70 +7629,70 @@
         <v>1157</v>
       </c>
       <c r="I27" t="s">
+        <v>591</v>
+      </c>
+      <c r="J27" t="s">
+        <v>422</v>
+      </c>
+      <c r="L27" t="s">
+        <v>423</v>
+      </c>
+      <c r="M27" t="s">
+        <v>356</v>
+      </c>
+      <c r="N27" t="s">
+        <v>448</v>
+      </c>
+      <c r="R27" t="s">
+        <v>590</v>
+      </c>
+      <c r="S27" t="s">
+        <v>592</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="J27" t="s">
-        <v>424</v>
-      </c>
-      <c r="L27" t="s">
-        <v>425</v>
-      </c>
-      <c r="M27" t="s">
-        <v>358</v>
-      </c>
-      <c r="N27" t="s">
-        <v>450</v>
-      </c>
-      <c r="R27" t="s">
-        <v>592</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="W27" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="X27" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="V27" s="26" t="s">
+      <c r="Y27" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="X27" s="13" t="s">
+      <c r="AH27" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="AI27">
         <v>56</v>
@@ -7636,12 +7701,12 @@
         <v>4</v>
       </c>
       <c r="AK27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B28">
         <v>74211</v>
@@ -7653,7 +7718,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7662,64 +7727,64 @@
         <v>1350</v>
       </c>
       <c r="I28" t="s">
+        <v>598</v>
+      </c>
+      <c r="J28" t="s">
+        <v>599</v>
+      </c>
+      <c r="L28" t="s">
+        <v>546</v>
+      </c>
+      <c r="R28" t="s">
+        <v>597</v>
+      </c>
+      <c r="S28" t="s">
         <v>600</v>
       </c>
-      <c r="J28" t="s">
-        <v>601</v>
-      </c>
-      <c r="L28" t="s">
-        <v>548</v>
-      </c>
-      <c r="R28" t="s">
-        <v>599</v>
-      </c>
-      <c r="S28" t="s">
-        <v>602</v>
-      </c>
       <c r="T28" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB28" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="X28" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB28" s="14" t="s">
-        <v>401</v>
-      </c>
       <c r="AC28" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AD28" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AH28" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AI28">
         <v>65</v>
@@ -7728,12 +7793,12 @@
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B29">
         <v>2517295</v>
@@ -7745,7 +7810,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -7757,67 +7822,67 @@
         <v>40751</v>
       </c>
       <c r="J29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="R29" t="s">
+        <v>601</v>
+      </c>
+      <c r="S29" t="s">
         <v>603</v>
       </c>
-      <c r="S29" t="s">
-        <v>605</v>
-      </c>
       <c r="T29" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Y29" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AC29" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AD29" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AI29">
         <v>76</v>
@@ -7826,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="AK29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7844,11 +7909,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7862,78 +7927,78 @@
         <v>211</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2">
         <v>1288683</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B3">
         <v>143864</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B4">
         <v>25825</v>
       </c>
       <c r="C4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B5">
         <v>2544322</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -7951,10 +8016,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -8000,84 +8065,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8091,34 +8156,34 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8132,75 +8197,75 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="M5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8214,198 +8279,198 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H11" t="s">
+        <v>622</v>
+      </c>
+      <c r="I11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J11" t="s">
         <v>624</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>624</v>
       </c>
-      <c r="J11" t="s">
-        <v>626</v>
-      </c>
-      <c r="K11" t="s">
-        <v>626</v>
-      </c>
       <c r="L11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8419,34 +8484,34 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="667">
   <si>
     <t>Places</t>
   </si>
@@ -1947,37 +1947,82 @@
     <t>madrid</t>
   </si>
   <si>
-    <t>22.22.</t>
-  </si>
-  <si>
     <t>40.4165,-3.7026</t>
   </si>
   <si>
     <t>ES</t>
   </si>
   <si>
-    <t>20.16.</t>
-  </si>
-  <si>
-    <t>13.84.</t>
-  </si>
-  <si>
-    <t>22.39.</t>
-  </si>
-  <si>
     <t>barcelona</t>
   </si>
   <si>
-    <t>12.86.</t>
-  </si>
-  <si>
-    <t>22.2.</t>
-  </si>
-  <si>
     <t>41.3888,2.159</t>
   </si>
   <si>
-    <t>24.64.</t>
+    <t>vitoria</t>
+  </si>
+  <si>
+    <t>vigo</t>
+  </si>
+  <si>
+    <t>san sebastian</t>
+  </si>
+  <si>
+    <t>21.75.</t>
+  </si>
+  <si>
+    <t>21.42.</t>
+  </si>
+  <si>
+    <t>19.86.</t>
+  </si>
+  <si>
+    <t>22.48.</t>
+  </si>
+  <si>
+    <t>-20.3194,-40.3378</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>25.75.</t>
+  </si>
+  <si>
+    <t>42.2328,-8.7226</t>
+  </si>
+  <si>
+    <t>18.72.</t>
+  </si>
+  <si>
+    <t>43.3128,-1.975</t>
+  </si>
+  <si>
+    <t>19.05.</t>
+  </si>
+  <si>
+    <t>43.2627,-2.9253</t>
+  </si>
+  <si>
+    <t>20.39.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>336</t>
   </si>
 </sst>
 </file>
@@ -2450,21 +2495,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.078125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="6.609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
     <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
     <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
     <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
@@ -2576,16 +2618,16 @@
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>210</v>
@@ -2641,16 +2683,16 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -2658,33 +2700,33 @@
         <v>640</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D5" t="s">
         <v>651</v>
@@ -2697,6 +2739,98 @@
       </c>
       <c r="G5" t="s">
         <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F6" t="s">
+        <v>654</v>
+      </c>
+      <c r="G6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" t="s">
+        <v>660</v>
+      </c>
+      <c r="E9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" t="s">
+        <v>660</v>
+      </c>
+      <c r="G9" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3239,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5257,7 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7901,19 +8035,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7944,10 +8078,10 @@
         <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>662</v>
       </c>
       <c r="E2" t="s">
-        <v>606</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7961,10 +8095,10 @@
         <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
       <c r="E3" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7978,10 +8112,10 @@
         <v>608</v>
       </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="E4" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7995,10 +8129,27 @@
         <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="E5" t="s">
-        <v>610</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B6">
+        <v>269580</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="698">
   <si>
     <t>Places</t>
   </si>
@@ -1842,21 +1842,9 @@
     <t>overallRank</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>25.65.</t>
   </si>
   <si>
@@ -2007,9 +1995,6 @@
     <t>20.39.</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>319</t>
   </si>
   <si>
@@ -2023,6 +2008,114 @@
   </si>
   <si>
     <t>336</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>362</t>
   </si>
 </sst>
 </file>
@@ -2618,16 +2711,16 @@
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>210</v>
@@ -2683,131 +2776,131 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2815,22 +2908,22 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -5257,7 +5350,7 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8035,10 +8128,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8075,13 +8168,13 @@
         <v>1288683</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8092,13 +8185,13 @@
         <v>143864</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8109,13 +8202,13 @@
         <v>25825</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8126,7 +8219,7 @@
         <v>2544322</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>664</v>
       </c>
       <c r="D5" t="s">
         <v>665</v>
@@ -8137,19 +8230,407 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>661</v>
+        <v>403</v>
       </c>
       <c r="B6">
-        <v>269580</v>
+        <v>3202275</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
-        <v>666</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7">
+        <v>1530227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8">
+        <v>1808381</v>
+      </c>
+      <c r="C8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>30839</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>672</v>
+      </c>
+      <c r="E9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10">
+        <v>1555875</v>
+      </c>
+      <c r="C10" t="s">
+        <v>673</v>
+      </c>
+      <c r="D10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11">
+        <v>1507506</v>
+      </c>
+      <c r="C11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>675</v>
+      </c>
+      <c r="E11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12">
+        <v>3171178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13">
+        <v>4363524</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14">
+        <v>1391491</v>
+      </c>
+      <c r="C14" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15">
+        <v>1150009</v>
+      </c>
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" t="s">
+        <v>680</v>
+      </c>
+      <c r="E15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16">
+        <v>1099725</v>
+      </c>
+      <c r="C16" t="s">
+        <v>678</v>
+      </c>
+      <c r="D16" t="s">
+        <v>681</v>
+      </c>
+      <c r="E16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17">
+        <v>1009666</v>
+      </c>
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18">
+        <v>753323</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>683</v>
+      </c>
+      <c r="E18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19">
+        <v>947098</v>
+      </c>
+      <c r="C19" t="s">
+        <v>664</v>
+      </c>
+      <c r="D19" t="s">
+        <v>684</v>
+      </c>
+      <c r="E19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20">
+        <v>972259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>685</v>
+      </c>
+      <c r="E20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21">
+        <v>2169583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>686</v>
+      </c>
+      <c r="D21" t="s">
+        <v>687</v>
+      </c>
+      <c r="E21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22">
+        <v>3729374</v>
+      </c>
+      <c r="C22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D22" t="s">
+        <v>689</v>
+      </c>
+      <c r="E22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23">
+        <v>1384222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>690</v>
+      </c>
+      <c r="D23" t="s">
+        <v>691</v>
+      </c>
+      <c r="E23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24">
+        <v>2381459</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" t="s">
+        <v>692</v>
+      </c>
+      <c r="E24" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25">
+        <v>437359</v>
+      </c>
+      <c r="C25" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" t="s">
+        <v>693</v>
+      </c>
+      <c r="E25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26">
+        <v>3732429</v>
+      </c>
+      <c r="C26" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" t="s">
+        <v>695</v>
+      </c>
+      <c r="E26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27">
+        <v>1170113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" t="s">
+        <v>696</v>
+      </c>
+      <c r="E27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28">
+        <v>74211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2517295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>663</v>
+      </c>
+      <c r="D29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E29" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -8225,34 +8706,34 @@
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8266,34 +8747,34 @@
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8307,34 +8788,34 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8360,22 +8841,22 @@
         <v>244</v>
       </c>
       <c r="H5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -8389,34 +8870,34 @@
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8430,16 +8911,16 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H7" t="s">
         <v>241</v>
@@ -8471,34 +8952,34 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="J8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -8512,34 +8993,34 @@
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -8553,34 +9034,34 @@
         <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I10" t="s">
+        <v>617</v>
+      </c>
+      <c r="J10" t="s">
+        <v>617</v>
+      </c>
+      <c r="K10" t="s">
         <v>621</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>621</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>621</v>
-      </c>
-      <c r="K10" t="s">
-        <v>625</v>
-      </c>
-      <c r="L10" t="s">
-        <v>625</v>
-      </c>
-      <c r="M10" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -8594,34 +9075,34 @@
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J11" t="s">
+        <v>620</v>
+      </c>
+      <c r="K11" t="s">
+        <v>620</v>
+      </c>
+      <c r="L11" t="s">
+        <v>620</v>
+      </c>
+      <c r="M11" t="s">
         <v>624</v>
-      </c>
-      <c r="K11" t="s">
-        <v>624</v>
-      </c>
-      <c r="L11" t="s">
-        <v>624</v>
-      </c>
-      <c r="M11" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8635,34 +9116,34 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="730">
   <si>
     <t>Places</t>
   </si>
@@ -648,12 +648,6 @@
     <t>31.05.</t>
   </si>
   <si>
-    <t>sibenik</t>
-  </si>
-  <si>
-    <t>43.7272,15.9058</t>
-  </si>
-  <si>
     <t>24.33.</t>
   </si>
   <si>
@@ -1842,9 +1836,6 @@
     <t>overallRank</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>25.65.</t>
   </si>
   <si>
@@ -1947,12 +1938,6 @@
     <t>41.3888,2.159</t>
   </si>
   <si>
-    <t>vitoria</t>
-  </si>
-  <si>
-    <t>vigo</t>
-  </si>
-  <si>
     <t>san sebastian</t>
   </si>
   <si>
@@ -1968,18 +1953,9 @@
     <t>22.48.</t>
   </si>
   <si>
-    <t>-20.3194,-40.3378</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>25.75.</t>
   </si>
   <si>
-    <t>42.2328,-8.7226</t>
-  </si>
-  <si>
     <t>18.72.</t>
   </si>
   <si>
@@ -1995,127 +1971,247 @@
     <t>20.39.</t>
   </si>
   <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>294</t>
+    <t>venlo</t>
+  </si>
+  <si>
+    <t>venlo,us</t>
+  </si>
+  <si>
+    <t>girona</t>
+  </si>
+  <si>
+    <t>castille</t>
+  </si>
+  <si>
+    <t>51.3667,6.1667</t>
+  </si>
+  <si>
+    <t>17.29.</t>
+  </si>
+  <si>
+    <t>41.9831,2.8249</t>
+  </si>
+  <si>
+    <t>20.99.</t>
+  </si>
+  <si>
+    <t>19.39.</t>
+  </si>
+  <si>
+    <t>22.82.</t>
+  </si>
+  <si>
+    <t>46.4864,-97.4462</t>
+  </si>
+  <si>
+    <t>23.12.</t>
+  </si>
+  <si>
+    <t>44.0401,0.209</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>19.38.</t>
+  </si>
+  <si>
+    <t>26.78.</t>
+  </si>
+  <si>
+    <t>26.34.</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>341</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>346</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>playerName</t>
+  </si>
+  <si>
+    <t>Football fc</t>
+  </si>
+  <si>
+    <t>Maisie Rogers</t>
+  </si>
+  <si>
+    <t>3,427,444</t>
+  </si>
+  <si>
+    <t>FC SZTEJTI 10</t>
+  </si>
+  <si>
+    <t>Adam Sztejter</t>
+  </si>
+  <si>
+    <t>16,963</t>
+  </si>
+  <si>
+    <t>Holy hamburgers</t>
+  </si>
+  <si>
+    <t>Leri Jiso</t>
+  </si>
+  <si>
+    <t>226,285</t>
+  </si>
+  <si>
+    <t>Mohammed 94</t>
+  </si>
+  <si>
+    <t>Mohammed Mzory</t>
+  </si>
+  <si>
+    <t>1,646,257</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MrTrias500</t>
+  </si>
+  <si>
+    <t>Eni Shtini</t>
+  </si>
+  <si>
+    <t>317,891</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Traitorzero</t>
+  </si>
+  <si>
+    <t>Kamil Nainggolan</t>
+  </si>
+  <si>
+    <t>7,720</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>gwXfr</t>
+  </si>
+  <si>
+    <t>Hogwarts XI</t>
+  </si>
+  <si>
+    <t>Ahmed Afify</t>
+  </si>
+  <si>
+    <t>1,118,949</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>362</t>
+    <t>On the back Werner</t>
+  </si>
+  <si>
+    <t>Andy LTFPL</t>
+  </si>
+  <si>
+    <t>13,684</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>PiqueOfMountTavarest</t>
+  </si>
+  <si>
+    <t>Vanishing into Variance</t>
+  </si>
+  <si>
+    <t>132,663</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Tekirdag 59ers</t>
+  </si>
+  <si>
+    <t>Goktug Erce Gurel</t>
+  </si>
+  <si>
+    <t>4,671</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>rwterte</t>
+  </si>
+  <si>
+    <t>Jim E</t>
+  </si>
+  <si>
+    <t>388,469</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Netflix and Chilwell</t>
+  </si>
+  <si>
+    <t>James Goodall</t>
+  </si>
+  <si>
+    <t>242,818</t>
+  </si>
+  <si>
+    <t>437</t>
   </si>
 </sst>
 </file>
@@ -2591,13 +2687,13 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
     <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
     <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
@@ -2702,205 +2798,205 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>651</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>655</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="E3" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="F3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="E4" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="E5" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="F5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C6" t="s">
-        <v>649</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E6" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="F6" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G6" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="E7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B8" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="E8" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G8" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2908,22 +3004,22 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D9" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="F9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -3315,10 +3411,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3345,368 +3441,368 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="8">
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B12" s="8">
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B13" s="8">
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B16" s="8">
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3928,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>187</v>
@@ -3875,7 +3971,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>188</v>
@@ -3918,7 +4014,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
@@ -3961,7 +4057,7 @@
         <v>126</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>189</v>
@@ -4004,7 +4100,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>129</v>
@@ -4047,7 +4143,7 @@
         <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>132</v>
@@ -4090,7 +4186,7 @@
         <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>135</v>
@@ -4133,7 +4229,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>138</v>
@@ -4176,7 +4272,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>141</v>
@@ -4219,7 +4315,7 @@
         <v>143</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>144</v>
@@ -4262,7 +4358,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>190</v>
@@ -4305,7 +4401,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>191</v>
@@ -4348,7 +4444,7 @@
         <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>192</v>
@@ -4391,7 +4487,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>193</v>
@@ -4434,7 +4530,7 @@
         <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>194</v>
@@ -4477,7 +4573,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>195</v>
@@ -4520,7 +4616,7 @@
         <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>160</v>
@@ -4563,7 +4659,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>162</v>
@@ -4606,7 +4702,7 @@
         <v>164</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>165</v>
@@ -4649,7 +4745,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>167</v>
@@ -4692,7 +4788,7 @@
         <v>164</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>169</v>
@@ -4735,7 +4831,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>196</v>
@@ -4778,7 +4874,7 @@
         <v>173</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>174</v>
@@ -4821,7 +4917,7 @@
         <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>197</v>
@@ -4864,7 +4960,7 @@
         <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>178</v>
@@ -4907,7 +5003,7 @@
         <v>177</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>180</v>
@@ -4950,7 +5046,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>182</v>
@@ -4993,7 +5089,7 @@
         <v>177</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>184</v>
@@ -5036,7 +5132,7 @@
         <v>177</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>186</v>
@@ -5115,43 +5211,43 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,13 +5261,13 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5185,33 +5281,33 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5231,93 +5327,93 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,13 +5427,13 @@
         <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5350,7 +5446,7 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,31 +5461,31 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>323</v>
       </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" t="s">
         <v>324</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>326</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>327</v>
-      </c>
-      <c r="I1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J1" t="s">
-        <v>329</v>
       </c>
       <c r="M1">
         <v>67.071428571428569</v>
@@ -5398,69 +5494,69 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
         <v>330</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>331</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>332</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>333</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>334</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>335</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>336</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>338</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>339</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>340</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" t="s">
         <v>345</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" t="s">
         <v>346</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>347</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2">
         <v>1288683</v>
@@ -5472,7 +5568,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5481,73 +5577,73 @@
         <v>1252</v>
       </c>
       <c r="I2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" t="s">
         <v>352</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>353</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>354</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>355</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>348</v>
+      </c>
+      <c r="S2" t="s">
         <v>356</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R2" t="s">
-        <v>350</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="V2" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AA2" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AC2" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AD2" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AF2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="AF2" s="19" t="s">
+      <c r="AH2" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="AI2">
         <v>88</v>
@@ -5556,12 +5652,12 @@
         <v>9</v>
       </c>
       <c r="AK2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B3">
         <v>143864</v>
@@ -5573,7 +5669,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5585,67 +5681,67 @@
         <v>60442</v>
       </c>
       <c r="J3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N3" t="s">
         <v>376</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
+        <v>373</v>
+      </c>
+      <c r="S3" t="s">
         <v>377</v>
       </c>
-      <c r="M3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="T3" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="R3" t="s">
-        <v>375</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="W3" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="X3" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Z3" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AA3" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AB3" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AF3" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="AC3" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="AI3">
         <v>74</v>
@@ -5654,12 +5750,12 @@
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B4">
         <v>25825</v>
@@ -5671,7 +5767,7 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5680,67 +5776,67 @@
         <v>1362</v>
       </c>
       <c r="I4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J4" t="s">
+        <v>392</v>
+      </c>
+      <c r="L4" t="s">
         <v>393</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>355</v>
+      </c>
+      <c r="R4" t="s">
+        <v>390</v>
+      </c>
+      <c r="S4" t="s">
         <v>394</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="M4" t="s">
-        <v>357</v>
-      </c>
-      <c r="R4" t="s">
-        <v>392</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="V4" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X4" s="17" t="s">
+      <c r="AE4" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="Y4" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AH4" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF4" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>402</v>
       </c>
       <c r="AI4">
         <v>87</v>
@@ -5749,12 +5845,12 @@
         <v>9</v>
       </c>
       <c r="AK4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5">
         <v>2544322</v>
@@ -5766,7 +5862,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5778,64 +5874,64 @@
         <v>71727</v>
       </c>
       <c r="J5" t="s">
+        <v>402</v>
+      </c>
+      <c r="L5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M5" t="s">
+        <v>354</v>
+      </c>
+      <c r="R5" t="s">
+        <v>401</v>
+      </c>
+      <c r="S5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE5" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="M5" t="s">
-        <v>356</v>
-      </c>
-      <c r="R5" t="s">
-        <v>403</v>
-      </c>
-      <c r="S5" t="s">
-        <v>306</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>407</v>
-      </c>
       <c r="AF5" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AI5">
         <v>77</v>
@@ -5844,12 +5940,12 @@
         <v>11</v>
       </c>
       <c r="AK5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6">
         <v>3202275</v>
@@ -5861,7 +5957,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5870,70 +5966,70 @@
         <v>1225</v>
       </c>
       <c r="I6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N6" t="s">
         <v>409</v>
       </c>
-      <c r="J6" t="s">
+      <c r="R6" t="s">
+        <v>406</v>
+      </c>
+      <c r="S6" t="s">
         <v>410</v>
       </c>
-      <c r="L6" t="s">
-        <v>377</v>
-      </c>
-      <c r="M6" t="s">
-        <v>356</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="T6" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="R6" t="s">
-        <v>408</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="U6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="X6" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y6" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="W6" s="13" t="s">
+      <c r="Z6" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA6" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AB6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG6" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>416</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="AI6">
         <v>64</v>
@@ -5942,12 +6038,12 @@
         <v>13</v>
       </c>
       <c r="AK6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B7">
         <v>1530227</v>
@@ -5959,7 +6055,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5968,67 +6064,67 @@
         <v>1352</v>
       </c>
       <c r="I7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L7" t="s">
         <v>421</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
+        <v>354</v>
+      </c>
+      <c r="R7" t="s">
+        <v>418</v>
+      </c>
+      <c r="S7" t="s">
         <v>422</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="M7" t="s">
-        <v>356</v>
-      </c>
-      <c r="R7" t="s">
-        <v>420</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="U7" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="W7" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="AA7" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AC7" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD7" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="AA7" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AE7" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AC7" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AF7" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG7" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH7" s="13" t="s">
-        <v>432</v>
       </c>
       <c r="AI7">
         <v>56</v>
@@ -6037,12 +6133,12 @@
         <v>13</v>
       </c>
       <c r="AK7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B8">
         <v>1808381</v>
@@ -6054,7 +6150,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6063,64 +6159,64 @@
         <v>1211</v>
       </c>
       <c r="I8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J8" t="s">
+        <v>434</v>
+      </c>
+      <c r="L8" t="s">
+        <v>421</v>
+      </c>
+      <c r="R8" t="s">
+        <v>432</v>
+      </c>
+      <c r="S8" t="s">
         <v>435</v>
       </c>
-      <c r="J8" t="s">
+      <c r="T8" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="L8" t="s">
-        <v>423</v>
-      </c>
-      <c r="R8" t="s">
-        <v>434</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="U8" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="X8" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="Y8" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="V8" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="W8" s="13" t="s">
+      <c r="AC8" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>442</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>444</v>
       </c>
       <c r="AI8">
         <v>52</v>
@@ -6129,12 +6225,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B9">
         <v>30839</v>
@@ -6146,7 +6242,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6158,64 +6254,64 @@
         <v>47016</v>
       </c>
       <c r="J9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L9" t="s">
+        <v>445</v>
+      </c>
+      <c r="M9" t="s">
+        <v>446</v>
+      </c>
+      <c r="R9" t="s">
+        <v>444</v>
+      </c>
+      <c r="S9" t="s">
+        <v>267</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Y9" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE9" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="R9" t="s">
-        <v>446</v>
-      </c>
-      <c r="S9" t="s">
-        <v>269</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="AF9" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG9" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="AF9" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>451</v>
-      </c>
       <c r="AH9" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AI9">
         <v>87</v>
@@ -6224,12 +6320,12 @@
         <v>11</v>
       </c>
       <c r="AK9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10">
         <v>1555875</v>
@@ -6241,76 +6337,76 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H10">
         <v>1270</v>
       </c>
       <c r="I10" t="s">
+        <v>453</v>
+      </c>
+      <c r="J10" t="s">
+        <v>454</v>
+      </c>
+      <c r="L10" t="s">
+        <v>375</v>
+      </c>
+      <c r="M10" t="s">
         <v>455</v>
       </c>
-      <c r="J10" t="s">
+      <c r="R10" t="s">
+        <v>451</v>
+      </c>
+      <c r="S10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z10" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="L10" t="s">
-        <v>377</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="AA10" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="R10" t="s">
-        <v>453</v>
-      </c>
-      <c r="S10" t="s">
-        <v>287</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>459</v>
-      </c>
       <c r="AF10" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AI10">
         <v>81</v>
@@ -6319,12 +6415,12 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B11">
         <v>1507506</v>
@@ -6336,7 +6432,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6345,64 +6441,64 @@
         <v>1295</v>
       </c>
       <c r="I11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J11" t="s">
+        <v>461</v>
+      </c>
+      <c r="L11" t="s">
         <v>462</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
+        <v>459</v>
+      </c>
+      <c r="S11" t="s">
         <v>463</v>
       </c>
-      <c r="L11" t="s">
+      <c r="T11" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="R11" t="s">
-        <v>461</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="U11" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="V11" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="W11" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="AB11" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="W11" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="X11" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AF11" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG11" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="AB11" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="AF11" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>471</v>
-      </c>
       <c r="AH11" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AI11">
         <v>51</v>
@@ -6411,12 +6507,12 @@
         <v>15</v>
       </c>
       <c r="AK11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B12">
         <v>3171178</v>
@@ -6428,7 +6524,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6437,61 +6533,61 @@
         <v>992</v>
       </c>
       <c r="I12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
+      <c r="R12" t="s">
+        <v>471</v>
+      </c>
+      <c r="S12" t="s">
         <v>474</v>
       </c>
-      <c r="J12" t="s">
+      <c r="T12" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="R12" t="s">
-        <v>473</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="U12" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="V12" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="Y12" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="AA12" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z12" s="23" t="s">
+      <c r="AB12" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD12" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AF12" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH12" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH12" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="AI12">
         <v>39</v>
@@ -6500,12 +6596,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B13">
         <v>4363524</v>
@@ -6517,7 +6613,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6526,64 +6622,64 @@
         <v>1091</v>
       </c>
       <c r="I13" t="s">
+        <v>488</v>
+      </c>
+      <c r="J13" t="s">
+        <v>489</v>
+      </c>
+      <c r="L13" t="s">
+        <v>375</v>
+      </c>
+      <c r="R13" t="s">
+        <v>487</v>
+      </c>
+      <c r="S13" t="s">
         <v>490</v>
       </c>
-      <c r="J13" t="s">
+      <c r="T13" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z13" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="L13" t="s">
-        <v>377</v>
-      </c>
-      <c r="R13" t="s">
-        <v>489</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB13" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="T13" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z13" s="25" t="s">
+      <c r="AC13" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG13" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>495</v>
-      </c>
       <c r="AH13" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AI13">
         <v>63</v>
@@ -6592,12 +6688,12 @@
         <v>2</v>
       </c>
       <c r="AK13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B14">
         <v>1391491</v>
@@ -6609,7 +6705,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6618,67 +6714,67 @@
         <v>1142</v>
       </c>
       <c r="I14" t="s">
+        <v>496</v>
+      </c>
+      <c r="J14" t="s">
+        <v>497</v>
+      </c>
+      <c r="L14" t="s">
+        <v>375</v>
+      </c>
+      <c r="M14" t="s">
+        <v>455</v>
+      </c>
+      <c r="R14" t="s">
+        <v>495</v>
+      </c>
+      <c r="S14" t="s">
         <v>498</v>
       </c>
-      <c r="J14" t="s">
+      <c r="T14" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="L14" t="s">
-        <v>377</v>
-      </c>
-      <c r="M14" t="s">
-        <v>457</v>
-      </c>
-      <c r="R14" t="s">
-        <v>497</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="U14" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="V14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="W14" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="X14" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="W14" s="26" t="s">
+      <c r="AC14" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD14" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="X14" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB14" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD14" s="15" t="s">
-        <v>505</v>
-      </c>
       <c r="AE14" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AI14">
         <v>56</v>
@@ -6687,12 +6783,12 @@
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B15">
         <v>1150009</v>
@@ -6704,7 +6800,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6713,64 +6809,64 @@
         <v>1332</v>
       </c>
       <c r="I15" t="s">
+        <v>506</v>
+      </c>
+      <c r="J15" t="s">
+        <v>507</v>
+      </c>
+      <c r="L15" t="s">
+        <v>375</v>
+      </c>
+      <c r="R15" t="s">
+        <v>505</v>
+      </c>
+      <c r="S15" t="s">
         <v>508</v>
       </c>
-      <c r="J15" t="s">
+      <c r="T15" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG15" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="L15" t="s">
-        <v>377</v>
-      </c>
-      <c r="R15" t="s">
-        <v>507</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AH15" s="19" t="s">
         <v>510</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF15" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>512</v>
       </c>
       <c r="AI15">
         <v>72</v>
@@ -6779,12 +6875,12 @@
         <v>19</v>
       </c>
       <c r="AK15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B16">
         <v>1099725</v>
@@ -6796,7 +6892,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6805,67 +6901,67 @@
         <v>1209</v>
       </c>
       <c r="I16" t="s">
+        <v>513</v>
+      </c>
+      <c r="J16" t="s">
+        <v>514</v>
+      </c>
+      <c r="L16" t="s">
+        <v>375</v>
+      </c>
+      <c r="M16" t="s">
+        <v>354</v>
+      </c>
+      <c r="R16" t="s">
+        <v>512</v>
+      </c>
+      <c r="S16" t="s">
+        <v>291</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="J16" t="s">
+      <c r="W16" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="L16" t="s">
-        <v>377</v>
-      </c>
-      <c r="M16" t="s">
-        <v>356</v>
-      </c>
-      <c r="R16" t="s">
-        <v>514</v>
-      </c>
-      <c r="S16" t="s">
-        <v>293</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="V16" s="13" t="s">
+      <c r="X16" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="AF16" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH16" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG16" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>520</v>
       </c>
       <c r="AI16">
         <v>58</v>
@@ -6874,12 +6970,12 @@
         <v>17</v>
       </c>
       <c r="AK16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B17">
         <v>1009666</v>
@@ -6891,7 +6987,7 @@
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6900,64 +6996,64 @@
         <v>1291</v>
       </c>
       <c r="I17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J17" s="20">
         <v>94896</v>
       </c>
       <c r="L17" t="s">
+        <v>522</v>
+      </c>
+      <c r="R17" t="s">
+        <v>520</v>
+      </c>
+      <c r="S17" t="s">
+        <v>523</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="X17" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="R17" t="s">
-        <v>522</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="Y17" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG17" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="X17" s="16" t="s">
+      <c r="AH17" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB17" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG17" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>528</v>
       </c>
       <c r="AI17">
         <v>99</v>
@@ -6966,12 +7062,12 @@
         <v>12</v>
       </c>
       <c r="AK17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B18">
         <v>753323</v>
@@ -6983,7 +7079,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -6992,67 +7088,67 @@
         <v>1291</v>
       </c>
       <c r="I18" t="s">
+        <v>528</v>
+      </c>
+      <c r="J18" t="s">
+        <v>529</v>
+      </c>
+      <c r="L18" t="s">
+        <v>375</v>
+      </c>
+      <c r="M18" t="s">
+        <v>354</v>
+      </c>
+      <c r="R18" t="s">
+        <v>527</v>
+      </c>
+      <c r="S18" t="s">
         <v>530</v>
       </c>
-      <c r="J18" t="s">
+      <c r="T18" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC18" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="L18" t="s">
-        <v>377</v>
-      </c>
-      <c r="M18" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" t="s">
-        <v>529</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH18" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF18" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="AH18" s="13" t="s">
-        <v>534</v>
       </c>
       <c r="AI18">
         <v>71</v>
@@ -7061,12 +7157,12 @@
         <v>1</v>
       </c>
       <c r="AK18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B19">
         <v>947098</v>
@@ -7078,7 +7174,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7087,67 +7183,67 @@
         <v>1321</v>
       </c>
       <c r="I19" t="s">
+        <v>534</v>
+      </c>
+      <c r="J19" t="s">
+        <v>535</v>
+      </c>
+      <c r="L19" t="s">
+        <v>403</v>
+      </c>
+      <c r="M19" t="s">
         <v>536</v>
       </c>
-      <c r="J19" t="s">
+      <c r="R19" t="s">
+        <v>533</v>
+      </c>
+      <c r="S19" t="s">
         <v>537</v>
       </c>
-      <c r="L19" t="s">
-        <v>405</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="T19" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="R19" t="s">
-        <v>535</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="W19" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="AF19" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG19" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AH19" s="13" t="s">
         <v>541</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG19" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH19" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="AI19">
         <v>44</v>
@@ -7156,12 +7252,12 @@
         <v>2</v>
       </c>
       <c r="AK19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B20">
         <v>972259</v>
@@ -7173,7 +7269,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -7182,67 +7278,67 @@
         <v>1255</v>
       </c>
       <c r="I20" t="s">
+        <v>543</v>
+      </c>
+      <c r="J20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L20" t="s">
+        <v>544</v>
+      </c>
+      <c r="M20" t="s">
+        <v>354</v>
+      </c>
+      <c r="R20" t="s">
+        <v>542</v>
+      </c>
+      <c r="S20" t="s">
         <v>545</v>
       </c>
-      <c r="J20" t="s">
-        <v>491</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="T20" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="M20" t="s">
-        <v>356</v>
-      </c>
-      <c r="R20" t="s">
-        <v>544</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD20" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG20" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD20" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF20" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>549</v>
-      </c>
       <c r="AH20" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AI20">
         <v>63</v>
@@ -7251,12 +7347,12 @@
         <v>3</v>
       </c>
       <c r="AK20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B21">
         <v>2169583</v>
@@ -7268,7 +7364,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -7277,67 +7373,67 @@
         <v>1168</v>
       </c>
       <c r="I21" t="s">
+        <v>549</v>
+      </c>
+      <c r="J21" t="s">
+        <v>550</v>
+      </c>
+      <c r="L21" t="s">
+        <v>393</v>
+      </c>
+      <c r="M21" t="s">
+        <v>355</v>
+      </c>
+      <c r="R21" t="s">
+        <v>548</v>
+      </c>
+      <c r="S21" t="s">
         <v>551</v>
       </c>
-      <c r="J21" t="s">
+      <c r="T21" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="L21" t="s">
-        <v>395</v>
-      </c>
-      <c r="M21" t="s">
-        <v>357</v>
-      </c>
-      <c r="R21" t="s">
-        <v>550</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="V21" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U21" s="13" t="s">
+      <c r="AC21" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA21" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="AC21" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD21" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AH21" s="13" t="s">
         <v>556</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH21" s="13" t="s">
-        <v>558</v>
       </c>
       <c r="AI21">
         <v>64</v>
@@ -7346,12 +7442,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B22">
         <v>3729374</v>
@@ -7363,7 +7459,7 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7372,70 +7468,70 @@
         <v>1201</v>
       </c>
       <c r="I22" t="s">
+        <v>558</v>
+      </c>
+      <c r="J22" t="s">
+        <v>559</v>
+      </c>
+      <c r="L22" t="s">
+        <v>375</v>
+      </c>
+      <c r="M22" t="s">
+        <v>455</v>
+      </c>
+      <c r="N22" t="s">
         <v>560</v>
       </c>
-      <c r="J22" t="s">
+      <c r="R22" t="s">
+        <v>557</v>
+      </c>
+      <c r="S22" t="s">
         <v>561</v>
       </c>
-      <c r="L22" t="s">
-        <v>377</v>
-      </c>
-      <c r="M22" t="s">
-        <v>457</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="T22" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y22" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="R22" t="s">
-        <v>559</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="Z22" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC22" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y22" s="14" t="s">
+      <c r="AD22" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE22" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB22" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AF22" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG22" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="AD22" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF22" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>567</v>
-      </c>
       <c r="AH22" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AI22">
         <v>82</v>
@@ -7444,12 +7540,12 @@
         <v>12</v>
       </c>
       <c r="AK22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B23">
         <v>1384222</v>
@@ -7461,7 +7557,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7470,70 +7566,70 @@
         <v>1215</v>
       </c>
       <c r="I23" t="s">
+        <v>567</v>
+      </c>
+      <c r="J23" t="s">
+        <v>568</v>
+      </c>
+      <c r="L23" t="s">
+        <v>375</v>
+      </c>
+      <c r="M23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" t="s">
+        <v>355</v>
+      </c>
+      <c r="R23" t="s">
+        <v>566</v>
+      </c>
+      <c r="S23" t="s">
         <v>569</v>
       </c>
-      <c r="J23" t="s">
+      <c r="T23" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="L23" t="s">
-        <v>377</v>
-      </c>
-      <c r="M23" t="s">
-        <v>355</v>
-      </c>
-      <c r="N23" t="s">
-        <v>357</v>
-      </c>
-      <c r="R23" t="s">
-        <v>568</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="U23" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB23" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD23" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="AE23" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA23" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="AE23" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>574</v>
-      </c>
       <c r="AH23" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AI23">
         <v>33</v>
@@ -7542,12 +7638,12 @@
         <v>4</v>
       </c>
       <c r="AK23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B24">
         <v>2381459</v>
@@ -7559,7 +7655,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7568,64 +7664,64 @@
         <v>1250</v>
       </c>
       <c r="I24" t="s">
+        <v>574</v>
+      </c>
+      <c r="J24" t="s">
+        <v>575</v>
+      </c>
+      <c r="L24" t="s">
+        <v>354</v>
+      </c>
+      <c r="R24" t="s">
+        <v>573</v>
+      </c>
+      <c r="S24" t="s">
         <v>576</v>
       </c>
-      <c r="J24" t="s">
-        <v>577</v>
-      </c>
-      <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="R24" t="s">
-        <v>575</v>
-      </c>
-      <c r="S24" t="s">
-        <v>578</v>
-      </c>
       <c r="T24" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W24" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y24" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="X24" s="13" t="s">
+      <c r="Z24" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="AA24" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="Z24" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA24" s="23" t="s">
-        <v>365</v>
-      </c>
       <c r="AB24" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AC24" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AI24">
         <v>79</v>
@@ -7634,12 +7730,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B25">
         <v>437359</v>
@@ -7651,76 +7747,76 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H25">
         <v>1321</v>
       </c>
       <c r="I25" t="s">
+        <v>579</v>
+      </c>
+      <c r="J25" t="s">
+        <v>580</v>
+      </c>
+      <c r="L25" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25" t="s">
+        <v>355</v>
+      </c>
+      <c r="R25" t="s">
+        <v>577</v>
+      </c>
+      <c r="S25" t="s">
+        <v>307</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="J25" t="s">
+      <c r="U25" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG25" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="L25" t="s">
-        <v>377</v>
-      </c>
-      <c r="M25" t="s">
-        <v>357</v>
-      </c>
-      <c r="R25" t="s">
-        <v>579</v>
-      </c>
-      <c r="S25" t="s">
-        <v>309</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>584</v>
-      </c>
       <c r="AH25" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AI25">
         <v>69</v>
@@ -7729,12 +7825,12 @@
         <v>3</v>
       </c>
       <c r="AK25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B26">
         <v>3732429</v>
@@ -7746,7 +7842,7 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7755,73 +7851,73 @@
         <v>1202</v>
       </c>
       <c r="I26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J26" t="s">
+        <v>507</v>
+      </c>
+      <c r="L26" t="s">
+        <v>375</v>
+      </c>
+      <c r="M26" t="s">
+        <v>354</v>
+      </c>
+      <c r="N26" t="s">
+        <v>446</v>
+      </c>
+      <c r="O26" t="s">
+        <v>560</v>
+      </c>
+      <c r="R26" t="s">
+        <v>583</v>
+      </c>
+      <c r="S26" t="s">
+        <v>585</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y26" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="J26" t="s">
-        <v>509</v>
-      </c>
-      <c r="L26" t="s">
-        <v>377</v>
-      </c>
-      <c r="M26" t="s">
-        <v>356</v>
-      </c>
-      <c r="N26" t="s">
-        <v>448</v>
-      </c>
-      <c r="O26" t="s">
-        <v>562</v>
-      </c>
-      <c r="R26" t="s">
-        <v>585</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="Z26" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE26" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG26" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="T26" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE26" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>589</v>
-      </c>
       <c r="AH26" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AI26">
         <v>72</v>
@@ -7830,12 +7926,12 @@
         <v>8</v>
       </c>
       <c r="AK26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B27">
         <v>1170113</v>
@@ -7847,7 +7943,7 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7856,70 +7952,70 @@
         <v>1157</v>
       </c>
       <c r="I27" t="s">
+        <v>589</v>
+      </c>
+      <c r="J27" t="s">
+        <v>420</v>
+      </c>
+      <c r="L27" t="s">
+        <v>421</v>
+      </c>
+      <c r="M27" t="s">
+        <v>354</v>
+      </c>
+      <c r="N27" t="s">
+        <v>446</v>
+      </c>
+      <c r="R27" t="s">
+        <v>588</v>
+      </c>
+      <c r="S27" t="s">
+        <v>590</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="J27" t="s">
-        <v>422</v>
-      </c>
-      <c r="L27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M27" t="s">
-        <v>356</v>
-      </c>
-      <c r="N27" t="s">
-        <v>448</v>
-      </c>
-      <c r="R27" t="s">
-        <v>590</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="W27" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="X27" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="V27" s="26" t="s">
+      <c r="Y27" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE27" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG27" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="X27" s="13" t="s">
+      <c r="AH27" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE27" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF27" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="AH27" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="AI27">
         <v>56</v>
@@ -7928,12 +8024,12 @@
         <v>4</v>
       </c>
       <c r="AK27" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B28">
         <v>74211</v>
@@ -7945,7 +8041,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7954,64 +8050,64 @@
         <v>1350</v>
       </c>
       <c r="I28" t="s">
+        <v>596</v>
+      </c>
+      <c r="J28" t="s">
+        <v>597</v>
+      </c>
+      <c r="L28" t="s">
+        <v>544</v>
+      </c>
+      <c r="R28" t="s">
+        <v>595</v>
+      </c>
+      <c r="S28" t="s">
         <v>598</v>
       </c>
-      <c r="J28" t="s">
-        <v>599</v>
-      </c>
-      <c r="L28" t="s">
-        <v>546</v>
-      </c>
-      <c r="R28" t="s">
-        <v>597</v>
-      </c>
-      <c r="S28" t="s">
-        <v>600</v>
-      </c>
       <c r="T28" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB28" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="X28" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB28" s="14" t="s">
-        <v>399</v>
-      </c>
       <c r="AC28" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AD28" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AH28" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AI28">
         <v>65</v>
@@ -8020,12 +8116,12 @@
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B29">
         <v>2517295</v>
@@ -8037,7 +8133,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -8049,67 +8145,67 @@
         <v>40751</v>
       </c>
       <c r="J29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R29" t="s">
+        <v>599</v>
+      </c>
+      <c r="S29" t="s">
         <v>601</v>
       </c>
-      <c r="S29" t="s">
-        <v>603</v>
-      </c>
       <c r="T29" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Y29" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC29" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AD29" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AI29">
         <v>76</v>
@@ -8118,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="AK29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8128,509 +8224,182 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.93359375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.07421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>350</v>
+        <v>698</v>
       </c>
       <c r="B2">
-        <v>1288683</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="E2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="F2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>375</v>
+        <v>704</v>
       </c>
       <c r="B3">
-        <v>143864</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="F3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>709</v>
       </c>
       <c r="B4">
-        <v>25825</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="E4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="F4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>403</v>
+        <v>715</v>
       </c>
       <c r="B5">
-        <v>2544322</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="E5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>403</v>
+        <v>717</v>
+      </c>
+      <c r="F5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>721</v>
       </c>
       <c r="B6">
-        <v>3202275</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>720</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B7">
-        <v>1530227</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="D7" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="E7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8">
-        <v>1808381</v>
-      </c>
-      <c r="C8" t="s">
-        <v>670</v>
-      </c>
-      <c r="D8" t="s">
-        <v>671</v>
-      </c>
-      <c r="E8" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9">
-        <v>30839</v>
-      </c>
-      <c r="C9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" t="s">
-        <v>672</v>
-      </c>
-      <c r="E9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10">
-        <v>1555875</v>
-      </c>
-      <c r="C10" t="s">
-        <v>673</v>
-      </c>
-      <c r="D10" t="s">
-        <v>674</v>
-      </c>
-      <c r="E10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11">
-        <v>1507506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D11" t="s">
-        <v>675</v>
-      </c>
-      <c r="E11" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12">
-        <v>3171178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>663</v>
-      </c>
-      <c r="D12" t="s">
-        <v>676</v>
-      </c>
-      <c r="E12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13">
-        <v>4363524</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" t="s">
-        <v>677</v>
-      </c>
-      <c r="E13" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14">
-        <v>1391491</v>
-      </c>
-      <c r="C14" t="s">
-        <v>678</v>
-      </c>
-      <c r="D14" t="s">
-        <v>679</v>
-      </c>
-      <c r="E14" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15">
-        <v>1150009</v>
-      </c>
-      <c r="C15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" t="s">
-        <v>680</v>
-      </c>
-      <c r="E15" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B16">
-        <v>1099725</v>
-      </c>
-      <c r="C16" t="s">
-        <v>678</v>
-      </c>
-      <c r="D16" t="s">
-        <v>681</v>
-      </c>
-      <c r="E16" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17">
-        <v>1009666</v>
-      </c>
-      <c r="C17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" t="s">
-        <v>682</v>
-      </c>
-      <c r="E17" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B18">
-        <v>753323</v>
-      </c>
-      <c r="C18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" t="s">
-        <v>683</v>
-      </c>
-      <c r="E18" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B19">
-        <v>947098</v>
-      </c>
-      <c r="C19" t="s">
-        <v>664</v>
-      </c>
-      <c r="D19" t="s">
-        <v>684</v>
-      </c>
-      <c r="E19" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B20">
-        <v>972259</v>
-      </c>
-      <c r="C20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" t="s">
-        <v>685</v>
-      </c>
-      <c r="E20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21">
-        <v>2169583</v>
-      </c>
-      <c r="C21" t="s">
-        <v>686</v>
-      </c>
-      <c r="D21" t="s">
-        <v>687</v>
-      </c>
-      <c r="E21" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B22">
-        <v>3729374</v>
-      </c>
-      <c r="C22" t="s">
-        <v>688</v>
-      </c>
-      <c r="D22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E22" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B23">
-        <v>1384222</v>
-      </c>
-      <c r="C23" t="s">
-        <v>690</v>
-      </c>
-      <c r="D23" t="s">
-        <v>691</v>
-      </c>
-      <c r="E23" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24">
-        <v>2381459</v>
-      </c>
-      <c r="C24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24" t="s">
-        <v>692</v>
-      </c>
-      <c r="E24" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B25">
-        <v>437359</v>
-      </c>
-      <c r="C25" t="s">
-        <v>690</v>
-      </c>
-      <c r="D25" t="s">
-        <v>693</v>
-      </c>
-      <c r="E25" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B26">
-        <v>3732429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>694</v>
-      </c>
-      <c r="D26" t="s">
-        <v>695</v>
-      </c>
-      <c r="E26" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B27">
-        <v>1170113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D27" t="s">
-        <v>696</v>
-      </c>
-      <c r="E27" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B28">
-        <v>74211</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" t="s">
-        <v>685</v>
-      </c>
-      <c r="E28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2517295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>663</v>
-      </c>
-      <c r="D29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E29" t="s">
-        <v>697</v>
+        <v>728</v>
+      </c>
+      <c r="F7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G7" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -8697,84 +8466,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8788,34 +8557,34 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8829,75 +8598,75 @@
         <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8911,198 +8680,198 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E11" t="s">
         <v>631</v>
       </c>
-      <c r="E11" t="s">
-        <v>634</v>
-      </c>
       <c r="F11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G11" t="s">
+        <v>612</v>
+      </c>
+      <c r="H11" t="s">
         <v>615</v>
       </c>
-      <c r="H11" t="s">
-        <v>618</v>
-      </c>
       <c r="I11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9116,34 +8885,34 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
+        <v>629</v>
+      </c>
+      <c r="E12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F12" t="s">
         <v>632</v>
       </c>
-      <c r="E12" t="s">
-        <v>632</v>
-      </c>
-      <c r="F12" t="s">
-        <v>635</v>
-      </c>
       <c r="G12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H12" t="s">
+        <v>616</v>
+      </c>
+      <c r="I12" t="s">
+        <v>616</v>
+      </c>
+      <c r="J12" t="s">
+        <v>616</v>
+      </c>
+      <c r="K12" t="s">
         <v>619</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>619</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>619</v>
-      </c>
-      <c r="K12" t="s">
-        <v>622</v>
-      </c>
-      <c r="L12" t="s">
-        <v>622</v>
-      </c>
-      <c r="M12" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="730">
   <si>
     <t>Places</t>
   </si>
@@ -1923,12 +1923,6 @@
     <t>17.35.</t>
   </si>
   <si>
-    <t>madrid</t>
-  </si>
-  <si>
-    <t>40.4165,-3.7026</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
@@ -1965,156 +1959,30 @@
     <t>19.05.</t>
   </si>
   <si>
-    <t>43.2627,-2.9253</t>
-  </si>
-  <si>
     <t>20.39.</t>
   </si>
   <si>
     <t>venlo</t>
   </si>
   <si>
-    <t>venlo,us</t>
-  </si>
-  <si>
-    <t>girona</t>
-  </si>
-  <si>
     <t>castille</t>
   </si>
   <si>
     <t>51.3667,6.1667</t>
   </si>
   <si>
-    <t>17.29.</t>
-  </si>
-  <si>
-    <t>41.9831,2.8249</t>
-  </si>
-  <si>
-    <t>20.99.</t>
-  </si>
-  <si>
-    <t>19.39.</t>
-  </si>
-  <si>
-    <t>22.82.</t>
-  </si>
-  <si>
-    <t>46.4864,-97.4462</t>
-  </si>
-  <si>
-    <t>23.12.</t>
-  </si>
-  <si>
     <t>44.0401,0.209</t>
   </si>
   <si>
     <t>FR</t>
   </si>
   <si>
-    <t>19.38.</t>
-  </si>
-  <si>
-    <t>26.78.</t>
-  </si>
-  <si>
-    <t>26.34.</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
     <t>playerName</t>
   </si>
   <si>
-    <t>Football fc</t>
-  </si>
-  <si>
-    <t>Maisie Rogers</t>
-  </si>
-  <si>
-    <t>3,427,444</t>
-  </si>
-  <si>
-    <t>FC SZTEJTI 10</t>
-  </si>
-  <si>
-    <t>Adam Sztejter</t>
-  </si>
-  <si>
-    <t>16,963</t>
-  </si>
-  <si>
-    <t>Holy hamburgers</t>
-  </si>
-  <si>
-    <t>Leri Jiso</t>
-  </si>
-  <si>
-    <t>226,285</t>
-  </si>
-  <si>
-    <t>Mohammed 94</t>
-  </si>
-  <si>
-    <t>Mohammed Mzory</t>
-  </si>
-  <si>
-    <t>1,646,257</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>MrTrias500</t>
-  </si>
-  <si>
-    <t>Eni Shtini</t>
-  </si>
-  <si>
-    <t>317,891</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Traitorzero</t>
-  </si>
-  <si>
-    <t>Kamil Nainggolan</t>
-  </si>
-  <si>
-    <t>7,720</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
     <t>gwXfr</t>
   </si>
   <si>
@@ -2212,6 +2080,138 @@
   </si>
   <si>
     <t>437</t>
+  </si>
+  <si>
+    <t>SpielerName</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>tacoma</t>
+  </si>
+  <si>
+    <t>akron</t>
+  </si>
+  <si>
+    <t>reus</t>
+  </si>
+  <si>
+    <t>11.87.</t>
+  </si>
+  <si>
+    <t>47.6062,-122.3321</t>
+  </si>
+  <si>
+    <t>13.64.</t>
+  </si>
+  <si>
+    <t>47.2529,-122.4443</t>
+  </si>
+  <si>
+    <t>13.53.</t>
+  </si>
+  <si>
+    <t>17.31.</t>
+  </si>
+  <si>
+    <t>41.0814,-81.519</t>
+  </si>
+  <si>
+    <t>20.02.</t>
+  </si>
+  <si>
+    <t>13.71.</t>
+  </si>
+  <si>
+    <t>12.17.</t>
+  </si>
+  <si>
+    <t>41.1561,1.1069</t>
+  </si>
+  <si>
+    <t>14.89.</t>
+  </si>
+  <si>
+    <t>dfk</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>AleTypiara</t>
+  </si>
+  <si>
+    <t>Koralina Jones</t>
+  </si>
+  <si>
+    <t>1,285,839</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Joe Rodon Experience</t>
+  </si>
+  <si>
+    <t>Ivar Mehl Olsen</t>
+  </si>
+  <si>
+    <t>409,075</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>begalviai</t>
+  </si>
+  <si>
+    <t>Martynas Džiugas</t>
+  </si>
+  <si>
+    <t>44,679</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>Gilmour Girls</t>
+  </si>
+  <si>
+    <t>Jath V</t>
+  </si>
+  <si>
+    <t>390,758</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>(C) Scarlett</t>
+  </si>
+  <si>
+    <t>Rob Sinclair</t>
+  </si>
+  <si>
+    <t>11,899</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>Soucek &amp; the BenMees</t>
+  </si>
+  <si>
+    <t>Alastair Cameron</t>
+  </si>
+  <si>
+    <t>13,047</t>
   </si>
 </sst>
 </file>
@@ -2687,13 +2687,13 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
     <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
     <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
@@ -2798,25 +2798,25 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>208</v>
@@ -2863,163 +2863,163 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>635</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="E3" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>635</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="E4" t="s">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="F4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>658</v>
+        <v>696</v>
       </c>
       <c r="E5" t="s">
-        <v>658</v>
+        <v>696</v>
       </c>
       <c r="F5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="E6" t="s">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="F6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="E7" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>690</v>
       </c>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="C9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="F9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -5445,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8224,24 +8224,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.93359375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.74609375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.87109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -8258,148 +8260,238 @@
         <v>603</v>
       </c>
       <c r="F1" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="G1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="H1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K1" t="s">
+        <v>703</v>
+      </c>
+      <c r="L1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M1" t="s">
+        <v>703</v>
+      </c>
+      <c r="N1" t="s">
+        <v>703</v>
+      </c>
+      <c r="O1" t="s">
+        <v>703</v>
+      </c>
+      <c r="P1" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>703</v>
+      </c>
+      <c r="R1" t="s">
+        <v>686</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="E2" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="F2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="s">
+        <v>717</v>
+      </c>
+      <c r="E4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
         <v>704</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F3" t="s">
-        <v>705</v>
-      </c>
-      <c r="G3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>687</v>
-      </c>
-      <c r="D4" t="s">
-        <v>712</v>
-      </c>
-      <c r="E4" t="s">
-        <v>711</v>
-      </c>
-      <c r="F4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>714</v>
-      </c>
       <c r="D5" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E5" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F5" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F6" t="s">
         <v>724</v>
       </c>
-      <c r="E6" t="s">
-        <v>723</v>
-      </c>
-      <c r="F6" t="s">
-        <v>722</v>
-      </c>
       <c r="G6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" t="s">
         <v>726</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>725</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>729</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>728</v>
       </c>
-      <c r="F7" t="s">
-        <v>727</v>
-      </c>
       <c r="G7" t="s">
-        <v>713</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="694">
   <si>
     <t>Places</t>
   </si>
@@ -1980,238 +1980,130 @@
     <t>playerName</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>gwXfr</t>
   </si>
   <si>
-    <t>Hogwarts XI</t>
-  </si>
-  <si>
-    <t>Ahmed Afify</t>
-  </si>
-  <si>
-    <t>1,118,949</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>On the back Werner</t>
-  </si>
-  <si>
-    <t>Andy LTFPL</t>
-  </si>
-  <si>
-    <t>13,684</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>PiqueOfMountTavarest</t>
-  </si>
-  <si>
-    <t>Vanishing into Variance</t>
-  </si>
-  <si>
-    <t>132,663</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Tekirdag 59ers</t>
-  </si>
-  <si>
-    <t>Goktug Erce Gurel</t>
-  </si>
-  <si>
-    <t>4,671</t>
-  </si>
-  <si>
-    <t>485</t>
+    <t>SpielerName</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>tacoma</t>
+  </si>
+  <si>
+    <t>akron</t>
+  </si>
+  <si>
+    <t>reus</t>
+  </si>
+  <si>
+    <t>11.87.</t>
+  </si>
+  <si>
+    <t>47.6062,-122.3321</t>
+  </si>
+  <si>
+    <t>13.64.</t>
+  </si>
+  <si>
+    <t>47.2529,-122.4443</t>
+  </si>
+  <si>
+    <t>13.53.</t>
+  </si>
+  <si>
+    <t>17.31.</t>
+  </si>
+  <si>
+    <t>41.0814,-81.519</t>
+  </si>
+  <si>
+    <t>20.02.</t>
+  </si>
+  <si>
+    <t>13.71.</t>
+  </si>
+  <si>
+    <t>12.17.</t>
+  </si>
+  <si>
+    <t>41.1561,1.1069</t>
+  </si>
+  <si>
+    <t>14.89.</t>
+  </si>
+  <si>
+    <t>dfk</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Rubber Digne Rapids</t>
+  </si>
+  <si>
+    <t>Shahzad Yasin</t>
+  </si>
+  <si>
+    <t>269,865</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>InsertWittyNameHere</t>
+  </si>
+  <si>
+    <t>tom newall</t>
+  </si>
+  <si>
+    <t>98,153</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Lagomt</t>
+  </si>
+  <si>
+    <t>Morris Ku</t>
+  </si>
+  <si>
+    <t>207,246</t>
+  </si>
+  <si>
+    <t>463</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>rwterte</t>
-  </si>
-  <si>
-    <t>Jim E</t>
-  </si>
-  <si>
-    <t>388,469</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Netflix and Chilwell</t>
-  </si>
-  <si>
-    <t>James Goodall</t>
-  </si>
-  <si>
-    <t>242,818</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>SpielerName</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>tacoma</t>
-  </si>
-  <si>
-    <t>akron</t>
-  </si>
-  <si>
-    <t>reus</t>
-  </si>
-  <si>
-    <t>11.87.</t>
-  </si>
-  <si>
-    <t>47.6062,-122.3321</t>
-  </si>
-  <si>
-    <t>13.64.</t>
-  </si>
-  <si>
-    <t>47.2529,-122.4443</t>
-  </si>
-  <si>
-    <t>13.53.</t>
-  </si>
-  <si>
-    <t>17.31.</t>
-  </si>
-  <si>
-    <t>41.0814,-81.519</t>
-  </si>
-  <si>
-    <t>20.02.</t>
-  </si>
-  <si>
-    <t>13.71.</t>
-  </si>
-  <si>
-    <t>12.17.</t>
-  </si>
-  <si>
-    <t>41.1561,1.1069</t>
-  </si>
-  <si>
-    <t>14.89.</t>
-  </si>
-  <si>
-    <t>dfk</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>AleTypiara</t>
-  </si>
-  <si>
-    <t>Koralina Jones</t>
-  </si>
-  <si>
-    <t>1,285,839</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Joe Rodon Experience</t>
-  </si>
-  <si>
-    <t>Ivar Mehl Olsen</t>
-  </si>
-  <si>
-    <t>409,075</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>begalviai</t>
-  </si>
-  <si>
-    <t>Martynas Džiugas</t>
-  </si>
-  <si>
-    <t>44,679</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>Gilmour Girls</t>
-  </si>
-  <si>
-    <t>Jath V</t>
-  </si>
-  <si>
-    <t>390,758</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>(C) Scarlett</t>
-  </si>
-  <si>
-    <t>Rob Sinclair</t>
-  </si>
-  <si>
-    <t>11,899</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>Soucek &amp; the BenMees</t>
-  </si>
-  <si>
-    <t>Alastair Cameron</t>
-  </si>
-  <si>
-    <t>13,047</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Pepe Pig</t>
+  </si>
+  <si>
+    <t>Dillon Williams</t>
+  </si>
+  <si>
+    <t>302,936</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
 </sst>
 </file>
@@ -2807,10 +2699,10 @@
         <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>637</v>
@@ -2863,19 +2755,19 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="E3" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="F3" t="s">
         <v>638</v>
@@ -2886,19 +2778,19 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="E4" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="F4" t="s">
         <v>639</v>
@@ -2918,10 +2810,10 @@
         <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="F5" t="s">
         <v>640</v>
@@ -2932,19 +2824,19 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="F6" t="s">
         <v>641</v>
@@ -2964,10 +2856,10 @@
         <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="E7" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="F7" t="s">
         <v>642</v>
@@ -2987,10 +2879,10 @@
         <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="E8" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="F8" t="s">
         <v>644</v>
@@ -3001,19 +2893,19 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
         <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="E9" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="F9" t="s">
         <v>645</v>
@@ -8224,20 +8116,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.74609375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.79296875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.87109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.93359375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="9.28515625" collapsed="true"/>
@@ -8263,40 +8155,40 @@
         <v>651</v>
       </c>
       <c r="G1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="I1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="J1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="K1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="L1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="M1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="N1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="O1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="P1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="Q1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="R1" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="S1" t="s">
         <v>329</v>
@@ -8358,140 +8250,48 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="B2">
-        <v>323</v>
+        <v>100000</v>
       </c>
       <c r="C2" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="D2" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="E2" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="F2" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="G2" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="B3">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="F3" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="G3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B4">
-        <v>325</v>
-      </c>
-      <c r="C4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" t="s">
-        <v>717</v>
-      </c>
-      <c r="E4" t="s">
-        <v>716</v>
-      </c>
-      <c r="F4" t="s">
-        <v>715</v>
-      </c>
-      <c r="G4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B5">
-        <v>326</v>
-      </c>
-      <c r="C5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D5" t="s">
-        <v>721</v>
-      </c>
-      <c r="E5" t="s">
-        <v>720</v>
-      </c>
-      <c r="F5" t="s">
-        <v>719</v>
-      </c>
-      <c r="G5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B6">
-        <v>327</v>
-      </c>
-      <c r="C6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D6" t="s">
-        <v>726</v>
-      </c>
-      <c r="E6" t="s">
-        <v>725</v>
-      </c>
-      <c r="F6" t="s">
-        <v>724</v>
-      </c>
-      <c r="G6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="B7">
-        <v>328</v>
-      </c>
-      <c r="C7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" t="s">
-        <v>726</v>
-      </c>
-      <c r="E7" t="s">
-        <v>729</v>
-      </c>
-      <c r="F7" t="s">
-        <v>728</v>
-      </c>
-      <c r="G7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="705">
   <si>
     <t>Places</t>
   </si>
@@ -1986,9 +1986,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>SpielerName</t>
   </si>
   <si>
@@ -2043,42 +2040,9 @@
     <t>dfk</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Rubber Digne Rapids</t>
-  </si>
-  <si>
-    <t>Shahzad Yasin</t>
-  </si>
-  <si>
-    <t>269,865</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>InsertWittyNameHere</t>
-  </si>
-  <si>
-    <t>tom newall</t>
-  </si>
-  <si>
-    <t>98,153</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
-    <t>Lagomt</t>
-  </si>
-  <si>
     <t>Morris Ku</t>
   </si>
   <si>
@@ -2094,9 +2058,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>Pepe Pig</t>
-  </si>
-  <si>
     <t>Dillon Williams</t>
   </si>
   <si>
@@ -2104,13 +2065,84 @@
   </si>
   <si>
     <t>456</t>
+  </si>
+  <si>
+    <t>Sánchez 6</t>
+  </si>
+  <si>
+    <t>Duffy 6</t>
+  </si>
+  <si>
+    <t>Livramento 4</t>
+  </si>
+  <si>
+    <t>White 7</t>
+  </si>
+  <si>
+    <t>Salah 13</t>
+  </si>
+  <si>
+    <t>Gray 2</t>
+  </si>
+  <si>
+    <t>Raphinha 3</t>
+  </si>
+  <si>
+    <t>Sarr 1</t>
+  </si>
+  <si>
+    <t>Antonio 2</t>
+  </si>
+  <si>
+    <t>Ronaldo 1</t>
+  </si>
+  <si>
+    <t>Lukaku 4</t>
+  </si>
+  <si>
+    <t>S.Longstaff 2</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 0</t>
+  </si>
+  <si>
+    <t>Amartey 0</t>
+  </si>
+  <si>
+    <t>Ramsdale 6</t>
+  </si>
+  <si>
+    <t>Dias 0</t>
+  </si>
+  <si>
+    <t>Rüdiger 2</t>
+  </si>
+  <si>
+    <t>Cancelo 0</t>
+  </si>
+  <si>
+    <t>Saka 3</t>
+  </si>
+  <si>
+    <t>Gallagher 2</t>
+  </si>
+  <si>
+    <t>Saint-Maximin 2</t>
+  </si>
+  <si>
+    <t>Foster 2</t>
+  </si>
+  <si>
+    <t>Christensen 0</t>
+  </si>
+  <si>
+    <t>Douglas Luiz 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2584,19 +2616,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
-    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2699,10 +2731,10 @@
         <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>637</v>
@@ -2755,19 +2787,19 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F3" t="s">
         <v>638</v>
@@ -2778,19 +2810,19 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F4" t="s">
         <v>639</v>
@@ -2810,10 +2842,10 @@
         <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F5" t="s">
         <v>640</v>
@@ -2824,19 +2856,19 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" t="s">
         <v>641</v>
@@ -2856,10 +2888,10 @@
         <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" t="s">
         <v>642</v>
@@ -2879,10 +2911,10 @@
         <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F8" t="s">
         <v>644</v>
@@ -2893,19 +2925,19 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C9" t="s">
         <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F9" t="s">
         <v>645</v>
@@ -2931,9 +2963,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,10 +3357,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,10 +3746,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -5072,10 +5104,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,18 +5369,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8116,23 +8148,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.79296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.93359375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8158,37 +8203,37 @@
         <v>652</v>
       </c>
       <c r="H1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S1" t="s">
         <v>329</v>
@@ -8250,48 +8295,378 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2438499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2" t="s">
+        <v>676</v>
+      </c>
+      <c r="T2" t="s">
+        <v>681</v>
+      </c>
+      <c r="U2" t="s">
+        <v>682</v>
+      </c>
+      <c r="V2" t="s">
+        <v>683</v>
+      </c>
+      <c r="W2" t="s">
         <v>684</v>
       </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="X2" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z2" t="s">
         <v>687</v>
       </c>
-      <c r="E2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="AA2" t="s">
         <v>688</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
+        <v>271</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D3" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E3" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F3" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="G3" t="s">
         <v>653</v>
+      </c>
+      <c r="T3" t="s">
+        <v>695</v>
+      </c>
+      <c r="U3" t="s">
+        <v>696</v>
+      </c>
+      <c r="V3" t="s">
+        <v>697</v>
+      </c>
+      <c r="W3" t="s">
+        <v>698</v>
+      </c>
+      <c r="X3" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>703</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>704</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4115919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2324952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2522621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="8">
+        <v>488734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1069199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1327409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2203632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3998490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="8">
+        <v>440807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2184142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2795791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="8">
+        <v>228724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2185186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2317783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="8">
+        <v>364277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1396639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1339989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="8">
+        <v>474028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1229286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2340261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1708392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2719892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="8">
+        <v>122847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="8">
+        <v>362369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="8">
+        <v>290784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="8">
+        <v>23487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="8">
+        <v>360554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2090014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="8">
+        <v>158870</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8684,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="bluePrint" sheetId="7" r:id="rId7"/>
     <sheet name="turf" sheetId="8" r:id="rId8"/>
     <sheet name="sept" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="909">
   <si>
     <t>Places</t>
   </si>
@@ -1986,9 +1987,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>SpielerName</t>
-  </si>
-  <si>
     <t>Seattle</t>
   </si>
   <si>
@@ -2043,106 +2041,722 @@
     <t>49</t>
   </si>
   <si>
-    <t>Morris Ku</t>
-  </si>
-  <si>
-    <t>207,246</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Sánchez 6</t>
+  </si>
+  <si>
+    <t>Duffy 6</t>
+  </si>
+  <si>
+    <t>Livramento 4</t>
+  </si>
+  <si>
+    <t>White 7</t>
+  </si>
+  <si>
+    <t>Salah 13</t>
+  </si>
+  <si>
+    <t>Gray 2</t>
+  </si>
+  <si>
+    <t>Raphinha 3</t>
+  </si>
+  <si>
+    <t>Sarr 1</t>
+  </si>
+  <si>
+    <t>Antonio 2</t>
+  </si>
+  <si>
+    <t>Ronaldo 1</t>
+  </si>
+  <si>
+    <t>Lukaku 4</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 0</t>
+  </si>
+  <si>
+    <t>Amartey 0</t>
+  </si>
+  <si>
+    <t>Ramsdale 6</t>
+  </si>
+  <si>
+    <t>Dias 0</t>
+  </si>
+  <si>
+    <t>Rüdiger 2</t>
+  </si>
+  <si>
+    <t>Cancelo 0</t>
+  </si>
+  <si>
+    <t>Saka 3</t>
+  </si>
+  <si>
+    <t>Gallagher 2</t>
+  </si>
+  <si>
+    <t>Saint-Maximin 2</t>
+  </si>
+  <si>
+    <t>Foster 2</t>
+  </si>
+  <si>
+    <t>Christensen 0</t>
+  </si>
+  <si>
+    <t>Douglas Luiz 2</t>
+  </si>
+  <si>
+    <t>Marçal 3</t>
+  </si>
+  <si>
+    <t>Fernandes 5</t>
+  </si>
+  <si>
+    <t>Salah 26</t>
+  </si>
+  <si>
+    <t>Greenwood 1</t>
+  </si>
+  <si>
+    <t>Maupay 1</t>
+  </si>
+  <si>
+    <t>Pukki 2</t>
+  </si>
+  <si>
+    <t>Torres 0</t>
+  </si>
+  <si>
+    <t>Kanté 0</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2,930,864</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Alonso 0</t>
+  </si>
+  <si>
+    <t>Klich 3</t>
+  </si>
+  <si>
+    <t>Guaita 2</t>
+  </si>
+  <si>
+    <t>Omobamidele 0</t>
+  </si>
+  <si>
+    <t>Archer 1</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Lucky FC</t>
+  </si>
+  <si>
+    <t>Saurabh Tamang</t>
+  </si>
+  <si>
+    <t>3,705,347</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>Schmeichel 1</t>
+  </si>
+  <si>
+    <t>Shaw 2</t>
+  </si>
+  <si>
+    <t>Dier 3</t>
+  </si>
+  <si>
+    <t>Kovacic 2</t>
+  </si>
+  <si>
+    <t>Smith Rowe 3</t>
+  </si>
+  <si>
+    <t>Immortal FC</t>
+  </si>
+  <si>
+    <t>Pranesh Sharma</t>
+  </si>
+  <si>
+    <t>2,202,109</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>Mendy 2</t>
+  </si>
+  <si>
+    <t>van Dijk 1</t>
+  </si>
+  <si>
+    <t>Lukaku 2</t>
+  </si>
+  <si>
+    <t>Elyounoussi 1</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>GAROBADHA UNITED</t>
+  </si>
+  <si>
+    <t>957,666</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>Thiago Silva 1</t>
+  </si>
+  <si>
+    <t>Tomiyasu 6</t>
+  </si>
+  <si>
+    <t>Reguilón 2</t>
+  </si>
+  <si>
+    <t>James 3</t>
+  </si>
+  <si>
+    <t>Benrahma 2</t>
+  </si>
+  <si>
+    <t>Ødegaard 3</t>
+  </si>
+  <si>
+    <t>Vardy 8</t>
+  </si>
+  <si>
+    <t>Antonio 4</t>
+  </si>
+  <si>
+    <t>McCarthy 3</t>
+  </si>
+  <si>
+    <t>Moder 3</t>
+  </si>
+  <si>
+    <t>The Borderland Fc</t>
+  </si>
+  <si>
+    <t>1,642,402</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>Walker 1</t>
+  </si>
+  <si>
+    <t>Doucouré 5</t>
+  </si>
+  <si>
+    <t>Ward-Prowse 4</t>
+  </si>
+  <si>
+    <t>Dennis 1</t>
+  </si>
+  <si>
+    <t>Tsimikas 0</t>
+  </si>
+  <si>
+    <t>Bissouma 0</t>
+  </si>
+  <si>
+    <t>2,490,505</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>Veltman 5</t>
+  </si>
+  <si>
+    <t>Pinnock 2</t>
+  </si>
+  <si>
+    <t>Jota 2</t>
+  </si>
+  <si>
+    <t>Ronaldo 2</t>
+  </si>
+  <si>
+    <t>Scarlett 0</t>
+  </si>
+  <si>
+    <t>BUSBY BABIES 2</t>
+  </si>
+  <si>
+    <t>455,744</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>Manquillo 3</t>
+  </si>
+  <si>
+    <t>Raya 3</t>
+  </si>
+  <si>
+    <t>SYAKREE FC</t>
+  </si>
+  <si>
+    <t>1,562,668</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>Ward 0</t>
+  </si>
+  <si>
+    <t>Gilmour 0</t>
+  </si>
+  <si>
+    <t>Ashim Lama</t>
+  </si>
+  <si>
+    <t>1,383,981</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>PEPPERBOX83</t>
+  </si>
+  <si>
+    <t>Vivek Pradhan</t>
+  </si>
+  <si>
+    <t>1,210,823</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>Grealish 2</t>
+  </si>
+  <si>
+    <t>Ederson 1</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1,080,787</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>Alisson 1</t>
+  </si>
+  <si>
+    <t>Jansson 5</t>
+  </si>
+  <si>
+    <t>Varane 2</t>
+  </si>
+  <si>
+    <t>Bamford 0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1,145,115</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>Meslier 6</t>
+  </si>
+  <si>
+    <t>Söyüncü 1</t>
+  </si>
+  <si>
+    <t>Tierney 6</t>
+  </si>
+  <si>
+    <t>Coady 2</t>
+  </si>
+  <si>
+    <t>Digne 2</t>
+  </si>
+  <si>
+    <t>Maddison 1</t>
+  </si>
+  <si>
+    <t>Aubameyang 2</t>
+  </si>
+  <si>
+    <t>Jiménez 10</t>
+  </si>
+  <si>
+    <t>Kung Fu Pandoos</t>
+  </si>
+  <si>
+    <t>1,014,782</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>Toney 2</t>
+  </si>
+  <si>
+    <t>PL CG FC</t>
+  </si>
+  <si>
+    <t>Rishi Thulung</t>
+  </si>
+  <si>
+    <t>573,917</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>Steele 0</t>
+  </si>
+  <si>
+    <t>Allan 2</t>
+  </si>
+  <si>
+    <t>Williams 0</t>
+  </si>
+  <si>
+    <t>475,884</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>McArthur 1</t>
+  </si>
+  <si>
+    <t>1,279,096</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>Benrahma 4</t>
+  </si>
+  <si>
+    <t>Obafemi 0</t>
+  </si>
+  <si>
+    <t>Gustavous Gunner</t>
+  </si>
+  <si>
+    <t>657,196</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>Azpilicueta 10</t>
+  </si>
+  <si>
+    <t>Brownhill 2</t>
+  </si>
+  <si>
+    <t>False 9</t>
+  </si>
+  <si>
+    <t>269,865</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Weightloss Coach</t>
+  </si>
+  <si>
+    <t>386,683</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>Coufal 1</t>
+  </si>
+  <si>
+    <t>334,845</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>Richardson 0</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Gooner for Life 037</t>
+  </si>
+  <si>
+    <t>541,562</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>Sá 2</t>
+  </si>
+  <si>
+    <t>Matip 1</t>
+  </si>
+  <si>
+    <t>RAJIYUNG Sun</t>
+  </si>
+  <si>
+    <t>423,397</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>Krul 9</t>
+  </si>
+  <si>
+    <t>Tielemans 1</t>
+  </si>
+  <si>
+    <t>Almirón 2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>404,624</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>Jiménez 20</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>prabin kumar</t>
+  </si>
+  <si>
+    <t>1,978,926</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>Semedo 2</t>
+  </si>
+  <si>
+    <t>Marijuana Fields FC</t>
+  </si>
+  <si>
+    <t>693,096</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>Mbeumo 8</t>
+  </si>
+  <si>
+    <t>abcde FC</t>
+  </si>
+  <si>
+    <t>Prayash Thapa</t>
+  </si>
+  <si>
+    <t>105,628</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>One Step Beyond 026*</t>
+  </si>
+  <si>
+    <t>Tenzing Ninjey</t>
+  </si>
+  <si>
+    <t>442,587</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Up the Bees</t>
+  </si>
+  <si>
+    <t>Harsh Raval</t>
+  </si>
+  <si>
+    <t>6,731</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>PRAYAS BAJGAI</t>
+  </si>
+  <si>
+    <t>152,754</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>Raphinha 6</t>
+  </si>
+  <si>
+    <t>Roing FC</t>
+  </si>
+  <si>
+    <t>AVIJIT DAS</t>
+  </si>
+  <si>
+    <t>222,646</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka 2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>WEIGHTLOSS COACH</t>
+  </si>
+  <si>
+    <t>155,423</t>
+  </si>
+  <si>
+    <t>117,486</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainer_name </t>
+  </si>
+  <si>
+    <t>Pickford 3</t>
+  </si>
+  <si>
+    <t>Rashica 1</t>
+  </si>
+  <si>
+    <t>Son 10</t>
+  </si>
+  <si>
+    <t>Calvert-Lewin 0</t>
+  </si>
+  <si>
+    <t>Begović 0</t>
+  </si>
+  <si>
+    <t>Reid 0</t>
+  </si>
+  <si>
+    <t>Chiellini2020</t>
+  </si>
+  <si>
+    <t>enio minxhozi</t>
+  </si>
+  <si>
+    <t>202,671</t>
   </si>
   <si>
     <t>463</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Dillon Williams</t>
-  </si>
-  <si>
-    <t>302,936</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>Sánchez 6</t>
-  </si>
-  <si>
-    <t>Duffy 6</t>
-  </si>
-  <si>
-    <t>Livramento 4</t>
-  </si>
-  <si>
-    <t>White 7</t>
-  </si>
-  <si>
-    <t>Salah 13</t>
-  </si>
-  <si>
-    <t>Gray 2</t>
-  </si>
-  <si>
-    <t>Raphinha 3</t>
-  </si>
-  <si>
-    <t>Sarr 1</t>
-  </si>
-  <si>
-    <t>Antonio 2</t>
-  </si>
-  <si>
-    <t>Ronaldo 1</t>
-  </si>
-  <si>
-    <t>Lukaku 4</t>
-  </si>
-  <si>
-    <t>S.Longstaff 2</t>
-  </si>
-  <si>
-    <t>Alexander-Arnold 0</t>
-  </si>
-  <si>
-    <t>Amartey 0</t>
-  </si>
-  <si>
-    <t>Ramsdale 6</t>
-  </si>
-  <si>
-    <t>Dias 0</t>
-  </si>
-  <si>
-    <t>Rüdiger 2</t>
-  </si>
-  <si>
-    <t>Cancelo 0</t>
-  </si>
-  <si>
-    <t>Saka 3</t>
-  </si>
-  <si>
-    <t>Gallagher 2</t>
-  </si>
-  <si>
-    <t>Saint-Maximin 2</t>
-  </si>
-  <si>
-    <t>Foster 2</t>
-  </si>
-  <si>
-    <t>Christensen 0</t>
-  </si>
-  <si>
-    <t>Douglas Luiz 2</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Not sure yet</t>
+  </si>
+  <si>
+    <t>Sunit Patel</t>
+  </si>
+  <si>
+    <t>20,082</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>Supercampeones</t>
+  </si>
+  <si>
+    <t>Ronny Nelkenbaum</t>
+  </si>
+  <si>
+    <t>338,771</t>
+  </si>
+  <si>
+    <t>11 spaghetti</t>
+  </si>
+  <si>
+    <t>teo teo</t>
+  </si>
+  <si>
+    <t>240,712</t>
+  </si>
+  <si>
+    <t>460</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2616,19 +3230,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2731,10 +3345,10 @@
         <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>637</v>
@@ -2787,19 +3401,19 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F3" t="s">
         <v>638</v>
@@ -2810,19 +3424,19 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F4" t="s">
         <v>639</v>
@@ -2842,10 +3456,10 @@
         <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F5" t="s">
         <v>640</v>
@@ -2856,19 +3470,19 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" t="s">
         <v>641</v>
@@ -2888,10 +3502,10 @@
         <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" t="s">
         <v>642</v>
@@ -2911,10 +3525,10 @@
         <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" t="s">
         <v>644</v>
@@ -2925,25 +3539,534 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C9" t="s">
         <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F9" t="s">
         <v>645</v>
       </c>
       <c r="G9" t="s">
         <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.484375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.45703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.72265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.3671875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.8984375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.94140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.91796875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B2">
+        <v>5695560</v>
+      </c>
+      <c r="C2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G2" t="s">
+        <v>672</v>
+      </c>
+      <c r="R2" t="s">
+        <v>894</v>
+      </c>
+      <c r="S2" t="s">
+        <v>893</v>
+      </c>
+      <c r="T2" t="s">
+        <v>887</v>
+      </c>
+      <c r="U2" t="s">
+        <v>738</v>
+      </c>
+      <c r="V2" t="s">
+        <v>736</v>
+      </c>
+      <c r="W2" t="s">
+        <v>688</v>
+      </c>
+      <c r="X2" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>888</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>890</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1153704</v>
+      </c>
+      <c r="C3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G3" t="s">
+        <v>672</v>
+      </c>
+      <c r="R3" t="s">
+        <v>899</v>
+      </c>
+      <c r="S3" t="s">
+        <v>898</v>
+      </c>
+      <c r="T3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U3" t="s">
+        <v>689</v>
+      </c>
+      <c r="V3" t="s">
+        <v>821</v>
+      </c>
+      <c r="W3" t="s">
+        <v>677</v>
+      </c>
+      <c r="X3" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4">
+        <v>440807</v>
+      </c>
+      <c r="C4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" t="s">
+        <v>783</v>
+      </c>
+      <c r="G4" t="s">
+        <v>653</v>
+      </c>
+      <c r="R4" t="s">
+        <v>418</v>
+      </c>
+      <c r="S4" t="s">
+        <v>289</v>
+      </c>
+      <c r="T4" t="s">
+        <v>687</v>
+      </c>
+      <c r="U4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V4" t="s">
+        <v>677</v>
+      </c>
+      <c r="W4" t="s">
+        <v>688</v>
+      </c>
+      <c r="X4" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4642646</v>
+      </c>
+      <c r="C5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" t="s">
+        <v>904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>653</v>
+      </c>
+      <c r="R5" t="s">
+        <v>903</v>
+      </c>
+      <c r="S5" t="s">
+        <v>902</v>
+      </c>
+      <c r="T5" t="s">
+        <v>674</v>
+      </c>
+      <c r="U5" t="s">
+        <v>677</v>
+      </c>
+      <c r="V5" t="s">
+        <v>697</v>
+      </c>
+      <c r="W5" t="s">
+        <v>690</v>
+      </c>
+      <c r="X5" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1364835</v>
+      </c>
+      <c r="C6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E6" t="s">
+        <v>907</v>
+      </c>
+      <c r="G6" t="s">
+        <v>708</v>
+      </c>
+      <c r="R6" t="s">
+        <v>906</v>
+      </c>
+      <c r="S6" t="s">
+        <v>905</v>
+      </c>
+      <c r="T6" t="s">
+        <v>728</v>
+      </c>
+      <c r="U6" t="s">
+        <v>738</v>
+      </c>
+      <c r="V6" t="s">
+        <v>675</v>
+      </c>
+      <c r="W6" t="s">
+        <v>688</v>
+      </c>
+      <c r="X6" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>786</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>809</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -2963,9 +4086,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,10 +4480,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3746,10 +4869,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -5104,10 +6227,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,17 +6493,17 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AK1"/>
+      <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8150,39 +9273,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>886</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
@@ -8203,37 +9323,37 @@
         <v>652</v>
       </c>
       <c r="H1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R1" t="s">
-        <v>654</v>
+        <v>328</v>
       </c>
       <c r="S1" t="s">
         <v>329</v>
@@ -8301,180 +9421,588 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
       <c r="D2" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="E2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G2" t="s">
+        <v>708</v>
+      </c>
+      <c r="R2" t="s">
+        <v>548</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2" t="s">
         <v>674</v>
       </c>
-      <c r="F2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="U2" t="s">
+        <v>697</v>
+      </c>
+      <c r="V2" t="s">
+        <v>677</v>
+      </c>
+      <c r="W2" t="s">
         <v>676</v>
       </c>
-      <c r="T2" t="s">
-        <v>681</v>
-      </c>
-      <c r="U2" t="s">
-        <v>682</v>
-      </c>
-      <c r="V2" t="s">
-        <v>683</v>
-      </c>
-      <c r="W2" t="s">
-        <v>684</v>
-      </c>
       <c r="X2" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>704</v>
+      </c>
+      <c r="AH2" t="s">
         <v>685</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>689</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>691</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>692</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>693</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>715</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="D3" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
       <c r="F3" t="s">
-        <v>678</v>
+        <v>716</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>672</v>
+      </c>
+      <c r="R3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="T3" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="U3" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="V3" t="s">
         <v>697</v>
       </c>
       <c r="W3" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="X3" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="Y3" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="Z3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF3" t="s">
         <v>685</v>
       </c>
-      <c r="AA3" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>689</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>702</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>703</v>
-      </c>
       <c r="AG3" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="AH3" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>724</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
+      <c r="C4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G4" t="s">
+        <v>672</v>
+      </c>
+      <c r="R4" t="s">
+        <v>725</v>
+      </c>
+      <c r="S4" t="s">
+        <v>724</v>
+      </c>
+      <c r="T4" t="s">
+        <v>719</v>
+      </c>
+      <c r="U4" t="s">
+        <v>720</v>
+      </c>
+      <c r="V4" t="s">
+        <v>721</v>
+      </c>
+      <c r="W4" t="s">
+        <v>677</v>
+      </c>
+      <c r="X4" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>733</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
       </c>
+      <c r="C5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" t="s">
+        <v>653</v>
+      </c>
+      <c r="R5" t="s">
+        <v>583</v>
+      </c>
+      <c r="S5" t="s">
+        <v>733</v>
+      </c>
+      <c r="T5" t="s">
+        <v>728</v>
+      </c>
+      <c r="U5" t="s">
+        <v>677</v>
+      </c>
+      <c r="V5" t="s">
+        <v>690</v>
+      </c>
+      <c r="W5" t="s">
+        <v>729</v>
+      </c>
+      <c r="X5" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>731</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>746</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
       </c>
+      <c r="C6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" t="s">
+        <v>708</v>
+      </c>
+      <c r="R6" t="s">
+        <v>495</v>
+      </c>
+      <c r="S6" t="s">
+        <v>746</v>
+      </c>
+      <c r="T6" t="s">
+        <v>687</v>
+      </c>
+      <c r="U6" t="s">
+        <v>736</v>
+      </c>
+      <c r="V6" t="s">
+        <v>737</v>
+      </c>
+      <c r="W6" t="s">
+        <v>738</v>
+      </c>
+      <c r="X6" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
       </c>
+      <c r="C7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E7" t="s">
+        <v>755</v>
+      </c>
+      <c r="F7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" t="s">
+        <v>708</v>
+      </c>
+      <c r="R7" t="s">
+        <v>432</v>
+      </c>
+      <c r="S7" t="s">
+        <v>435</v>
+      </c>
+      <c r="T7" t="s">
+        <v>728</v>
+      </c>
+      <c r="U7" t="s">
+        <v>395</v>
+      </c>
+      <c r="V7" t="s">
+        <v>749</v>
+      </c>
+      <c r="W7" t="s">
+        <v>675</v>
+      </c>
+      <c r="X7" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>762</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
       </c>
+      <c r="C8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8" t="s">
+        <v>764</v>
+      </c>
+      <c r="E8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G8" t="s">
+        <v>708</v>
+      </c>
+      <c r="R8" t="s">
+        <v>573</v>
+      </c>
+      <c r="S8" t="s">
+        <v>762</v>
+      </c>
+      <c r="T8" t="s">
+        <v>674</v>
+      </c>
+      <c r="U8" t="s">
+        <v>757</v>
+      </c>
+      <c r="V8" t="s">
+        <v>758</v>
+      </c>
+      <c r="W8" t="s">
+        <v>689</v>
+      </c>
+      <c r="X8" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>767</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" t="s">
+        <v>769</v>
+      </c>
+      <c r="E9" t="s">
+        <v>768</v>
+      </c>
+      <c r="F9" t="s">
+        <v>566</v>
+      </c>
+      <c r="G9" t="s">
+        <v>653</v>
+      </c>
+      <c r="R9" t="s">
+        <v>566</v>
+      </c>
+      <c r="S9" t="s">
+        <v>767</v>
+      </c>
+      <c r="T9" t="s">
+        <v>674</v>
+      </c>
+      <c r="U9" t="s">
+        <v>765</v>
+      </c>
+      <c r="V9" t="s">
+        <v>688</v>
+      </c>
+      <c r="W9" t="s">
+        <v>697</v>
+      </c>
+      <c r="X9" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>754</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8484,13 +10012,145 @@
       <c r="B10" s="8">
         <v>2203632</v>
       </c>
+      <c r="C10" t="s">
+        <v>673</v>
+      </c>
+      <c r="D10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E10" t="s">
+        <v>773</v>
+      </c>
+      <c r="F10" t="s">
+        <v>772</v>
+      </c>
+      <c r="G10" t="s">
+        <v>708</v>
+      </c>
+      <c r="R10" t="s">
+        <v>772</v>
+      </c>
+      <c r="S10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T10" t="s">
+        <v>436</v>
+      </c>
+      <c r="U10" t="s">
+        <v>675</v>
+      </c>
+      <c r="V10" t="s">
+        <v>709</v>
+      </c>
+      <c r="W10" t="s">
+        <v>697</v>
+      </c>
+      <c r="X10" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>770</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>686</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>771</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>776</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
+      </c>
+      <c r="C11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" t="s">
+        <v>779</v>
+      </c>
+      <c r="E11" t="s">
+        <v>778</v>
+      </c>
+      <c r="F11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G11" t="s">
+        <v>708</v>
+      </c>
+      <c r="R11" t="s">
+        <v>777</v>
+      </c>
+      <c r="S11" t="s">
+        <v>776</v>
+      </c>
+      <c r="T11" t="s">
+        <v>674</v>
+      </c>
+      <c r="U11" t="s">
+        <v>688</v>
+      </c>
+      <c r="V11" t="s">
+        <v>738</v>
+      </c>
+      <c r="W11" t="s">
+        <v>675</v>
+      </c>
+      <c r="X11" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -8500,6 +10160,72 @@
       <c r="B12" s="8">
         <v>440807</v>
       </c>
+      <c r="C12" t="s">
+        <v>782</v>
+      </c>
+      <c r="D12" t="s">
+        <v>784</v>
+      </c>
+      <c r="E12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" t="s">
+        <v>653</v>
+      </c>
+      <c r="R12" t="s">
+        <v>418</v>
+      </c>
+      <c r="S12" t="s">
+        <v>289</v>
+      </c>
+      <c r="T12" t="s">
+        <v>687</v>
+      </c>
+      <c r="U12" t="s">
+        <v>689</v>
+      </c>
+      <c r="V12" t="s">
+        <v>677</v>
+      </c>
+      <c r="W12" t="s">
+        <v>688</v>
+      </c>
+      <c r="X12" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8508,21 +10234,219 @@
       <c r="B13" s="8">
         <v>2184142</v>
       </c>
+      <c r="C13" t="s">
+        <v>789</v>
+      </c>
+      <c r="D13" t="s">
+        <v>791</v>
+      </c>
+      <c r="E13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F13" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" t="s">
+        <v>672</v>
+      </c>
+      <c r="R13" t="s">
+        <v>512</v>
+      </c>
+      <c r="S13" t="s">
+        <v>291</v>
+      </c>
+      <c r="T13" t="s">
+        <v>785</v>
+      </c>
+      <c r="U13" t="s">
+        <v>786</v>
+      </c>
+      <c r="V13" t="s">
+        <v>787</v>
+      </c>
+      <c r="W13" t="s">
+        <v>675</v>
+      </c>
+      <c r="X13" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>754</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>800</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
       </c>
+      <c r="C14" t="s">
+        <v>732</v>
+      </c>
+      <c r="D14" t="s">
+        <v>802</v>
+      </c>
+      <c r="E14" t="s">
+        <v>801</v>
+      </c>
+      <c r="F14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" t="s">
+        <v>708</v>
+      </c>
+      <c r="R14" t="s">
+        <v>459</v>
+      </c>
+      <c r="S14" t="s">
+        <v>800</v>
+      </c>
+      <c r="T14" t="s">
+        <v>792</v>
+      </c>
+      <c r="U14" t="s">
+        <v>793</v>
+      </c>
+      <c r="V14" t="s">
+        <v>794</v>
+      </c>
+      <c r="W14" t="s">
+        <v>795</v>
+      </c>
+      <c r="X14" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>804</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>807</v>
+      </c>
+      <c r="E15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F15" t="s">
+        <v>805</v>
+      </c>
+      <c r="G15" t="s">
+        <v>708</v>
+      </c>
+      <c r="R15" t="s">
+        <v>805</v>
+      </c>
+      <c r="S15" t="s">
+        <v>804</v>
+      </c>
+      <c r="T15" t="s">
+        <v>674</v>
+      </c>
+      <c r="U15" t="s">
+        <v>677</v>
+      </c>
+      <c r="V15" t="s">
+        <v>720</v>
+      </c>
+      <c r="W15" t="s">
+        <v>675</v>
+      </c>
+      <c r="X15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>686</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -8532,141 +10456,1329 @@
       <c r="B16" s="8">
         <v>2185186</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D16" t="s">
+        <v>812</v>
+      </c>
+      <c r="E16" t="s">
+        <v>811</v>
+      </c>
+      <c r="F16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" t="s">
+        <v>653</v>
+      </c>
+      <c r="R16" t="s">
+        <v>406</v>
+      </c>
+      <c r="S16" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" t="s">
+        <v>674</v>
+      </c>
+      <c r="U16" t="s">
+        <v>720</v>
+      </c>
+      <c r="V16" t="s">
+        <v>686</v>
+      </c>
+      <c r="W16" t="s">
+        <v>695</v>
+      </c>
+      <c r="X16" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>809</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>298</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D17" t="s">
+        <v>815</v>
+      </c>
+      <c r="E17" t="s">
+        <v>814</v>
+      </c>
+      <c r="F17" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" t="s">
+        <v>708</v>
+      </c>
+      <c r="R17" t="s">
+        <v>348</v>
+      </c>
+      <c r="S17" t="s">
+        <v>298</v>
+      </c>
+      <c r="T17" t="s">
+        <v>674</v>
+      </c>
+      <c r="U17" t="s">
+        <v>675</v>
+      </c>
+      <c r="V17" t="s">
+        <v>689</v>
+      </c>
+      <c r="W17" t="s">
+        <v>690</v>
+      </c>
+      <c r="X17" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>809</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>818</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>782</v>
+      </c>
+      <c r="D18" t="s">
+        <v>820</v>
+      </c>
+      <c r="E18" t="s">
+        <v>819</v>
+      </c>
+      <c r="F18" t="s">
+        <v>527</v>
+      </c>
+      <c r="G18" t="s">
+        <v>672</v>
+      </c>
+      <c r="R18" t="s">
+        <v>527</v>
+      </c>
+      <c r="S18" t="s">
+        <v>818</v>
+      </c>
+      <c r="T18" t="s">
+        <v>719</v>
+      </c>
+      <c r="U18" t="s">
+        <v>677</v>
+      </c>
+      <c r="V18" t="s">
+        <v>675</v>
+      </c>
+      <c r="W18" t="s">
+        <v>690</v>
+      </c>
+      <c r="X18" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>798</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>823</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" t="s">
+        <v>825</v>
+      </c>
+      <c r="E19" t="s">
+        <v>824</v>
+      </c>
+      <c r="F19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" t="s">
+        <v>653</v>
+      </c>
+      <c r="R19" t="s">
+        <v>373</v>
+      </c>
+      <c r="S19" t="s">
+        <v>823</v>
+      </c>
+      <c r="T19" t="s">
+        <v>687</v>
+      </c>
+      <c r="U19" t="s">
+        <v>821</v>
+      </c>
+      <c r="V19" t="s">
+        <v>689</v>
+      </c>
+      <c r="W19" t="s">
+        <v>737</v>
+      </c>
+      <c r="X19" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>690</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>827</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>826</v>
+      </c>
+      <c r="D20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E20" t="s">
+        <v>828</v>
+      </c>
+      <c r="F20" t="s">
+        <v>542</v>
+      </c>
+      <c r="G20" t="s">
+        <v>708</v>
+      </c>
+      <c r="R20" t="s">
+        <v>542</v>
+      </c>
+      <c r="S20" t="s">
+        <v>827</v>
+      </c>
+      <c r="T20" t="s">
+        <v>378</v>
+      </c>
+      <c r="U20" t="s">
+        <v>765</v>
+      </c>
+      <c r="V20" t="s">
+        <v>688</v>
+      </c>
+      <c r="W20" t="s">
+        <v>395</v>
+      </c>
+      <c r="X20" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>304</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>782</v>
+      </c>
+      <c r="D21" t="s">
+        <v>832</v>
+      </c>
+      <c r="E21" t="s">
+        <v>831</v>
+      </c>
+      <c r="F21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" t="s">
+        <v>653</v>
+      </c>
+      <c r="R21" t="s">
+        <v>401</v>
+      </c>
+      <c r="S21" t="s">
+        <v>304</v>
+      </c>
+      <c r="T21" t="s">
+        <v>674</v>
+      </c>
+      <c r="U21" t="s">
+        <v>677</v>
+      </c>
+      <c r="V21" t="s">
+        <v>697</v>
+      </c>
+      <c r="W21" t="s">
+        <v>830</v>
+      </c>
+      <c r="X21" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>720</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>835</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>834</v>
+      </c>
+      <c r="D22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E22" t="s">
+        <v>836</v>
+      </c>
+      <c r="F22" t="s">
+        <v>599</v>
+      </c>
+      <c r="G22" t="s">
+        <v>653</v>
+      </c>
+      <c r="R22" t="s">
+        <v>599</v>
+      </c>
+      <c r="S22" t="s">
+        <v>835</v>
+      </c>
+      <c r="T22" t="s">
+        <v>694</v>
+      </c>
+      <c r="U22" t="s">
+        <v>675</v>
+      </c>
+      <c r="V22" t="s">
+        <v>737</v>
+      </c>
+      <c r="W22" t="s">
+        <v>689</v>
+      </c>
+      <c r="X22" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>307</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" t="s">
+        <v>842</v>
+      </c>
+      <c r="E23" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" t="s">
+        <v>840</v>
+      </c>
+      <c r="G23" t="s">
+        <v>708</v>
+      </c>
+      <c r="R23" t="s">
+        <v>840</v>
+      </c>
+      <c r="S23" t="s">
+        <v>307</v>
+      </c>
+      <c r="T23" t="s">
+        <v>838</v>
+      </c>
+      <c r="U23" t="s">
+        <v>839</v>
+      </c>
+      <c r="V23" t="s">
+        <v>688</v>
+      </c>
+      <c r="W23" t="s">
+        <v>697</v>
+      </c>
+      <c r="X23" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>675</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>846</v>
+      </c>
+      <c r="D24" t="s">
+        <v>848</v>
+      </c>
+      <c r="E24" t="s">
+        <v>847</v>
+      </c>
+      <c r="F24" t="s">
+        <v>588</v>
+      </c>
+      <c r="G24" t="s">
+        <v>672</v>
+      </c>
+      <c r="R24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S24" t="s">
+        <v>309</v>
+      </c>
+      <c r="T24" t="s">
+        <v>843</v>
+      </c>
+      <c r="U24" t="s">
+        <v>690</v>
+      </c>
+      <c r="V24" t="s">
+        <v>395</v>
+      </c>
+      <c r="W24" t="s">
+        <v>794</v>
+      </c>
+      <c r="X24" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>845</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>703</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>712</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>487</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>850</v>
+      </c>
+      <c r="D25" t="s">
+        <v>853</v>
+      </c>
+      <c r="E25" t="s">
+        <v>852</v>
+      </c>
+      <c r="F25" t="s">
+        <v>851</v>
+      </c>
+      <c r="G25" t="s">
+        <v>672</v>
+      </c>
+      <c r="R25" t="s">
+        <v>851</v>
+      </c>
+      <c r="S25" t="s">
+        <v>487</v>
+      </c>
+      <c r="T25" t="s">
+        <v>728</v>
+      </c>
+      <c r="U25" t="s">
+        <v>720</v>
+      </c>
+      <c r="V25" t="s">
+        <v>688</v>
+      </c>
+      <c r="W25" t="s">
+        <v>689</v>
+      </c>
+      <c r="X25" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>855</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>775</v>
+      </c>
+      <c r="D26" t="s">
+        <v>857</v>
+      </c>
+      <c r="E26" t="s">
+        <v>856</v>
+      </c>
+      <c r="F26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R26" t="s">
+        <v>595</v>
+      </c>
+      <c r="S26" t="s">
+        <v>855</v>
+      </c>
+      <c r="T26" t="s">
+        <v>674</v>
+      </c>
+      <c r="U26" t="s">
+        <v>854</v>
+      </c>
+      <c r="V26" t="s">
+        <v>689</v>
+      </c>
+      <c r="W26" t="s">
+        <v>676</v>
+      </c>
+      <c r="X26" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>859</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>862</v>
+      </c>
+      <c r="E27" t="s">
+        <v>861</v>
+      </c>
+      <c r="F27" t="s">
+        <v>860</v>
+      </c>
+      <c r="G27" t="s">
+        <v>653</v>
+      </c>
+      <c r="R27" t="s">
+        <v>860</v>
+      </c>
+      <c r="S27" t="s">
+        <v>859</v>
+      </c>
+      <c r="T27" t="s">
+        <v>687</v>
+      </c>
+      <c r="U27" t="s">
+        <v>821</v>
+      </c>
+      <c r="V27" t="s">
+        <v>690</v>
+      </c>
+      <c r="W27" t="s">
+        <v>689</v>
+      </c>
+      <c r="X27" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>688</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>863</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>714</v>
+      </c>
+      <c r="D28" t="s">
+        <v>866</v>
+      </c>
+      <c r="E28" t="s">
+        <v>865</v>
+      </c>
+      <c r="F28" t="s">
+        <v>864</v>
+      </c>
+      <c r="G28" t="s">
+        <v>867</v>
+      </c>
+      <c r="R28" t="s">
+        <v>864</v>
+      </c>
+      <c r="S28" t="s">
+        <v>863</v>
+      </c>
+      <c r="T28" t="s">
+        <v>674</v>
+      </c>
+      <c r="U28" t="s">
+        <v>676</v>
+      </c>
+      <c r="V28" t="s">
+        <v>689</v>
+      </c>
+      <c r="W28" t="s">
+        <v>697</v>
+      </c>
+      <c r="X28" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>810</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>868</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>789</v>
+      </c>
+      <c r="D29" t="s">
+        <v>871</v>
+      </c>
+      <c r="E29" t="s">
+        <v>870</v>
+      </c>
+      <c r="F29" t="s">
+        <v>869</v>
+      </c>
+      <c r="G29" t="s">
+        <v>653</v>
+      </c>
+      <c r="R29" t="s">
+        <v>869</v>
+      </c>
+      <c r="S29" t="s">
+        <v>868</v>
+      </c>
+      <c r="T29" t="s">
+        <v>674</v>
+      </c>
+      <c r="U29" t="s">
+        <v>677</v>
+      </c>
+      <c r="V29" t="s">
+        <v>720</v>
+      </c>
+      <c r="W29" t="s">
+        <v>688</v>
+      </c>
+      <c r="X29" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>315</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>714</v>
+      </c>
+      <c r="D30" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" t="s">
+        <v>873</v>
+      </c>
+      <c r="F30" t="s">
+        <v>872</v>
+      </c>
+      <c r="G30" t="s">
+        <v>653</v>
+      </c>
+      <c r="R30" t="s">
+        <v>872</v>
+      </c>
+      <c r="S30" t="s">
+        <v>315</v>
+      </c>
+      <c r="T30" t="s">
+        <v>687</v>
+      </c>
+      <c r="U30" t="s">
+        <v>690</v>
+      </c>
+      <c r="V30" t="s">
+        <v>676</v>
+      </c>
+      <c r="W30" t="s">
+        <v>689</v>
+      </c>
+      <c r="X30" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>723</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>810</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>876</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>714</v>
+      </c>
+      <c r="D31" t="s">
+        <v>879</v>
+      </c>
+      <c r="E31" t="s">
+        <v>878</v>
+      </c>
+      <c r="F31" t="s">
+        <v>877</v>
+      </c>
+      <c r="G31" t="s">
+        <v>672</v>
+      </c>
+      <c r="R31" t="s">
+        <v>877</v>
+      </c>
+      <c r="S31" t="s">
+        <v>876</v>
+      </c>
+      <c r="T31" t="s">
+        <v>674</v>
+      </c>
+      <c r="U31" t="s">
+        <v>720</v>
+      </c>
+      <c r="V31" t="s">
+        <v>689</v>
+      </c>
+      <c r="W31" t="s">
+        <v>854</v>
+      </c>
+      <c r="X31" t="s">
+        <v>875</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>882</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>881</v>
+      </c>
+      <c r="D32" t="s">
+        <v>874</v>
+      </c>
+      <c r="E32" t="s">
+        <v>883</v>
+      </c>
+      <c r="F32" t="s">
+        <v>520</v>
+      </c>
+      <c r="G32" t="s">
+        <v>708</v>
+      </c>
+      <c r="R32" t="s">
+        <v>520</v>
+      </c>
+      <c r="S32" t="s">
+        <v>882</v>
+      </c>
+      <c r="T32" t="s">
+        <v>838</v>
+      </c>
+      <c r="U32" t="s">
+        <v>688</v>
+      </c>
+      <c r="V32" t="s">
+        <v>880</v>
+      </c>
+      <c r="W32" t="s">
+        <v>765</v>
+      </c>
+      <c r="X32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>267</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
+      </c>
+      <c r="C33" t="s">
+        <v>846</v>
+      </c>
+      <c r="D33" t="s">
+        <v>885</v>
+      </c>
+      <c r="E33" t="s">
+        <v>884</v>
+      </c>
+      <c r="F33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G33" t="s">
+        <v>708</v>
+      </c>
+      <c r="R33" t="s">
+        <v>444</v>
+      </c>
+      <c r="S33" t="s">
+        <v>267</v>
+      </c>
+      <c r="T33" t="s">
+        <v>674</v>
+      </c>
+      <c r="U33" t="s">
+        <v>821</v>
+      </c>
+      <c r="V33" t="s">
+        <v>720</v>
+      </c>
+      <c r="W33" t="s">
+        <v>854</v>
+      </c>
+      <c r="X33" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>822</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>788</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8684,10 +11796,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <sheet name="bluePrint" sheetId="7" r:id="rId7"/>
     <sheet name="turf" sheetId="8" r:id="rId8"/>
     <sheet name="sept" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
+    <sheet name="RoC" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="921">
   <si>
     <t>Places</t>
   </si>
@@ -2750,6 +2751,42 @@
   </si>
   <si>
     <t>460</t>
+  </si>
+  <si>
+    <t>Laporte 1</t>
+  </si>
+  <si>
+    <t>Maguire 0</t>
+  </si>
+  <si>
+    <t>Canós 4</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Football fc</t>
+  </si>
+  <si>
+    <t>Maisie Rogers</t>
+  </si>
+  <si>
+    <t>3,516,619</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>deval vora</t>
+  </si>
+  <si>
+    <t>1,695,039</t>
+  </si>
+  <si>
+    <t>406</t>
   </si>
 </sst>
 </file>
@@ -3570,35 +3607,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.484375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.45703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="9.72265625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.3671875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.8984375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.94140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.91796875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="33" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4072,6 +4107,229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="9.9140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.03515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.14453125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="9.9140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2">
+        <v>1234567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" t="s">
+        <v>920</v>
+      </c>
+      <c r="E2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R2" t="s">
+        <v>918</v>
+      </c>
+      <c r="S2" t="s">
+        <v>917</v>
+      </c>
+      <c r="T2" t="s">
+        <v>687</v>
+      </c>
+      <c r="U2" t="s">
+        <v>690</v>
+      </c>
+      <c r="V2" t="s">
+        <v>676</v>
+      </c>
+      <c r="W2" t="s">
+        <v>810</v>
+      </c>
+      <c r="X2" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="942">
   <si>
     <t>Places</t>
   </si>
@@ -2753,30 +2753,6 @@
     <t>460</t>
   </si>
   <si>
-    <t>Laporte 1</t>
-  </si>
-  <si>
-    <t>Maguire 0</t>
-  </si>
-  <si>
-    <t>Canós 4</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Football fc</t>
-  </si>
-  <si>
-    <t>Maisie Rogers</t>
-  </si>
-  <si>
-    <t>3,516,619</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
@@ -2787,6 +2763,93 @@
   </si>
   <si>
     <t>406</t>
+  </si>
+  <si>
+    <t>Lukaku 4$ captain</t>
+  </si>
+  <si>
+    <t>ddf</t>
+  </si>
+  <si>
+    <t>Salah 26$ captain</t>
+  </si>
+  <si>
+    <t>Ronaldo 2$ captain</t>
+  </si>
+  <si>
+    <t>Antonio 4$ captain</t>
+  </si>
+  <si>
+    <t>Ings 2</t>
+  </si>
+  <si>
+    <t>Jesus 5</t>
+  </si>
+  <si>
+    <t>Gibbs-White 0</t>
+  </si>
+  <si>
+    <t>Pollock 0</t>
+  </si>
+  <si>
+    <t>Kamilkas United</t>
+  </si>
+  <si>
+    <t>Camilla Nurkhanov</t>
+  </si>
+  <si>
+    <t>1,529,578</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>Dallas 3</t>
+  </si>
+  <si>
+    <t>TheChiellinis</t>
+  </si>
+  <si>
+    <t>Leonardo Lombardi</t>
+  </si>
+  <si>
+    <t>1,923,784</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Cash 1</t>
+  </si>
+  <si>
+    <t>Kane 4$ captain</t>
+  </si>
+  <si>
+    <t>Cucho 0</t>
+  </si>
+  <si>
+    <t>James 0</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Pink Lemonade</t>
+  </si>
+  <si>
+    <t>Lorin Minxhozi</t>
+  </si>
+  <si>
+    <t>3,717,085</t>
+  </si>
+  <si>
+    <t>Benrahma 4$ captain</t>
+  </si>
+  <si>
+    <t>Jiménez 20$ captain</t>
+  </si>
+  <si>
+    <t>Raphinha 6$ captain</t>
   </si>
 </sst>
 </file>
@@ -3605,35 +3668,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection sqref="A1:AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="33" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.484375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.45703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.9765625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.83984375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -3787,7 +3852,7 @@
         <v>688</v>
       </c>
       <c r="X2" t="s">
-        <v>699</v>
+        <v>915</v>
       </c>
       <c r="Y2" t="s">
         <v>888</v>
@@ -3873,7 +3938,7 @@
         <v>682</v>
       </c>
       <c r="AC3" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AD3" t="s">
         <v>799</v>
@@ -3941,7 +4006,7 @@
         <v>681</v>
       </c>
       <c r="AB4" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AC4" t="s">
         <v>693</v>
@@ -4012,7 +4077,7 @@
         <v>722</v>
       </c>
       <c r="AB5" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AC5" t="s">
         <v>799</v>
@@ -4089,7 +4154,7 @@
         <v>683</v>
       </c>
       <c r="AD6" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE6" t="s">
         <v>766</v>
@@ -4102,6 +4167,224 @@
       </c>
       <c r="AH6" t="s">
         <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B7">
+        <v>5306515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D7" t="s">
+        <v>925</v>
+      </c>
+      <c r="E7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G7" t="s">
+        <v>672</v>
+      </c>
+      <c r="R7" t="s">
+        <v>923</v>
+      </c>
+      <c r="S7" t="s">
+        <v>922</v>
+      </c>
+      <c r="T7" t="s">
+        <v>378</v>
+      </c>
+      <c r="U7" t="s">
+        <v>688</v>
+      </c>
+      <c r="V7" t="s">
+        <v>676</v>
+      </c>
+      <c r="W7" t="s">
+        <v>729</v>
+      </c>
+      <c r="X7" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>917</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>918</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>919</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>887</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>709</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>920</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B8">
+        <v>2249991</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E8" t="s">
+        <v>929</v>
+      </c>
+      <c r="G8" t="s">
+        <v>653</v>
+      </c>
+      <c r="R8" t="s">
+        <v>928</v>
+      </c>
+      <c r="S8" t="s">
+        <v>927</v>
+      </c>
+      <c r="T8" t="s">
+        <v>887</v>
+      </c>
+      <c r="U8" t="s">
+        <v>720</v>
+      </c>
+      <c r="V8" t="s">
+        <v>688</v>
+      </c>
+      <c r="W8" t="s">
+        <v>721</v>
+      </c>
+      <c r="X8" t="s">
+        <v>926</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>915</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>918</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>793</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>809</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B9">
+        <v>2056865</v>
+      </c>
+      <c r="C9" t="s">
+        <v>935</v>
+      </c>
+      <c r="D9" t="s">
+        <v>718</v>
+      </c>
+      <c r="E9" t="s">
+        <v>938</v>
+      </c>
+      <c r="G9" t="s">
+        <v>672</v>
+      </c>
+      <c r="R9" t="s">
+        <v>937</v>
+      </c>
+      <c r="S9" t="s">
+        <v>936</v>
+      </c>
+      <c r="T9" t="s">
+        <v>838</v>
+      </c>
+      <c r="U9" t="s">
+        <v>786</v>
+      </c>
+      <c r="V9" t="s">
+        <v>688</v>
+      </c>
+      <c r="W9" t="s">
+        <v>931</v>
+      </c>
+      <c r="X9" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>932</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -4114,34 +4397,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="9.9140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.03515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.14453125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="9.9140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4259,7 +4541,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B2">
         <v>1234567</v>
@@ -4268,19 +4550,19 @@
         <v>714</v>
       </c>
       <c r="D2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G2" t="s">
         <v>653</v>
       </c>
       <c r="R2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="S2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="T2" t="s">
         <v>687</v>
@@ -4310,7 +4592,7 @@
         <v>693</v>
       </c>
       <c r="AC2" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AD2" t="s">
         <v>682</v>
@@ -9532,30 +9814,35 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:AK1"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="29" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.2109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -9673,7 +9960,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>269</v>
+        <v>548</v>
       </c>
       <c r="B2" s="8">
         <v>2438499</v>
@@ -9718,7 +10005,7 @@
         <v>698</v>
       </c>
       <c r="Z2" t="s">
-        <v>699</v>
+        <v>915</v>
       </c>
       <c r="AA2" t="s">
         <v>700</v>
@@ -9747,7 +10034,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
@@ -9804,7 +10091,7 @@
         <v>683</v>
       </c>
       <c r="AD3" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE3" t="s">
         <v>711</v>
@@ -9821,7 +10108,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
@@ -9878,7 +10165,7 @@
         <v>683</v>
       </c>
       <c r="AD4" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE4" t="s">
         <v>694</v>
@@ -9895,7 +10182,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="B5" s="8">
         <v>2324952</v>
@@ -9934,7 +10221,7 @@
         <v>729</v>
       </c>
       <c r="X5" t="s">
-        <v>699</v>
+        <v>915</v>
       </c>
       <c r="Y5" t="s">
         <v>692</v>
@@ -9969,7 +10256,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>495</v>
       </c>
       <c r="B6" s="8">
         <v>2522621</v>
@@ -10023,7 +10310,7 @@
         <v>742</v>
       </c>
       <c r="AC6" t="s">
-        <v>743</v>
+        <v>917</v>
       </c>
       <c r="AD6" t="s">
         <v>683</v>
@@ -10043,7 +10330,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B7" s="8">
         <v>488734</v>
@@ -10094,7 +10381,7 @@
         <v>678</v>
       </c>
       <c r="AB7" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AC7" t="s">
         <v>683</v>
@@ -10117,7 +10404,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>573</v>
       </c>
       <c r="B8" s="8">
         <v>1069199</v>
@@ -10174,7 +10461,7 @@
         <v>682</v>
       </c>
       <c r="AD8" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
@@ -10191,7 +10478,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>566</v>
       </c>
       <c r="B9" s="8">
         <v>1327409</v>
@@ -10245,7 +10532,7 @@
         <v>683</v>
       </c>
       <c r="AC9" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AD9" t="s">
         <v>752</v>
@@ -10265,7 +10552,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>772</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
@@ -10316,7 +10603,7 @@
         <v>679</v>
       </c>
       <c r="AB10" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AC10" t="s">
         <v>683</v>
@@ -10339,7 +10626,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
@@ -10396,7 +10683,7 @@
         <v>682</v>
       </c>
       <c r="AD11" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE11" t="s">
         <v>766</v>
@@ -10413,7 +10700,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="B12" s="8">
         <v>440807</v>
@@ -10464,7 +10751,7 @@
         <v>681</v>
       </c>
       <c r="AB12" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AC12" t="s">
         <v>693</v>
@@ -10487,7 +10774,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>512</v>
       </c>
       <c r="B13" s="8">
         <v>2184142</v>
@@ -10541,7 +10828,7 @@
         <v>722</v>
       </c>
       <c r="AC13" t="s">
-        <v>743</v>
+        <v>917</v>
       </c>
       <c r="AD13" t="s">
         <v>683</v>
@@ -10561,7 +10848,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>800</v>
+        <v>459</v>
       </c>
       <c r="B14" s="8">
         <v>2795791</v>
@@ -10615,7 +10902,7 @@
         <v>798</v>
       </c>
       <c r="AC14" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AD14" t="s">
         <v>799</v>
@@ -10635,7 +10922,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
@@ -10692,7 +10979,7 @@
         <v>682</v>
       </c>
       <c r="AD15" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE15" t="s">
         <v>694</v>
@@ -10709,7 +10996,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="B16" s="8">
         <v>2185186</v>
@@ -10760,7 +11047,7 @@
         <v>759</v>
       </c>
       <c r="AB16" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AC16" t="s">
         <v>799</v>
@@ -10783,7 +11070,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="B17" s="8">
         <v>2317783</v>
@@ -10840,7 +11127,7 @@
         <v>702</v>
       </c>
       <c r="AD17" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE17" t="s">
         <v>694</v>
@@ -10857,7 +11144,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>818</v>
+        <v>527</v>
       </c>
       <c r="B18" s="8">
         <v>364277</v>
@@ -10899,7 +11186,7 @@
         <v>680</v>
       </c>
       <c r="Y18" t="s">
-        <v>816</v>
+        <v>939</v>
       </c>
       <c r="Z18" t="s">
         <v>692</v>
@@ -10931,7 +11218,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>823</v>
+        <v>373</v>
       </c>
       <c r="B19" s="8">
         <v>1396639</v>
@@ -10985,7 +11272,7 @@
         <v>799</v>
       </c>
       <c r="AC19" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AD19" t="s">
         <v>682</v>
@@ -11005,7 +11292,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>827</v>
+        <v>542</v>
       </c>
       <c r="B20" s="8">
         <v>1339989</v>
@@ -11062,7 +11349,7 @@
         <v>682</v>
       </c>
       <c r="AD20" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE20" t="s">
         <v>674</v>
@@ -11079,7 +11366,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="B21" s="8">
         <v>474028</v>
@@ -11133,7 +11420,7 @@
         <v>680</v>
       </c>
       <c r="AC21" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AD21" t="s">
         <v>682</v>
@@ -11153,7 +11440,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>835</v>
+        <v>599</v>
       </c>
       <c r="B22" s="8">
         <v>1229286</v>
@@ -11207,7 +11494,7 @@
         <v>759</v>
       </c>
       <c r="AC22" t="s">
-        <v>743</v>
+        <v>917</v>
       </c>
       <c r="AD22" t="s">
         <v>683</v>
@@ -11227,7 +11514,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>840</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
@@ -11281,7 +11568,7 @@
         <v>742</v>
       </c>
       <c r="AC23" t="s">
-        <v>743</v>
+        <v>917</v>
       </c>
       <c r="AD23" t="s">
         <v>683</v>
@@ -11301,7 +11588,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>588</v>
       </c>
       <c r="B24" s="8">
         <v>1708392</v>
@@ -11358,7 +11645,7 @@
         <v>683</v>
       </c>
       <c r="AD24" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE24" t="s">
         <v>694</v>
@@ -11375,7 +11662,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>851</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
@@ -11432,7 +11719,7 @@
         <v>683</v>
       </c>
       <c r="AD25" t="s">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="AE25" t="s">
         <v>694</v>
@@ -11449,7 +11736,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>855</v>
+        <v>595</v>
       </c>
       <c r="B26" s="8">
         <v>122847</v>
@@ -11500,7 +11787,7 @@
         <v>740</v>
       </c>
       <c r="AB26" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AC26" t="s">
         <v>682</v>
@@ -11523,7 +11810,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
@@ -11580,7 +11867,7 @@
         <v>682</v>
       </c>
       <c r="AD27" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE27" t="s">
         <v>694</v>
@@ -11597,7 +11884,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
@@ -11651,7 +11938,7 @@
         <v>752</v>
       </c>
       <c r="AC28" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AD28" t="s">
         <v>682</v>
@@ -11671,7 +11958,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
@@ -11728,7 +12015,7 @@
         <v>682</v>
       </c>
       <c r="AD29" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE29" t="s">
         <v>694</v>
@@ -11745,7 +12032,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>872</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
@@ -11802,7 +12089,7 @@
         <v>683</v>
       </c>
       <c r="AD30" t="s">
-        <v>684</v>
+        <v>913</v>
       </c>
       <c r="AE30" t="s">
         <v>694</v>
@@ -11819,7 +12106,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
@@ -11858,7 +12145,7 @@
         <v>854</v>
       </c>
       <c r="X31" t="s">
-        <v>875</v>
+        <v>941</v>
       </c>
       <c r="Y31" t="s">
         <v>678</v>
@@ -11893,7 +12180,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>882</v>
+        <v>520</v>
       </c>
       <c r="B32" s="8">
         <v>2090014</v>
@@ -11950,7 +12237,7 @@
         <v>682</v>
       </c>
       <c r="AD32" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AE32" t="s">
         <v>694</v>
@@ -11967,7 +12254,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="B33" s="8">
         <v>158870</v>
@@ -12021,7 +12308,7 @@
         <v>822</v>
       </c>
       <c r="AC33" t="s">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="AD33" t="s">
         <v>682</v>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="937">
   <si>
     <t>Places</t>
   </si>
@@ -2078,9 +2078,6 @@
     <t>Ronaldo 1</t>
   </si>
   <si>
-    <t>Lukaku 4</t>
-  </si>
-  <si>
     <t>Alexander-Arnold 0</t>
   </si>
   <si>
@@ -2123,9 +2120,6 @@
     <t>Fernandes 5</t>
   </si>
   <si>
-    <t>Salah 26</t>
-  </si>
-  <si>
     <t>Greenwood 1</t>
   </si>
   <si>
@@ -2255,9 +2249,6 @@
     <t>Vardy 8</t>
   </si>
   <si>
-    <t>Antonio 4</t>
-  </si>
-  <si>
     <t>McCarthy 3</t>
   </si>
   <si>
@@ -2306,9 +2297,6 @@
     <t>Jota 2</t>
   </si>
   <si>
-    <t>Ronaldo 2</t>
-  </si>
-  <si>
     <t>Scarlett 0</t>
   </si>
   <si>
@@ -2474,9 +2462,6 @@
     <t>417</t>
   </si>
   <si>
-    <t>Benrahma 4</t>
-  </si>
-  <si>
     <t>Obafemi 0</t>
   </si>
   <si>
@@ -2573,9 +2558,6 @@
     <t>450</t>
   </si>
   <si>
-    <t>Jiménez 20</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -2651,9 +2633,6 @@
     <t>468</t>
   </si>
   <si>
-    <t>Raphinha 6</t>
-  </si>
-  <si>
     <t>Roing FC</t>
   </si>
   <si>
@@ -2753,18 +2732,6 @@
     <t>460</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>deval vora</t>
-  </si>
-  <si>
-    <t>1,695,039</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
     <t>Lukaku 4$ captain</t>
   </si>
   <si>
@@ -2850,14 +2817,31 @@
   </si>
   <si>
     <t>Raphinha 6$ captain</t>
+  </si>
+  <si>
+    <t>3 (-8 pts)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Brisket FC</t>
+  </si>
+  <si>
+    <t>Reuben Manoharan</t>
+  </si>
+  <si>
+    <t>1,177,635</t>
+  </si>
+  <si>
+    <t>420</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2899,6 +2883,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2990,7 +2980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3020,6 +3010,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3330,19 +3321,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
-    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3668,42 +3659,41 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.484375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.45703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="9.734375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.9765625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.83984375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
@@ -3816,7 +3806,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B2">
         <v>5695560</v>
@@ -3825,111 +3815,111 @@
         <v>671</v>
       </c>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="G2" t="s">
         <v>672</v>
       </c>
       <c r="R2" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="S2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="T2" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="U2" t="s">
+        <v>736</v>
+      </c>
+      <c r="V2" t="s">
+        <v>734</v>
+      </c>
+      <c r="W2" t="s">
+        <v>687</v>
+      </c>
+      <c r="X2" t="s">
+        <v>904</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>881</v>
+      </c>
+      <c r="Z2" t="s">
         <v>738</v>
       </c>
-      <c r="V2" t="s">
-        <v>736</v>
-      </c>
-      <c r="W2" t="s">
-        <v>688</v>
-      </c>
-      <c r="X2" t="s">
-        <v>915</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>888</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>740</v>
-      </c>
       <c r="AA2" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="AB2" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="AC2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AD2" t="s">
         <v>682</v>
       </c>
       <c r="AE2" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="AF2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AG2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AH2" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B3" s="8">
         <v>1153704</v>
       </c>
       <c r="C3" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="D3" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E3" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
       </c>
       <c r="R3" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="S3" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="T3" t="s">
         <v>674</v>
       </c>
       <c r="U3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="W3" t="s">
         <v>677</v>
       </c>
       <c r="X3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Y3" t="s">
         <v>678</v>
       </c>
       <c r="Z3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA3" t="s">
         <v>679</v>
@@ -3938,19 +3928,19 @@
         <v>682</v>
       </c>
       <c r="AC3" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AD3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AE3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF3" t="s">
         <v>675</v>
       </c>
       <c r="AG3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AH3" t="s">
         <v>676</v>
@@ -3964,13 +3954,13 @@
         <v>440807</v>
       </c>
       <c r="C4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G4" t="s">
         <v>653</v>
@@ -3982,22 +3972,22 @@
         <v>289</v>
       </c>
       <c r="T4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V4" t="s">
         <v>677</v>
       </c>
       <c r="W4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="X4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="Y4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Z4" t="s">
         <v>678</v>
@@ -4006,16 +3996,16 @@
         <v>681</v>
       </c>
       <c r="AB4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AC4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AD4" t="s">
         <v>682</v>
       </c>
       <c r="AE4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AF4" t="s">
         <v>679</v>
@@ -4024,33 +4014,33 @@
         <v>676</v>
       </c>
       <c r="AH4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B5" s="8">
         <v>4642646</v>
       </c>
       <c r="C5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G5" t="s">
         <v>653</v>
       </c>
       <c r="R5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="S5" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="T5" t="s">
         <v>674</v>
@@ -4059,40 +4049,40 @@
         <v>677</v>
       </c>
       <c r="V5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="X5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Y5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z5" t="s">
         <v>678</v>
       </c>
       <c r="AA5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AB5" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AC5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AD5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AE5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AH5" t="s">
         <v>676</v>
@@ -4100,149 +4090,149 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B6" s="8">
         <v>1364835</v>
       </c>
       <c r="C6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D6" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E6" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R6" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="S6" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="T6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="V6" t="s">
         <v>675</v>
       </c>
       <c r="W6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="X6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Y6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="Z6" t="s">
         <v>678</v>
       </c>
       <c r="AA6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AB6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AC6" t="s">
         <v>683</v>
       </c>
       <c r="AD6" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE6" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AF6" t="s">
         <v>679</v>
       </c>
       <c r="AG6" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AH6" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B7">
         <v>5306515</v>
       </c>
       <c r="C7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D7" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="E7" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
       </c>
       <c r="R7" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="S7" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="T7" t="s">
         <v>378</v>
       </c>
       <c r="U7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V7" t="s">
         <v>676</v>
       </c>
       <c r="W7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X7" t="s">
         <v>678</v>
       </c>
       <c r="Y7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z7" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AA7" t="s">
         <v>680</v>
       </c>
       <c r="AB7" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AC7" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="AD7" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="AE7" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="AF7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG7" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="AH7" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B8">
         <v>2249991</v>
@@ -4251,43 +4241,43 @@
         <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="E8" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="G8" t="s">
         <v>653</v>
       </c>
       <c r="R8" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="S8" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="T8" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="U8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="X8" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="Y8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Z8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AA8" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="AB8" t="s">
         <v>682</v>
@@ -4296,16 +4286,16 @@
         <v>683</v>
       </c>
       <c r="AD8" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="AE8" t="s">
         <v>674</v>
       </c>
       <c r="AF8" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="AG8" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AH8" t="s">
         <v>412</v>
@@ -4313,78 +4303,137 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="B9">
         <v>2056865</v>
       </c>
       <c r="C9" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E9" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G9" t="s">
         <v>672</v>
       </c>
       <c r="R9" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="S9" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="T9" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="U9" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="V9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W9" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="X9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z9" t="s">
         <v>679</v>
       </c>
       <c r="AA9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AB9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AC9" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="AD9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AE9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF9" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="AG9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH9" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>914</v>
+        <v>903</v>
+      </c>
+      <c r="B10" s="29">
+        <v>5142355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1628438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1427447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B13" s="29">
+        <v>5648774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>903</v>
+      </c>
+      <c r="B14" s="29">
+        <v>3452385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>903</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2297330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="29">
+        <v>5361878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>903</v>
+      </c>
+      <c r="B17" s="29">
+        <v>5344757</v>
       </c>
     </row>
   </sheetData>
@@ -4395,40 +4444,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="34" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
@@ -4541,73 +4587,144 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B2">
-        <v>1234567</v>
+        <v>858</v>
+      </c>
+      <c r="B2" s="8">
+        <v>290784</v>
       </c>
       <c r="C2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D2" t="s">
-        <v>912</v>
+        <v>860</v>
       </c>
       <c r="E2" t="s">
-        <v>911</v>
+        <v>859</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="R2" t="s">
-        <v>910</v>
+        <v>858</v>
       </c>
       <c r="S2" t="s">
-        <v>909</v>
+        <v>857</v>
       </c>
       <c r="T2" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="U2" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="V2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="W2" t="s">
-        <v>810</v>
+        <v>696</v>
       </c>
       <c r="X2" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
       <c r="Y2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Z2" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="AA2" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="AB2" t="s">
-        <v>693</v>
+        <v>749</v>
       </c>
       <c r="AC2" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AD2" t="s">
         <v>682</v>
       </c>
       <c r="AE2" t="s">
-        <v>694</v>
+        <v>399</v>
       </c>
       <c r="AF2" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="AG2" t="s">
-        <v>822</v>
+        <v>707</v>
       </c>
       <c r="AH2" t="s">
-        <v>685</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B3">
+        <v>12467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E3" t="s">
+        <v>935</v>
+      </c>
+      <c r="G3" t="s">
+        <v>653</v>
+      </c>
+      <c r="R3" t="s">
+        <v>934</v>
+      </c>
+      <c r="S3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T3" t="s">
+        <v>693</v>
+      </c>
+      <c r="U3" t="s">
+        <v>689</v>
+      </c>
+      <c r="V3" t="s">
+        <v>688</v>
+      </c>
+      <c r="W3" t="s">
+        <v>696</v>
+      </c>
+      <c r="X3" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>676</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -4626,9 +4743,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5020,10 +5137,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,10 +5526,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -6767,10 +6884,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7038,12 +7155,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -9814,40 +9931,37 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.2265625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.2109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
@@ -9966,19 +10080,19 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" t="s">
         <v>705</v>
       </c>
-      <c r="D2" t="s">
-        <v>707</v>
-      </c>
       <c r="E2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F2" t="s">
         <v>548</v>
       </c>
       <c r="G2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R2" t="s">
         <v>548</v>
@@ -9990,7 +10104,7 @@
         <v>674</v>
       </c>
       <c r="U2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="V2" t="s">
         <v>677</v>
@@ -10002,63 +10116,63 @@
         <v>395</v>
       </c>
       <c r="Y2" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>904</v>
+      </c>
+      <c r="AA2" t="s">
         <v>698</v>
       </c>
-      <c r="Z2" t="s">
-        <v>915</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD2" t="s">
         <v>700</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF2" t="s">
         <v>701</v>
       </c>
-      <c r="AC2" t="s">
-        <v>693</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>702</v>
       </c>
-      <c r="AE2" t="s">
-        <v>694</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>704</v>
-      </c>
       <c r="AH2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B3" s="8">
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F3" t="s">
         <v>714</v>
-      </c>
-      <c r="D3" t="s">
-        <v>718</v>
-      </c>
-      <c r="E3" t="s">
-        <v>717</v>
-      </c>
-      <c r="F3" t="s">
-        <v>716</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
       </c>
       <c r="R3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="T3" t="s">
         <v>674</v>
@@ -10067,10 +10181,10 @@
         <v>676</v>
       </c>
       <c r="V3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="X3" t="s">
         <v>679</v>
@@ -10079,75 +10193,75 @@
         <v>678</v>
       </c>
       <c r="Z3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AA3" t="s">
         <v>681</v>
       </c>
       <c r="AB3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AC3" t="s">
         <v>683</v>
       </c>
       <c r="AD3" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE3" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AH3" t="s">
         <v>711</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>712</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B4" s="8">
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G4" t="s">
         <v>672</v>
       </c>
       <c r="R4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="S4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="T4" t="s">
+        <v>717</v>
+      </c>
+      <c r="U4" t="s">
+        <v>718</v>
+      </c>
+      <c r="V4" t="s">
         <v>719</v>
-      </c>
-      <c r="U4" t="s">
-        <v>720</v>
-      </c>
-      <c r="V4" t="s">
-        <v>721</v>
       </c>
       <c r="W4" t="s">
         <v>677</v>
       </c>
       <c r="X4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Y4" t="s">
         <v>681</v>
@@ -10156,28 +10270,28 @@
         <v>678</v>
       </c>
       <c r="AA4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AB4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AC4" t="s">
         <v>683</v>
       </c>
       <c r="AD4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF4" t="s">
         <v>679</v>
       </c>
       <c r="AG4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH4" t="s">
         <v>685</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -10188,13 +10302,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E5" t="s">
         <v>732</v>
-      </c>
-      <c r="D5" t="s">
-        <v>735</v>
-      </c>
-      <c r="E5" t="s">
-        <v>734</v>
       </c>
       <c r="F5" t="s">
         <v>583</v>
@@ -10206,49 +10320,49 @@
         <v>583</v>
       </c>
       <c r="S5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="T5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U5" t="s">
         <v>677</v>
       </c>
       <c r="V5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X5" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="Y5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z5" t="s">
         <v>680</v>
       </c>
       <c r="AA5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AB5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AC5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AD5" t="s">
         <v>682</v>
       </c>
       <c r="AE5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AH5" t="s">
         <v>675</v>
@@ -10265,64 +10379,64 @@
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F6" t="s">
         <v>495</v>
       </c>
       <c r="G6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R6" t="s">
         <v>495</v>
       </c>
       <c r="S6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U6" t="s">
+        <v>734</v>
+      </c>
+      <c r="V6" t="s">
+        <v>735</v>
+      </c>
+      <c r="W6" t="s">
         <v>736</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>737</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>738</v>
-      </c>
-      <c r="X6" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>740</v>
       </c>
       <c r="Z6" t="s">
         <v>678</v>
       </c>
       <c r="AA6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AB6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AC6" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AD6" t="s">
         <v>683</v>
       </c>
       <c r="AE6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AF6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AG6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AH6" t="s">
         <v>676</v>
@@ -10336,19 +10450,19 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F7" t="s">
         <v>432</v>
       </c>
       <c r="G7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R7" t="s">
         <v>432</v>
@@ -10357,49 +10471,49 @@
         <v>435</v>
       </c>
       <c r="T7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U7" t="s">
         <v>395</v>
       </c>
       <c r="V7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="W7" t="s">
         <v>675</v>
       </c>
       <c r="X7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="Y7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="Z7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA7" t="s">
         <v>678</v>
       </c>
       <c r="AB7" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AC7" t="s">
         <v>683</v>
       </c>
       <c r="AD7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AE7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AF7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AG7" t="s">
         <v>676</v>
       </c>
       <c r="AH7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -10410,49 +10524,49 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F8" t="s">
         <v>573</v>
       </c>
       <c r="G8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R8" t="s">
         <v>573</v>
       </c>
       <c r="S8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="T8" t="s">
         <v>674</v>
       </c>
       <c r="U8" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="V8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="W8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Y8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Z8" t="s">
         <v>680</v>
       </c>
       <c r="AA8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AB8" t="s">
         <v>678</v>
@@ -10461,19 +10575,19 @@
         <v>682</v>
       </c>
       <c r="AD8" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG8" t="s">
         <v>400</v>
       </c>
       <c r="AH8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -10484,13 +10598,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F9" t="s">
         <v>566</v>
@@ -10502,57 +10616,57 @@
         <v>566</v>
       </c>
       <c r="S9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="T9" t="s">
         <v>674</v>
       </c>
       <c r="U9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="V9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="X9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y9" t="s">
         <v>678</v>
       </c>
       <c r="Z9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AA9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AB9" t="s">
         <v>683</v>
       </c>
       <c r="AC9" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AD9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AE9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AF9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AG9" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH9" t="s">
         <v>685</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B10" s="8">
         <v>2203632</v>
@@ -10561,19 +10675,19 @@
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R10" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="S10" t="s">
         <v>285</v>
@@ -10585,25 +10699,25 @@
         <v>675</v>
       </c>
       <c r="V10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="W10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="X10" t="s">
         <v>678</v>
       </c>
       <c r="Y10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA10" t="s">
         <v>679</v>
       </c>
       <c r="AB10" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AC10" t="s">
         <v>683</v>
@@ -10612,13 +10726,13 @@
         <v>682</v>
       </c>
       <c r="AE10" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="AF10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="AH10" t="s">
         <v>400</v>
@@ -10626,49 +10740,49 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B11" s="8">
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D11" t="s">
         <v>775</v>
       </c>
-      <c r="D11" t="s">
-        <v>779</v>
-      </c>
       <c r="E11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="S11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="T11" t="s">
         <v>674</v>
       </c>
       <c r="U11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W11" t="s">
         <v>675</v>
       </c>
       <c r="X11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Y11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Z11" t="s">
         <v>679</v>
@@ -10683,19 +10797,19 @@
         <v>682</v>
       </c>
       <c r="AD11" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AF11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AG11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -10706,13 +10820,13 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D12" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E12" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F12" t="s">
         <v>418</v>
@@ -10727,22 +10841,22 @@
         <v>289</v>
       </c>
       <c r="T12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V12" t="s">
         <v>677</v>
       </c>
       <c r="W12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="X12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="Y12" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Z12" t="s">
         <v>678</v>
@@ -10751,16 +10865,16 @@
         <v>681</v>
       </c>
       <c r="AB12" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AC12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AD12" t="s">
         <v>682</v>
       </c>
       <c r="AE12" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AF12" t="s">
         <v>679</v>
@@ -10769,7 +10883,7 @@
         <v>676</v>
       </c>
       <c r="AH12" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -10780,13 +10894,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D13" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E13" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F13" t="s">
         <v>512</v>
@@ -10801,34 +10915,34 @@
         <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="U13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="V13" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="W13" t="s">
         <v>675</v>
       </c>
       <c r="X13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Y13" t="s">
         <v>679</v>
       </c>
       <c r="Z13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA13" t="s">
         <v>678</v>
       </c>
       <c r="AB13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AC13" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AD13" t="s">
         <v>683</v>
@@ -10837,13 +10951,13 @@
         <v>399</v>
       </c>
       <c r="AF13" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AG13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -10854,75 +10968,75 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D14" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F14" t="s">
         <v>459</v>
       </c>
       <c r="G14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R14" t="s">
         <v>459</v>
       </c>
       <c r="S14" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="T14" t="s">
+        <v>788</v>
+      </c>
+      <c r="U14" t="s">
+        <v>789</v>
+      </c>
+      <c r="V14" t="s">
+        <v>790</v>
+      </c>
+      <c r="W14" t="s">
+        <v>791</v>
+      </c>
+      <c r="X14" t="s">
         <v>792</v>
       </c>
-      <c r="U14" t="s">
+      <c r="Y14" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z14" t="s">
         <v>793</v>
-      </c>
-      <c r="V14" t="s">
-        <v>794</v>
-      </c>
-      <c r="W14" t="s">
-        <v>795</v>
-      </c>
-      <c r="X14" t="s">
-        <v>796</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>691</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>797</v>
       </c>
       <c r="AA14" t="s">
         <v>678</v>
       </c>
       <c r="AB14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AC14" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AD14" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AE14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AH14" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B15" s="8">
         <v>228724</v>
@@ -10931,22 +11045,22 @@
         <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F15" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R15" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="S15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="T15" t="s">
         <v>674</v>
@@ -10955,7 +11069,7 @@
         <v>677</v>
       </c>
       <c r="V15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W15" t="s">
         <v>675</v>
@@ -10970,28 +11084,28 @@
         <v>680</v>
       </c>
       <c r="AA15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB15" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AC15" t="s">
         <v>682</v>
       </c>
       <c r="AD15" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -11002,13 +11116,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D16" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E16" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F16" t="s">
         <v>406</v>
@@ -11026,13 +11140,13 @@
         <v>674</v>
       </c>
       <c r="U16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X16" t="s">
         <v>681</v>
@@ -11044,28 +11158,28 @@
         <v>678</v>
       </c>
       <c r="AA16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AB16" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AC16" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AD16" t="s">
         <v>682</v>
       </c>
       <c r="AE16" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AF16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG16" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AH16" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -11076,19 +11190,19 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E17" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F17" t="s">
         <v>348</v>
       </c>
       <c r="G17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R17" t="s">
         <v>348</v>
@@ -11103,10 +11217,10 @@
         <v>675</v>
       </c>
       <c r="V17" t="s">
+        <v>688</v>
+      </c>
+      <c r="W17" t="s">
         <v>689</v>
-      </c>
-      <c r="W17" t="s">
-        <v>690</v>
       </c>
       <c r="X17" t="s">
         <v>679</v>
@@ -11115,28 +11229,28 @@
         <v>678</v>
       </c>
       <c r="Z17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AB17" t="s">
         <v>683</v>
       </c>
       <c r="AC17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AD17" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG17" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AH17" t="s">
         <v>400</v>
@@ -11150,13 +11264,13 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F18" t="s">
         <v>527</v>
@@ -11168,10 +11282,10 @@
         <v>527</v>
       </c>
       <c r="S18" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="T18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U18" t="s">
         <v>677</v>
@@ -11180,16 +11294,16 @@
         <v>675</v>
       </c>
       <c r="W18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="X18" t="s">
         <v>680</v>
       </c>
       <c r="Y18" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="Z18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AA18" t="s">
         <v>679</v>
@@ -11198,22 +11312,22 @@
         <v>678</v>
       </c>
       <c r="AC18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AD18" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AE18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH18" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -11227,10 +11341,10 @@
         <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E19" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F19" t="s">
         <v>373</v>
@@ -11242,19 +11356,19 @@
         <v>373</v>
       </c>
       <c r="S19" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="T19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U19" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="V19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="X19" t="s">
         <v>678</v>
@@ -11263,28 +11377,28 @@
         <v>680</v>
       </c>
       <c r="Z19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AA19" t="s">
         <v>681</v>
       </c>
       <c r="AB19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AC19" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AD19" t="s">
         <v>682</v>
       </c>
       <c r="AE19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AF19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AG19" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AH19" t="s">
         <v>676</v>
@@ -11298,43 +11412,43 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D20" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E20" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F20" t="s">
         <v>542</v>
       </c>
       <c r="G20" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R20" t="s">
         <v>542</v>
       </c>
       <c r="S20" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="T20" t="s">
         <v>378</v>
       </c>
       <c r="U20" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="V20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W20" t="s">
         <v>395</v>
       </c>
       <c r="X20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Y20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z20" t="s">
         <v>680</v>
@@ -11343,25 +11457,25 @@
         <v>678</v>
       </c>
       <c r="AB20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC20" t="s">
         <v>682</v>
       </c>
       <c r="AD20" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE20" t="s">
         <v>674</v>
       </c>
       <c r="AF20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG20" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AH20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -11372,13 +11486,13 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D21" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E21" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F21" t="s">
         <v>401</v>
@@ -11399,10 +11513,10 @@
         <v>677</v>
       </c>
       <c r="V21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W21" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="X21" t="s">
         <v>678</v>
@@ -11411,31 +11525,31 @@
         <v>681</v>
       </c>
       <c r="Z21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AA21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB21" t="s">
         <v>680</v>
       </c>
       <c r="AC21" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AD21" t="s">
         <v>682</v>
       </c>
       <c r="AE21" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AF21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AG21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH21" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -11446,13 +11560,13 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D22" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E22" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F22" t="s">
         <v>599</v>
@@ -11464,19 +11578,19 @@
         <v>599</v>
       </c>
       <c r="S22" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="T22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U22" t="s">
         <v>675</v>
       </c>
       <c r="V22" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="W22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X22" t="s">
         <v>681</v>
@@ -11485,16 +11599,16 @@
         <v>678</v>
       </c>
       <c r="Z22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AA22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB22" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AC22" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AD22" t="s">
         <v>683</v>
@@ -11503,18 +11617,18 @@
         <v>674</v>
       </c>
       <c r="AF22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH22" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B23" s="8">
         <v>2340261</v>
@@ -11523,37 +11637,37 @@
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E23" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F23" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R23" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="S23" t="s">
         <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="U23" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="V23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="X23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y23" t="s">
         <v>678</v>
@@ -11562,13 +11676,13 @@
         <v>681</v>
       </c>
       <c r="AA23" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB23" t="s">
         <v>740</v>
       </c>
-      <c r="AB23" t="s">
-        <v>742</v>
-      </c>
       <c r="AC23" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AD23" t="s">
         <v>683</v>
@@ -11577,13 +11691,13 @@
         <v>399</v>
       </c>
       <c r="AF23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG23" t="s">
         <v>675</v>
       </c>
       <c r="AH23" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -11594,13 +11708,13 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D24" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F24" t="s">
         <v>588</v>
@@ -11615,102 +11729,102 @@
         <v>309</v>
       </c>
       <c r="T24" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="U24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V24" t="s">
         <v>395</v>
       </c>
       <c r="W24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="X24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Y24" t="s">
         <v>678</v>
       </c>
       <c r="Z24" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="AA24" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="AB24" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AC24" t="s">
         <v>683</v>
       </c>
       <c r="AD24" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AG24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AH24" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B25" s="8">
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D25" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E25" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F25" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G25" t="s">
         <v>672</v>
       </c>
       <c r="R25" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="S25" t="s">
         <v>487</v>
       </c>
       <c r="T25" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U25" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V25" t="s">
+        <v>687</v>
+      </c>
+      <c r="W25" t="s">
         <v>688</v>
       </c>
-      <c r="W25" t="s">
-        <v>689</v>
-      </c>
       <c r="X25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Y25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z25" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AA25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AB25" t="s">
         <v>682</v>
@@ -11719,19 +11833,19 @@
         <v>683</v>
       </c>
       <c r="AD25" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="AE25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AH25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -11742,34 +11856,34 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D26" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E26" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F26" t="s">
         <v>595</v>
       </c>
       <c r="G26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R26" t="s">
         <v>595</v>
       </c>
       <c r="S26" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="T26" t="s">
         <v>674</v>
       </c>
       <c r="U26" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="V26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W26" t="s">
         <v>676</v>
@@ -11778,39 +11892,39 @@
         <v>678</v>
       </c>
       <c r="Y26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Z26" t="s">
         <v>680</v>
       </c>
       <c r="AA26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB26" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AC26" t="s">
         <v>682</v>
       </c>
       <c r="AD26" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AE26" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AF26" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>817</v>
+      </c>
+      <c r="AH26" t="s">
         <v>685</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>822</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B27" s="8">
         <v>362369</v>
@@ -11819,37 +11933,37 @@
         <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E27" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F27" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G27" t="s">
         <v>653</v>
       </c>
       <c r="R27" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="S27" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="T27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U27" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="V27" t="s">
+        <v>689</v>
+      </c>
+      <c r="W27" t="s">
+        <v>688</v>
+      </c>
+      <c r="X27" t="s">
         <v>690</v>
-      </c>
-      <c r="W27" t="s">
-        <v>689</v>
-      </c>
-      <c r="X27" t="s">
-        <v>691</v>
       </c>
       <c r="Y27" t="s">
         <v>678</v>
@@ -11858,25 +11972,25 @@
         <v>680</v>
       </c>
       <c r="AA27" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AB27" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AC27" t="s">
         <v>682</v>
       </c>
       <c r="AD27" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AG27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AH27" t="s">
         <v>676</v>
@@ -11884,31 +11998,31 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B28" s="8">
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D28" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E28" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F28" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G28" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="R28" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="S28" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="T28" t="s">
         <v>674</v>
@@ -11917,10 +12031,10 @@
         <v>676</v>
       </c>
       <c r="V28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="X28" t="s">
         <v>678</v>
@@ -11929,16 +12043,16 @@
         <v>681</v>
       </c>
       <c r="Z28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AC28" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AD28" t="s">
         <v>682</v>
@@ -11947,42 +12061,42 @@
         <v>399</v>
       </c>
       <c r="AF28" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AG28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AH28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B29" s="8">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D29" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E29" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F29" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G29" t="s">
         <v>653</v>
       </c>
       <c r="R29" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="S29" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="T29" t="s">
         <v>674</v>
@@ -11991,84 +12105,84 @@
         <v>677</v>
       </c>
       <c r="V29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="X29" t="s">
         <v>681</v>
       </c>
       <c r="Y29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA29" t="s">
         <v>678</v>
       </c>
       <c r="AB29" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AC29" t="s">
         <v>682</v>
       </c>
       <c r="AD29" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF29" t="s">
         <v>679</v>
       </c>
       <c r="AG29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH29" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B30" s="8">
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D30" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E30" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F30" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G30" t="s">
         <v>653</v>
       </c>
       <c r="R30" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="S30" t="s">
         <v>315</v>
       </c>
       <c r="T30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V30" t="s">
         <v>676</v>
       </c>
       <c r="W30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X30" t="s">
         <v>680</v>
@@ -12077,7 +12191,7 @@
         <v>678</v>
       </c>
       <c r="Z30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AA30" t="s">
         <v>681</v>
@@ -12089,63 +12203,63 @@
         <v>683</v>
       </c>
       <c r="AD30" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="AE30" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>817</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>806</v>
+      </c>
+      <c r="AH30" t="s">
         <v>694</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>822</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>810</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B31" s="8">
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D31" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E31" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F31" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="G31" t="s">
         <v>672</v>
       </c>
       <c r="R31" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="S31" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="T31" t="s">
         <v>674</v>
       </c>
       <c r="U31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W31" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="X31" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="Y31" t="s">
         <v>678</v>
@@ -12154,10 +12268,10 @@
         <v>681</v>
       </c>
       <c r="AA31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB31" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AC31" t="s">
         <v>683</v>
@@ -12166,16 +12280,16 @@
         <v>682</v>
       </c>
       <c r="AE31" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AF31" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AG31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -12186,37 +12300,37 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="D32" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E32" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F32" t="s">
         <v>520</v>
       </c>
       <c r="G32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R32" t="s">
         <v>520</v>
       </c>
       <c r="S32" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="T32" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="U32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V32" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="W32" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="X32" t="s">
         <v>681</v>
@@ -12225,31 +12339,31 @@
         <v>678</v>
       </c>
       <c r="Z32" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AA32" t="s">
         <v>680</v>
       </c>
       <c r="AB32" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AC32" t="s">
         <v>682</v>
       </c>
       <c r="AD32" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AE32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AG32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AH32" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -12260,19 +12374,19 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D33" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="E33" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="F33" t="s">
         <v>444</v>
       </c>
       <c r="G33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R33" t="s">
         <v>444</v>
@@ -12284,13 +12398,13 @@
         <v>674</v>
       </c>
       <c r="U33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="V33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W33" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="X33" t="s">
         <v>678</v>
@@ -12299,31 +12413,31 @@
         <v>681</v>
       </c>
       <c r="Z33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AB33" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AC33" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AD33" t="s">
         <v>682</v>
       </c>
       <c r="AE33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF33" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AG33" t="s">
         <v>400</v>
       </c>
       <c r="AH33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -12341,10 +12455,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="937">
   <si>
     <t>Places</t>
   </si>
@@ -2841,6 +2841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3321,19 +3322,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3667,28 +3668,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4452,24 +4453,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.55859375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4743,9 +4748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5142,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5526,10 +5531,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -6884,10 +6889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7155,12 +7160,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -9936,27 +9941,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -12455,10 +12460,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="sept" sheetId="9" r:id="rId9"/>
     <sheet name="RoC" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="994">
   <si>
     <t>Places</t>
   </si>
@@ -2835,6 +2836,177 @@
   </si>
   <si>
     <t>420</t>
+  </si>
+  <si>
+    <t>Skipp 1</t>
+  </si>
+  <si>
+    <t>Zaha 2</t>
+  </si>
+  <si>
+    <t>Maguire 0</t>
+  </si>
+  <si>
+    <t>Broja 0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>xcure 500</t>
+  </si>
+  <si>
+    <t>Florian Toslluku</t>
+  </si>
+  <si>
+    <t>5,092,640</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>MrTrias500</t>
+  </si>
+  <si>
+    <t>Eni Shtini</t>
+  </si>
+  <si>
+    <t>329,299</t>
+  </si>
+  <si>
+    <t>de Gea 2</t>
+  </si>
+  <si>
+    <t>Keane 2</t>
+  </si>
+  <si>
+    <t>McGovern 0</t>
+  </si>
+  <si>
+    <t>Bermondsey FC</t>
+  </si>
+  <si>
+    <t>Rui Mendes</t>
+  </si>
+  <si>
+    <t>2,551,641</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>Lingard 0</t>
+  </si>
+  <si>
+    <t>Winks 0</t>
+  </si>
+  <si>
+    <t>Street 0</t>
+  </si>
+  <si>
+    <t>Sound of the Lloris</t>
+  </si>
+  <si>
+    <t>Glenn Drawbridge</t>
+  </si>
+  <si>
+    <t>2,916,968</t>
+  </si>
+  <si>
+    <t>Gunn 0</t>
+  </si>
+  <si>
+    <t>Romeu 1</t>
+  </si>
+  <si>
+    <t>N.Williams 0</t>
+  </si>
+  <si>
+    <t>Dinamo</t>
+  </si>
+  <si>
+    <t>Erald Haxhiu</t>
+  </si>
+  <si>
+    <t>3,184,240</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>Kilman 2</t>
+  </si>
+  <si>
+    <t>Mount 1</t>
+  </si>
+  <si>
+    <t>Vardy 16$ captain</t>
+  </si>
+  <si>
+    <t>Aarons 5</t>
+  </si>
+  <si>
+    <t>MDEX</t>
+  </si>
+  <si>
+    <t>magi muco</t>
+  </si>
+  <si>
+    <t>4,187,276</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Pogba 1</t>
+  </si>
+  <si>
+    <t>Mahrez 0</t>
+  </si>
+  <si>
+    <t>Rodrigo 2</t>
+  </si>
+  <si>
+    <t>Kenny 0</t>
+  </si>
+  <si>
+    <t>Xhaka 0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Boris the greatest</t>
+  </si>
+  <si>
+    <t>Bardhyl Minxhozi</t>
+  </si>
+  <si>
+    <t>5,855,514</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Bednarek 1</t>
+  </si>
+  <si>
+    <t>Gabriel 6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Bella Ciao</t>
+  </si>
+  <si>
+    <t>Geri Muho</t>
+  </si>
+  <si>
+    <t>7,846,916</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
 </sst>
 </file>
@@ -3668,28 +3840,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -3875,6 +4049,9 @@
       <c r="AH2" t="s">
         <v>885</v>
       </c>
+      <c r="AI2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3893,7 +4070,7 @@
         <v>893</v>
       </c>
       <c r="G3" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="R3" t="s">
         <v>892</v>
@@ -3945,6 +4122,9 @@
       </c>
       <c r="AH3" t="s">
         <v>676</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -4017,6 +4197,9 @@
       <c r="AH4" t="s">
         <v>761</v>
       </c>
+      <c r="AI4" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4088,6 +4271,9 @@
       <c r="AH5" t="s">
         <v>676</v>
       </c>
+      <c r="AI5" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4159,6 +4345,9 @@
       <c r="AH6" t="s">
         <v>751</v>
       </c>
+      <c r="AI6" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4230,6 +4419,9 @@
       <c r="AH7" t="s">
         <v>910</v>
       </c>
+      <c r="AI7" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4301,6 +4493,9 @@
       <c r="AH8" t="s">
         <v>412</v>
       </c>
+      <c r="AI8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4372,69 +4567,600 @@
       <c r="AH9" t="s">
         <v>923</v>
       </c>
+      <c r="AI9" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="B10" s="29">
         <v>5142355</v>
       </c>
+      <c r="C10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D10" t="s">
+        <v>945</v>
+      </c>
+      <c r="E10" t="s">
+        <v>944</v>
+      </c>
+      <c r="G10" t="s">
+        <v>706</v>
+      </c>
+      <c r="R10" t="s">
+        <v>943</v>
+      </c>
+      <c r="S10" t="s">
+        <v>942</v>
+      </c>
+      <c r="T10" t="s">
+        <v>781</v>
+      </c>
+      <c r="U10" t="s">
+        <v>873</v>
+      </c>
+      <c r="V10" t="s">
+        <v>719</v>
+      </c>
+      <c r="W10" t="s">
+        <v>791</v>
+      </c>
+      <c r="X10" t="s">
+        <v>937</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>938</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>940</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="B11" s="29">
         <v>1628438</v>
       </c>
+      <c r="C11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E11" t="s">
+        <v>948</v>
+      </c>
+      <c r="G11" t="s">
+        <v>706</v>
+      </c>
+      <c r="R11" t="s">
+        <v>947</v>
+      </c>
+      <c r="S11" t="s">
+        <v>946</v>
+      </c>
+      <c r="T11" t="s">
+        <v>674</v>
+      </c>
+      <c r="U11" t="s">
+        <v>688</v>
+      </c>
+      <c r="V11" t="s">
+        <v>675</v>
+      </c>
+      <c r="W11" t="s">
+        <v>791</v>
+      </c>
+      <c r="X11" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>749</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>756</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>903</v>
+        <v>953</v>
       </c>
       <c r="B12" s="29">
         <v>1427447</v>
       </c>
+      <c r="C12" t="s">
+        <v>874</v>
+      </c>
+      <c r="D12" t="s">
+        <v>955</v>
+      </c>
+      <c r="E12" t="s">
+        <v>954</v>
+      </c>
+      <c r="G12" t="s">
+        <v>706</v>
+      </c>
+      <c r="R12" t="s">
+        <v>953</v>
+      </c>
+      <c r="S12" t="s">
+        <v>952</v>
+      </c>
+      <c r="T12" t="s">
+        <v>949</v>
+      </c>
+      <c r="U12" t="s">
+        <v>677</v>
+      </c>
+      <c r="V12" t="s">
+        <v>950</v>
+      </c>
+      <c r="W12" t="s">
+        <v>688</v>
+      </c>
+      <c r="X12" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>951</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>922</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>721</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>960</v>
       </c>
       <c r="B13" s="29">
         <v>5648774</v>
       </c>
+      <c r="C13" t="s">
+        <v>941</v>
+      </c>
+      <c r="D13" t="s">
+        <v>705</v>
+      </c>
+      <c r="E13" t="s">
+        <v>961</v>
+      </c>
+      <c r="G13" t="s">
+        <v>653</v>
+      </c>
+      <c r="R13" t="s">
+        <v>960</v>
+      </c>
+      <c r="S13" t="s">
+        <v>959</v>
+      </c>
+      <c r="T13" t="s">
+        <v>741</v>
+      </c>
+      <c r="U13" t="s">
+        <v>675</v>
+      </c>
+      <c r="V13" t="s">
+        <v>718</v>
+      </c>
+      <c r="W13" t="s">
+        <v>755</v>
+      </c>
+      <c r="X13" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>956</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>806</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>957</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>958</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
       <c r="B14" s="29">
         <v>3452385</v>
       </c>
+      <c r="C14" t="s">
+        <v>771</v>
+      </c>
+      <c r="D14" t="s">
+        <v>968</v>
+      </c>
+      <c r="E14" t="s">
+        <v>967</v>
+      </c>
+      <c r="G14" t="s">
+        <v>653</v>
+      </c>
+      <c r="R14" t="s">
+        <v>966</v>
+      </c>
+      <c r="S14" t="s">
+        <v>965</v>
+      </c>
+      <c r="T14" t="s">
+        <v>717</v>
+      </c>
+      <c r="U14" t="s">
+        <v>923</v>
+      </c>
+      <c r="V14" t="s">
+        <v>736</v>
+      </c>
+      <c r="W14" t="s">
+        <v>395</v>
+      </c>
+      <c r="X14" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>904</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>962</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>963</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>964</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>903</v>
+        <v>974</v>
       </c>
       <c r="B15" s="29">
         <v>2297330</v>
       </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E15" t="s">
+        <v>975</v>
+      </c>
+      <c r="G15" t="s">
+        <v>706</v>
+      </c>
+      <c r="R15" t="s">
+        <v>974</v>
+      </c>
+      <c r="S15" t="s">
+        <v>973</v>
+      </c>
+      <c r="T15" t="s">
+        <v>717</v>
+      </c>
+      <c r="U15" t="s">
+        <v>718</v>
+      </c>
+      <c r="V15" t="s">
+        <v>677</v>
+      </c>
+      <c r="W15" t="s">
+        <v>969</v>
+      </c>
+      <c r="X15" t="s">
+        <v>938</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>882</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>970</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>971</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>884</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>972</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>903</v>
+        <v>984</v>
       </c>
       <c r="B16" s="29">
         <v>5361878</v>
       </c>
+      <c r="C16" t="s">
+        <v>982</v>
+      </c>
+      <c r="D16" t="s">
+        <v>986</v>
+      </c>
+      <c r="E16" t="s">
+        <v>985</v>
+      </c>
+      <c r="G16" t="s">
+        <v>653</v>
+      </c>
+      <c r="R16" t="s">
+        <v>984</v>
+      </c>
+      <c r="S16" t="s">
+        <v>983</v>
+      </c>
+      <c r="T16" t="s">
+        <v>781</v>
+      </c>
+      <c r="U16" t="s">
+        <v>923</v>
+      </c>
+      <c r="V16" t="s">
+        <v>718</v>
+      </c>
+      <c r="W16" t="s">
+        <v>939</v>
+      </c>
+      <c r="X16" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>977</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>978</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>908</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>979</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>980</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>981</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>903</v>
+        <v>991</v>
       </c>
       <c r="B17" s="29">
         <v>5344757</v>
+      </c>
+      <c r="C17" t="s">
+        <v>989</v>
+      </c>
+      <c r="D17" t="s">
+        <v>993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>992</v>
+      </c>
+      <c r="G17" t="s">
+        <v>653</v>
+      </c>
+      <c r="R17" t="s">
+        <v>991</v>
+      </c>
+      <c r="S17" t="s">
+        <v>990</v>
+      </c>
+      <c r="T17" t="s">
+        <v>949</v>
+      </c>
+      <c r="U17" t="s">
+        <v>412</v>
+      </c>
+      <c r="V17" t="s">
+        <v>920</v>
+      </c>
+      <c r="W17" t="s">
+        <v>734</v>
+      </c>
+      <c r="X17" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>970</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>987</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>988</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -4447,34 +5173,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.55859375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.171875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="23" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4730,6 +5454,33 @@
       </c>
       <c r="AH3" t="s">
         <v>817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="993">
   <si>
     <t>Places</t>
   </si>
@@ -2734,9 +2734,6 @@
   </si>
   <si>
     <t>Lukaku 4$ captain</t>
-  </si>
-  <si>
-    <t>ddf</t>
   </si>
   <si>
     <t>Salah 26$ captain</t>
@@ -3013,7 +3010,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3494,19 +3490,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
-    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3840,30 +3836,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -4017,7 +4009,7 @@
         <v>687</v>
       </c>
       <c r="X2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Y2" t="s">
         <v>881</v>
@@ -4106,7 +4098,7 @@
         <v>682</v>
       </c>
       <c r="AC3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD3" t="s">
         <v>795</v>
@@ -4251,7 +4243,7 @@
         <v>720</v>
       </c>
       <c r="AB5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AC5" t="s">
         <v>795</v>
@@ -4351,7 +4343,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B7">
         <v>5306515</v>
@@ -4360,19 +4352,19 @@
         <v>771</v>
       </c>
       <c r="D7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
       </c>
       <c r="R7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="T7" t="s">
         <v>378</v>
@@ -4399,13 +4391,13 @@
         <v>680</v>
       </c>
       <c r="AB7" t="s">
+        <v>905</v>
+      </c>
+      <c r="AC7" t="s">
         <v>906</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>907</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>908</v>
       </c>
       <c r="AE7" t="s">
         <v>880</v>
@@ -4414,10 +4406,10 @@
         <v>707</v>
       </c>
       <c r="AG7" t="s">
+        <v>908</v>
+      </c>
+      <c r="AH7" t="s">
         <v>909</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>910</v>
       </c>
       <c r="AI7" t="s">
         <v>771</v>
@@ -4425,7 +4417,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B8">
         <v>2249991</v>
@@ -4434,19 +4426,19 @@
         <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G8" t="s">
         <v>653</v>
       </c>
       <c r="R8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="S8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T8" t="s">
         <v>880</v>
@@ -4461,7 +4453,7 @@
         <v>719</v>
       </c>
       <c r="X8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Y8" t="s">
         <v>756</v>
@@ -4470,7 +4462,7 @@
         <v>691</v>
       </c>
       <c r="AA8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AB8" t="s">
         <v>682</v>
@@ -4479,7 +4471,7 @@
         <v>683</v>
       </c>
       <c r="AD8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AE8" t="s">
         <v>674</v>
@@ -4499,28 +4491,28 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B9">
         <v>2056865</v>
       </c>
       <c r="C9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D9" t="s">
         <v>716</v>
       </c>
       <c r="E9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G9" t="s">
         <v>672</v>
       </c>
       <c r="R9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T9" t="s">
         <v>833</v>
@@ -4532,7 +4524,7 @@
         <v>687</v>
       </c>
       <c r="W9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="X9" t="s">
         <v>691</v>
@@ -4550,7 +4542,7 @@
         <v>756</v>
       </c>
       <c r="AC9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AD9" t="s">
         <v>728</v>
@@ -4559,42 +4551,42 @@
         <v>693</v>
       </c>
       <c r="AF9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AG9" t="s">
         <v>684</v>
       </c>
       <c r="AH9" t="s">
+        <v>922</v>
+      </c>
+      <c r="AI9" t="s">
         <v>923</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B10" s="29">
         <v>5142355</v>
       </c>
       <c r="C10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
       </c>
       <c r="R10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="S10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="T10" t="s">
         <v>781</v>
@@ -4609,13 +4601,13 @@
         <v>791</v>
       </c>
       <c r="X10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Y10" t="s">
         <v>805</v>
       </c>
       <c r="Z10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AA10" t="s">
         <v>678</v>
@@ -4624,7 +4616,7 @@
         <v>747</v>
       </c>
       <c r="AC10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD10" t="s">
         <v>728</v>
@@ -4633,21 +4625,21 @@
         <v>709</v>
       </c>
       <c r="AF10" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG10" t="s">
         <v>939</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>940</v>
       </c>
       <c r="AH10" t="s">
         <v>806</v>
       </c>
       <c r="AI10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B11" s="29">
         <v>1628438</v>
@@ -4659,16 +4651,16 @@
         <v>827</v>
       </c>
       <c r="E11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G11" t="s">
         <v>706</v>
       </c>
       <c r="R11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="S11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="T11" t="s">
         <v>674</v>
@@ -4701,7 +4693,7 @@
         <v>682</v>
       </c>
       <c r="AD11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE11" t="s">
         <v>804</v>
@@ -4721,7 +4713,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B12" s="29">
         <v>1427447</v>
@@ -4730,28 +4722,28 @@
         <v>874</v>
       </c>
       <c r="D12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G12" t="s">
         <v>706</v>
       </c>
       <c r="R12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="U12" t="s">
         <v>677</v>
       </c>
       <c r="V12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="W12" t="s">
         <v>688</v>
@@ -4760,7 +4752,7 @@
         <v>687</v>
       </c>
       <c r="Y12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Z12" t="s">
         <v>697</v>
@@ -4772,19 +4764,19 @@
         <v>720</v>
       </c>
       <c r="AC12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AE12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF12" t="s">
         <v>684</v>
       </c>
       <c r="AG12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AH12" t="s">
         <v>721</v>
@@ -4795,28 +4787,28 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B13" s="29">
         <v>5648774</v>
       </c>
       <c r="C13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D13" t="s">
         <v>705</v>
       </c>
       <c r="E13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G13" t="s">
         <v>653</v>
       </c>
       <c r="R13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="T13" t="s">
         <v>741</v>
@@ -4837,7 +4829,7 @@
         <v>678</v>
       </c>
       <c r="Z13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA13" t="s">
         <v>738</v>
@@ -4846,7 +4838,7 @@
         <v>776</v>
       </c>
       <c r="AC13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD13" t="s">
         <v>728</v>
@@ -4858,18 +4850,18 @@
         <v>806</v>
       </c>
       <c r="AG13" t="s">
+        <v>956</v>
+      </c>
+      <c r="AH13" t="s">
         <v>957</v>
       </c>
-      <c r="AH13" t="s">
-        <v>958</v>
-      </c>
       <c r="AI13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B14" s="29">
         <v>3452385</v>
@@ -4878,25 +4870,25 @@
         <v>771</v>
       </c>
       <c r="D14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E14" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G14" t="s">
         <v>653</v>
       </c>
       <c r="R14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="T14" t="s">
         <v>717</v>
       </c>
       <c r="U14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V14" t="s">
         <v>736</v>
@@ -4908,7 +4900,7 @@
         <v>738</v>
       </c>
       <c r="Y14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Z14" t="s">
         <v>681</v>
@@ -4926,16 +4918,16 @@
         <v>728</v>
       </c>
       <c r="AE14" t="s">
+        <v>961</v>
+      </c>
+      <c r="AF14" t="s">
         <v>962</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>963</v>
       </c>
       <c r="AG14" t="s">
         <v>685</v>
       </c>
       <c r="AH14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AI14" t="s">
         <v>771</v>
@@ -4943,7 +4935,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B15" s="29">
         <v>2297330</v>
@@ -4952,19 +4944,19 @@
         <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
       </c>
       <c r="R15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="S15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T15" t="s">
         <v>717</v>
@@ -4976,22 +4968,22 @@
         <v>677</v>
       </c>
       <c r="W15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="X15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Y15" t="s">
         <v>882</v>
       </c>
       <c r="Z15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AA15" t="s">
         <v>690</v>
       </c>
       <c r="AB15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="s">
         <v>795</v>
@@ -5006,7 +4998,7 @@
         <v>805</v>
       </c>
       <c r="AG15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AH15" t="s">
         <v>400</v>
@@ -5017,58 +5009,58 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B16" s="29">
         <v>5361878</v>
       </c>
       <c r="C16" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
       </c>
       <c r="R16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S16" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="T16" t="s">
         <v>781</v>
       </c>
       <c r="U16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V16" t="s">
         <v>718</v>
       </c>
       <c r="W16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="X16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Y16" t="s">
         <v>776</v>
       </c>
       <c r="Z16" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA16" t="s">
         <v>977</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC16" t="s">
         <v>978</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>908</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>979</v>
       </c>
       <c r="AD16" t="s">
         <v>902</v>
@@ -5080,48 +5072,48 @@
         <v>707</v>
       </c>
       <c r="AG16" t="s">
+        <v>979</v>
+      </c>
+      <c r="AH16" t="s">
         <v>980</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>981</v>
       </c>
-      <c r="AI16" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B17" s="29">
         <v>5344757</v>
       </c>
       <c r="C17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G17" t="s">
         <v>653</v>
       </c>
       <c r="R17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="S17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="U17" t="s">
         <v>412</v>
       </c>
       <c r="V17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W17" t="s">
         <v>734</v>
@@ -5130,7 +5122,7 @@
         <v>739</v>
       </c>
       <c r="Y17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Z17" t="s">
         <v>776</v>
@@ -5151,16 +5143,16 @@
         <v>693</v>
       </c>
       <c r="AF17" t="s">
+        <v>986</v>
+      </c>
+      <c r="AG17" t="s">
         <v>987</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>988</v>
       </c>
       <c r="AH17" t="s">
         <v>749</v>
       </c>
       <c r="AI17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -5179,26 +5171,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="23" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5331,7 +5323,7 @@
         <v>859</v>
       </c>
       <c r="G2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R2" t="s">
         <v>858</v>
@@ -5387,28 +5379,28 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B3">
         <v>12467</v>
       </c>
       <c r="C3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G3" t="s">
         <v>653</v>
       </c>
       <c r="R3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="T3" t="s">
         <v>693</v>
@@ -5441,7 +5433,7 @@
         <v>728</v>
       </c>
       <c r="AD3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE3" t="s">
         <v>674</v>
@@ -5466,13 +5458,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5499,9 +5491,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,10 +5885,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,10 +6274,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7640,10 +7632,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7911,12 +7903,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10692,27 +10684,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10875,7 +10867,7 @@
         <v>697</v>
       </c>
       <c r="Z2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AA2" t="s">
         <v>698</v>
@@ -11091,7 +11083,7 @@
         <v>727</v>
       </c>
       <c r="X5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Y5" t="s">
         <v>691</v>
@@ -11180,7 +11172,7 @@
         <v>740</v>
       </c>
       <c r="AC6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AD6" t="s">
         <v>683</v>
@@ -11331,7 +11323,7 @@
         <v>682</v>
       </c>
       <c r="AD8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
@@ -11553,7 +11545,7 @@
         <v>682</v>
       </c>
       <c r="AD11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE11" t="s">
         <v>762</v>
@@ -11698,7 +11690,7 @@
         <v>720</v>
       </c>
       <c r="AC13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AD13" t="s">
         <v>683</v>
@@ -11849,7 +11841,7 @@
         <v>682</v>
       </c>
       <c r="AD15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE15" t="s">
         <v>693</v>
@@ -11917,7 +11909,7 @@
         <v>756</v>
       </c>
       <c r="AB16" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AC16" t="s">
         <v>795</v>
@@ -12056,7 +12048,7 @@
         <v>680</v>
       </c>
       <c r="Y18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Z18" t="s">
         <v>691</v>
@@ -12219,7 +12211,7 @@
         <v>682</v>
       </c>
       <c r="AD20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE20" t="s">
         <v>674</v>
@@ -12290,7 +12282,7 @@
         <v>680</v>
       </c>
       <c r="AC21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD21" t="s">
         <v>682</v>
@@ -12364,7 +12356,7 @@
         <v>756</v>
       </c>
       <c r="AC22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AD22" t="s">
         <v>683</v>
@@ -12438,7 +12430,7 @@
         <v>740</v>
       </c>
       <c r="AC23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AD23" t="s">
         <v>683</v>
@@ -12589,7 +12581,7 @@
         <v>683</v>
       </c>
       <c r="AD25" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AE25" t="s">
         <v>693</v>
@@ -12657,7 +12649,7 @@
         <v>738</v>
       </c>
       <c r="AB26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AC26" t="s">
         <v>682</v>
@@ -12885,7 +12877,7 @@
         <v>682</v>
       </c>
       <c r="AD29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE29" t="s">
         <v>693</v>
@@ -13015,7 +13007,7 @@
         <v>848</v>
       </c>
       <c r="X31" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Y31" t="s">
         <v>678</v>
@@ -13107,7 +13099,7 @@
         <v>682</v>
       </c>
       <c r="AD32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE32" t="s">
         <v>693</v>
@@ -13178,7 +13170,7 @@
         <v>817</v>
       </c>
       <c r="AC33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AD33" t="s">
         <v>682</v>
@@ -13211,10 +13203,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1020">
   <si>
     <t>Places</t>
   </si>
@@ -3004,12 +3004,94 @@
   </si>
   <si>
     <t>156</t>
+  </si>
+  <si>
+    <t>Josh's kIngs</t>
+  </si>
+  <si>
+    <t>1000066</t>
+  </si>
+  <si>
+    <t>Game of VAR</t>
+  </si>
+  <si>
+    <t>2023094</t>
+  </si>
+  <si>
+    <t>GSW Champs 21/22</t>
+  </si>
+  <si>
+    <t>352025</t>
+  </si>
+  <si>
+    <t>Phosphenes</t>
+  </si>
+  <si>
+    <t>140849</t>
+  </si>
+  <si>
+    <t>J team</t>
+  </si>
+  <si>
+    <t>2556247</t>
+  </si>
+  <si>
+    <t>JFT97</t>
+  </si>
+  <si>
+    <t>5522451</t>
+  </si>
+  <si>
+    <t>winde</t>
+  </si>
+  <si>
+    <t>2567394</t>
+  </si>
+  <si>
+    <t>ryan_alexandre</t>
+  </si>
+  <si>
+    <t>2071423</t>
+  </si>
+  <si>
+    <t>Kingsman</t>
+  </si>
+  <si>
+    <t>291276</t>
+  </si>
+  <si>
+    <t>Joshua Conceicao</t>
+  </si>
+  <si>
+    <t>shawn yeo</t>
+  </si>
+  <si>
+    <t>Glenn tan</t>
+  </si>
+  <si>
+    <t>Ryan Lee</t>
+  </si>
+  <si>
+    <t>Jethro Ng</t>
+  </si>
+  <si>
+    <t>Jellan Emmanuel</t>
+  </si>
+  <si>
+    <t>Andre De Souza</t>
+  </si>
+  <si>
+    <t>Ryan De Souza</t>
+  </si>
+  <si>
+    <t>JIN WEI LIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3490,19 +3572,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3836,26 +3918,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5171,26 +5253,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.55859375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.171875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5376,6 +5462,9 @@
       <c r="AH2" t="s">
         <v>756</v>
       </c>
+      <c r="AI2" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5446,6 +5535,9 @@
       </c>
       <c r="AH3" t="s">
         <v>817</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -5455,16 +5547,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.78515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5473,6 +5565,78 @@
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -5491,9 +5655,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5885,10 +6049,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,10 +6438,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7632,10 +7796,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,12 +8067,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10684,27 +10848,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -13203,10 +13367,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1014">
   <si>
     <t>Places</t>
   </si>
@@ -3006,92 +3006,73 @@
     <t>156</t>
   </si>
   <si>
+    <t>1000066</t>
+  </si>
+  <si>
+    <t>2023094</t>
+  </si>
+  <si>
+    <t>352025</t>
+  </si>
+  <si>
+    <t>140849</t>
+  </si>
+  <si>
+    <t>2556247</t>
+  </si>
+  <si>
+    <t>5522451</t>
+  </si>
+  <si>
+    <t>2567394</t>
+  </si>
+  <si>
+    <t>2071423</t>
+  </si>
+  <si>
+    <t>291276</t>
+  </si>
+  <si>
+    <t>Joshua Conceicao</t>
+  </si>
+  <si>
+    <t>shawn yeo</t>
+  </si>
+  <si>
+    <t>Glenn tan</t>
+  </si>
+  <si>
+    <t>Ryan Lee</t>
+  </si>
+  <si>
+    <t>Jethro Ng</t>
+  </si>
+  <si>
+    <t>Jellan Emmanuel</t>
+  </si>
+  <si>
+    <t>Andre De Souza</t>
+  </si>
+  <si>
+    <t>Ryan De Souza</t>
+  </si>
+  <si>
+    <t>JIN WEI LIM</t>
+  </si>
+  <si>
     <t>Josh's kIngs</t>
   </si>
   <si>
-    <t>1000066</t>
-  </si>
-  <si>
-    <t>Game of VAR</t>
-  </si>
-  <si>
-    <t>2023094</t>
-  </si>
-  <si>
-    <t>GSW Champs 21/22</t>
-  </si>
-  <si>
-    <t>352025</t>
-  </si>
-  <si>
-    <t>Phosphenes</t>
-  </si>
-  <si>
-    <t>140849</t>
-  </si>
-  <si>
-    <t>J team</t>
-  </si>
-  <si>
-    <t>2556247</t>
-  </si>
-  <si>
-    <t>JFT97</t>
-  </si>
-  <si>
-    <t>5522451</t>
-  </si>
-  <si>
-    <t>winde</t>
-  </si>
-  <si>
-    <t>2567394</t>
-  </si>
-  <si>
-    <t>ryan_alexandre</t>
-  </si>
-  <si>
-    <t>2071423</t>
-  </si>
-  <si>
-    <t>Kingsman</t>
-  </si>
-  <si>
-    <t>291276</t>
-  </si>
-  <si>
-    <t>Joshua Conceicao</t>
-  </si>
-  <si>
-    <t>shawn yeo</t>
-  </si>
-  <si>
-    <t>Glenn tan</t>
-  </si>
-  <si>
-    <t>Ryan Lee</t>
-  </si>
-  <si>
-    <t>Jethro Ng</t>
-  </si>
-  <si>
-    <t>Jellan Emmanuel</t>
-  </si>
-  <si>
-    <t>Andre De Souza</t>
-  </si>
-  <si>
-    <t>Ryan De Souza</t>
-  </si>
-  <si>
-    <t>JIN WEI LIM</t>
+    <t>408</t>
+  </si>
+  <si>
+    <t>523</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3572,19 +3553,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
-    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
-    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3918,26 +3899,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="28" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5247,36 +5228,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.82421875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.55859375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.80078125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="9.921875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.171875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5547,96 +5526,277 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.78515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="28" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="34" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>879</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S2" t="s">
         <v>1011</v>
       </c>
-      <c r="B2" t="s">
+      <c r="T2" t="s">
+        <v>833</v>
+      </c>
+      <c r="U2" t="s">
+        <v>677</v>
+      </c>
+      <c r="V2" t="s">
+        <v>848</v>
+      </c>
+      <c r="W2" t="s">
+        <v>689</v>
+      </c>
+      <c r="X2" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B5" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B9" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="B10" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -5655,9 +5815,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6049,10 +6209,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +6598,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7796,10 +7956,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8067,12 +8227,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10848,27 +11008,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -13367,10 +13527,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="RoC" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId12"/>
+    <sheet name="FPL6" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1072">
   <si>
     <t>Places</t>
   </si>
@@ -3067,12 +3068,187 @@
   </si>
   <si>
     <t>523</t>
+  </si>
+  <si>
+    <t>2,215,341</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>3,775,793</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>2,518,285</t>
+  </si>
+  <si>
+    <t>774,188</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>1,772,881</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>2,249,060</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>959,159</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>1,666,201</t>
+  </si>
+  <si>
+    <t>1,631,173</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>1,104,018</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>1,259,126</t>
+  </si>
+  <si>
+    <t>1,205,384</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>985,538</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>412,043</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>482,481</t>
+  </si>
+  <si>
+    <t>1,294,773</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>561,245</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>341,378</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>381,471</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>325,740</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>463,169</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>364,608</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>398,555</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>2,988,766</t>
+  </si>
+  <si>
+    <t>709,616</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>142,826</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>344,983</t>
+  </si>
+  <si>
+    <t>23,328</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>164,749</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>244,878</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>155,235</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>42,901</t>
+  </si>
+  <si>
+    <t>543</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3553,19 +3729,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3893,32 +4069,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A17"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5234,28 +5410,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="23" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5528,24 +5704,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="28" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="34" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="20" max="28" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="34" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5797,6 +5973,2528 @@
       </c>
       <c r="B10" t="s">
         <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AK1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.2109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2438499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G2" t="s">
+        <v>706</v>
+      </c>
+      <c r="R2" t="s">
+        <v>548</v>
+      </c>
+      <c r="S2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T2" t="s">
+        <v>674</v>
+      </c>
+      <c r="U2" t="s">
+        <v>696</v>
+      </c>
+      <c r="V2" t="s">
+        <v>677</v>
+      </c>
+      <c r="W2" t="s">
+        <v>676</v>
+      </c>
+      <c r="X2" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>701</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1293900</v>
+      </c>
+      <c r="C3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G3" t="s">
+        <v>672</v>
+      </c>
+      <c r="R3" t="s">
+        <v>714</v>
+      </c>
+      <c r="S3" t="s">
+        <v>713</v>
+      </c>
+      <c r="T3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U3" t="s">
+        <v>676</v>
+      </c>
+      <c r="V3" t="s">
+        <v>696</v>
+      </c>
+      <c r="W3" t="s">
+        <v>707</v>
+      </c>
+      <c r="X3" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>711</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4115919</v>
+      </c>
+      <c r="C4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G4" t="s">
+        <v>672</v>
+      </c>
+      <c r="R4" t="s">
+        <v>723</v>
+      </c>
+      <c r="S4" t="s">
+        <v>722</v>
+      </c>
+      <c r="T4" t="s">
+        <v>717</v>
+      </c>
+      <c r="U4" t="s">
+        <v>718</v>
+      </c>
+      <c r="V4" t="s">
+        <v>719</v>
+      </c>
+      <c r="W4" t="s">
+        <v>677</v>
+      </c>
+      <c r="X4" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2324952</v>
+      </c>
+      <c r="C5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G5" t="s">
+        <v>653</v>
+      </c>
+      <c r="R5" t="s">
+        <v>583</v>
+      </c>
+      <c r="S5" t="s">
+        <v>731</v>
+      </c>
+      <c r="T5" t="s">
+        <v>726</v>
+      </c>
+      <c r="U5" t="s">
+        <v>677</v>
+      </c>
+      <c r="V5" t="s">
+        <v>689</v>
+      </c>
+      <c r="W5" t="s">
+        <v>727</v>
+      </c>
+      <c r="X5" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>729</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>675</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2522621</v>
+      </c>
+      <c r="C6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G6" t="s">
+        <v>706</v>
+      </c>
+      <c r="R6" t="s">
+        <v>495</v>
+      </c>
+      <c r="S6" t="s">
+        <v>743</v>
+      </c>
+      <c r="T6" t="s">
+        <v>686</v>
+      </c>
+      <c r="U6" t="s">
+        <v>734</v>
+      </c>
+      <c r="V6" t="s">
+        <v>735</v>
+      </c>
+      <c r="W6" t="s">
+        <v>736</v>
+      </c>
+      <c r="X6" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>741</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="8">
+        <v>488734</v>
+      </c>
+      <c r="C7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G7" t="s">
+        <v>706</v>
+      </c>
+      <c r="R7" t="s">
+        <v>432</v>
+      </c>
+      <c r="S7" t="s">
+        <v>435</v>
+      </c>
+      <c r="T7" t="s">
+        <v>726</v>
+      </c>
+      <c r="U7" t="s">
+        <v>395</v>
+      </c>
+      <c r="V7" t="s">
+        <v>746</v>
+      </c>
+      <c r="W7" t="s">
+        <v>675</v>
+      </c>
+      <c r="X7" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>748</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1069199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G8" t="s">
+        <v>706</v>
+      </c>
+      <c r="R8" t="s">
+        <v>573</v>
+      </c>
+      <c r="S8" t="s">
+        <v>758</v>
+      </c>
+      <c r="T8" t="s">
+        <v>674</v>
+      </c>
+      <c r="U8" t="s">
+        <v>754</v>
+      </c>
+      <c r="V8" t="s">
+        <v>755</v>
+      </c>
+      <c r="W8" t="s">
+        <v>688</v>
+      </c>
+      <c r="X8" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1327409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D9" t="s">
+        <v>901</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G9" t="s">
+        <v>653</v>
+      </c>
+      <c r="R9" t="s">
+        <v>566</v>
+      </c>
+      <c r="S9" t="s">
+        <v>763</v>
+      </c>
+      <c r="T9" t="s">
+        <v>674</v>
+      </c>
+      <c r="U9" t="s">
+        <v>761</v>
+      </c>
+      <c r="V9" t="s">
+        <v>687</v>
+      </c>
+      <c r="W9" t="s">
+        <v>696</v>
+      </c>
+      <c r="X9" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2203632</v>
+      </c>
+      <c r="C10" t="s">
+        <v>673</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G10" t="s">
+        <v>706</v>
+      </c>
+      <c r="R10" t="s">
+        <v>768</v>
+      </c>
+      <c r="S10" t="s">
+        <v>285</v>
+      </c>
+      <c r="T10" t="s">
+        <v>436</v>
+      </c>
+      <c r="U10" t="s">
+        <v>675</v>
+      </c>
+      <c r="V10" t="s">
+        <v>707</v>
+      </c>
+      <c r="W10" t="s">
+        <v>696</v>
+      </c>
+      <c r="X10" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>767</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3998490</v>
+      </c>
+      <c r="C11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G11" t="s">
+        <v>706</v>
+      </c>
+      <c r="R11" t="s">
+        <v>773</v>
+      </c>
+      <c r="S11" t="s">
+        <v>772</v>
+      </c>
+      <c r="T11" t="s">
+        <v>674</v>
+      </c>
+      <c r="U11" t="s">
+        <v>687</v>
+      </c>
+      <c r="V11" t="s">
+        <v>736</v>
+      </c>
+      <c r="W11" t="s">
+        <v>675</v>
+      </c>
+      <c r="X11" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>755</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="8">
+        <v>440807</v>
+      </c>
+      <c r="C12" t="s">
+        <v>778</v>
+      </c>
+      <c r="D12" t="s">
+        <v>878</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G12" t="s">
+        <v>653</v>
+      </c>
+      <c r="R12" t="s">
+        <v>418</v>
+      </c>
+      <c r="S12" t="s">
+        <v>289</v>
+      </c>
+      <c r="T12" t="s">
+        <v>686</v>
+      </c>
+      <c r="U12" t="s">
+        <v>688</v>
+      </c>
+      <c r="V12" t="s">
+        <v>677</v>
+      </c>
+      <c r="W12" t="s">
+        <v>687</v>
+      </c>
+      <c r="X12" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>777</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>761</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2184142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G13" t="s">
+        <v>672</v>
+      </c>
+      <c r="R13" t="s">
+        <v>512</v>
+      </c>
+      <c r="S13" t="s">
+        <v>291</v>
+      </c>
+      <c r="T13" t="s">
+        <v>781</v>
+      </c>
+      <c r="U13" t="s">
+        <v>782</v>
+      </c>
+      <c r="V13" t="s">
+        <v>783</v>
+      </c>
+      <c r="W13" t="s">
+        <v>675</v>
+      </c>
+      <c r="X13" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>751</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>784</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2795791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G14" t="s">
+        <v>706</v>
+      </c>
+      <c r="R14" t="s">
+        <v>459</v>
+      </c>
+      <c r="S14" t="s">
+        <v>796</v>
+      </c>
+      <c r="T14" t="s">
+        <v>788</v>
+      </c>
+      <c r="U14" t="s">
+        <v>789</v>
+      </c>
+      <c r="V14" t="s">
+        <v>790</v>
+      </c>
+      <c r="W14" t="s">
+        <v>791</v>
+      </c>
+      <c r="X14" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>793</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>794</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>795</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>751</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>801</v>
+      </c>
+      <c r="B15" s="8">
+        <v>228724</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G15" t="s">
+        <v>706</v>
+      </c>
+      <c r="R15" t="s">
+        <v>801</v>
+      </c>
+      <c r="S15" t="s">
+        <v>800</v>
+      </c>
+      <c r="T15" t="s">
+        <v>674</v>
+      </c>
+      <c r="U15" t="s">
+        <v>677</v>
+      </c>
+      <c r="V15" t="s">
+        <v>718</v>
+      </c>
+      <c r="W15" t="s">
+        <v>675</v>
+      </c>
+      <c r="X15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>701</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2185186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D16" t="s">
+        <v>865</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G16" t="s">
+        <v>653</v>
+      </c>
+      <c r="R16" t="s">
+        <v>406</v>
+      </c>
+      <c r="S16" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" t="s">
+        <v>674</v>
+      </c>
+      <c r="U16" t="s">
+        <v>718</v>
+      </c>
+      <c r="V16" t="s">
+        <v>685</v>
+      </c>
+      <c r="W16" t="s">
+        <v>694</v>
+      </c>
+      <c r="X16" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>805</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2317783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G17" t="s">
+        <v>706</v>
+      </c>
+      <c r="R17" t="s">
+        <v>348</v>
+      </c>
+      <c r="S17" t="s">
+        <v>298</v>
+      </c>
+      <c r="T17" t="s">
+        <v>674</v>
+      </c>
+      <c r="U17" t="s">
+        <v>675</v>
+      </c>
+      <c r="V17" t="s">
+        <v>688</v>
+      </c>
+      <c r="W17" t="s">
+        <v>689</v>
+      </c>
+      <c r="X17" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>809</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>805</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="8">
+        <v>364277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G18" t="s">
+        <v>672</v>
+      </c>
+      <c r="R18" t="s">
+        <v>527</v>
+      </c>
+      <c r="S18" t="s">
+        <v>813</v>
+      </c>
+      <c r="T18" t="s">
+        <v>717</v>
+      </c>
+      <c r="U18" t="s">
+        <v>677</v>
+      </c>
+      <c r="V18" t="s">
+        <v>675</v>
+      </c>
+      <c r="W18" t="s">
+        <v>689</v>
+      </c>
+      <c r="X18" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1396639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G19" t="s">
+        <v>653</v>
+      </c>
+      <c r="R19" t="s">
+        <v>373</v>
+      </c>
+      <c r="S19" t="s">
+        <v>818</v>
+      </c>
+      <c r="T19" t="s">
+        <v>686</v>
+      </c>
+      <c r="U19" t="s">
+        <v>816</v>
+      </c>
+      <c r="V19" t="s">
+        <v>688</v>
+      </c>
+      <c r="W19" t="s">
+        <v>735</v>
+      </c>
+      <c r="X19" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>795</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>689</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>817</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1339989</v>
+      </c>
+      <c r="C20" t="s">
+        <v>821</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G20" t="s">
+        <v>706</v>
+      </c>
+      <c r="R20" t="s">
+        <v>542</v>
+      </c>
+      <c r="S20" t="s">
+        <v>822</v>
+      </c>
+      <c r="T20" t="s">
+        <v>378</v>
+      </c>
+      <c r="U20" t="s">
+        <v>761</v>
+      </c>
+      <c r="V20" t="s">
+        <v>687</v>
+      </c>
+      <c r="W20" t="s">
+        <v>395</v>
+      </c>
+      <c r="X20" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="8">
+        <v>474028</v>
+      </c>
+      <c r="C21" t="s">
+        <v>778</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G21" t="s">
+        <v>653</v>
+      </c>
+      <c r="R21" t="s">
+        <v>401</v>
+      </c>
+      <c r="S21" t="s">
+        <v>304</v>
+      </c>
+      <c r="T21" t="s">
+        <v>674</v>
+      </c>
+      <c r="U21" t="s">
+        <v>677</v>
+      </c>
+      <c r="V21" t="s">
+        <v>696</v>
+      </c>
+      <c r="W21" t="s">
+        <v>825</v>
+      </c>
+      <c r="X21" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>718</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1229286</v>
+      </c>
+      <c r="C22" t="s">
+        <v>829</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G22" t="s">
+        <v>653</v>
+      </c>
+      <c r="R22" t="s">
+        <v>599</v>
+      </c>
+      <c r="S22" t="s">
+        <v>830</v>
+      </c>
+      <c r="T22" t="s">
+        <v>693</v>
+      </c>
+      <c r="U22" t="s">
+        <v>675</v>
+      </c>
+      <c r="V22" t="s">
+        <v>735</v>
+      </c>
+      <c r="W22" t="s">
+        <v>688</v>
+      </c>
+      <c r="X22" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>756</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>835</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2340261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G23" t="s">
+        <v>706</v>
+      </c>
+      <c r="R23" t="s">
+        <v>835</v>
+      </c>
+      <c r="S23" t="s">
+        <v>307</v>
+      </c>
+      <c r="T23" t="s">
+        <v>833</v>
+      </c>
+      <c r="U23" t="s">
+        <v>834</v>
+      </c>
+      <c r="V23" t="s">
+        <v>687</v>
+      </c>
+      <c r="W23" t="s">
+        <v>696</v>
+      </c>
+      <c r="X23" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>675</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1708392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G24" t="s">
+        <v>672</v>
+      </c>
+      <c r="R24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S24" t="s">
+        <v>309</v>
+      </c>
+      <c r="T24" t="s">
+        <v>838</v>
+      </c>
+      <c r="U24" t="s">
+        <v>689</v>
+      </c>
+      <c r="V24" t="s">
+        <v>395</v>
+      </c>
+      <c r="W24" t="s">
+        <v>790</v>
+      </c>
+      <c r="X24" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>839</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>840</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>701</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>710</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>845</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2719892</v>
+      </c>
+      <c r="C25" t="s">
+        <v>844</v>
+      </c>
+      <c r="D25" t="s">
+        <v>798</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G25" t="s">
+        <v>452</v>
+      </c>
+      <c r="R25" t="s">
+        <v>845</v>
+      </c>
+      <c r="S25" t="s">
+        <v>487</v>
+      </c>
+      <c r="T25" t="s">
+        <v>726</v>
+      </c>
+      <c r="U25" t="s">
+        <v>718</v>
+      </c>
+      <c r="V25" t="s">
+        <v>687</v>
+      </c>
+      <c r="W25" t="s">
+        <v>688</v>
+      </c>
+      <c r="X25" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>928</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="8">
+        <v>122847</v>
+      </c>
+      <c r="C26" t="s">
+        <v>771</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G26" t="s">
+        <v>706</v>
+      </c>
+      <c r="R26" t="s">
+        <v>595</v>
+      </c>
+      <c r="S26" t="s">
+        <v>849</v>
+      </c>
+      <c r="T26" t="s">
+        <v>674</v>
+      </c>
+      <c r="U26" t="s">
+        <v>848</v>
+      </c>
+      <c r="V26" t="s">
+        <v>688</v>
+      </c>
+      <c r="W26" t="s">
+        <v>676</v>
+      </c>
+      <c r="X26" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>817</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>854</v>
+      </c>
+      <c r="B27" s="8">
+        <v>362369</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G27" t="s">
+        <v>653</v>
+      </c>
+      <c r="R27" t="s">
+        <v>854</v>
+      </c>
+      <c r="S27" t="s">
+        <v>853</v>
+      </c>
+      <c r="T27" t="s">
+        <v>686</v>
+      </c>
+      <c r="U27" t="s">
+        <v>816</v>
+      </c>
+      <c r="V27" t="s">
+        <v>689</v>
+      </c>
+      <c r="W27" t="s">
+        <v>688</v>
+      </c>
+      <c r="X27" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>852</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>795</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28" s="8">
+        <v>290784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G28" t="s">
+        <v>930</v>
+      </c>
+      <c r="R28" t="s">
+        <v>858</v>
+      </c>
+      <c r="S28" t="s">
+        <v>857</v>
+      </c>
+      <c r="T28" t="s">
+        <v>674</v>
+      </c>
+      <c r="U28" t="s">
+        <v>676</v>
+      </c>
+      <c r="V28" t="s">
+        <v>688</v>
+      </c>
+      <c r="W28" t="s">
+        <v>696</v>
+      </c>
+      <c r="X28" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>749</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>806</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>863</v>
+      </c>
+      <c r="B29" s="8">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G29" t="s">
+        <v>653</v>
+      </c>
+      <c r="R29" t="s">
+        <v>863</v>
+      </c>
+      <c r="S29" t="s">
+        <v>862</v>
+      </c>
+      <c r="T29" t="s">
+        <v>674</v>
+      </c>
+      <c r="U29" t="s">
+        <v>677</v>
+      </c>
+      <c r="V29" t="s">
+        <v>718</v>
+      </c>
+      <c r="W29" t="s">
+        <v>687</v>
+      </c>
+      <c r="X29" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>750</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>866</v>
+      </c>
+      <c r="B30" s="8">
+        <v>23487</v>
+      </c>
+      <c r="C30" t="s">
+        <v>712</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G30" t="s">
+        <v>653</v>
+      </c>
+      <c r="R30" t="s">
+        <v>866</v>
+      </c>
+      <c r="S30" t="s">
+        <v>315</v>
+      </c>
+      <c r="T30" t="s">
+        <v>686</v>
+      </c>
+      <c r="U30" t="s">
+        <v>689</v>
+      </c>
+      <c r="V30" t="s">
+        <v>676</v>
+      </c>
+      <c r="W30" t="s">
+        <v>688</v>
+      </c>
+      <c r="X30" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>817</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>806</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>694</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31" s="8">
+        <v>360554</v>
+      </c>
+      <c r="C31" t="s">
+        <v>712</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G31" t="s">
+        <v>452</v>
+      </c>
+      <c r="R31" t="s">
+        <v>870</v>
+      </c>
+      <c r="S31" t="s">
+        <v>869</v>
+      </c>
+      <c r="T31" t="s">
+        <v>674</v>
+      </c>
+      <c r="U31" t="s">
+        <v>718</v>
+      </c>
+      <c r="V31" t="s">
+        <v>688</v>
+      </c>
+      <c r="W31" t="s">
+        <v>848</v>
+      </c>
+      <c r="X31" t="s">
+        <v>929</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>817</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2090014</v>
+      </c>
+      <c r="C32" t="s">
+        <v>874</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G32" t="s">
+        <v>706</v>
+      </c>
+      <c r="R32" t="s">
+        <v>520</v>
+      </c>
+      <c r="S32" t="s">
+        <v>875</v>
+      </c>
+      <c r="T32" t="s">
+        <v>833</v>
+      </c>
+      <c r="U32" t="s">
+        <v>687</v>
+      </c>
+      <c r="V32" t="s">
+        <v>873</v>
+      </c>
+      <c r="W32" t="s">
+        <v>761</v>
+      </c>
+      <c r="X32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>799</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>750</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="8">
+        <v>158870</v>
+      </c>
+      <c r="C33" t="s">
+        <v>841</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G33" t="s">
+        <v>706</v>
+      </c>
+      <c r="R33" t="s">
+        <v>444</v>
+      </c>
+      <c r="S33" t="s">
+        <v>267</v>
+      </c>
+      <c r="T33" t="s">
+        <v>674</v>
+      </c>
+      <c r="U33" t="s">
+        <v>816</v>
+      </c>
+      <c r="V33" t="s">
+        <v>718</v>
+      </c>
+      <c r="W33" t="s">
+        <v>848</v>
+      </c>
+      <c r="X33" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>817</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -5815,9 +8513,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,10 +8907,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,10 +9296,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7956,10 +10654,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8227,12 +10925,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -11003,32 +13701,32 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="A28:B28"/>
+      <selection sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -13527,10 +16225,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1153">
   <si>
     <t>Places</t>
   </si>
@@ -3242,6 +3242,249 @@
   </si>
   <si>
     <t>543</t>
+  </si>
+  <si>
+    <t>Marçal 1</t>
+  </si>
+  <si>
+    <t>White 1</t>
+  </si>
+  <si>
+    <t>Livramento 6</t>
+  </si>
+  <si>
+    <t>Cresswell 7</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 6</t>
+  </si>
+  <si>
+    <t>Greenwood 7</t>
+  </si>
+  <si>
+    <t>Maupay 2</t>
+  </si>
+  <si>
+    <t>Foster 1</t>
+  </si>
+  <si>
+    <t>Pukki 1</t>
+  </si>
+  <si>
+    <t>Kanté 3</t>
+  </si>
+  <si>
+    <t>Sarr 2</t>
+  </si>
+  <si>
+    <t>Ronaldo 2</t>
+  </si>
+  <si>
+    <t>Archer 0</t>
+  </si>
+  <si>
+    <t>Schmeichel 2</t>
+  </si>
+  <si>
+    <t>James 1</t>
+  </si>
+  <si>
+    <t>Dier -1</t>
+  </si>
+  <si>
+    <t>Amartey 1</t>
+  </si>
+  <si>
+    <t>Mendy 9</t>
+  </si>
+  <si>
+    <t>van Dijk 6</t>
+  </si>
+  <si>
+    <t>Duffy 5</t>
+  </si>
+  <si>
+    <t>Elyounoussi 3</t>
+  </si>
+  <si>
+    <t>Saka 0</t>
+  </si>
+  <si>
+    <t>Raphinha 0</t>
+  </si>
+  <si>
+    <t>Ramsdale 2</t>
+  </si>
+  <si>
+    <t>Reguilón 4</t>
+  </si>
+  <si>
+    <t>Tomiyasu 1</t>
+  </si>
+  <si>
+    <t>James 2</t>
+  </si>
+  <si>
+    <t>Ødegaard 2</t>
+  </si>
+  <si>
+    <t>Benrahma 3</t>
+  </si>
+  <si>
+    <t>Antonio 1</t>
+  </si>
+  <si>
+    <t>McCarthy 5</t>
+  </si>
+  <si>
+    <t>Walker 0</t>
+  </si>
+  <si>
+    <t>Tsimikas 1</t>
+  </si>
+  <si>
+    <t>Doucouré 2</t>
+  </si>
+  <si>
+    <t>Dennis 2</t>
+  </si>
+  <si>
+    <t>Veltman 0</t>
+  </si>
+  <si>
+    <t>Jota 0</t>
+  </si>
+  <si>
+    <t>Ronaldo 4$ captain</t>
+  </si>
+  <si>
+    <t>Rüdiger 0</t>
+  </si>
+  <si>
+    <t>Dias 2$ captain</t>
+  </si>
+  <si>
+    <t>Manquillo 4</t>
+  </si>
+  <si>
+    <t>Bernardo 11</t>
+  </si>
+  <si>
+    <t>Raya 2</t>
+  </si>
+  <si>
+    <t>Højbjerg 5</t>
+  </si>
+  <si>
+    <t>Lloris 1</t>
+  </si>
+  <si>
+    <t>Jansson 2</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Dias 1</t>
+  </si>
+  <si>
+    <t>Ederson 0</t>
+  </si>
+  <si>
+    <t>Grealish 0</t>
+  </si>
+  <si>
+    <t>Chalobah 6</t>
+  </si>
+  <si>
+    <t>Meslier 3</t>
+  </si>
+  <si>
+    <t>Tierney 1</t>
+  </si>
+  <si>
+    <t>Coady 7</t>
+  </si>
+  <si>
+    <t>Söyüncü 7</t>
+  </si>
+  <si>
+    <t>Maddison 2</t>
+  </si>
+  <si>
+    <t>Aubameyang 18$ captain</t>
+  </si>
+  <si>
+    <t>Jiménez 1</t>
+  </si>
+  <si>
+    <t>Douglas Luiz 3</t>
+  </si>
+  <si>
+    <t>Son 9</t>
+  </si>
+  <si>
+    <t>Hwang 2</t>
+  </si>
+  <si>
+    <t>Mbeumo 2</t>
+  </si>
+  <si>
+    <t>Shaw 0</t>
+  </si>
+  <si>
+    <t>Christensen 6</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Azpilicueta 6</t>
+  </si>
+  <si>
+    <t>Laporte 5</t>
+  </si>
+  <si>
+    <t>Martínez 1</t>
+  </si>
+  <si>
+    <t>Foden 6</t>
+  </si>
+  <si>
+    <t>Matip 6</t>
+  </si>
+  <si>
+    <t>Jesus 0</t>
+  </si>
+  <si>
+    <t>Tielemans 10</t>
+  </si>
+  <si>
+    <t>Ramsey 1</t>
+  </si>
+  <si>
+    <t>Jiménez 2$ captain</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Semedo 1</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Townsend 2</t>
+  </si>
+  <si>
+    <t>Chilwell 15</t>
+  </si>
+  <si>
+    <t>Mahrez 3</t>
+  </si>
+  <si>
+    <t>Gündogan 0</t>
   </si>
 </sst>
 </file>
@@ -5999,20 +6242,20 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.55078125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.01953125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.2109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.04296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.3359375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.58984375" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -6137,7 +6380,7 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>703</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>1015</v>
@@ -6146,7 +6389,7 @@
         <v>1014</v>
       </c>
       <c r="G2" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R2" t="s">
         <v>548</v>
@@ -6158,49 +6401,49 @@
         <v>674</v>
       </c>
       <c r="U2" t="s">
-        <v>696</v>
+        <v>1072</v>
       </c>
       <c r="V2" t="s">
-        <v>677</v>
+        <v>1073</v>
       </c>
       <c r="W2" t="s">
-        <v>676</v>
+        <v>1074</v>
       </c>
       <c r="X2" t="s">
-        <v>395</v>
+        <v>1075</v>
       </c>
       <c r="Y2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Z2" t="s">
         <v>697</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>903</v>
       </c>
-      <c r="AA2" t="s">
-        <v>698</v>
-      </c>
       <c r="AB2" t="s">
-        <v>699</v>
+        <v>1077</v>
       </c>
       <c r="AC2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AD2" t="s">
         <v>692</v>
       </c>
-      <c r="AD2" t="s">
-        <v>700</v>
-      </c>
       <c r="AE2" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AG2" t="s">
         <v>701</v>
       </c>
-      <c r="AG2" t="s">
-        <v>702</v>
-      </c>
       <c r="AH2" t="s">
-        <v>684</v>
+        <v>1081</v>
       </c>
       <c r="AI2" t="s">
-        <v>703</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -6211,7 +6454,7 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>712</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>1017</v>
@@ -6220,7 +6463,7 @@
         <v>1016</v>
       </c>
       <c r="G3" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R3" t="s">
         <v>714</v>
@@ -6232,49 +6475,49 @@
         <v>674</v>
       </c>
       <c r="U3" t="s">
-        <v>676</v>
+        <v>1076</v>
       </c>
       <c r="V3" t="s">
-        <v>696</v>
+        <v>1072</v>
       </c>
       <c r="W3" t="s">
-        <v>707</v>
+        <v>1074</v>
       </c>
       <c r="X3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB3" t="s">
         <v>679</v>
       </c>
-      <c r="Y3" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>681</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>708</v>
-      </c>
       <c r="AC3" t="s">
-        <v>683</v>
+        <v>902</v>
       </c>
       <c r="AD3" t="s">
-        <v>902</v>
+        <v>1083</v>
       </c>
       <c r="AE3" t="s">
         <v>709</v>
       </c>
       <c r="AF3" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="AG3" t="s">
         <v>710</v>
       </c>
       <c r="AH3" t="s">
-        <v>711</v>
+        <v>1084</v>
       </c>
       <c r="AI3" t="s">
-        <v>712</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -6285,7 +6528,7 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>712</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
         <v>851</v>
@@ -6294,7 +6537,7 @@
         <v>1018</v>
       </c>
       <c r="G4" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="R4" t="s">
         <v>723</v>
@@ -6303,52 +6546,52 @@
         <v>722</v>
       </c>
       <c r="T4" t="s">
-        <v>717</v>
+        <v>1085</v>
       </c>
       <c r="U4" t="s">
-        <v>718</v>
+        <v>1086</v>
       </c>
       <c r="V4" t="s">
-        <v>719</v>
+        <v>1087</v>
       </c>
       <c r="W4" t="s">
-        <v>677</v>
+        <v>1073</v>
       </c>
       <c r="X4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Y4" t="s">
         <v>720</v>
       </c>
-      <c r="Y4" t="s">
-        <v>681</v>
-      </c>
       <c r="Z4" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="AA4" t="s">
-        <v>721</v>
+        <v>425</v>
       </c>
       <c r="AB4" t="s">
-        <v>700</v>
+        <v>1080</v>
       </c>
       <c r="AC4" t="s">
-        <v>683</v>
+        <v>1083</v>
       </c>
       <c r="AD4" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="AE4" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF4" t="s">
         <v>679</v>
       </c>
       <c r="AG4" t="s">
-        <v>684</v>
+        <v>1082</v>
       </c>
       <c r="AH4" t="s">
-        <v>685</v>
+        <v>1088</v>
       </c>
       <c r="AI4" t="s">
-        <v>712</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -6359,7 +6602,7 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>730</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
         <v>1020</v>
@@ -6368,7 +6611,7 @@
         <v>1019</v>
       </c>
       <c r="G5" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R5" t="s">
         <v>583</v>
@@ -6377,52 +6620,52 @@
         <v>731</v>
       </c>
       <c r="T5" t="s">
-        <v>726</v>
+        <v>1089</v>
       </c>
       <c r="U5" t="s">
-        <v>677</v>
+        <v>1090</v>
       </c>
       <c r="V5" t="s">
-        <v>689</v>
+        <v>1073</v>
       </c>
       <c r="W5" t="s">
-        <v>727</v>
+        <v>1091</v>
       </c>
       <c r="X5" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Z5" t="s">
         <v>903</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>691</v>
       </c>
-      <c r="Z5" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>690</v>
-      </c>
       <c r="AB5" t="s">
-        <v>700</v>
+        <v>1093</v>
       </c>
       <c r="AC5" t="s">
         <v>728</v>
       </c>
       <c r="AD5" t="s">
-        <v>682</v>
+        <v>1078</v>
       </c>
       <c r="AE5" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF5" t="s">
         <v>707</v>
       </c>
       <c r="AG5" t="s">
-        <v>729</v>
+        <v>1094</v>
       </c>
       <c r="AH5" t="s">
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="AI5" t="s">
-        <v>730</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -6433,7 +6676,7 @@
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>730</v>
       </c>
       <c r="D6" t="s">
         <v>1022</v>
@@ -6451,52 +6694,52 @@
         <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>686</v>
+        <v>1095</v>
       </c>
       <c r="U6" t="s">
-        <v>734</v>
+        <v>1096</v>
       </c>
       <c r="V6" t="s">
-        <v>735</v>
+        <v>591</v>
       </c>
       <c r="W6" t="s">
-        <v>736</v>
+        <v>1097</v>
       </c>
       <c r="X6" t="s">
-        <v>737</v>
+        <v>1098</v>
       </c>
       <c r="Y6" t="s">
-        <v>738</v>
+        <v>678</v>
       </c>
       <c r="Z6" t="s">
-        <v>678</v>
+        <v>1099</v>
       </c>
       <c r="AA6" t="s">
-        <v>739</v>
+        <v>1100</v>
       </c>
       <c r="AB6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD6" t="s">
         <v>740</v>
       </c>
-      <c r="AC6" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>683</v>
-      </c>
       <c r="AE6" t="s">
-        <v>741</v>
+        <v>1102</v>
       </c>
       <c r="AF6" t="s">
-        <v>689</v>
+        <v>1103</v>
       </c>
       <c r="AG6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AH6" t="s">
         <v>742</v>
       </c>
-      <c r="AH6" t="s">
-        <v>676</v>
-      </c>
       <c r="AI6" t="s">
-        <v>671</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -6507,7 +6750,7 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D7" t="s">
         <v>1024</v>
@@ -6525,52 +6768,52 @@
         <v>435</v>
       </c>
       <c r="T7" t="s">
-        <v>726</v>
+        <v>1089</v>
       </c>
       <c r="U7" t="s">
-        <v>395</v>
+        <v>1075</v>
       </c>
       <c r="V7" t="s">
-        <v>746</v>
+        <v>1104</v>
       </c>
       <c r="W7" t="s">
-        <v>675</v>
+        <v>1074</v>
       </c>
       <c r="X7" t="s">
-        <v>747</v>
+        <v>1091</v>
       </c>
       <c r="Y7" t="s">
-        <v>748</v>
+        <v>1105</v>
       </c>
       <c r="Z7" t="s">
-        <v>698</v>
+        <v>1077</v>
       </c>
       <c r="AA7" t="s">
         <v>678</v>
       </c>
       <c r="AB7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AD7" t="s">
         <v>902</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>683</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>749</v>
       </c>
       <c r="AE7" t="s">
         <v>709</v>
       </c>
       <c r="AF7" t="s">
-        <v>750</v>
+        <v>1103</v>
       </c>
       <c r="AG7" t="s">
-        <v>676</v>
+        <v>1094</v>
       </c>
       <c r="AH7" t="s">
         <v>751</v>
       </c>
       <c r="AI7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -6581,7 +6824,7 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>712</v>
+        <v>940</v>
       </c>
       <c r="D8" t="s">
         <v>1026</v>
@@ -6602,40 +6845,40 @@
         <v>674</v>
       </c>
       <c r="U8" t="s">
-        <v>754</v>
+        <v>1107</v>
       </c>
       <c r="V8" t="s">
         <v>755</v>
       </c>
       <c r="W8" t="s">
-        <v>688</v>
+        <v>1076</v>
       </c>
       <c r="X8" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="Y8" t="s">
-        <v>756</v>
+        <v>1108</v>
       </c>
       <c r="Z8" t="s">
-        <v>680</v>
+        <v>1094</v>
       </c>
       <c r="AA8" t="s">
-        <v>701</v>
+        <v>1093</v>
       </c>
       <c r="AB8" t="s">
         <v>678</v>
       </c>
       <c r="AC8" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AD8" t="s">
-        <v>904</v>
+        <v>1109</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>684</v>
+        <v>1110</v>
       </c>
       <c r="AG8" t="s">
         <v>400</v>
@@ -6644,7 +6887,7 @@
         <v>757</v>
       </c>
       <c r="AI8" t="s">
-        <v>712</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -6655,7 +6898,7 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>712</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
         <v>901</v>
@@ -6664,7 +6907,7 @@
         <v>1027</v>
       </c>
       <c r="G9" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R9" t="s">
         <v>566</v>
@@ -6676,49 +6919,49 @@
         <v>674</v>
       </c>
       <c r="U9" t="s">
-        <v>761</v>
+        <v>1076</v>
       </c>
       <c r="V9" t="s">
-        <v>687</v>
+        <v>1111</v>
       </c>
       <c r="W9" t="s">
-        <v>696</v>
+        <v>1072</v>
       </c>
       <c r="X9" t="s">
-        <v>701</v>
+        <v>1112</v>
       </c>
       <c r="Y9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Z9" t="s">
         <v>678</v>
       </c>
-      <c r="Z9" t="s">
-        <v>747</v>
-      </c>
       <c r="AA9" t="s">
-        <v>739</v>
+        <v>1105</v>
       </c>
       <c r="AB9" t="s">
-        <v>683</v>
+        <v>1099</v>
       </c>
       <c r="AC9" t="s">
-        <v>902</v>
+        <v>1083</v>
       </c>
       <c r="AD9" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="AE9" t="s">
-        <v>762</v>
+        <v>1114</v>
       </c>
       <c r="AF9" t="s">
-        <v>751</v>
+        <v>1115</v>
       </c>
       <c r="AG9" t="s">
-        <v>684</v>
+        <v>1106</v>
       </c>
       <c r="AH9" t="s">
-        <v>685</v>
+        <v>1088</v>
       </c>
       <c r="AI9" t="s">
-        <v>712</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -6729,7 +6972,7 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>673</v>
+        <v>1118</v>
       </c>
       <c r="D10" t="s">
         <v>1029</v>
@@ -6747,52 +6990,52 @@
         <v>285</v>
       </c>
       <c r="T10" t="s">
-        <v>436</v>
+        <v>1116</v>
       </c>
       <c r="U10" t="s">
-        <v>675</v>
+        <v>1072</v>
       </c>
       <c r="V10" t="s">
-        <v>707</v>
+        <v>1117</v>
       </c>
       <c r="W10" t="s">
-        <v>696</v>
+        <v>1091</v>
       </c>
       <c r="X10" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="Y10" t="s">
         <v>691</v>
       </c>
       <c r="Z10" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="AA10" t="s">
         <v>679</v>
       </c>
       <c r="AB10" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="AC10" t="s">
-        <v>683</v>
+        <v>1101</v>
       </c>
       <c r="AD10" t="s">
-        <v>682</v>
+        <v>1083</v>
       </c>
       <c r="AE10" t="s">
         <v>766</v>
       </c>
       <c r="AF10" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="AG10" t="s">
         <v>767</v>
       </c>
       <c r="AH10" t="s">
-        <v>400</v>
+        <v>1088</v>
       </c>
       <c r="AI10" t="s">
-        <v>673</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -6803,7 +7046,7 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
       <c r="D11" t="s">
         <v>1031</v>
@@ -6812,7 +7055,7 @@
         <v>1030</v>
       </c>
       <c r="G11" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R11" t="s">
         <v>773</v>
@@ -6824,49 +7067,49 @@
         <v>674</v>
       </c>
       <c r="U11" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="V11" t="s">
-        <v>736</v>
+        <v>1096</v>
       </c>
       <c r="W11" t="s">
-        <v>675</v>
+        <v>1091</v>
       </c>
       <c r="X11" t="s">
-        <v>738</v>
+        <v>1076</v>
       </c>
       <c r="Y11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Z11" t="s">
         <v>720</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>679</v>
       </c>
-      <c r="AA11" t="s">
-        <v>678</v>
-      </c>
       <c r="AB11" t="s">
-        <v>680</v>
+        <v>903</v>
       </c>
       <c r="AC11" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AD11" t="s">
-        <v>904</v>
+        <v>1083</v>
       </c>
       <c r="AE11" t="s">
-        <v>762</v>
+        <v>1114</v>
       </c>
       <c r="AF11" t="s">
         <v>755</v>
       </c>
       <c r="AG11" t="s">
-        <v>684</v>
+        <v>1094</v>
       </c>
       <c r="AH11" t="s">
-        <v>749</v>
+        <v>1106</v>
       </c>
       <c r="AI11" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -6877,7 +7120,7 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>778</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
         <v>878</v>
@@ -6895,52 +7138,52 @@
         <v>289</v>
       </c>
       <c r="T12" t="s">
-        <v>686</v>
+        <v>1095</v>
       </c>
       <c r="U12" t="s">
-        <v>688</v>
+        <v>1074</v>
       </c>
       <c r="V12" t="s">
-        <v>677</v>
+        <v>1073</v>
       </c>
       <c r="W12" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="X12" t="s">
-        <v>776</v>
+        <v>1112</v>
       </c>
       <c r="Y12" t="s">
-        <v>721</v>
+        <v>425</v>
       </c>
       <c r="Z12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA12" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="AB12" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="AC12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD12" t="s">
         <v>692</v>
       </c>
-      <c r="AD12" t="s">
-        <v>682</v>
-      </c>
       <c r="AE12" t="s">
-        <v>777</v>
+        <v>1120</v>
       </c>
       <c r="AF12" t="s">
-        <v>679</v>
+        <v>1121</v>
       </c>
       <c r="AG12" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="AH12" t="s">
-        <v>761</v>
+        <v>1110</v>
       </c>
       <c r="AI12" t="s">
-        <v>778</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -6951,7 +7194,7 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>785</v>
+        <v>890</v>
       </c>
       <c r="D13" t="s">
         <v>1034</v>
@@ -6960,7 +7203,7 @@
         <v>1033</v>
       </c>
       <c r="G13" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="R13" t="s">
         <v>512</v>
@@ -6969,52 +7212,52 @@
         <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>781</v>
+        <v>1095</v>
       </c>
       <c r="U13" t="s">
-        <v>782</v>
+        <v>1076</v>
       </c>
       <c r="V13" t="s">
-        <v>783</v>
+        <v>1122</v>
       </c>
       <c r="W13" t="s">
-        <v>675</v>
+        <v>1091</v>
       </c>
       <c r="X13" t="s">
-        <v>707</v>
+        <v>1117</v>
       </c>
       <c r="Y13" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z13" t="s">
         <v>679</v>
       </c>
-      <c r="Z13" t="s">
-        <v>738</v>
-      </c>
       <c r="AA13" t="s">
-        <v>678</v>
+        <v>1100</v>
       </c>
       <c r="AB13" t="s">
         <v>720</v>
       </c>
       <c r="AC13" t="s">
-        <v>905</v>
+        <v>1101</v>
       </c>
       <c r="AD13" t="s">
-        <v>683</v>
+        <v>1083</v>
       </c>
       <c r="AE13" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="AF13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG13" t="s">
         <v>751</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>684</v>
       </c>
       <c r="AH13" t="s">
         <v>784</v>
       </c>
       <c r="AI13" t="s">
-        <v>785</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -7025,7 +7268,7 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
         <v>1036</v>
@@ -7034,7 +7277,7 @@
         <v>1035</v>
       </c>
       <c r="G14" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R14" t="s">
         <v>459</v>
@@ -7043,40 +7286,40 @@
         <v>796</v>
       </c>
       <c r="T14" t="s">
-        <v>788</v>
+        <v>1123</v>
       </c>
       <c r="U14" t="s">
-        <v>789</v>
+        <v>1124</v>
       </c>
       <c r="V14" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="W14" t="s">
-        <v>791</v>
+        <v>1125</v>
       </c>
       <c r="X14" t="s">
-        <v>792</v>
+        <v>1126</v>
       </c>
       <c r="Y14" t="s">
-        <v>690</v>
+        <v>1093</v>
       </c>
       <c r="Z14" t="s">
-        <v>793</v>
+        <v>1127</v>
       </c>
       <c r="AA14" t="s">
         <v>678</v>
       </c>
       <c r="AB14" t="s">
-        <v>794</v>
+        <v>1128</v>
       </c>
       <c r="AC14" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="AD14" t="s">
-        <v>795</v>
+        <v>1129</v>
       </c>
       <c r="AE14" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF14" t="s">
         <v>707</v>
@@ -7088,7 +7331,7 @@
         <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>730</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -7099,7 +7342,7 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
         <v>1038</v>
@@ -7108,7 +7351,7 @@
         <v>1037</v>
       </c>
       <c r="G15" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R15" t="s">
         <v>801</v>
@@ -7117,52 +7360,52 @@
         <v>800</v>
       </c>
       <c r="T15" t="s">
-        <v>674</v>
+        <v>1095</v>
       </c>
       <c r="U15" t="s">
-        <v>677</v>
+        <v>1076</v>
       </c>
       <c r="V15" t="s">
-        <v>718</v>
+        <v>360</v>
       </c>
       <c r="W15" t="s">
-        <v>675</v>
+        <v>1091</v>
       </c>
       <c r="X15" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="Y15" t="s">
-        <v>678</v>
+        <v>1105</v>
       </c>
       <c r="Z15" t="s">
-        <v>680</v>
+        <v>1130</v>
       </c>
       <c r="AA15" t="s">
-        <v>738</v>
+        <v>1131</v>
       </c>
       <c r="AB15" t="s">
-        <v>799</v>
+        <v>1101</v>
       </c>
       <c r="AC15" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="AD15" t="s">
-        <v>904</v>
+        <v>1132</v>
       </c>
       <c r="AE15" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF15" t="s">
-        <v>685</v>
+        <v>1103</v>
       </c>
       <c r="AG15" t="s">
-        <v>684</v>
+        <v>1074</v>
       </c>
       <c r="AH15" t="s">
-        <v>701</v>
+        <v>1133</v>
       </c>
       <c r="AI15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -7173,7 +7416,7 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>771</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
         <v>865</v>
@@ -7182,7 +7425,7 @@
         <v>1039</v>
       </c>
       <c r="G16" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R16" t="s">
         <v>406</v>
@@ -7194,40 +7437,40 @@
         <v>674</v>
       </c>
       <c r="U16" t="s">
-        <v>718</v>
+        <v>1134</v>
       </c>
       <c r="V16" t="s">
-        <v>685</v>
+        <v>1119</v>
       </c>
       <c r="W16" t="s">
-        <v>694</v>
+        <v>1135</v>
       </c>
       <c r="X16" t="s">
-        <v>681</v>
+        <v>1082</v>
       </c>
       <c r="Y16" t="s">
         <v>679</v>
       </c>
       <c r="Z16" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="AA16" t="s">
-        <v>756</v>
+        <v>1131</v>
       </c>
       <c r="AB16" t="s">
-        <v>904</v>
+        <v>1083</v>
       </c>
       <c r="AC16" t="s">
-        <v>795</v>
+        <v>1129</v>
       </c>
       <c r="AD16" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AE16" t="s">
         <v>804</v>
       </c>
       <c r="AF16" t="s">
-        <v>684</v>
+        <v>1088</v>
       </c>
       <c r="AG16" t="s">
         <v>805</v>
@@ -7236,7 +7479,7 @@
         <v>806</v>
       </c>
       <c r="AI16" t="s">
-        <v>771</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7247,7 +7490,7 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>712</v>
+        <v>1136</v>
       </c>
       <c r="D17" t="s">
         <v>1041</v>
@@ -7268,40 +7511,40 @@
         <v>674</v>
       </c>
       <c r="U17" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="V17" t="s">
-        <v>688</v>
+        <v>360</v>
       </c>
       <c r="W17" t="s">
-        <v>689</v>
+        <v>1091</v>
       </c>
       <c r="X17" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y17" t="s">
         <v>679</v>
       </c>
-      <c r="Y17" t="s">
-        <v>678</v>
-      </c>
       <c r="Z17" t="s">
-        <v>738</v>
+        <v>903</v>
       </c>
       <c r="AA17" t="s">
-        <v>809</v>
+        <v>1100</v>
       </c>
       <c r="AB17" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="AC17" t="s">
-        <v>700</v>
+        <v>1083</v>
       </c>
       <c r="AD17" t="s">
-        <v>902</v>
+        <v>1101</v>
       </c>
       <c r="AE17" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF17" t="s">
-        <v>707</v>
+        <v>1110</v>
       </c>
       <c r="AG17" t="s">
         <v>805</v>
@@ -7310,7 +7553,7 @@
         <v>400</v>
       </c>
       <c r="AI17" t="s">
-        <v>712</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,7 +7564,7 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>778</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
         <v>1043</v>
@@ -7330,7 +7573,7 @@
         <v>1042</v>
       </c>
       <c r="G18" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R18" t="s">
         <v>527</v>
@@ -7339,25 +7582,25 @@
         <v>813</v>
       </c>
       <c r="T18" t="s">
-        <v>717</v>
+        <v>1085</v>
       </c>
       <c r="U18" t="s">
-        <v>677</v>
+        <v>1076</v>
       </c>
       <c r="V18" t="s">
-        <v>675</v>
+        <v>1091</v>
       </c>
       <c r="W18" t="s">
-        <v>689</v>
+        <v>1073</v>
       </c>
       <c r="X18" t="s">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="Y18" t="s">
-        <v>927</v>
+        <v>691</v>
       </c>
       <c r="Z18" t="s">
-        <v>691</v>
+        <v>1100</v>
       </c>
       <c r="AA18" t="s">
         <v>679</v>
@@ -7369,22 +7612,22 @@
         <v>728</v>
       </c>
       <c r="AD18" t="s">
-        <v>794</v>
+        <v>1128</v>
       </c>
       <c r="AE18" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF18" t="s">
         <v>707</v>
       </c>
       <c r="AG18" t="s">
-        <v>684</v>
+        <v>1094</v>
       </c>
       <c r="AH18" t="s">
         <v>812</v>
       </c>
       <c r="AI18" t="s">
-        <v>778</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,7 +7638,7 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
         <v>1045</v>
@@ -7404,7 +7647,7 @@
         <v>1044</v>
       </c>
       <c r="G19" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R19" t="s">
         <v>373</v>
@@ -7413,52 +7656,52 @@
         <v>818</v>
       </c>
       <c r="T19" t="s">
-        <v>686</v>
+        <v>1095</v>
       </c>
       <c r="U19" t="s">
-        <v>816</v>
+        <v>360</v>
       </c>
       <c r="V19" t="s">
-        <v>688</v>
+        <v>1137</v>
       </c>
       <c r="W19" t="s">
-        <v>735</v>
+        <v>1138</v>
       </c>
       <c r="X19" t="s">
-        <v>678</v>
+        <v>1097</v>
       </c>
       <c r="Y19" t="s">
-        <v>680</v>
+        <v>1082</v>
       </c>
       <c r="Z19" t="s">
-        <v>690</v>
+        <v>1093</v>
       </c>
       <c r="AA19" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="AB19" t="s">
-        <v>795</v>
+        <v>1101</v>
       </c>
       <c r="AC19" t="s">
-        <v>902</v>
+        <v>1129</v>
       </c>
       <c r="AD19" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="AE19" t="s">
-        <v>762</v>
+        <v>1114</v>
       </c>
       <c r="AF19" t="s">
-        <v>689</v>
+        <v>1094</v>
       </c>
       <c r="AG19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AH19" t="s">
         <v>817</v>
       </c>
-      <c r="AH19" t="s">
-        <v>676</v>
-      </c>
       <c r="AI19" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7469,7 +7712,7 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>821</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>1047</v>
@@ -7478,7 +7721,7 @@
         <v>1046</v>
       </c>
       <c r="G20" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R20" t="s">
         <v>542</v>
@@ -7487,52 +7730,52 @@
         <v>822</v>
       </c>
       <c r="T20" t="s">
-        <v>378</v>
+        <v>674</v>
       </c>
       <c r="U20" t="s">
-        <v>761</v>
+        <v>1112</v>
       </c>
       <c r="V20" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="W20" t="s">
-        <v>395</v>
+        <v>1075</v>
       </c>
       <c r="X20" t="s">
-        <v>698</v>
+        <v>1104</v>
       </c>
       <c r="Y20" t="s">
-        <v>738</v>
+        <v>1131</v>
       </c>
       <c r="Z20" t="s">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="AA20" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="AB20" t="s">
         <v>692</v>
       </c>
       <c r="AC20" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AD20" t="s">
-        <v>904</v>
+        <v>1129</v>
       </c>
       <c r="AE20" t="s">
-        <v>674</v>
+        <v>1139</v>
       </c>
       <c r="AF20" t="s">
         <v>707</v>
       </c>
       <c r="AG20" t="s">
-        <v>750</v>
+        <v>1094</v>
       </c>
       <c r="AH20" t="s">
         <v>751</v>
       </c>
       <c r="AI20" t="s">
-        <v>821</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7786,7 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>778</v>
+        <v>890</v>
       </c>
       <c r="D21" t="s">
         <v>1049</v>
@@ -7561,52 +7804,52 @@
         <v>304</v>
       </c>
       <c r="T21" t="s">
-        <v>674</v>
+        <v>1095</v>
       </c>
       <c r="U21" t="s">
-        <v>677</v>
+        <v>1119</v>
       </c>
       <c r="V21" t="s">
-        <v>696</v>
+        <v>1076</v>
       </c>
       <c r="W21" t="s">
-        <v>825</v>
+        <v>360</v>
       </c>
       <c r="X21" t="s">
-        <v>678</v>
+        <v>1091</v>
       </c>
       <c r="Y21" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="Z21" t="s">
-        <v>756</v>
+        <v>1140</v>
       </c>
       <c r="AA21" t="s">
-        <v>738</v>
+        <v>1093</v>
       </c>
       <c r="AB21" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="AC21" t="s">
-        <v>904</v>
+        <v>1101</v>
       </c>
       <c r="AD21" t="s">
-        <v>682</v>
+        <v>799</v>
       </c>
       <c r="AE21" t="s">
-        <v>804</v>
+        <v>1079</v>
       </c>
       <c r="AF21" t="s">
-        <v>718</v>
+        <v>1074</v>
       </c>
       <c r="AG21" t="s">
-        <v>684</v>
+        <v>1094</v>
       </c>
       <c r="AH21" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
       <c r="AI21" t="s">
-        <v>778</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7617,7 +7860,7 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>829</v>
+        <v>294</v>
       </c>
       <c r="D22" t="s">
         <v>1051</v>
@@ -7626,7 +7869,7 @@
         <v>1050</v>
       </c>
       <c r="G22" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R22" t="s">
         <v>599</v>
@@ -7635,52 +7878,52 @@
         <v>830</v>
       </c>
       <c r="T22" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="U22" t="s">
-        <v>675</v>
+        <v>1076</v>
       </c>
       <c r="V22" t="s">
-        <v>735</v>
+        <v>1097</v>
       </c>
       <c r="W22" t="s">
-        <v>688</v>
+        <v>360</v>
       </c>
       <c r="X22" t="s">
-        <v>681</v>
+        <v>1091</v>
       </c>
       <c r="Y22" t="s">
-        <v>678</v>
+        <v>1082</v>
       </c>
       <c r="Z22" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AB22" t="s">
         <v>691</v>
       </c>
-      <c r="AA22" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>756</v>
-      </c>
       <c r="AC22" t="s">
-        <v>905</v>
+        <v>1101</v>
       </c>
       <c r="AD22" t="s">
-        <v>683</v>
+        <v>1083</v>
       </c>
       <c r="AE22" t="s">
-        <v>674</v>
+        <v>1079</v>
       </c>
       <c r="AF22" t="s">
         <v>707</v>
       </c>
       <c r="AG22" t="s">
-        <v>684</v>
+        <v>1108</v>
       </c>
       <c r="AH22" t="s">
         <v>828</v>
       </c>
       <c r="AI22" t="s">
-        <v>829</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7691,7 +7934,7 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>673</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
         <v>1053</v>
@@ -7700,7 +7943,7 @@
         <v>1052</v>
       </c>
       <c r="G23" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R23" t="s">
         <v>835</v>
@@ -7712,34 +7955,34 @@
         <v>833</v>
       </c>
       <c r="U23" t="s">
-        <v>834</v>
+        <v>1072</v>
       </c>
       <c r="V23" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="W23" t="s">
-        <v>696</v>
+        <v>1091</v>
       </c>
       <c r="X23" t="s">
-        <v>691</v>
+        <v>1141</v>
       </c>
       <c r="Y23" t="s">
-        <v>678</v>
+        <v>1131</v>
       </c>
       <c r="Z23" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="AA23" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="AB23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AC23" t="s">
         <v>740</v>
       </c>
-      <c r="AC23" t="s">
-        <v>905</v>
-      </c>
       <c r="AD23" t="s">
-        <v>683</v>
+        <v>1101</v>
       </c>
       <c r="AE23" t="s">
         <v>399</v>
@@ -7748,13 +7991,13 @@
         <v>707</v>
       </c>
       <c r="AG23" t="s">
-        <v>675</v>
+        <v>1142</v>
       </c>
       <c r="AH23" t="s">
         <v>809</v>
       </c>
       <c r="AI23" t="s">
-        <v>673</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7765,7 +8008,7 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>841</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s">
         <v>1055</v>
@@ -7774,7 +8017,7 @@
         <v>1054</v>
       </c>
       <c r="G24" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="R24" t="s">
         <v>588</v>
@@ -7786,40 +8029,40 @@
         <v>838</v>
       </c>
       <c r="U24" t="s">
-        <v>689</v>
+        <v>360</v>
       </c>
       <c r="V24" t="s">
-        <v>395</v>
+        <v>1075</v>
       </c>
       <c r="W24" t="s">
-        <v>790</v>
+        <v>1124</v>
       </c>
       <c r="X24" t="s">
-        <v>696</v>
+        <v>1143</v>
       </c>
       <c r="Y24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA24" t="s">
         <v>678</v>
       </c>
-      <c r="Z24" t="s">
-        <v>839</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>840</v>
-      </c>
       <c r="AB24" t="s">
-        <v>721</v>
+        <v>1140</v>
       </c>
       <c r="AC24" t="s">
-        <v>683</v>
+        <v>902</v>
       </c>
       <c r="AD24" t="s">
-        <v>902</v>
+        <v>1083</v>
       </c>
       <c r="AE24" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF24" t="s">
-        <v>701</v>
+        <v>1072</v>
       </c>
       <c r="AG24" t="s">
         <v>710</v>
@@ -7828,7 +8071,7 @@
         <v>757</v>
       </c>
       <c r="AI24" t="s">
-        <v>841</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7839,7 +8082,7 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>844</v>
+        <v>1146</v>
       </c>
       <c r="D25" t="s">
         <v>798</v>
@@ -7848,7 +8091,7 @@
         <v>1056</v>
       </c>
       <c r="G25" t="s">
-        <v>452</v>
+        <v>653</v>
       </c>
       <c r="R25" t="s">
         <v>845</v>
@@ -7857,52 +8100,52 @@
         <v>487</v>
       </c>
       <c r="T25" t="s">
-        <v>726</v>
+        <v>1089</v>
       </c>
       <c r="U25" t="s">
-        <v>718</v>
+        <v>1134</v>
       </c>
       <c r="V25" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="W25" t="s">
-        <v>688</v>
+        <v>1104</v>
       </c>
       <c r="X25" t="s">
-        <v>756</v>
+        <v>1108</v>
       </c>
       <c r="Y25" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="Z25" t="s">
-        <v>776</v>
+        <v>1121</v>
       </c>
       <c r="AA25" t="s">
-        <v>698</v>
+        <v>1077</v>
       </c>
       <c r="AB25" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AC25" t="s">
-        <v>683</v>
+        <v>1083</v>
       </c>
       <c r="AD25" t="s">
-        <v>928</v>
+        <v>1145</v>
       </c>
       <c r="AE25" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG25" t="s">
         <v>707</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>750</v>
       </c>
       <c r="AH25" t="s">
         <v>751</v>
       </c>
       <c r="AI25" t="s">
-        <v>844</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7913,7 +8156,7 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>771</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
         <v>1058</v>
@@ -7934,49 +8177,49 @@
         <v>674</v>
       </c>
       <c r="U26" t="s">
-        <v>848</v>
+        <v>1147</v>
       </c>
       <c r="V26" t="s">
-        <v>688</v>
+        <v>1119</v>
       </c>
       <c r="W26" t="s">
-        <v>676</v>
+        <v>1076</v>
       </c>
       <c r="X26" t="s">
-        <v>678</v>
+        <v>1074</v>
       </c>
       <c r="Y26" t="s">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="Z26" t="s">
-        <v>680</v>
+        <v>817</v>
       </c>
       <c r="AA26" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="AB26" t="s">
-        <v>904</v>
+        <v>1083</v>
       </c>
       <c r="AC26" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AD26" t="s">
-        <v>700</v>
+        <v>1080</v>
       </c>
       <c r="AE26" t="s">
         <v>804</v>
       </c>
       <c r="AF26" t="s">
-        <v>684</v>
+        <v>1108</v>
       </c>
       <c r="AG26" t="s">
-        <v>817</v>
+        <v>1094</v>
       </c>
       <c r="AH26" t="s">
-        <v>685</v>
+        <v>1088</v>
       </c>
       <c r="AI26" t="s">
-        <v>771</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7987,7 +8230,7 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
         <v>1060</v>
@@ -8005,52 +8248,52 @@
         <v>853</v>
       </c>
       <c r="T27" t="s">
-        <v>686</v>
+        <v>1095</v>
       </c>
       <c r="U27" t="s">
-        <v>816</v>
+        <v>1137</v>
       </c>
       <c r="V27" t="s">
-        <v>689</v>
+        <v>360</v>
       </c>
       <c r="W27" t="s">
-        <v>688</v>
+        <v>1119</v>
       </c>
       <c r="X27" t="s">
-        <v>690</v>
+        <v>1074</v>
       </c>
       <c r="Y27" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="Z27" t="s">
-        <v>680</v>
+        <v>1133</v>
       </c>
       <c r="AA27" t="s">
-        <v>852</v>
+        <v>1093</v>
       </c>
       <c r="AB27" t="s">
-        <v>795</v>
+        <v>1129</v>
       </c>
       <c r="AC27" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="AD27" t="s">
-        <v>902</v>
+        <v>1101</v>
       </c>
       <c r="AE27" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF27" t="s">
-        <v>695</v>
+        <v>1094</v>
       </c>
       <c r="AG27" t="s">
-        <v>687</v>
+        <v>1130</v>
       </c>
       <c r="AH27" t="s">
-        <v>676</v>
+        <v>1110</v>
       </c>
       <c r="AI27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8061,7 +8304,7 @@
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>712</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
         <v>1045</v>
@@ -8070,7 +8313,7 @@
         <v>1061</v>
       </c>
       <c r="G28" t="s">
-        <v>930</v>
+        <v>706</v>
       </c>
       <c r="R28" t="s">
         <v>858</v>
@@ -8082,49 +8325,49 @@
         <v>674</v>
       </c>
       <c r="U28" t="s">
-        <v>676</v>
+        <v>1072</v>
       </c>
       <c r="V28" t="s">
-        <v>688</v>
+        <v>360</v>
       </c>
       <c r="W28" t="s">
-        <v>696</v>
+        <v>1074</v>
       </c>
       <c r="X28" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="Y28" t="s">
-        <v>681</v>
+        <v>1082</v>
       </c>
       <c r="Z28" t="s">
-        <v>698</v>
+        <v>1077</v>
       </c>
       <c r="AA28" t="s">
-        <v>738</v>
+        <v>1100</v>
       </c>
       <c r="AB28" t="s">
-        <v>749</v>
+        <v>1106</v>
       </c>
       <c r="AC28" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="AD28" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AE28" t="s">
         <v>399</v>
       </c>
       <c r="AF28" t="s">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="AG28" t="s">
-        <v>707</v>
+        <v>1108</v>
       </c>
       <c r="AH28" t="s">
-        <v>756</v>
+        <v>1110</v>
       </c>
       <c r="AI28" t="s">
-        <v>712</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8135,7 +8378,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>785</v>
+        <v>1148</v>
       </c>
       <c r="D29" t="s">
         <v>1063</v>
@@ -8144,7 +8387,7 @@
         <v>1062</v>
       </c>
       <c r="G29" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R29" t="s">
         <v>863</v>
@@ -8156,49 +8399,49 @@
         <v>674</v>
       </c>
       <c r="U29" t="s">
-        <v>677</v>
+        <v>1074</v>
       </c>
       <c r="V29" t="s">
-        <v>718</v>
+        <v>1073</v>
       </c>
       <c r="W29" t="s">
-        <v>687</v>
+        <v>1076</v>
       </c>
       <c r="X29" t="s">
-        <v>681</v>
+        <v>1119</v>
       </c>
       <c r="Y29" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AG29" t="s">
         <v>691</v>
       </c>
-      <c r="Z29" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>799</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>682</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>904</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>679</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>684</v>
-      </c>
       <c r="AH29" t="s">
-        <v>750</v>
+        <v>1104</v>
       </c>
       <c r="AI29" t="s">
-        <v>785</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8209,7 +8452,7 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>712</v>
+        <v>290</v>
       </c>
       <c r="D30" t="s">
         <v>1065</v>
@@ -8218,7 +8461,7 @@
         <v>1064</v>
       </c>
       <c r="G30" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R30" t="s">
         <v>866</v>
@@ -8227,52 +8470,52 @@
         <v>315</v>
       </c>
       <c r="T30" t="s">
-        <v>686</v>
+        <v>1095</v>
       </c>
       <c r="U30" t="s">
-        <v>689</v>
+        <v>360</v>
       </c>
       <c r="V30" t="s">
-        <v>676</v>
+        <v>1135</v>
       </c>
       <c r="W30" t="s">
-        <v>688</v>
+        <v>1086</v>
       </c>
       <c r="X30" t="s">
-        <v>680</v>
+        <v>1074</v>
       </c>
       <c r="Y30" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="Z30" t="s">
-        <v>721</v>
+        <v>1082</v>
       </c>
       <c r="AA30" t="s">
-        <v>681</v>
+        <v>425</v>
       </c>
       <c r="AB30" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="AC30" t="s">
-        <v>683</v>
+        <v>1101</v>
       </c>
       <c r="AD30" t="s">
-        <v>902</v>
+        <v>1083</v>
       </c>
       <c r="AE30" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF30" t="s">
-        <v>817</v>
+        <v>1094</v>
       </c>
       <c r="AG30" t="s">
         <v>806</v>
       </c>
       <c r="AH30" t="s">
-        <v>694</v>
+        <v>817</v>
       </c>
       <c r="AI30" t="s">
-        <v>712</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8283,7 +8526,7 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>712</v>
+        <v>286</v>
       </c>
       <c r="D31" t="s">
         <v>1067</v>
@@ -8292,7 +8535,7 @@
         <v>1066</v>
       </c>
       <c r="G31" t="s">
-        <v>452</v>
+        <v>653</v>
       </c>
       <c r="R31" t="s">
         <v>870</v>
@@ -8301,52 +8544,52 @@
         <v>869</v>
       </c>
       <c r="T31" t="s">
-        <v>674</v>
+        <v>1095</v>
       </c>
       <c r="U31" t="s">
-        <v>718</v>
+        <v>1119</v>
       </c>
       <c r="V31" t="s">
-        <v>688</v>
+        <v>1076</v>
       </c>
       <c r="W31" t="s">
-        <v>848</v>
+        <v>360</v>
       </c>
       <c r="X31" t="s">
-        <v>929</v>
+        <v>1137</v>
       </c>
       <c r="Y31" t="s">
-        <v>678</v>
+        <v>903</v>
       </c>
       <c r="Z31" t="s">
-        <v>681</v>
+        <v>1133</v>
       </c>
       <c r="AA31" t="s">
-        <v>738</v>
+        <v>1149</v>
       </c>
       <c r="AB31" t="s">
-        <v>799</v>
+        <v>1101</v>
       </c>
       <c r="AC31" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="AD31" t="s">
-        <v>682</v>
+        <v>1129</v>
       </c>
       <c r="AE31" t="s">
-        <v>804</v>
+        <v>1079</v>
       </c>
       <c r="AF31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AH31" t="s">
         <v>817</v>
       </c>
-      <c r="AG31" t="s">
-        <v>685</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>684</v>
-      </c>
       <c r="AI31" t="s">
-        <v>712</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8357,7 +8600,7 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="D32" t="s">
         <v>1069</v>
@@ -8366,7 +8609,7 @@
         <v>1068</v>
       </c>
       <c r="G32" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R32" t="s">
         <v>520</v>
@@ -8375,52 +8618,52 @@
         <v>875</v>
       </c>
       <c r="T32" t="s">
-        <v>833</v>
+        <v>1095</v>
       </c>
       <c r="U32" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="V32" t="s">
-        <v>873</v>
+        <v>1076</v>
       </c>
       <c r="W32" t="s">
-        <v>761</v>
+        <v>1135</v>
       </c>
       <c r="X32" t="s">
-        <v>681</v>
+        <v>360</v>
       </c>
       <c r="Y32" t="s">
-        <v>678</v>
+        <v>1112</v>
       </c>
       <c r="Z32" t="s">
-        <v>738</v>
+        <v>1149</v>
       </c>
       <c r="AA32" t="s">
-        <v>680</v>
+        <v>903</v>
       </c>
       <c r="AB32" t="s">
-        <v>799</v>
+        <v>1129</v>
       </c>
       <c r="AC32" t="s">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="AD32" t="s">
-        <v>904</v>
+        <v>728</v>
       </c>
       <c r="AE32" t="s">
-        <v>693</v>
+        <v>1079</v>
       </c>
       <c r="AF32" t="s">
-        <v>750</v>
+        <v>1094</v>
       </c>
       <c r="AG32" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AH32" t="s">
-        <v>751</v>
+        <v>817</v>
       </c>
       <c r="AI32" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8431,7 +8674,7 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>841</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s">
         <v>1071</v>
@@ -8440,7 +8683,7 @@
         <v>1070</v>
       </c>
       <c r="G33" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R33" t="s">
         <v>444</v>
@@ -8449,52 +8692,52 @@
         <v>267</v>
       </c>
       <c r="T33" t="s">
-        <v>674</v>
+        <v>1095</v>
       </c>
       <c r="U33" t="s">
-        <v>816</v>
+        <v>1150</v>
       </c>
       <c r="V33" t="s">
-        <v>718</v>
+        <v>360</v>
       </c>
       <c r="W33" t="s">
-        <v>848</v>
+        <v>1076</v>
       </c>
       <c r="X33" t="s">
-        <v>678</v>
+        <v>1074</v>
       </c>
       <c r="Y33" t="s">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="Z33" t="s">
-        <v>698</v>
+        <v>1151</v>
       </c>
       <c r="AA33" t="s">
-        <v>738</v>
+        <v>1133</v>
       </c>
       <c r="AB33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH33" t="s">
         <v>817</v>
       </c>
-      <c r="AC33" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>784</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>685</v>
-      </c>
       <c r="AI33" t="s">
-        <v>841</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22470" windowHeight="11175" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId12"/>
     <sheet name="FPL6" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="1381">
   <si>
     <t>Places</t>
   </si>
@@ -3007,60 +3009,9 @@
     <t>156</t>
   </si>
   <si>
-    <t>1000066</t>
-  </si>
-  <si>
-    <t>2023094</t>
-  </si>
-  <si>
-    <t>352025</t>
-  </si>
-  <si>
-    <t>140849</t>
-  </si>
-  <si>
-    <t>2556247</t>
-  </si>
-  <si>
-    <t>5522451</t>
-  </si>
-  <si>
-    <t>2567394</t>
-  </si>
-  <si>
-    <t>2071423</t>
-  </si>
-  <si>
-    <t>291276</t>
-  </si>
-  <si>
     <t>Joshua Conceicao</t>
   </si>
   <si>
-    <t>shawn yeo</t>
-  </si>
-  <si>
-    <t>Glenn tan</t>
-  </si>
-  <si>
-    <t>Ryan Lee</t>
-  </si>
-  <si>
-    <t>Jethro Ng</t>
-  </si>
-  <si>
-    <t>Jellan Emmanuel</t>
-  </si>
-  <si>
-    <t>Andre De Souza</t>
-  </si>
-  <si>
-    <t>Ryan De Souza</t>
-  </si>
-  <si>
-    <t>JIN WEI LIM</t>
-  </si>
-  <si>
     <t>Josh's kIngs</t>
   </si>
   <si>
@@ -3485,6 +3436,741 @@
   </si>
   <si>
     <t>Gündogan 0</t>
+  </si>
+  <si>
+    <t>Highpress</t>
+  </si>
+  <si>
+    <t>5397840</t>
+  </si>
+  <si>
+    <t>Upside Chasing</t>
+  </si>
+  <si>
+    <t>677901</t>
+  </si>
+  <si>
+    <t>Kingshane101 FC</t>
+  </si>
+  <si>
+    <t>2013439</t>
+  </si>
+  <si>
+    <t>Flunkyguys</t>
+  </si>
+  <si>
+    <t>123863</t>
+  </si>
+  <si>
+    <t>Run The Kewells</t>
+  </si>
+  <si>
+    <t>271159</t>
+  </si>
+  <si>
+    <t>I want Depay</t>
+  </si>
+  <si>
+    <t>150738</t>
+  </si>
+  <si>
+    <t>FK Baník Sokolov</t>
+  </si>
+  <si>
+    <t>846911</t>
+  </si>
+  <si>
+    <t>Gunners</t>
+  </si>
+  <si>
+    <t>1481076</t>
+  </si>
+  <si>
+    <t>Livrapool FC</t>
+  </si>
+  <si>
+    <t>5229149</t>
+  </si>
+  <si>
+    <t>Barcanas</t>
+  </si>
+  <si>
+    <t>52721</t>
+  </si>
+  <si>
+    <t>Netflix &amp; Chillwell</t>
+  </si>
+  <si>
+    <t>4208</t>
+  </si>
+  <si>
+    <t>He’s Norwegian</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>Better Caul Paul</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>FPL Trybe</t>
+  </si>
+  <si>
+    <t>2688538</t>
+  </si>
+  <si>
+    <t>Bachmann and Robin</t>
+  </si>
+  <si>
+    <t>15972</t>
+  </si>
+  <si>
+    <t>Team O'Werner</t>
+  </si>
+  <si>
+    <t>83166</t>
+  </si>
+  <si>
+    <t>The Tank Bar</t>
+  </si>
+  <si>
+    <t>305274</t>
+  </si>
+  <si>
+    <t>2 late 2 say Sarry</t>
+  </si>
+  <si>
+    <t>2456845</t>
+  </si>
+  <si>
+    <t>Scranton stranglers</t>
+  </si>
+  <si>
+    <t>1347713</t>
+  </si>
+  <si>
+    <t>Way Above Average</t>
+  </si>
+  <si>
+    <t>369700</t>
+  </si>
+  <si>
+    <t>PAIN IN Dias</t>
+  </si>
+  <si>
+    <t>2529645</t>
+  </si>
+  <si>
+    <t>Maitland-Miles Ahead</t>
+  </si>
+  <si>
+    <t>235517</t>
+  </si>
+  <si>
+    <t>PoGBoOM</t>
+  </si>
+  <si>
+    <t>29343</t>
+  </si>
+  <si>
+    <t>Shaw Ate Dalot</t>
+  </si>
+  <si>
+    <t>1690268</t>
+  </si>
+  <si>
+    <t>Mannequin Martial FC</t>
+  </si>
+  <si>
+    <t>3413</t>
+  </si>
+  <si>
+    <t>Varanedezvous XI</t>
+  </si>
+  <si>
+    <t>288703</t>
+  </si>
+  <si>
+    <t>Hispam</t>
+  </si>
+  <si>
+    <t>5684971</t>
+  </si>
+  <si>
+    <t>Alisson Wonderland</t>
+  </si>
+  <si>
+    <t>680474</t>
+  </si>
+  <si>
+    <t>Fitzy XI</t>
+  </si>
+  <si>
+    <t>594207</t>
+  </si>
+  <si>
+    <t>Green Eggs and Sam</t>
+  </si>
+  <si>
+    <t>70006</t>
+  </si>
+  <si>
+    <t>KingOfKings FC</t>
+  </si>
+  <si>
+    <t>197913</t>
+  </si>
+  <si>
+    <t>Schrute Farms</t>
+  </si>
+  <si>
+    <t>67270</t>
+  </si>
+  <si>
+    <t>Green &amp; Gold United</t>
+  </si>
+  <si>
+    <t>496077</t>
+  </si>
+  <si>
+    <t>Elmats eleven</t>
+  </si>
+  <si>
+    <t>155001</t>
+  </si>
+  <si>
+    <t>Cowshed Cowboys</t>
+  </si>
+  <si>
+    <t>429122</t>
+  </si>
+  <si>
+    <t>Nice Guys</t>
+  </si>
+  <si>
+    <t>186494</t>
+  </si>
+  <si>
+    <t>Varanda Varane</t>
+  </si>
+  <si>
+    <t>2308423</t>
+  </si>
+  <si>
+    <t>Kante stop Mee</t>
+  </si>
+  <si>
+    <t>8511</t>
+  </si>
+  <si>
+    <t>TheCong-FPL Planner</t>
+  </si>
+  <si>
+    <t>320266</t>
+  </si>
+  <si>
+    <t>Anhhilator XI</t>
+  </si>
+  <si>
+    <t>13944</t>
+  </si>
+  <si>
+    <t>Big City Guys</t>
+  </si>
+  <si>
+    <t>82989</t>
+  </si>
+  <si>
+    <t>Fatal Bazooka Fc</t>
+  </si>
+  <si>
+    <t>52405</t>
+  </si>
+  <si>
+    <t>Dele Belly</t>
+  </si>
+  <si>
+    <t>1899986</t>
+  </si>
+  <si>
+    <t>ionelmessi utd</t>
+  </si>
+  <si>
+    <t>275716</t>
+  </si>
+  <si>
+    <t>StayTogtherForDeLigt</t>
+  </si>
+  <si>
+    <t>44540</t>
+  </si>
+  <si>
+    <t>Jesse jaisi koi nahi</t>
+  </si>
+  <si>
+    <t>108070</t>
+  </si>
+  <si>
+    <t>Barack Aubamayang</t>
+  </si>
+  <si>
+    <t>126265</t>
+  </si>
+  <si>
+    <t>Finding Timo</t>
+  </si>
+  <si>
+    <t>8974</t>
+  </si>
+  <si>
+    <t>Watch Me</t>
+  </si>
+  <si>
+    <t>1540365</t>
+  </si>
+  <si>
+    <t>Red Citly</t>
+  </si>
+  <si>
+    <t>1795510</t>
+  </si>
+  <si>
+    <t>Restored</t>
+  </si>
+  <si>
+    <t>1763189</t>
+  </si>
+  <si>
+    <t>Gangster's Allardyce</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>Čech Mate</t>
+  </si>
+  <si>
+    <t>159633</t>
+  </si>
+  <si>
+    <t>Nieporadni FC</t>
+  </si>
+  <si>
+    <t>61520</t>
+  </si>
+  <si>
+    <t>khedira pin drop</t>
+  </si>
+  <si>
+    <t>2751050</t>
+  </si>
+  <si>
+    <t>Sayed FC</t>
+  </si>
+  <si>
+    <t>477964</t>
+  </si>
+  <si>
+    <t>Sassy's 11</t>
+  </si>
+  <si>
+    <t>666269</t>
+  </si>
+  <si>
+    <t>FPL dior</t>
+  </si>
+  <si>
+    <t>2547875</t>
+  </si>
+  <si>
+    <t>The London Monarch</t>
+  </si>
+  <si>
+    <t>2355083</t>
+  </si>
+  <si>
+    <t>A Kevin 3Pointer</t>
+  </si>
+  <si>
+    <t>55003</t>
+  </si>
+  <si>
+    <t>umexd</t>
+  </si>
+  <si>
+    <t>2174036</t>
+  </si>
+  <si>
+    <t>PenguinTerbang</t>
+  </si>
+  <si>
+    <t>116106</t>
+  </si>
+  <si>
+    <t>Khedira Pin Drop</t>
+  </si>
+  <si>
+    <t>75678</t>
+  </si>
+  <si>
+    <t>waqas</t>
+  </si>
+  <si>
+    <t>3565937</t>
+  </si>
+  <si>
+    <t>come on then</t>
+  </si>
+  <si>
+    <t>5385873</t>
+  </si>
+  <si>
+    <t>Saka&gt;Ronaldo</t>
+  </si>
+  <si>
+    <t>538365</t>
+  </si>
+  <si>
+    <t>Sambi on ice</t>
+  </si>
+  <si>
+    <t>3784712</t>
+  </si>
+  <si>
+    <t>Bring on the 20th.</t>
+  </si>
+  <si>
+    <t>793966</t>
+  </si>
+  <si>
+    <t>team acKROSSy</t>
+  </si>
+  <si>
+    <t>1393154</t>
+  </si>
+  <si>
+    <t>Isa fc</t>
+  </si>
+  <si>
+    <t>176580</t>
+  </si>
+  <si>
+    <t>The Big Show</t>
+  </si>
+  <si>
+    <t>331691</t>
+  </si>
+  <si>
+    <t>Mount mee</t>
+  </si>
+  <si>
+    <t>650853</t>
+  </si>
+  <si>
+    <t>Dijk In Dias</t>
+  </si>
+  <si>
+    <t>1237104</t>
+  </si>
+  <si>
+    <t>Virgil Van Yikes</t>
+  </si>
+  <si>
+    <t>64267</t>
+  </si>
+  <si>
+    <t>Cradd's Lads</t>
+  </si>
+  <si>
+    <t>33272</t>
+  </si>
+  <si>
+    <t>Hot Dog UTD (VG)</t>
+  </si>
+  <si>
+    <t>79210</t>
+  </si>
+  <si>
+    <t>TuchelTime</t>
+  </si>
+  <si>
+    <t>30638</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>There'sOnlyOneUnited</t>
+  </si>
+  <si>
+    <t>1193535</t>
+  </si>
+  <si>
+    <t>Moyes's Mad Lads</t>
+  </si>
+  <si>
+    <t>5576177</t>
+  </si>
+  <si>
+    <t>brexit ballers</t>
+  </si>
+  <si>
+    <t>1377249</t>
+  </si>
+  <si>
+    <t>Cave man</t>
+  </si>
+  <si>
+    <t>3472985</t>
+  </si>
+  <si>
+    <t>Salata de vinete</t>
+  </si>
+  <si>
+    <t>477670</t>
+  </si>
+  <si>
+    <t>태극 Warriors</t>
+  </si>
+  <si>
+    <t>2410098</t>
+  </si>
+  <si>
+    <t>I’ve had a McAnuff</t>
+  </si>
+  <si>
+    <t>31686</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>519887</t>
+  </si>
+  <si>
+    <t>Marvels</t>
+  </si>
+  <si>
+    <t>4510302</t>
+  </si>
+  <si>
+    <t>Guinea Pigs</t>
+  </si>
+  <si>
+    <t>228085</t>
+  </si>
+  <si>
+    <t>Gurn FC</t>
+  </si>
+  <si>
+    <t>1162666</t>
+  </si>
+  <si>
+    <t>askidaf</t>
+  </si>
+  <si>
+    <t>1295714</t>
+  </si>
+  <si>
+    <t>Abra Dubravka</t>
+  </si>
+  <si>
+    <t>1048581</t>
+  </si>
+  <si>
+    <t>Dyslexia Untied</t>
+  </si>
+  <si>
+    <t>1646337</t>
+  </si>
+  <si>
+    <t>Ben_why</t>
+  </si>
+  <si>
+    <t>1908253</t>
+  </si>
+  <si>
+    <t>Emily &amp; Lukey WHU</t>
+  </si>
+  <si>
+    <t>98894</t>
+  </si>
+  <si>
+    <t>saka my ballzz</t>
+  </si>
+  <si>
+    <t>157992</t>
+  </si>
+  <si>
+    <t>On The Edgell</t>
+  </si>
+  <si>
+    <t>30752</t>
+  </si>
+  <si>
+    <t>WC1</t>
+  </si>
+  <si>
+    <t>WC2</t>
+  </si>
+  <si>
+    <t>WC3</t>
+  </si>
+  <si>
+    <t>WC4</t>
+  </si>
+  <si>
+    <t>WC5</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Flint Fc</t>
+  </si>
+  <si>
+    <t>1699830</t>
+  </si>
+  <si>
+    <t>NoviceMb</t>
+  </si>
+  <si>
+    <t>351931</t>
+  </si>
+  <si>
+    <t>The Offside Traps</t>
+  </si>
+  <si>
+    <t>3958276</t>
+  </si>
+  <si>
+    <t>Holy Divers</t>
+  </si>
+  <si>
+    <t>124801</t>
+  </si>
+  <si>
+    <t>Quaranteam</t>
+  </si>
+  <si>
+    <t>4354768</t>
+  </si>
+  <si>
+    <t>Ozymendiaz</t>
+  </si>
+  <si>
+    <t>380438</t>
+  </si>
+  <si>
+    <t>frogs</t>
+  </si>
+  <si>
+    <t>5109360</t>
+  </si>
+  <si>
+    <t>Ben D’S 11</t>
+  </si>
+  <si>
+    <t>4193686</t>
+  </si>
+  <si>
+    <t>City Wok First XI</t>
+  </si>
+  <si>
+    <t>3822239</t>
+  </si>
+  <si>
+    <t>denilsonx</t>
+  </si>
+  <si>
+    <t>4374651</t>
+  </si>
+  <si>
+    <t>TOPBOYS</t>
+  </si>
+  <si>
+    <t>6329451</t>
+  </si>
+  <si>
+    <t>Hooligans</t>
+  </si>
+  <si>
+    <t>3741828</t>
+  </si>
+  <si>
+    <t>Kang and Kodos</t>
+  </si>
+  <si>
+    <t>462617</t>
+  </si>
+  <si>
+    <t>Bergkamp</t>
+  </si>
+  <si>
+    <t>4136051</t>
+  </si>
+  <si>
+    <t>NO Madder son</t>
+  </si>
+  <si>
+    <t>2640115</t>
+  </si>
+  <si>
+    <t>Pp11</t>
+  </si>
+  <si>
+    <t>2317004</t>
+  </si>
+  <si>
+    <t>Ondieki Stars</t>
+  </si>
+  <si>
+    <t>4779115</t>
+  </si>
+  <si>
+    <t>Havilah FC</t>
+  </si>
+  <si>
+    <t>3672554</t>
+  </si>
+  <si>
+    <t>China1</t>
+  </si>
+  <si>
+    <t>6205577</t>
+  </si>
+  <si>
+    <t>AbuMazeedah</t>
+  </si>
+  <si>
+    <t>4014921</t>
+  </si>
+  <si>
+    <t>KinsaleGoons</t>
+  </si>
+  <si>
+    <t>4323491</t>
+  </si>
+  <si>
+    <t>Savage United</t>
+  </si>
+  <si>
+    <t>4363088</t>
+  </si>
+  <si>
+    <t>MK FC</t>
+  </si>
+  <si>
+    <t>4761319</t>
+  </si>
+  <si>
+    <t>Athletic Beerbarrel</t>
+  </si>
+  <si>
+    <t>2535693</t>
   </si>
 </sst>
 </file>
@@ -4312,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:AK1"/>
     </sheetView>
   </sheetViews>
@@ -5945,15 +6631,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
@@ -6082,28 +6768,28 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1002</v>
+        <v>1136</v>
       </c>
       <c r="B2" t="s">
-        <v>993</v>
+        <v>1137</v>
       </c>
       <c r="C2" t="s">
         <v>771</v>
       </c>
       <c r="D2" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="E2" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="G2" t="s">
         <v>452</v>
       </c>
       <c r="R2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="S2" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="T2" t="s">
         <v>833</v>
@@ -6156,66 +6842,394 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1003</v>
+        <v>1138</v>
       </c>
       <c r="B3" t="s">
-        <v>994</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1004</v>
+        <v>1140</v>
       </c>
       <c r="B4" t="s">
-        <v>995</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1005</v>
+        <v>1142</v>
       </c>
       <c r="B5" t="s">
-        <v>996</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1006</v>
+        <v>1144</v>
       </c>
       <c r="B6" t="s">
-        <v>997</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1007</v>
+        <v>1146</v>
       </c>
       <c r="B7" t="s">
-        <v>998</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>1148</v>
       </c>
       <c r="B8" t="s">
-        <v>999</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1009</v>
+        <v>1150</v>
       </c>
       <c r="B9" t="s">
-        <v>1000</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1010</v>
+        <v>1152</v>
       </c>
       <c r="B10" t="s">
-        <v>1001</v>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -6227,36 +7241,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AK1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.04296875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.34375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.34765625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.58984375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="25" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -6288,25 +7301,25 @@
         <v>670</v>
       </c>
       <c r="J1" t="s">
-        <v>670</v>
+        <v>1327</v>
       </c>
       <c r="K1" t="s">
-        <v>670</v>
+        <v>1328</v>
       </c>
       <c r="L1" t="s">
-        <v>670</v>
+        <v>1329</v>
       </c>
       <c r="M1" t="s">
-        <v>670</v>
+        <v>1330</v>
       </c>
       <c r="N1" t="s">
-        <v>670</v>
+        <v>1331</v>
       </c>
       <c r="O1" t="s">
         <v>670</v>
       </c>
       <c r="P1" t="s">
-        <v>670</v>
+        <v>1332</v>
       </c>
       <c r="Q1" t="s">
         <v>670</v>
@@ -6383,10 +7396,10 @@
         <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="E2" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G2" t="s">
         <v>653</v>
@@ -6401,19 +7414,19 @@
         <v>674</v>
       </c>
       <c r="U2" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="V2" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="W2" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="X2" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="Y2" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="Z2" t="s">
         <v>697</v>
@@ -6422,25 +7435,25 @@
         <v>903</v>
       </c>
       <c r="AB2" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="AC2" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="AD2" t="s">
         <v>692</v>
       </c>
       <c r="AE2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="AF2" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="AG2" t="s">
         <v>701</v>
       </c>
       <c r="AH2" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="AI2" t="s">
         <v>274</v>
@@ -6457,10 +7470,10 @@
         <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="G3" t="s">
         <v>653</v>
@@ -6475,16 +7488,16 @@
         <v>674</v>
       </c>
       <c r="U3" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="V3" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="W3" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="X3" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="Y3" t="s">
         <v>691</v>
@@ -6502,7 +7515,7 @@
         <v>902</v>
       </c>
       <c r="AD3" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AE3" t="s">
         <v>709</v>
@@ -6514,7 +7527,7 @@
         <v>710</v>
       </c>
       <c r="AH3" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="AI3" t="s">
         <v>268</v>
@@ -6534,7 +7547,7 @@
         <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="G4" t="s">
         <v>706</v>
@@ -6546,19 +7559,19 @@
         <v>722</v>
       </c>
       <c r="T4" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="U4" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="V4" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="W4" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="X4" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="Y4" t="s">
         <v>720</v>
@@ -6570,25 +7583,25 @@
         <v>425</v>
       </c>
       <c r="AB4" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="AC4" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AD4" t="s">
         <v>728</v>
       </c>
       <c r="AE4" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="AF4" t="s">
         <v>679</v>
       </c>
       <c r="AG4" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="AH4" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="AI4" t="s">
         <v>282</v>
@@ -6605,10 +7618,10 @@
         <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E5" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="G5" t="s">
         <v>706</v>
@@ -6620,22 +7633,22 @@
         <v>731</v>
       </c>
       <c r="T5" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="U5" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="V5" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="W5" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="X5" t="s">
         <v>360</v>
       </c>
       <c r="Y5" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="Z5" t="s">
         <v>903</v>
@@ -6644,25 +7657,25 @@
         <v>691</v>
       </c>
       <c r="AB5" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="AC5" t="s">
         <v>728</v>
       </c>
       <c r="AD5" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="AE5" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="AF5" t="s">
         <v>707</v>
       </c>
       <c r="AG5" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="AH5" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="AI5" t="s">
         <v>297</v>
@@ -6679,10 +7692,10 @@
         <v>730</v>
       </c>
       <c r="D6" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="E6" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -6694,46 +7707,46 @@
         <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="U6" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="V6" t="s">
         <v>591</v>
       </c>
       <c r="W6" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="X6" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="Y6" t="s">
         <v>678</v>
       </c>
       <c r="Z6" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="AA6" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="AB6" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AC6" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD6" t="s">
         <v>740</v>
       </c>
       <c r="AE6" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="AF6" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="AG6" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="AH6" t="s">
         <v>742</v>
@@ -6753,10 +7766,10 @@
         <v>703</v>
       </c>
       <c r="D7" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E7" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="G7" t="s">
         <v>706</v>
@@ -6768,34 +7781,34 @@
         <v>435</v>
       </c>
       <c r="T7" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="U7" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="V7" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="W7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="X7" t="s">
         <v>1074</v>
       </c>
-      <c r="X7" t="s">
-        <v>1091</v>
-      </c>
       <c r="Y7" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="Z7" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="AA7" t="s">
         <v>678</v>
       </c>
       <c r="AB7" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="AC7" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AD7" t="s">
         <v>902</v>
@@ -6804,10 +7817,10 @@
         <v>709</v>
       </c>
       <c r="AF7" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="AG7" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="AH7" t="s">
         <v>751</v>
@@ -6827,10 +7840,10 @@
         <v>940</v>
       </c>
       <c r="D8" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="E8" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="G8" t="s">
         <v>706</v>
@@ -6845,40 +7858,40 @@
         <v>674</v>
       </c>
       <c r="U8" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="V8" t="s">
         <v>755</v>
       </c>
       <c r="W8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AA8" t="s">
         <v>1076</v>
-      </c>
-      <c r="X8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1093</v>
       </c>
       <c r="AB8" t="s">
         <v>678</v>
       </c>
       <c r="AC8" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD8" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="AG8" t="s">
         <v>400</v>
@@ -6904,7 +7917,7 @@
         <v>901</v>
       </c>
       <c r="E9" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="G9" t="s">
         <v>672</v>
@@ -6919,46 +7932,46 @@
         <v>674</v>
       </c>
       <c r="U9" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="V9" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="W9" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="X9" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="Y9" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="Z9" t="s">
         <v>678</v>
       </c>
       <c r="AA9" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="AB9" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="AC9" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AD9" t="s">
         <v>728</v>
       </c>
       <c r="AE9" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="AF9" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="AG9" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="AH9" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="AI9" t="s">
         <v>288</v>
@@ -6972,13 +7985,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="D10" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E10" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -6990,16 +8003,16 @@
         <v>285</v>
       </c>
       <c r="T10" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="U10" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="V10" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="W10" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="X10" t="s">
         <v>903</v>
@@ -7008,7 +8021,7 @@
         <v>691</v>
       </c>
       <c r="Z10" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="AA10" t="s">
         <v>679</v>
@@ -7017,10 +8030,10 @@
         <v>728</v>
       </c>
       <c r="AC10" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD10" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AE10" t="s">
         <v>766</v>
@@ -7032,10 +8045,10 @@
         <v>767</v>
       </c>
       <c r="AH10" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="AI10" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -7049,10 +8062,10 @@
         <v>703</v>
       </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="E11" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="G11" t="s">
         <v>653</v>
@@ -7067,19 +8080,19 @@
         <v>674</v>
       </c>
       <c r="U11" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="V11" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="W11" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="X11" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="Y11" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="Z11" t="s">
         <v>720</v>
@@ -7091,22 +8104,22 @@
         <v>903</v>
       </c>
       <c r="AC11" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD11" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AE11" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="AF11" t="s">
         <v>755</v>
       </c>
       <c r="AG11" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="AH11" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="AI11" t="s">
         <v>703</v>
@@ -7126,7 +8139,7 @@
         <v>878</v>
       </c>
       <c r="E12" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="G12" t="s">
         <v>653</v>
@@ -7138,19 +8151,19 @@
         <v>289</v>
       </c>
       <c r="T12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="X12" t="s">
         <v>1095</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="V12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="W12" t="s">
-        <v>1119</v>
-      </c>
-      <c r="X12" t="s">
-        <v>1112</v>
       </c>
       <c r="Y12" t="s">
         <v>425</v>
@@ -7165,22 +8178,22 @@
         <v>728</v>
       </c>
       <c r="AC12" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD12" t="s">
         <v>692</v>
       </c>
       <c r="AE12" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="AF12" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="AG12" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="AH12" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="AI12" t="s">
         <v>671</v>
@@ -7197,10 +8210,10 @@
         <v>890</v>
       </c>
       <c r="D13" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="E13" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="G13" t="s">
         <v>452</v>
@@ -7212,19 +8225,19 @@
         <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="U13" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="V13" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="W13" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="X13" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="Y13" t="s">
         <v>903</v>
@@ -7233,16 +8246,16 @@
         <v>679</v>
       </c>
       <c r="AA13" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="AB13" t="s">
         <v>720</v>
       </c>
       <c r="AC13" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AD13" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AE13" t="s">
         <v>475</v>
@@ -7271,10 +8284,10 @@
         <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="E14" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="G14" t="s">
         <v>653</v>
@@ -7286,40 +8299,40 @@
         <v>796</v>
       </c>
       <c r="T14" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="U14" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="V14" t="s">
         <v>792</v>
       </c>
       <c r="W14" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="X14" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="Y14" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="Z14" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="AA14" t="s">
         <v>678</v>
       </c>
       <c r="AB14" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="AC14" t="s">
         <v>728</v>
       </c>
       <c r="AD14" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="AE14" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="AF14" t="s">
         <v>707</v>
@@ -7345,10 +8358,10 @@
         <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="E15" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="G15" t="s">
         <v>653</v>
@@ -7360,49 +8373,49 @@
         <v>800</v>
       </c>
       <c r="T15" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="U15" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="V15" t="s">
         <v>360</v>
       </c>
       <c r="W15" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="X15" t="s">
         <v>903</v>
       </c>
       <c r="Y15" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="Z15" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="AA15" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="AB15" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AC15" t="s">
         <v>728</v>
       </c>
       <c r="AD15" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="AE15" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="AF15" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="AG15" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="AH15" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="AI15" t="s">
         <v>280</v>
@@ -7422,7 +8435,7 @@
         <v>865</v>
       </c>
       <c r="E16" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="G16" t="s">
         <v>672</v>
@@ -7437,16 +8450,16 @@
         <v>674</v>
       </c>
       <c r="U16" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="V16" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="W16" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="X16" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="Y16" t="s">
         <v>679</v>
@@ -7455,22 +8468,22 @@
         <v>903</v>
       </c>
       <c r="AA16" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="AB16" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="AC16" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="AD16" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="AE16" t="s">
         <v>804</v>
       </c>
       <c r="AF16" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="AG16" t="s">
         <v>805</v>
@@ -7482,1262 +8495,2119 @@
         <v>290</v>
       </c>
     </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2317783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G17" t="s">
+        <v>706</v>
+      </c>
+      <c r="R17" t="s">
+        <v>348</v>
+      </c>
+      <c r="S17" t="s">
+        <v>298</v>
+      </c>
+      <c r="T17" t="s">
+        <v>674</v>
+      </c>
+      <c r="U17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V17" t="s">
+        <v>360</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X17" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>805</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="8">
+        <v>364277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G18" t="s">
+        <v>653</v>
+      </c>
+      <c r="R18" t="s">
+        <v>527</v>
+      </c>
+      <c r="S18" t="s">
+        <v>813</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="X18" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1396639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G19" t="s">
+        <v>706</v>
+      </c>
+      <c r="R19" t="s">
+        <v>373</v>
+      </c>
+      <c r="S19" t="s">
+        <v>818</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U19" t="s">
+        <v>360</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1339989</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G20" t="s">
+        <v>452</v>
+      </c>
+      <c r="R20" t="s">
+        <v>542</v>
+      </c>
+      <c r="S20" t="s">
+        <v>822</v>
+      </c>
+      <c r="T20" t="s">
+        <v>674</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="8">
+        <v>474028</v>
+      </c>
+      <c r="C21" t="s">
+        <v>890</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G21" t="s">
+        <v>653</v>
+      </c>
+      <c r="R21" t="s">
+        <v>401</v>
+      </c>
+      <c r="S21" t="s">
+        <v>304</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W21" t="s">
+        <v>360</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1229286</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G22" t="s">
+        <v>706</v>
+      </c>
+      <c r="R22" t="s">
+        <v>599</v>
+      </c>
+      <c r="S22" t="s">
+        <v>830</v>
+      </c>
+      <c r="T22" t="s">
+        <v>674</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W22" t="s">
+        <v>360</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>828</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>835</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2340261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G23" t="s">
+        <v>452</v>
+      </c>
+      <c r="R23" t="s">
+        <v>835</v>
+      </c>
+      <c r="S23" t="s">
+        <v>307</v>
+      </c>
+      <c r="T23" t="s">
+        <v>833</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1708392</v>
+      </c>
+      <c r="C24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G24" t="s">
+        <v>452</v>
+      </c>
+      <c r="R24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S24" t="s">
+        <v>309</v>
+      </c>
+      <c r="T24" t="s">
+        <v>838</v>
+      </c>
+      <c r="U24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>710</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>845</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2719892</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>798</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G25" t="s">
+        <v>653</v>
+      </c>
+      <c r="R25" t="s">
+        <v>845</v>
+      </c>
+      <c r="S25" t="s">
+        <v>487</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="8">
+        <v>122847</v>
+      </c>
+      <c r="C26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G26" t="s">
+        <v>706</v>
+      </c>
+      <c r="R26" t="s">
+        <v>595</v>
+      </c>
+      <c r="S26" t="s">
+        <v>849</v>
+      </c>
+      <c r="T26" t="s">
+        <v>674</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>817</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>854</v>
+      </c>
+      <c r="B27" s="8">
+        <v>362369</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G27" t="s">
+        <v>653</v>
+      </c>
+      <c r="R27" t="s">
+        <v>854</v>
+      </c>
+      <c r="S27" t="s">
+        <v>853</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V27" t="s">
+        <v>360</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28" s="8">
+        <v>290784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G28" t="s">
+        <v>706</v>
+      </c>
+      <c r="R28" t="s">
+        <v>858</v>
+      </c>
+      <c r="S28" t="s">
+        <v>857</v>
+      </c>
+      <c r="T28" t="s">
+        <v>674</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="V28" t="s">
+        <v>360</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="X28" t="s">
+        <v>903</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>863</v>
+      </c>
+      <c r="B29" s="8">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G29" t="s">
+        <v>672</v>
+      </c>
+      <c r="R29" t="s">
+        <v>863</v>
+      </c>
+      <c r="S29" t="s">
+        <v>862</v>
+      </c>
+      <c r="T29" t="s">
+        <v>674</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>691</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>866</v>
+      </c>
+      <c r="B30" s="8">
+        <v>23487</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G30" t="s">
+        <v>706</v>
+      </c>
+      <c r="R30" t="s">
+        <v>866</v>
+      </c>
+      <c r="S30" t="s">
+        <v>315</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U30" t="s">
+        <v>360</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1069</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>806</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31" s="8">
+        <v>360554</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G31" t="s">
+        <v>653</v>
+      </c>
+      <c r="R31" t="s">
+        <v>870</v>
+      </c>
+      <c r="S31" t="s">
+        <v>869</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W31" t="s">
+        <v>360</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2090014</v>
+      </c>
+      <c r="C32" t="s">
+        <v>890</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G32" t="s">
+        <v>653</v>
+      </c>
+      <c r="R32" t="s">
+        <v>520</v>
+      </c>
+      <c r="S32" t="s">
+        <v>875</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="X32" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>691</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="8">
+        <v>158870</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G33" t="s">
+        <v>653</v>
+      </c>
+      <c r="R33" t="s">
+        <v>444</v>
+      </c>
+      <c r="S33" t="s">
+        <v>267</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="V33" t="s">
+        <v>360</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>817</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1261</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2317783</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G17" t="s">
-        <v>706</v>
-      </c>
-      <c r="R17" t="s">
-        <v>348</v>
-      </c>
-      <c r="S17" t="s">
-        <v>298</v>
-      </c>
-      <c r="T17" t="s">
-        <v>674</v>
-      </c>
-      <c r="U17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V17" t="s">
-        <v>360</v>
-      </c>
-      <c r="W17" t="s">
-        <v>1091</v>
-      </c>
-      <c r="X17" t="s">
-        <v>809</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>679</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>903</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>805</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>400</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>1136</v>
+        <v>1262</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>527</v>
-      </c>
-      <c r="B18" s="8">
-        <v>364277</v>
-      </c>
-      <c r="C18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G18" t="s">
-        <v>653</v>
-      </c>
-      <c r="R18" t="s">
-        <v>527</v>
-      </c>
-      <c r="S18" t="s">
-        <v>813</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1085</v>
-      </c>
-      <c r="U18" t="s">
-        <v>1076</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1091</v>
-      </c>
-      <c r="W18" t="s">
-        <v>1073</v>
-      </c>
-      <c r="X18" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>691</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>812</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>294</v>
+        <v>1264</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1396639</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G19" t="s">
-        <v>706</v>
-      </c>
-      <c r="R19" t="s">
-        <v>373</v>
-      </c>
-      <c r="S19" t="s">
-        <v>818</v>
-      </c>
-      <c r="T19" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U19" t="s">
-        <v>360</v>
-      </c>
-      <c r="V19" t="s">
-        <v>1137</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1138</v>
-      </c>
-      <c r="X19" t="s">
-        <v>1097</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>728</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>270</v>
+        <v>1266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>542</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1339989</v>
-      </c>
-      <c r="C20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G20" t="s">
-        <v>452</v>
-      </c>
-      <c r="R20" t="s">
-        <v>542</v>
-      </c>
-      <c r="S20" t="s">
-        <v>822</v>
-      </c>
-      <c r="T20" t="s">
-        <v>674</v>
-      </c>
-      <c r="U20" t="s">
-        <v>1112</v>
-      </c>
-      <c r="V20" t="s">
-        <v>1119</v>
-      </c>
-      <c r="W20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="X20" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>692</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>751</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>276</v>
+        <v>1268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>401</v>
-      </c>
-      <c r="B21" s="8">
-        <v>474028</v>
-      </c>
-      <c r="C21" t="s">
-        <v>890</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G21" t="s">
-        <v>653</v>
-      </c>
-      <c r="R21" t="s">
-        <v>401</v>
-      </c>
-      <c r="S21" t="s">
-        <v>304</v>
-      </c>
-      <c r="T21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U21" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V21" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W21" t="s">
-        <v>360</v>
-      </c>
-      <c r="X21" t="s">
-        <v>1091</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>799</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>890</v>
+        <v>1270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1229286</v>
-      </c>
-      <c r="C22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G22" t="s">
-        <v>706</v>
-      </c>
-      <c r="R22" t="s">
-        <v>599</v>
-      </c>
-      <c r="S22" t="s">
-        <v>830</v>
-      </c>
-      <c r="T22" t="s">
-        <v>674</v>
-      </c>
-      <c r="U22" t="s">
-        <v>1076</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1097</v>
-      </c>
-      <c r="W22" t="s">
-        <v>360</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1091</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>903</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>691</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>828</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>294</v>
+        <v>1272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>835</v>
-      </c>
-      <c r="B23" s="8">
-        <v>2340261</v>
-      </c>
-      <c r="C23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G23" t="s">
-        <v>452</v>
-      </c>
-      <c r="R23" t="s">
-        <v>835</v>
-      </c>
-      <c r="S23" t="s">
-        <v>307</v>
-      </c>
-      <c r="T23" t="s">
-        <v>833</v>
-      </c>
-      <c r="U23" t="s">
-        <v>1072</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1119</v>
-      </c>
-      <c r="W23" t="s">
-        <v>1091</v>
-      </c>
-      <c r="X23" t="s">
-        <v>1141</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>1131</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>903</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>740</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>809</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>280</v>
+        <v>1274</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>588</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1708392</v>
-      </c>
-      <c r="C24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G24" t="s">
-        <v>452</v>
-      </c>
-      <c r="R24" t="s">
-        <v>588</v>
-      </c>
-      <c r="S24" t="s">
-        <v>309</v>
-      </c>
-      <c r="T24" t="s">
-        <v>838</v>
-      </c>
-      <c r="U24" t="s">
-        <v>360</v>
-      </c>
-      <c r="V24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="W24" t="s">
-        <v>1124</v>
-      </c>
-      <c r="X24" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>902</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>710</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>757</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>276</v>
+        <v>1276</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>845</v>
-      </c>
-      <c r="B25" s="8">
-        <v>2719892</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>798</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G25" t="s">
-        <v>653</v>
-      </c>
-      <c r="R25" t="s">
-        <v>845</v>
-      </c>
-      <c r="S25" t="s">
-        <v>487</v>
-      </c>
-      <c r="T25" t="s">
-        <v>1089</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="V25" t="s">
-        <v>1119</v>
-      </c>
-      <c r="W25" t="s">
-        <v>1104</v>
-      </c>
-      <c r="X25" t="s">
-        <v>1108</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>1100</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>707</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>751</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>1146</v>
+        <v>1278</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>595</v>
-      </c>
-      <c r="B26" s="8">
-        <v>122847</v>
-      </c>
-      <c r="C26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G26" t="s">
-        <v>706</v>
-      </c>
-      <c r="R26" t="s">
-        <v>595</v>
-      </c>
-      <c r="S26" t="s">
-        <v>849</v>
-      </c>
-      <c r="T26" t="s">
-        <v>674</v>
-      </c>
-      <c r="U26" t="s">
-        <v>1147</v>
-      </c>
-      <c r="V26" t="s">
-        <v>1119</v>
-      </c>
-      <c r="W26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="X26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>817</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>804</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>286</v>
+        <v>1280</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>854</v>
-      </c>
-      <c r="B27" s="8">
-        <v>362369</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G27" t="s">
-        <v>653</v>
-      </c>
-      <c r="R27" t="s">
-        <v>854</v>
-      </c>
-      <c r="S27" t="s">
-        <v>853</v>
-      </c>
-      <c r="T27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="V27" t="s">
-        <v>360</v>
-      </c>
-      <c r="W27" t="s">
-        <v>1119</v>
-      </c>
-      <c r="X27" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>278</v>
+        <v>1282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>858</v>
-      </c>
-      <c r="B28" s="8">
-        <v>290784</v>
-      </c>
-      <c r="C28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G28" t="s">
-        <v>706</v>
-      </c>
-      <c r="R28" t="s">
-        <v>858</v>
-      </c>
-      <c r="S28" t="s">
-        <v>857</v>
-      </c>
-      <c r="T28" t="s">
-        <v>674</v>
-      </c>
-      <c r="U28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="V28" t="s">
-        <v>360</v>
-      </c>
-      <c r="W28" t="s">
-        <v>1074</v>
-      </c>
-      <c r="X28" t="s">
-        <v>903</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>707</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>297</v>
+        <v>1284</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>863</v>
-      </c>
-      <c r="B29" s="8">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G29" t="s">
-        <v>672</v>
-      </c>
-      <c r="R29" t="s">
-        <v>863</v>
-      </c>
-      <c r="S29" t="s">
-        <v>862</v>
-      </c>
-      <c r="T29" t="s">
-        <v>674</v>
-      </c>
-      <c r="U29" t="s">
-        <v>1074</v>
-      </c>
-      <c r="V29" t="s">
-        <v>1073</v>
-      </c>
-      <c r="W29" t="s">
-        <v>1076</v>
-      </c>
-      <c r="X29" t="s">
-        <v>1119</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>679</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>799</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>691</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>1148</v>
+        <v>1286</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>866</v>
-      </c>
-      <c r="B30" s="8">
-        <v>23487</v>
-      </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G30" t="s">
-        <v>706</v>
-      </c>
-      <c r="R30" t="s">
-        <v>866</v>
-      </c>
-      <c r="S30" t="s">
-        <v>315</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U30" t="s">
-        <v>360</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1135</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1086</v>
-      </c>
-      <c r="X30" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>806</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>290</v>
+        <v>1288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B31" s="8">
-        <v>360554</v>
-      </c>
-      <c r="C31" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G31" t="s">
-        <v>653</v>
-      </c>
-      <c r="R31" t="s">
-        <v>870</v>
-      </c>
-      <c r="S31" t="s">
-        <v>869</v>
-      </c>
-      <c r="T31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U31" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W31" t="s">
-        <v>360</v>
-      </c>
-      <c r="X31" t="s">
-        <v>1137</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>286</v>
+        <v>1230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>520</v>
-      </c>
-      <c r="B32" s="8">
-        <v>2090014</v>
-      </c>
-      <c r="C32" t="s">
-        <v>890</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G32" t="s">
-        <v>653</v>
-      </c>
-      <c r="R32" t="s">
-        <v>520</v>
-      </c>
-      <c r="S32" t="s">
-        <v>875</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U32" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V32" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W32" t="s">
-        <v>1135</v>
-      </c>
-      <c r="X32" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>1112</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>728</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>691</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>890</v>
+        <v>1291</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B33" s="8">
-        <v>158870</v>
-      </c>
-      <c r="C33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G33" t="s">
-        <v>653</v>
-      </c>
-      <c r="R33" t="s">
-        <v>444</v>
-      </c>
-      <c r="S33" t="s">
-        <v>267</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1150</v>
-      </c>
-      <c r="V33" t="s">
-        <v>360</v>
-      </c>
-      <c r="W33" t="s">
-        <v>1076</v>
-      </c>
-      <c r="X33" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>728</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AF33" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1152</v>
       </c>
-      <c r="AG33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>817</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>284</v>
+      <c r="B46" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.03515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" t="s">
+        <v>670</v>
+      </c>
+      <c r="M1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" t="s">
+        <v>329</v>
+      </c>
+      <c r="T1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -11163,13 +13033,17 @@
   <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1369">
   <si>
     <t>Places</t>
   </si>
@@ -4029,148 +4029,112 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Flint Fc</t>
-  </si>
-  <si>
-    <t>1699830</t>
-  </si>
-  <si>
-    <t>NoviceMb</t>
-  </si>
-  <si>
-    <t>351931</t>
-  </si>
-  <si>
-    <t>The Offside Traps</t>
-  </si>
-  <si>
-    <t>3958276</t>
-  </si>
-  <si>
-    <t>Holy Divers</t>
-  </si>
-  <si>
-    <t>124801</t>
-  </si>
-  <si>
-    <t>Quaranteam</t>
-  </si>
-  <si>
-    <t>4354768</t>
-  </si>
-  <si>
-    <t>Ozymendiaz</t>
-  </si>
-  <si>
-    <t>380438</t>
-  </si>
-  <si>
-    <t>frogs</t>
-  </si>
-  <si>
-    <t>5109360</t>
-  </si>
-  <si>
-    <t>Ben D’S 11</t>
-  </si>
-  <si>
-    <t>4193686</t>
-  </si>
-  <si>
-    <t>City Wok First XI</t>
-  </si>
-  <si>
-    <t>3822239</t>
-  </si>
-  <si>
-    <t>denilsonx</t>
-  </si>
-  <si>
-    <t>4374651</t>
-  </si>
-  <si>
-    <t>TOPBOYS</t>
-  </si>
-  <si>
-    <t>6329451</t>
-  </si>
-  <si>
-    <t>Hooligans</t>
-  </si>
-  <si>
-    <t>3741828</t>
-  </si>
-  <si>
-    <t>Kang and Kodos</t>
-  </si>
-  <si>
-    <t>462617</t>
-  </si>
-  <si>
-    <t>Bergkamp</t>
-  </si>
-  <si>
-    <t>4136051</t>
-  </si>
-  <si>
-    <t>NO Madder son</t>
-  </si>
-  <si>
-    <t>2640115</t>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Sabuj Sangha</t>
+  </si>
+  <si>
+    <t>The non negotiables</t>
+  </si>
+  <si>
+    <t>Three Cheers</t>
+  </si>
+  <si>
+    <t>pokyong_rong</t>
+  </si>
+  <si>
+    <t>WILDHORN</t>
   </si>
   <si>
     <t>Pp11</t>
   </si>
   <si>
+    <t>In search of Kwan</t>
+  </si>
+  <si>
+    <t>DestyBubu</t>
+  </si>
+  <si>
+    <t>Bachmann 0</t>
+  </si>
+  <si>
+    <t>deep chaudhury</t>
+  </si>
+  <si>
+    <t>Saïss 7</t>
+  </si>
+  <si>
+    <t>Soumya Chowdhury</t>
+  </si>
+  <si>
+    <t>souvik ray</t>
+  </si>
+  <si>
+    <t>Jyotibrata Das</t>
+  </si>
+  <si>
+    <t>Temkup Lepcha</t>
+  </si>
+  <si>
+    <t>Romeu 3</t>
+  </si>
+  <si>
+    <t>Antonio 2$ captain</t>
+  </si>
+  <si>
+    <t>Cavani 0</t>
+  </si>
+  <si>
+    <t>Dabojit Banerjee</t>
+  </si>
+  <si>
+    <t>priyanko pal</t>
+  </si>
+  <si>
+    <t>S.Longstaff 0</t>
+  </si>
+  <si>
+    <t>Sourav Chatterjee</t>
+  </si>
+  <si>
+    <t>Soucek 3</t>
+  </si>
+  <si>
+    <t>Havertz 1</t>
+  </si>
+  <si>
+    <t>Greenwood 0</t>
+  </si>
+  <si>
+    <t>Anirban Sett</t>
+  </si>
+  <si>
+    <t>417137</t>
+  </si>
+  <si>
+    <t>975590</t>
+  </si>
+  <si>
+    <t>8321</t>
+  </si>
+  <si>
+    <t>383984</t>
+  </si>
+  <si>
+    <t>1626153</t>
+  </si>
+  <si>
+    <t>1805393</t>
+  </si>
+  <si>
     <t>2317004</t>
   </si>
   <si>
-    <t>Ondieki Stars</t>
-  </si>
-  <si>
-    <t>4779115</t>
-  </si>
-  <si>
-    <t>Havilah FC</t>
-  </si>
-  <si>
-    <t>3672554</t>
-  </si>
-  <si>
-    <t>China1</t>
-  </si>
-  <si>
-    <t>6205577</t>
-  </si>
-  <si>
-    <t>AbuMazeedah</t>
-  </si>
-  <si>
-    <t>4014921</t>
-  </si>
-  <si>
-    <t>KinsaleGoons</t>
-  </si>
-  <si>
-    <t>4323491</t>
-  </si>
-  <si>
-    <t>Savage United</t>
-  </si>
-  <si>
-    <t>4363088</t>
-  </si>
-  <si>
-    <t>MK FC</t>
-  </si>
-  <si>
-    <t>4761319</t>
-  </si>
-  <si>
-    <t>Athletic Beerbarrel</t>
-  </si>
-  <si>
-    <t>2535693</t>
+    <t>2880295</t>
+  </si>
+  <si>
+    <t>5767407</t>
   </si>
 </sst>
 </file>
@@ -10293,16 +10257,37 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.18359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.03515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -10418,196 +10403,562 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1333</v>
       </c>
       <c r="B2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1335</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="T4" t="s">
+        <v>674</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>360</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>884</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>767</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1337</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="T6" t="s">
+        <v>674</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V6" t="s">
+        <v>792</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>707</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T7" t="s">
+        <v>674</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V7" t="s">
+        <v>792</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>751</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1339</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T8" t="s">
+        <v>674</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1341</v>
       </c>
-      <c r="B6" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>1349</v>
-      </c>
       <c r="B10" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>976</v>
+      </c>
+      <c r="Z10" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="AA10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AB10" t="s">
         <v>1357</v>
       </c>
-      <c r="B14" t="s">
+      <c r="AC10" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AG10" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1380</v>
+      <c r="AH10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="1496">
   <si>
     <t>Places</t>
   </si>
@@ -4135,6 +4135,387 @@
   </si>
   <si>
     <t>5767407</t>
+  </si>
+  <si>
+    <t>Sánchez MCI (H)</t>
+  </si>
+  <si>
+    <t>Marçal LEE (A)</t>
+  </si>
+  <si>
+    <t>Livramento BUR (H)</t>
+  </si>
+  <si>
+    <t>Cresswell TOT (H)</t>
+  </si>
+  <si>
+    <t>Benrahma TOT (H)</t>
+  </si>
+  <si>
+    <t>Fernandes LIV (H)</t>
+  </si>
+  <si>
+    <t>Salah MUN (A)$ captain</t>
+  </si>
+  <si>
+    <t>Greenwood LIV (H)</t>
+  </si>
+  <si>
+    <t>Townsend WAT (H)</t>
+  </si>
+  <si>
+    <t>Saint-Maximin CRY (A)</t>
+  </si>
+  <si>
+    <t>Foster EVE (A)</t>
+  </si>
+  <si>
+    <t>Pukki CHE (A)</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold MUN (A)</t>
+  </si>
+  <si>
+    <t>Maupay MCI (H)</t>
+  </si>
+  <si>
+    <t>Azpilicueta NOR (H)</t>
+  </si>
+  <si>
+    <t>Gray WAT (H)</t>
+  </si>
+  <si>
+    <t>Salah MUN (A)</t>
+  </si>
+  <si>
+    <t>Gallagher NEW (H)</t>
+  </si>
+  <si>
+    <t>Klich WOL (H)</t>
+  </si>
+  <si>
+    <t>Ronaldo LIV (H)</t>
+  </si>
+  <si>
+    <t>Vardy BRE (A)$ captain</t>
+  </si>
+  <si>
+    <t>Guaita NEW (H)</t>
+  </si>
+  <si>
+    <t>Sarr EVE (A)</t>
+  </si>
+  <si>
+    <t>Omobamidele CHE (A)</t>
+  </si>
+  <si>
+    <t>Schmeichel BRE (A)</t>
+  </si>
+  <si>
+    <t>James NOR (H)</t>
+  </si>
+  <si>
+    <t>Kovacic NOR (H)</t>
+  </si>
+  <si>
+    <t>Smith Rowe 4</t>
+  </si>
+  <si>
+    <t>Dier WHU (A)</t>
+  </si>
+  <si>
+    <t>Amartey BRE (A)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Mendy NOR (H)</t>
+  </si>
+  <si>
+    <t>Alonso NOR (H)</t>
+  </si>
+  <si>
+    <t>Cancelo BHA (A)</t>
+  </si>
+  <si>
+    <t>van Dijk MUN (A)</t>
+  </si>
+  <si>
+    <t>Elyounoussi BUR (H)</t>
+  </si>
+  <si>
+    <t>Saka 1</t>
+  </si>
+  <si>
+    <t>Raphinha WOL (H)</t>
+  </si>
+  <si>
+    <t>Hwang LEE (A)</t>
+  </si>
+  <si>
+    <t>Vardy BRE (A)</t>
+  </si>
+  <si>
+    <t>Duffy MCI (H)</t>
+  </si>
+  <si>
+    <t>McCarthy BUR (H)</t>
+  </si>
+  <si>
+    <t>Walker BHA (A)</t>
+  </si>
+  <si>
+    <t>Bergwijn WHU (A)</t>
+  </si>
+  <si>
+    <t>Ødegaard 0</t>
+  </si>
+  <si>
+    <t>Antonio TOT (H)</t>
+  </si>
+  <si>
+    <t>Ronaldo LIV (H)$ captain</t>
+  </si>
+  <si>
+    <t>Ramsdale 1</t>
+  </si>
+  <si>
+    <t>Reguilón WHU (A)</t>
+  </si>
+  <si>
+    <t>Moder MCI (H)</t>
+  </si>
+  <si>
+    <t>Dennis EVE (A)</t>
+  </si>
+  <si>
+    <t>Tsimikas MUN (A)</t>
+  </si>
+  <si>
+    <t>Bissouma MCI (H)</t>
+  </si>
+  <si>
+    <t>Rüdiger NOR (H)</t>
+  </si>
+  <si>
+    <t>Pinnock LEI (H)</t>
+  </si>
+  <si>
+    <t>Mbeumo LEI (H)</t>
+  </si>
+  <si>
+    <t>Havertz NOR (H)$ captain</t>
+  </si>
+  <si>
+    <t>Veltman MCI (H)</t>
+  </si>
+  <si>
+    <t>Ayling WOL (H)</t>
+  </si>
+  <si>
+    <t>Scarlett WHU (A)</t>
+  </si>
+  <si>
+    <t>Dias BHA (A)$ captain</t>
+  </si>
+  <si>
+    <t>Manquillo CRY (A)</t>
+  </si>
+  <si>
+    <t>Bernardo BHA (A)</t>
+  </si>
+  <si>
+    <t>Doucouré WAT (H)</t>
+  </si>
+  <si>
+    <t>Lukaku NOR (H)</t>
+  </si>
+  <si>
+    <t>Raya LEI (H)</t>
+  </si>
+  <si>
+    <t>Højbjerg WHU (A)</t>
+  </si>
+  <si>
+    <t>Lloris WHU (A)</t>
+  </si>
+  <si>
+    <t>Jansson LEI (H)</t>
+  </si>
+  <si>
+    <t>Chilwell NOR (H)</t>
+  </si>
+  <si>
+    <t>Ward BRE (A)</t>
+  </si>
+  <si>
+    <t>Gilmour CHE (A)</t>
+  </si>
+  <si>
+    <t>Dias BHA (A)</t>
+  </si>
+  <si>
+    <t>Ederson BHA (A)</t>
+  </si>
+  <si>
+    <t>Havertz NOR (H)</t>
+  </si>
+  <si>
+    <t>Grealish BHA (A)</t>
+  </si>
+  <si>
+    <t>Chalobah NOR (H)</t>
+  </si>
+  <si>
+    <t>Alisson MUN (A)</t>
+  </si>
+  <si>
+    <t>Bamford WOL (H)</t>
+  </si>
+  <si>
+    <t>Meslier WOL (H)</t>
+  </si>
+  <si>
+    <t>Digne WAT (H)</t>
+  </si>
+  <si>
+    <t>Coady LEE (A)</t>
+  </si>
+  <si>
+    <t>Söyüncü BRE (A)</t>
+  </si>
+  <si>
+    <t>Maddison BRE (A)</t>
+  </si>
+  <si>
+    <t>Jiménez LEE (A)</t>
+  </si>
+  <si>
+    <t>Aubameyang 6$ captain</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Douglas Luiz 1</t>
+  </si>
+  <si>
+    <t>Son WHU (A)</t>
+  </si>
+  <si>
+    <t>Shaw LIV (H)</t>
+  </si>
+  <si>
+    <t>Christensen NOR (H)</t>
+  </si>
+  <si>
+    <t>Steele MCI (H)</t>
+  </si>
+  <si>
+    <t>Allan WAT (H)</t>
+  </si>
+  <si>
+    <t>Williams CHE (A)</t>
+  </si>
+  <si>
+    <t>McArthur NEW (H)</t>
+  </si>
+  <si>
+    <t>Obafemi BUR (H)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Laporte BHA (A)</t>
+  </si>
+  <si>
+    <t>Brownhill SOU (A)</t>
+  </si>
+  <si>
+    <t>Martínez 6</t>
+  </si>
+  <si>
+    <t>Foden BHA (A)</t>
+  </si>
+  <si>
+    <t>Toney LEI (H)</t>
+  </si>
+  <si>
+    <t>Jota MUN (A)</t>
+  </si>
+  <si>
+    <t>Jesus BHA (A)</t>
+  </si>
+  <si>
+    <t>Richardson SOU (A)</t>
+  </si>
+  <si>
+    <t>4 (-8 pts)</t>
+  </si>
+  <si>
+    <t>Sá LEE (A)</t>
+  </si>
+  <si>
+    <t>Jesus BHA (A)$ captain</t>
+  </si>
+  <si>
+    <t>Matip MUN (A)</t>
+  </si>
+  <si>
+    <t>Krul CHE (A)</t>
+  </si>
+  <si>
+    <t>Tielemans BRE (A)</t>
+  </si>
+  <si>
+    <t>Son WHU (A)$ captain</t>
+  </si>
+  <si>
+    <t>Rodrigo WOL (H)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kane WHU (A)</t>
+  </si>
+  <si>
+    <t>Mahrez BHA (A)</t>
+  </si>
+  <si>
+    <t>White 2</t>
+  </si>
+  <si>
+    <t>Smith Rowe 10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Ødegaard 1</t>
+  </si>
+  <si>
+    <t>Ramsdale 3</t>
+  </si>
+  <si>
+    <t>Tomiyasu 2</t>
+  </si>
+  <si>
+    <t>Aubameyang 12$ captain</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Martínez 8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -7211,29 +7592,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="25" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.24609375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="21.53125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.671875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.6875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.45703125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -7357,7 +7741,7 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>672</v>
       </c>
       <c r="D2" t="s">
         <v>998</v>
@@ -7366,7 +7750,7 @@
         <v>997</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R2" t="s">
         <v>548</v>
@@ -7375,52 +7759,52 @@
         <v>269</v>
       </c>
       <c r="T2" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U2" t="s">
-        <v>1055</v>
+        <v>1370</v>
       </c>
       <c r="V2" t="s">
-        <v>1056</v>
+        <v>1485</v>
       </c>
       <c r="W2" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="X2" t="s">
-        <v>1058</v>
+        <v>1372</v>
       </c>
       <c r="Y2" t="s">
-        <v>1059</v>
+        <v>1373</v>
       </c>
       <c r="Z2" t="s">
-        <v>697</v>
+        <v>1374</v>
       </c>
       <c r="AA2" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="AB2" t="s">
-        <v>1060</v>
+        <v>1376</v>
       </c>
       <c r="AC2" t="s">
-        <v>1061</v>
+        <v>1377</v>
       </c>
       <c r="AD2" t="s">
-        <v>692</v>
+        <v>1378</v>
       </c>
       <c r="AE2" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF2" t="s">
-        <v>1063</v>
+        <v>1380</v>
       </c>
       <c r="AG2" t="s">
-        <v>701</v>
+        <v>1381</v>
       </c>
       <c r="AH2" t="s">
-        <v>1064</v>
+        <v>1382</v>
       </c>
       <c r="AI2" t="s">
-        <v>274</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7431,7 +7815,7 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>653</v>
       </c>
       <c r="D3" t="s">
         <v>1000</v>
@@ -7440,7 +7824,7 @@
         <v>999</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R3" t="s">
         <v>714</v>
@@ -7449,52 +7833,52 @@
         <v>713</v>
       </c>
       <c r="T3" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U3" t="s">
-        <v>1059</v>
+        <v>1371</v>
       </c>
       <c r="V3" t="s">
-        <v>1055</v>
+        <v>1370</v>
       </c>
       <c r="W3" t="s">
-        <v>1057</v>
+        <v>1383</v>
       </c>
       <c r="X3" t="s">
-        <v>1065</v>
+        <v>1381</v>
       </c>
       <c r="Y3" t="s">
-        <v>691</v>
+        <v>1384</v>
       </c>
       <c r="Z3" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AA3" t="s">
-        <v>553</v>
+        <v>1386</v>
       </c>
       <c r="AB3" t="s">
-        <v>679</v>
+        <v>1387</v>
       </c>
       <c r="AC3" t="s">
-        <v>902</v>
+        <v>1388</v>
       </c>
       <c r="AD3" t="s">
-        <v>1066</v>
+        <v>1389</v>
       </c>
       <c r="AE3" t="s">
-        <v>709</v>
+        <v>1390</v>
       </c>
       <c r="AF3" t="s">
-        <v>707</v>
+        <v>1391</v>
       </c>
       <c r="AG3" t="s">
-        <v>710</v>
+        <v>1392</v>
       </c>
       <c r="AH3" t="s">
         <v>1067</v>
       </c>
       <c r="AI3" t="s">
-        <v>268</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -7505,7 +7889,7 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>1487</v>
       </c>
       <c r="D4" t="s">
         <v>851</v>
@@ -7523,52 +7907,52 @@
         <v>722</v>
       </c>
       <c r="T4" t="s">
-        <v>1068</v>
+        <v>1393</v>
       </c>
       <c r="U4" t="s">
-        <v>1069</v>
+        <v>1394</v>
       </c>
       <c r="V4" t="s">
-        <v>1070</v>
+        <v>1485</v>
       </c>
       <c r="W4" t="s">
-        <v>1056</v>
+        <v>1381</v>
       </c>
       <c r="X4" t="s">
-        <v>1059</v>
+        <v>1384</v>
       </c>
       <c r="Y4" t="s">
-        <v>720</v>
+        <v>1395</v>
       </c>
       <c r="Z4" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="AA4" t="s">
-        <v>425</v>
+        <v>1486</v>
       </c>
       <c r="AB4" t="s">
-        <v>1063</v>
+        <v>1391</v>
       </c>
       <c r="AC4" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="AD4" t="s">
-        <v>728</v>
+        <v>1389</v>
       </c>
       <c r="AE4" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF4" t="s">
-        <v>679</v>
+        <v>1380</v>
       </c>
       <c r="AG4" t="s">
-        <v>1065</v>
+        <v>1397</v>
       </c>
       <c r="AH4" t="s">
-        <v>1071</v>
+        <v>1398</v>
       </c>
       <c r="AI4" t="s">
-        <v>282</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -7579,7 +7963,7 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>672</v>
       </c>
       <c r="D5" t="s">
         <v>1003</v>
@@ -7588,7 +7972,7 @@
         <v>1002</v>
       </c>
       <c r="G5" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R5" t="s">
         <v>583</v>
@@ -7597,52 +7981,52 @@
         <v>731</v>
       </c>
       <c r="T5" t="s">
-        <v>1072</v>
+        <v>1400</v>
       </c>
       <c r="U5" t="s">
-        <v>1073</v>
+        <v>1401</v>
       </c>
       <c r="V5" t="s">
-        <v>1056</v>
+        <v>1402</v>
       </c>
       <c r="W5" t="s">
-        <v>1074</v>
+        <v>1403</v>
       </c>
       <c r="X5" t="s">
-        <v>360</v>
+        <v>1404</v>
       </c>
       <c r="Y5" t="s">
-        <v>1075</v>
+        <v>456</v>
       </c>
       <c r="Z5" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="AA5" t="s">
-        <v>691</v>
+        <v>1406</v>
       </c>
       <c r="AB5" t="s">
-        <v>1076</v>
+        <v>1386</v>
       </c>
       <c r="AC5" t="s">
-        <v>728</v>
+        <v>1407</v>
       </c>
       <c r="AD5" t="s">
-        <v>1061</v>
+        <v>1408</v>
       </c>
       <c r="AE5" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF5" t="s">
-        <v>707</v>
+        <v>1485</v>
       </c>
       <c r="AG5" t="s">
-        <v>1077</v>
+        <v>1380</v>
       </c>
       <c r="AH5" t="s">
-        <v>1063</v>
+        <v>1409</v>
       </c>
       <c r="AI5" t="s">
-        <v>297</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -7653,7 +8037,7 @@
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="D6" t="s">
         <v>1005</v>
@@ -7671,52 +8055,52 @@
         <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>1078</v>
+        <v>1410</v>
       </c>
       <c r="U6" t="s">
-        <v>1079</v>
+        <v>1411</v>
       </c>
       <c r="V6" t="s">
-        <v>591</v>
+        <v>1371</v>
       </c>
       <c r="W6" t="s">
-        <v>1080</v>
+        <v>1402</v>
       </c>
       <c r="X6" t="s">
-        <v>1081</v>
+        <v>1412</v>
       </c>
       <c r="Y6" t="s">
-        <v>678</v>
+        <v>1488</v>
       </c>
       <c r="Z6" t="s">
-        <v>1082</v>
+        <v>1385</v>
       </c>
       <c r="AA6" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="AB6" t="s">
-        <v>1066</v>
+        <v>1414</v>
       </c>
       <c r="AC6" t="s">
-        <v>1084</v>
+        <v>1408</v>
       </c>
       <c r="AD6" t="s">
-        <v>740</v>
+        <v>1415</v>
       </c>
       <c r="AE6" t="s">
-        <v>1085</v>
+        <v>1489</v>
       </c>
       <c r="AF6" t="s">
-        <v>1086</v>
+        <v>1417</v>
       </c>
       <c r="AG6" t="s">
-        <v>1057</v>
+        <v>1490</v>
       </c>
       <c r="AH6" t="s">
-        <v>742</v>
+        <v>1418</v>
       </c>
       <c r="AI6" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -7727,7 +8111,7 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="D7" t="s">
         <v>1007</v>
@@ -7736,7 +8120,7 @@
         <v>1006</v>
       </c>
       <c r="G7" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="R7" t="s">
         <v>432</v>
@@ -7745,52 +8129,52 @@
         <v>435</v>
       </c>
       <c r="T7" t="s">
-        <v>1072</v>
+        <v>1400</v>
       </c>
       <c r="U7" t="s">
-        <v>1058</v>
+        <v>1372</v>
       </c>
       <c r="V7" t="s">
-        <v>1087</v>
+        <v>1411</v>
       </c>
       <c r="W7" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="X7" t="s">
-        <v>1074</v>
+        <v>1377</v>
       </c>
       <c r="Y7" t="s">
-        <v>1088</v>
+        <v>1406</v>
       </c>
       <c r="Z7" t="s">
-        <v>1060</v>
+        <v>1376</v>
       </c>
       <c r="AA7" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AB7" t="s">
-        <v>1089</v>
+        <v>1419</v>
       </c>
       <c r="AC7" t="s">
-        <v>1066</v>
+        <v>1389</v>
       </c>
       <c r="AD7" t="s">
-        <v>902</v>
+        <v>1388</v>
       </c>
       <c r="AE7" t="s">
-        <v>709</v>
+        <v>1390</v>
       </c>
       <c r="AF7" t="s">
-        <v>1086</v>
+        <v>1409</v>
       </c>
       <c r="AG7" t="s">
-        <v>1077</v>
+        <v>1420</v>
       </c>
       <c r="AH7" t="s">
-        <v>751</v>
+        <v>1421</v>
       </c>
       <c r="AI7" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -7801,7 +8185,7 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>940</v>
+        <v>653</v>
       </c>
       <c r="D8" t="s">
         <v>1009</v>
@@ -7810,7 +8194,7 @@
         <v>1008</v>
       </c>
       <c r="G8" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R8" t="s">
         <v>573</v>
@@ -7819,52 +8203,52 @@
         <v>758</v>
       </c>
       <c r="T8" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U8" t="s">
-        <v>1090</v>
+        <v>1422</v>
       </c>
       <c r="V8" t="s">
-        <v>755</v>
+        <v>1423</v>
       </c>
       <c r="W8" t="s">
-        <v>1059</v>
+        <v>1381</v>
       </c>
       <c r="X8" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="Y8" t="s">
-        <v>1091</v>
+        <v>1424</v>
       </c>
       <c r="Z8" t="s">
-        <v>1077</v>
+        <v>1406</v>
       </c>
       <c r="AA8" t="s">
-        <v>1076</v>
+        <v>1425</v>
       </c>
       <c r="AB8" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AC8" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AD8" t="s">
-        <v>1092</v>
+        <v>1388</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>1093</v>
+        <v>1426</v>
       </c>
       <c r="AG8" t="s">
-        <v>400</v>
+        <v>1427</v>
       </c>
       <c r="AH8" t="s">
-        <v>757</v>
+        <v>1428</v>
       </c>
       <c r="AI8" t="s">
-        <v>940</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -7875,7 +8259,7 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>706</v>
       </c>
       <c r="D9" t="s">
         <v>901</v>
@@ -7884,7 +8268,7 @@
         <v>1010</v>
       </c>
       <c r="G9" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R9" t="s">
         <v>566</v>
@@ -7893,52 +8277,52 @@
         <v>763</v>
       </c>
       <c r="T9" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U9" t="s">
-        <v>1059</v>
+        <v>1381</v>
       </c>
       <c r="V9" t="s">
-        <v>1094</v>
+        <v>1429</v>
       </c>
       <c r="W9" t="s">
-        <v>1055</v>
+        <v>1370</v>
       </c>
       <c r="X9" t="s">
-        <v>1095</v>
+        <v>1430</v>
       </c>
       <c r="Y9" t="s">
-        <v>1096</v>
+        <v>1431</v>
       </c>
       <c r="Z9" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AA9" t="s">
-        <v>1088</v>
+        <v>1432</v>
       </c>
       <c r="AB9" t="s">
-        <v>1082</v>
+        <v>1488</v>
       </c>
       <c r="AC9" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="AD9" t="s">
-        <v>728</v>
+        <v>1433</v>
       </c>
       <c r="AE9" t="s">
-        <v>1097</v>
+        <v>1434</v>
       </c>
       <c r="AF9" t="s">
-        <v>1098</v>
+        <v>1435</v>
       </c>
       <c r="AG9" t="s">
-        <v>1089</v>
+        <v>1419</v>
       </c>
       <c r="AH9" t="s">
-        <v>1071</v>
+        <v>1398</v>
       </c>
       <c r="AI9" t="s">
-        <v>288</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -7949,7 +8333,7 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>1101</v>
+        <v>653</v>
       </c>
       <c r="D10" t="s">
         <v>1012</v>
@@ -7967,52 +8351,52 @@
         <v>285</v>
       </c>
       <c r="T10" t="s">
-        <v>1099</v>
+        <v>1436</v>
       </c>
       <c r="U10" t="s">
-        <v>1055</v>
+        <v>1437</v>
       </c>
       <c r="V10" t="s">
-        <v>1100</v>
+        <v>1438</v>
       </c>
       <c r="W10" t="s">
-        <v>1074</v>
+        <v>1370</v>
       </c>
       <c r="X10" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="Y10" t="s">
-        <v>691</v>
+        <v>1386</v>
       </c>
       <c r="Z10" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="AA10" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="AB10" t="s">
-        <v>728</v>
+        <v>1433</v>
       </c>
       <c r="AC10" t="s">
-        <v>1084</v>
+        <v>1388</v>
       </c>
       <c r="AD10" t="s">
-        <v>1066</v>
+        <v>1414</v>
       </c>
       <c r="AE10" t="s">
-        <v>766</v>
+        <v>1439</v>
       </c>
       <c r="AF10" t="s">
-        <v>707</v>
+        <v>1398</v>
       </c>
       <c r="AG10" t="s">
-        <v>767</v>
+        <v>1409</v>
       </c>
       <c r="AH10" t="s">
-        <v>1071</v>
+        <v>1440</v>
       </c>
       <c r="AI10" t="s">
-        <v>1101</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -8023,7 +8407,7 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="D11" t="s">
         <v>1014</v>
@@ -8032,7 +8416,7 @@
         <v>1013</v>
       </c>
       <c r="G11" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R11" t="s">
         <v>773</v>
@@ -8041,52 +8425,52 @@
         <v>772</v>
       </c>
       <c r="T11" t="s">
-        <v>674</v>
+        <v>1434</v>
       </c>
       <c r="U11" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="V11" t="s">
-        <v>1079</v>
+        <v>1402</v>
       </c>
       <c r="W11" t="s">
-        <v>1074</v>
+        <v>1381</v>
       </c>
       <c r="X11" t="s">
-        <v>1059</v>
+        <v>1406</v>
       </c>
       <c r="Y11" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="Z11" t="s">
-        <v>720</v>
+        <v>1395</v>
       </c>
       <c r="AA11" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="AB11" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="AC11" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AD11" t="s">
-        <v>1066</v>
+        <v>1408</v>
       </c>
       <c r="AE11" t="s">
-        <v>1097</v>
+        <v>1369</v>
       </c>
       <c r="AF11" t="s">
-        <v>755</v>
+        <v>1423</v>
       </c>
       <c r="AG11" t="s">
-        <v>1077</v>
+        <v>1417</v>
       </c>
       <c r="AH11" t="s">
-        <v>1089</v>
+        <v>1419</v>
       </c>
       <c r="AI11" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -8097,7 +8481,7 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>1487</v>
       </c>
       <c r="D12" t="s">
         <v>878</v>
@@ -8106,7 +8490,7 @@
         <v>1015</v>
       </c>
       <c r="G12" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="R12" t="s">
         <v>418</v>
@@ -8115,52 +8499,52 @@
         <v>289</v>
       </c>
       <c r="T12" t="s">
-        <v>1078</v>
+        <v>1442</v>
       </c>
       <c r="U12" t="s">
-        <v>1057</v>
+        <v>1485</v>
       </c>
       <c r="V12" t="s">
-        <v>1056</v>
+        <v>1441</v>
       </c>
       <c r="W12" t="s">
-        <v>1102</v>
+        <v>1422</v>
       </c>
       <c r="X12" t="s">
-        <v>1095</v>
+        <v>1371</v>
       </c>
       <c r="Y12" t="s">
-        <v>425</v>
+        <v>1443</v>
       </c>
       <c r="Z12" t="s">
-        <v>679</v>
+        <v>1375</v>
       </c>
       <c r="AA12" t="s">
-        <v>903</v>
+        <v>1386</v>
       </c>
       <c r="AB12" t="s">
-        <v>728</v>
+        <v>1486</v>
       </c>
       <c r="AC12" t="s">
-        <v>1084</v>
+        <v>1408</v>
       </c>
       <c r="AD12" t="s">
-        <v>692</v>
+        <v>1414</v>
       </c>
       <c r="AE12" t="s">
-        <v>1103</v>
+        <v>1489</v>
       </c>
       <c r="AF12" t="s">
-        <v>1104</v>
+        <v>1444</v>
       </c>
       <c r="AG12" t="s">
-        <v>1065</v>
+        <v>1378</v>
       </c>
       <c r="AH12" t="s">
-        <v>1093</v>
+        <v>1430</v>
       </c>
       <c r="AI12" t="s">
-        <v>671</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -8171,7 +8555,7 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="D13" t="s">
         <v>1017</v>
@@ -8180,7 +8564,7 @@
         <v>1016</v>
       </c>
       <c r="G13" t="s">
-        <v>452</v>
+        <v>706</v>
       </c>
       <c r="R13" t="s">
         <v>512</v>
@@ -8189,52 +8573,52 @@
         <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U13" t="s">
-        <v>1059</v>
+        <v>1445</v>
       </c>
       <c r="V13" t="s">
-        <v>1105</v>
+        <v>1381</v>
       </c>
       <c r="W13" t="s">
-        <v>1074</v>
+        <v>1409</v>
       </c>
       <c r="X13" t="s">
-        <v>1100</v>
+        <v>1401</v>
       </c>
       <c r="Y13" t="s">
-        <v>903</v>
+        <v>1384</v>
       </c>
       <c r="Z13" t="s">
-        <v>679</v>
+        <v>1373</v>
       </c>
       <c r="AA13" t="s">
-        <v>1083</v>
+        <v>1385</v>
       </c>
       <c r="AB13" t="s">
-        <v>720</v>
+        <v>1395</v>
       </c>
       <c r="AC13" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AD13" t="s">
-        <v>1066</v>
+        <v>1389</v>
       </c>
       <c r="AE13" t="s">
-        <v>475</v>
+        <v>1446</v>
       </c>
       <c r="AF13" t="s">
-        <v>707</v>
+        <v>1437</v>
       </c>
       <c r="AG13" t="s">
-        <v>751</v>
+        <v>1421</v>
       </c>
       <c r="AH13" t="s">
-        <v>784</v>
+        <v>1447</v>
       </c>
       <c r="AI13" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -8245,7 +8629,7 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>1487</v>
       </c>
       <c r="D14" t="s">
         <v>1019</v>
@@ -8254,7 +8638,7 @@
         <v>1018</v>
       </c>
       <c r="G14" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R14" t="s">
         <v>459</v>
@@ -8263,52 +8647,52 @@
         <v>796</v>
       </c>
       <c r="T14" t="s">
-        <v>1106</v>
+        <v>1448</v>
       </c>
       <c r="U14" t="s">
-        <v>1107</v>
+        <v>1449</v>
       </c>
       <c r="V14" t="s">
-        <v>792</v>
+        <v>565</v>
       </c>
       <c r="W14" t="s">
-        <v>1108</v>
+        <v>1450</v>
       </c>
       <c r="X14" t="s">
-        <v>1109</v>
+        <v>1383</v>
       </c>
       <c r="Y14" t="s">
-        <v>1076</v>
+        <v>1451</v>
       </c>
       <c r="Z14" t="s">
-        <v>1110</v>
+        <v>1452</v>
       </c>
       <c r="AA14" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AB14" t="s">
-        <v>1111</v>
+        <v>1453</v>
       </c>
       <c r="AC14" t="s">
-        <v>728</v>
+        <v>1408</v>
       </c>
       <c r="AD14" t="s">
-        <v>1112</v>
+        <v>1491</v>
       </c>
       <c r="AE14" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF14" t="s">
-        <v>707</v>
+        <v>456</v>
       </c>
       <c r="AG14" t="s">
-        <v>751</v>
+        <v>1421</v>
       </c>
       <c r="AH14" t="s">
-        <v>767</v>
+        <v>1440</v>
       </c>
       <c r="AI14" t="s">
-        <v>290</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -8319,7 +8703,7 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>1482</v>
       </c>
       <c r="D15" t="s">
         <v>1021</v>
@@ -8328,7 +8712,7 @@
         <v>1020</v>
       </c>
       <c r="G15" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R15" t="s">
         <v>801</v>
@@ -8337,52 +8721,52 @@
         <v>800</v>
       </c>
       <c r="T15" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U15" t="s">
-        <v>1059</v>
+        <v>1411</v>
       </c>
       <c r="V15" t="s">
-        <v>360</v>
+        <v>1381</v>
       </c>
       <c r="W15" t="s">
-        <v>1074</v>
+        <v>1402</v>
       </c>
       <c r="X15" t="s">
-        <v>903</v>
+        <v>1456</v>
       </c>
       <c r="Y15" t="s">
-        <v>1088</v>
+        <v>1385</v>
       </c>
       <c r="Z15" t="s">
-        <v>1113</v>
+        <v>1424</v>
       </c>
       <c r="AA15" t="s">
-        <v>1114</v>
+        <v>1457</v>
       </c>
       <c r="AB15" t="s">
-        <v>1084</v>
+        <v>1407</v>
       </c>
       <c r="AC15" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AD15" t="s">
-        <v>1115</v>
+        <v>1389</v>
       </c>
       <c r="AE15" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF15" t="s">
-        <v>1086</v>
+        <v>1409</v>
       </c>
       <c r="AG15" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="AH15" t="s">
-        <v>1116</v>
+        <v>1432</v>
       </c>
       <c r="AI15" t="s">
-        <v>280</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -8393,7 +8777,7 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>653</v>
       </c>
       <c r="D16" t="s">
         <v>865</v>
@@ -8402,7 +8786,7 @@
         <v>1022</v>
       </c>
       <c r="G16" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R16" t="s">
         <v>406</v>
@@ -8411,52 +8795,52 @@
         <v>296</v>
       </c>
       <c r="T16" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U16" t="s">
-        <v>1117</v>
+        <v>1458</v>
       </c>
       <c r="V16" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="W16" t="s">
-        <v>1118</v>
+        <v>1459</v>
       </c>
       <c r="X16" t="s">
-        <v>1065</v>
+        <v>1391</v>
       </c>
       <c r="Y16" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="Z16" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="AA16" t="s">
-        <v>1114</v>
+        <v>1457</v>
       </c>
       <c r="AB16" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="AC16" t="s">
-        <v>1112</v>
+        <v>1453</v>
       </c>
       <c r="AD16" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AE16" t="s">
-        <v>804</v>
+        <v>1460</v>
       </c>
       <c r="AF16" t="s">
-        <v>1071</v>
+        <v>1398</v>
       </c>
       <c r="AG16" t="s">
-        <v>805</v>
+        <v>1461</v>
       </c>
       <c r="AH16" t="s">
-        <v>806</v>
+        <v>1462</v>
       </c>
       <c r="AI16" t="s">
-        <v>290</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -8467,7 +8851,7 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>1119</v>
+        <v>653</v>
       </c>
       <c r="D17" t="s">
         <v>1024</v>
@@ -8476,7 +8860,7 @@
         <v>1023</v>
       </c>
       <c r="G17" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R17" t="s">
         <v>348</v>
@@ -8485,52 +8869,52 @@
         <v>298</v>
       </c>
       <c r="T17" t="s">
-        <v>674</v>
+        <v>1379</v>
       </c>
       <c r="U17" t="s">
-        <v>707</v>
+        <v>1401</v>
       </c>
       <c r="V17" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="W17" t="s">
-        <v>1074</v>
+        <v>1438</v>
       </c>
       <c r="X17" t="s">
-        <v>809</v>
+        <v>1463</v>
       </c>
       <c r="Y17" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="Z17" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="AA17" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="AB17" t="s">
-        <v>728</v>
+        <v>1389</v>
       </c>
       <c r="AC17" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="AD17" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AE17" t="s">
-        <v>1062</v>
+        <v>1369</v>
       </c>
       <c r="AF17" t="s">
-        <v>1093</v>
+        <v>1409</v>
       </c>
       <c r="AG17" t="s">
-        <v>805</v>
+        <v>1461</v>
       </c>
       <c r="AH17" t="s">
-        <v>400</v>
+        <v>1427</v>
       </c>
       <c r="AI17" t="s">
-        <v>1119</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -8541,7 +8925,7 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>1492</v>
       </c>
       <c r="D18" t="s">
         <v>1026</v>
@@ -8550,7 +8934,7 @@
         <v>1025</v>
       </c>
       <c r="G18" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R18" t="s">
         <v>527</v>
@@ -8559,52 +8943,52 @@
         <v>813</v>
       </c>
       <c r="T18" t="s">
-        <v>1068</v>
+        <v>1393</v>
       </c>
       <c r="U18" t="s">
-        <v>1059</v>
+        <v>1485</v>
       </c>
       <c r="V18" t="s">
-        <v>1074</v>
+        <v>1402</v>
       </c>
       <c r="W18" t="s">
-        <v>1056</v>
+        <v>1381</v>
       </c>
       <c r="X18" t="s">
-        <v>360</v>
+        <v>1386</v>
       </c>
       <c r="Y18" t="s">
-        <v>691</v>
+        <v>1406</v>
       </c>
       <c r="Z18" t="s">
-        <v>1083</v>
+        <v>1385</v>
       </c>
       <c r="AA18" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="AB18" t="s">
-        <v>678</v>
+        <v>1373</v>
       </c>
       <c r="AC18" t="s">
-        <v>728</v>
+        <v>1408</v>
       </c>
       <c r="AD18" t="s">
-        <v>1111</v>
+        <v>1491</v>
       </c>
       <c r="AE18" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF18" t="s">
-        <v>707</v>
+        <v>1423</v>
       </c>
       <c r="AG18" t="s">
-        <v>1077</v>
+        <v>1409</v>
       </c>
       <c r="AH18" t="s">
-        <v>812</v>
+        <v>1464</v>
       </c>
       <c r="AI18" t="s">
-        <v>294</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -8615,7 +8999,7 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>861</v>
       </c>
       <c r="D19" t="s">
         <v>1028</v>
@@ -8633,52 +9017,52 @@
         <v>818</v>
       </c>
       <c r="T19" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U19" t="s">
-        <v>360</v>
+        <v>1383</v>
       </c>
       <c r="V19" t="s">
-        <v>1120</v>
+        <v>1466</v>
       </c>
       <c r="W19" t="s">
-        <v>1121</v>
+        <v>1402</v>
       </c>
       <c r="X19" t="s">
-        <v>1080</v>
+        <v>1371</v>
       </c>
       <c r="Y19" t="s">
-        <v>1065</v>
+        <v>1375</v>
       </c>
       <c r="Z19" t="s">
-        <v>1076</v>
+        <v>1406</v>
       </c>
       <c r="AA19" t="s">
-        <v>903</v>
+        <v>1391</v>
       </c>
       <c r="AB19" t="s">
-        <v>1084</v>
+        <v>1453</v>
       </c>
       <c r="AC19" t="s">
-        <v>1112</v>
+        <v>1408</v>
       </c>
       <c r="AD19" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AE19" t="s">
-        <v>1097</v>
+        <v>1434</v>
       </c>
       <c r="AF19" t="s">
-        <v>1077</v>
+        <v>1467</v>
       </c>
       <c r="AG19" t="s">
-        <v>1057</v>
+        <v>1490</v>
       </c>
       <c r="AH19" t="s">
-        <v>817</v>
+        <v>456</v>
       </c>
       <c r="AI19" t="s">
-        <v>270</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -8689,7 +9073,7 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>1494</v>
       </c>
       <c r="D20" t="s">
         <v>1030</v>
@@ -8707,52 +9091,52 @@
         <v>822</v>
       </c>
       <c r="T20" t="s">
-        <v>674</v>
+        <v>1493</v>
       </c>
       <c r="U20" t="s">
-        <v>1095</v>
+        <v>1371</v>
       </c>
       <c r="V20" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="W20" t="s">
-        <v>1058</v>
+        <v>1372</v>
       </c>
       <c r="X20" t="s">
-        <v>1087</v>
+        <v>1430</v>
       </c>
       <c r="Y20" t="s">
-        <v>1114</v>
+        <v>1406</v>
       </c>
       <c r="Z20" t="s">
-        <v>1083</v>
+        <v>1457</v>
       </c>
       <c r="AA20" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="AB20" t="s">
-        <v>692</v>
+        <v>1414</v>
       </c>
       <c r="AC20" t="s">
-        <v>1084</v>
+        <v>1453</v>
       </c>
       <c r="AD20" t="s">
-        <v>1112</v>
+        <v>1389</v>
       </c>
       <c r="AE20" t="s">
-        <v>1122</v>
+        <v>1369</v>
       </c>
       <c r="AF20" t="s">
-        <v>707</v>
+        <v>1373</v>
       </c>
       <c r="AG20" t="s">
-        <v>1077</v>
+        <v>1421</v>
       </c>
       <c r="AH20" t="s">
-        <v>751</v>
+        <v>1420</v>
       </c>
       <c r="AI20" t="s">
-        <v>276</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -8763,7 +9147,7 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>890</v>
+        <v>1399</v>
       </c>
       <c r="D21" t="s">
         <v>1032</v>
@@ -8772,7 +9156,7 @@
         <v>1031</v>
       </c>
       <c r="G21" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R21" t="s">
         <v>401</v>
@@ -8781,52 +9165,52 @@
         <v>304</v>
       </c>
       <c r="T21" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U21" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="V21" t="s">
-        <v>1059</v>
+        <v>1381</v>
       </c>
       <c r="W21" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="X21" t="s">
-        <v>1074</v>
+        <v>1375</v>
       </c>
       <c r="Y21" t="s">
-        <v>903</v>
+        <v>1469</v>
       </c>
       <c r="Z21" t="s">
-        <v>1123</v>
+        <v>456</v>
       </c>
       <c r="AA21" t="s">
-        <v>1076</v>
+        <v>1406</v>
       </c>
       <c r="AB21" t="s">
-        <v>728</v>
+        <v>1408</v>
       </c>
       <c r="AC21" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AD21" t="s">
-        <v>799</v>
+        <v>1470</v>
       </c>
       <c r="AE21" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF21" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="AG21" t="s">
-        <v>1077</v>
+        <v>1467</v>
       </c>
       <c r="AH21" t="s">
-        <v>817</v>
+        <v>1409</v>
       </c>
       <c r="AI21" t="s">
-        <v>890</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -8837,7 +9221,7 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
         <v>1034</v>
@@ -8846,7 +9230,7 @@
         <v>1033</v>
       </c>
       <c r="G22" t="s">
-        <v>706</v>
+        <v>1474</v>
       </c>
       <c r="R22" t="s">
         <v>599</v>
@@ -8855,52 +9239,52 @@
         <v>830</v>
       </c>
       <c r="T22" t="s">
-        <v>674</v>
+        <v>1379</v>
       </c>
       <c r="U22" t="s">
-        <v>1059</v>
+        <v>1438</v>
       </c>
       <c r="V22" t="s">
-        <v>1080</v>
+        <v>1381</v>
       </c>
       <c r="W22" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="X22" t="s">
-        <v>1074</v>
+        <v>1406</v>
       </c>
       <c r="Y22" t="s">
-        <v>1065</v>
+        <v>1425</v>
       </c>
       <c r="Z22" t="s">
-        <v>903</v>
+        <v>1471</v>
       </c>
       <c r="AA22" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="AB22" t="s">
-        <v>691</v>
+        <v>1385</v>
       </c>
       <c r="AC22" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AD22" t="s">
-        <v>1066</v>
+        <v>1472</v>
       </c>
       <c r="AE22" t="s">
-        <v>1062</v>
+        <v>1369</v>
       </c>
       <c r="AF22" t="s">
-        <v>707</v>
+        <v>1490</v>
       </c>
       <c r="AG22" t="s">
-        <v>1091</v>
+        <v>1409</v>
       </c>
       <c r="AH22" t="s">
-        <v>828</v>
+        <v>1473</v>
       </c>
       <c r="AI22" t="s">
-        <v>294</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -8911,7 +9295,7 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>653</v>
       </c>
       <c r="D23" t="s">
         <v>1036</v>
@@ -8920,7 +9304,7 @@
         <v>1035</v>
       </c>
       <c r="G23" t="s">
-        <v>452</v>
+        <v>706</v>
       </c>
       <c r="R23" t="s">
         <v>835</v>
@@ -8929,52 +9313,52 @@
         <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>833</v>
+        <v>1475</v>
       </c>
       <c r="U23" t="s">
-        <v>1055</v>
+        <v>1438</v>
       </c>
       <c r="V23" t="s">
-        <v>1102</v>
+        <v>1370</v>
       </c>
       <c r="W23" t="s">
-        <v>1074</v>
+        <v>1441</v>
       </c>
       <c r="X23" t="s">
-        <v>1124</v>
+        <v>1373</v>
       </c>
       <c r="Y23" t="s">
-        <v>1114</v>
+        <v>1391</v>
       </c>
       <c r="Z23" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="AA23" t="s">
-        <v>1083</v>
+        <v>1457</v>
       </c>
       <c r="AB23" t="s">
-        <v>1065</v>
+        <v>1414</v>
       </c>
       <c r="AC23" t="s">
-        <v>740</v>
+        <v>1476</v>
       </c>
       <c r="AD23" t="s">
-        <v>1084</v>
+        <v>1408</v>
       </c>
       <c r="AE23" t="s">
         <v>399</v>
       </c>
       <c r="AF23" t="s">
-        <v>707</v>
+        <v>1477</v>
       </c>
       <c r="AG23" t="s">
-        <v>1125</v>
+        <v>1409</v>
       </c>
       <c r="AH23" t="s">
-        <v>809</v>
+        <v>1463</v>
       </c>
       <c r="AI23" t="s">
-        <v>280</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -8985,7 +9369,7 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>1495</v>
       </c>
       <c r="D24" t="s">
         <v>1038</v>
@@ -9003,52 +9387,52 @@
         <v>309</v>
       </c>
       <c r="T24" t="s">
-        <v>838</v>
+        <v>1478</v>
       </c>
       <c r="U24" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="V24" t="s">
-        <v>1058</v>
+        <v>1372</v>
       </c>
       <c r="W24" t="s">
-        <v>1107</v>
+        <v>565</v>
       </c>
       <c r="X24" t="s">
-        <v>1126</v>
+        <v>1479</v>
       </c>
       <c r="Y24" t="s">
-        <v>1127</v>
+        <v>1480</v>
       </c>
       <c r="Z24" t="s">
-        <v>425</v>
+        <v>1486</v>
       </c>
       <c r="AA24" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AB24" t="s">
-        <v>1123</v>
+        <v>1469</v>
       </c>
       <c r="AC24" t="s">
-        <v>902</v>
+        <v>1481</v>
       </c>
       <c r="AD24" t="s">
-        <v>1066</v>
+        <v>1388</v>
       </c>
       <c r="AE24" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF24" t="s">
-        <v>1055</v>
+        <v>1370</v>
       </c>
       <c r="AG24" t="s">
-        <v>710</v>
+        <v>1392</v>
       </c>
       <c r="AH24" t="s">
-        <v>757</v>
+        <v>1428</v>
       </c>
       <c r="AI24" t="s">
-        <v>276</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -9059,7 +9443,7 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>1129</v>
+        <v>1487</v>
       </c>
       <c r="D25" t="s">
         <v>798</v>
@@ -9068,7 +9452,7 @@
         <v>1039</v>
       </c>
       <c r="G25" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="R25" t="s">
         <v>845</v>
@@ -9077,52 +9461,52 @@
         <v>487</v>
       </c>
       <c r="T25" t="s">
-        <v>1072</v>
+        <v>1400</v>
       </c>
       <c r="U25" t="s">
-        <v>1117</v>
+        <v>1422</v>
       </c>
       <c r="V25" t="s">
-        <v>1102</v>
+        <v>1401</v>
       </c>
       <c r="W25" t="s">
-        <v>1087</v>
+        <v>1441</v>
       </c>
       <c r="X25" t="s">
-        <v>1091</v>
+        <v>1373</v>
       </c>
       <c r="Y25" t="s">
-        <v>1083</v>
+        <v>1376</v>
       </c>
       <c r="Z25" t="s">
-        <v>1104</v>
+        <v>1377</v>
       </c>
       <c r="AA25" t="s">
-        <v>1060</v>
+        <v>1457</v>
       </c>
       <c r="AB25" t="s">
-        <v>1084</v>
+        <v>1453</v>
       </c>
       <c r="AC25" t="s">
-        <v>1066</v>
+        <v>1414</v>
       </c>
       <c r="AD25" t="s">
-        <v>1128</v>
+        <v>1491</v>
       </c>
       <c r="AE25" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF25" t="s">
-        <v>1093</v>
+        <v>1458</v>
       </c>
       <c r="AG25" t="s">
-        <v>707</v>
+        <v>1420</v>
       </c>
       <c r="AH25" t="s">
-        <v>751</v>
+        <v>1421</v>
       </c>
       <c r="AI25" t="s">
-        <v>1129</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -9133,7 +9517,7 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="D26" t="s">
         <v>1041</v>
@@ -9142,7 +9526,7 @@
         <v>1040</v>
       </c>
       <c r="G26" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R26" t="s">
         <v>595</v>
@@ -9151,52 +9535,52 @@
         <v>849</v>
       </c>
       <c r="T26" t="s">
-        <v>674</v>
+        <v>1434</v>
       </c>
       <c r="U26" t="s">
-        <v>1130</v>
+        <v>1381</v>
       </c>
       <c r="V26" t="s">
-        <v>1102</v>
+        <v>1402</v>
       </c>
       <c r="W26" t="s">
-        <v>1059</v>
+        <v>1438</v>
       </c>
       <c r="X26" t="s">
-        <v>1057</v>
+        <v>1406</v>
       </c>
       <c r="Y26" t="s">
-        <v>903</v>
+        <v>1375</v>
       </c>
       <c r="Z26" t="s">
-        <v>817</v>
+        <v>1424</v>
       </c>
       <c r="AA26" t="s">
-        <v>1083</v>
+        <v>1457</v>
       </c>
       <c r="AB26" t="s">
-        <v>1066</v>
+        <v>1470</v>
       </c>
       <c r="AC26" t="s">
-        <v>1084</v>
+        <v>1483</v>
       </c>
       <c r="AD26" t="s">
-        <v>1063</v>
+        <v>1407</v>
       </c>
       <c r="AE26" t="s">
-        <v>804</v>
+        <v>1379</v>
       </c>
       <c r="AF26" t="s">
-        <v>1091</v>
+        <v>1371</v>
       </c>
       <c r="AG26" t="s">
-        <v>1077</v>
+        <v>1485</v>
       </c>
       <c r="AH26" t="s">
-        <v>1071</v>
+        <v>1467</v>
       </c>
       <c r="AI26" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -9207,7 +9591,7 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>861</v>
       </c>
       <c r="D27" t="s">
         <v>1043</v>
@@ -9216,7 +9600,7 @@
         <v>1042</v>
       </c>
       <c r="G27" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R27" t="s">
         <v>854</v>
@@ -9225,52 +9609,52 @@
         <v>853</v>
       </c>
       <c r="T27" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U27" t="s">
-        <v>1120</v>
+        <v>1381</v>
       </c>
       <c r="V27" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="W27" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="X27" t="s">
-        <v>1057</v>
+        <v>1422</v>
       </c>
       <c r="Y27" t="s">
-        <v>903</v>
+        <v>1424</v>
       </c>
       <c r="Z27" t="s">
-        <v>1116</v>
+        <v>1375</v>
       </c>
       <c r="AA27" t="s">
-        <v>1076</v>
+        <v>1406</v>
       </c>
       <c r="AB27" t="s">
-        <v>1112</v>
+        <v>1453</v>
       </c>
       <c r="AC27" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AD27" t="s">
-        <v>1084</v>
+        <v>1408</v>
       </c>
       <c r="AE27" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF27" t="s">
-        <v>1077</v>
+        <v>456</v>
       </c>
       <c r="AG27" t="s">
-        <v>1113</v>
+        <v>1371</v>
       </c>
       <c r="AH27" t="s">
-        <v>1093</v>
+        <v>1456</v>
       </c>
       <c r="AI27" t="s">
-        <v>278</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -9281,7 +9665,7 @@
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>653</v>
       </c>
       <c r="D28" t="s">
         <v>1028</v>
@@ -9290,7 +9674,7 @@
         <v>1044</v>
       </c>
       <c r="G28" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R28" t="s">
         <v>858</v>
@@ -9299,52 +9683,52 @@
         <v>857</v>
       </c>
       <c r="T28" t="s">
-        <v>674</v>
+        <v>1369</v>
       </c>
       <c r="U28" t="s">
-        <v>1055</v>
+        <v>1402</v>
       </c>
       <c r="V28" t="s">
-        <v>360</v>
+        <v>1438</v>
       </c>
       <c r="W28" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="X28" t="s">
-        <v>903</v>
+        <v>1422</v>
       </c>
       <c r="Y28" t="s">
-        <v>1065</v>
+        <v>1375</v>
       </c>
       <c r="Z28" t="s">
-        <v>1060</v>
+        <v>1376</v>
       </c>
       <c r="AA28" t="s">
-        <v>1083</v>
+        <v>1373</v>
       </c>
       <c r="AB28" t="s">
-        <v>1089</v>
+        <v>1391</v>
       </c>
       <c r="AC28" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AD28" t="s">
-        <v>1084</v>
+        <v>1408</v>
       </c>
       <c r="AE28" t="s">
         <v>399</v>
       </c>
       <c r="AF28" t="s">
-        <v>707</v>
+        <v>1370</v>
       </c>
       <c r="AG28" t="s">
-        <v>1091</v>
+        <v>1419</v>
       </c>
       <c r="AH28" t="s">
-        <v>1093</v>
+        <v>1471</v>
       </c>
       <c r="AI28" t="s">
-        <v>297</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -9355,7 +9739,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>1131</v>
+        <v>653</v>
       </c>
       <c r="D29" t="s">
         <v>1046</v>
@@ -9364,7 +9748,7 @@
         <v>1045</v>
       </c>
       <c r="G29" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="R29" t="s">
         <v>863</v>
@@ -9373,52 +9757,52 @@
         <v>862</v>
       </c>
       <c r="T29" t="s">
-        <v>674</v>
+        <v>1379</v>
       </c>
       <c r="U29" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="V29" t="s">
-        <v>1056</v>
+        <v>1381</v>
       </c>
       <c r="W29" t="s">
-        <v>1059</v>
+        <v>1441</v>
       </c>
       <c r="X29" t="s">
-        <v>1102</v>
+        <v>1386</v>
       </c>
       <c r="Y29" t="s">
-        <v>679</v>
+        <v>1384</v>
       </c>
       <c r="Z29" t="s">
-        <v>678</v>
+        <v>1385</v>
       </c>
       <c r="AA29" t="s">
-        <v>1123</v>
+        <v>1425</v>
       </c>
       <c r="AB29" t="s">
-        <v>1092</v>
+        <v>1470</v>
       </c>
       <c r="AC29" t="s">
-        <v>799</v>
+        <v>1388</v>
       </c>
       <c r="AD29" t="s">
-        <v>1084</v>
+        <v>1414</v>
       </c>
       <c r="AE29" t="s">
-        <v>1062</v>
+        <v>1369</v>
       </c>
       <c r="AF29" t="s">
-        <v>1065</v>
+        <v>1391</v>
       </c>
       <c r="AG29" t="s">
-        <v>691</v>
+        <v>1485</v>
       </c>
       <c r="AH29" t="s">
-        <v>1087</v>
+        <v>1420</v>
       </c>
       <c r="AI29" t="s">
-        <v>1131</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -9429,7 +9813,7 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>861</v>
       </c>
       <c r="D30" t="s">
         <v>1048</v>
@@ -9438,7 +9822,7 @@
         <v>1047</v>
       </c>
       <c r="G30" t="s">
-        <v>706</v>
+        <v>930</v>
       </c>
       <c r="R30" t="s">
         <v>866</v>
@@ -9447,52 +9831,52 @@
         <v>315</v>
       </c>
       <c r="T30" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U30" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="V30" t="s">
-        <v>1118</v>
+        <v>1459</v>
       </c>
       <c r="W30" t="s">
-        <v>1069</v>
+        <v>1394</v>
       </c>
       <c r="X30" t="s">
-        <v>1057</v>
+        <v>1406</v>
       </c>
       <c r="Y30" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="Z30" t="s">
-        <v>1065</v>
+        <v>1425</v>
       </c>
       <c r="AA30" t="s">
-        <v>425</v>
+        <v>1424</v>
       </c>
       <c r="AB30" t="s">
-        <v>728</v>
+        <v>1470</v>
       </c>
       <c r="AC30" t="s">
-        <v>1084</v>
+        <v>1388</v>
       </c>
       <c r="AD30" t="s">
-        <v>1066</v>
+        <v>1414</v>
       </c>
       <c r="AE30" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF30" t="s">
-        <v>1077</v>
+        <v>1371</v>
       </c>
       <c r="AG30" t="s">
-        <v>806</v>
+        <v>1467</v>
       </c>
       <c r="AH30" t="s">
-        <v>817</v>
+        <v>1462</v>
       </c>
       <c r="AI30" t="s">
-        <v>290</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -9503,7 +9887,7 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>861</v>
       </c>
       <c r="D31" t="s">
         <v>1050</v>
@@ -9512,7 +9896,7 @@
         <v>1049</v>
       </c>
       <c r="G31" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R31" t="s">
         <v>870</v>
@@ -9521,52 +9905,52 @@
         <v>869</v>
       </c>
       <c r="T31" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U31" t="s">
-        <v>1102</v>
+        <v>1441</v>
       </c>
       <c r="V31" t="s">
-        <v>1059</v>
+        <v>1402</v>
       </c>
       <c r="W31" t="s">
-        <v>360</v>
+        <v>1383</v>
       </c>
       <c r="X31" t="s">
-        <v>1120</v>
+        <v>1381</v>
       </c>
       <c r="Y31" t="s">
-        <v>903</v>
+        <v>1406</v>
       </c>
       <c r="Z31" t="s">
-        <v>1116</v>
+        <v>1375</v>
       </c>
       <c r="AA31" t="s">
-        <v>1132</v>
+        <v>1377</v>
       </c>
       <c r="AB31" t="s">
-        <v>1084</v>
+        <v>1424</v>
       </c>
       <c r="AC31" t="s">
-        <v>728</v>
+        <v>1408</v>
       </c>
       <c r="AD31" t="s">
-        <v>1112</v>
+        <v>1414</v>
       </c>
       <c r="AE31" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF31" t="s">
-        <v>1077</v>
+        <v>1453</v>
       </c>
       <c r="AG31" t="s">
-        <v>1057</v>
+        <v>1371</v>
       </c>
       <c r="AH31" t="s">
-        <v>817</v>
+        <v>1467</v>
       </c>
       <c r="AI31" t="s">
-        <v>286</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -9577,7 +9961,7 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="D32" t="s">
         <v>1052</v>
@@ -9586,7 +9970,7 @@
         <v>1051</v>
       </c>
       <c r="G32" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R32" t="s">
         <v>520</v>
@@ -9595,52 +9979,52 @@
         <v>875</v>
       </c>
       <c r="T32" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U32" t="s">
-        <v>1102</v>
+        <v>1381</v>
       </c>
       <c r="V32" t="s">
-        <v>1059</v>
+        <v>1441</v>
       </c>
       <c r="W32" t="s">
-        <v>1118</v>
+        <v>1459</v>
       </c>
       <c r="X32" t="s">
-        <v>360</v>
+        <v>1402</v>
       </c>
       <c r="Y32" t="s">
-        <v>1095</v>
+        <v>1406</v>
       </c>
       <c r="Z32" t="s">
-        <v>1132</v>
+        <v>1377</v>
       </c>
       <c r="AA32" t="s">
-        <v>903</v>
+        <v>1385</v>
       </c>
       <c r="AB32" t="s">
-        <v>1112</v>
+        <v>1389</v>
       </c>
       <c r="AC32" t="s">
-        <v>1084</v>
+        <v>1453</v>
       </c>
       <c r="AD32" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AE32" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF32" t="s">
-        <v>1077</v>
+        <v>1430</v>
       </c>
       <c r="AG32" t="s">
-        <v>691</v>
+        <v>1386</v>
       </c>
       <c r="AH32" t="s">
-        <v>817</v>
+        <v>1467</v>
       </c>
       <c r="AI32" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -9651,7 +10035,7 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>861</v>
       </c>
       <c r="D33" t="s">
         <v>1054</v>
@@ -9660,7 +10044,7 @@
         <v>1053</v>
       </c>
       <c r="G33" t="s">
-        <v>653</v>
+        <v>452</v>
       </c>
       <c r="R33" t="s">
         <v>444</v>
@@ -9669,52 +10053,52 @@
         <v>267</v>
       </c>
       <c r="T33" t="s">
-        <v>1078</v>
+        <v>1489</v>
       </c>
       <c r="U33" t="s">
-        <v>1133</v>
+        <v>1402</v>
       </c>
       <c r="V33" t="s">
-        <v>360</v>
+        <v>1438</v>
       </c>
       <c r="W33" t="s">
-        <v>1059</v>
+        <v>1381</v>
       </c>
       <c r="X33" t="s">
-        <v>1057</v>
+        <v>1425</v>
       </c>
       <c r="Y33" t="s">
-        <v>903</v>
+        <v>1424</v>
       </c>
       <c r="Z33" t="s">
-        <v>1134</v>
+        <v>1385</v>
       </c>
       <c r="AA33" t="s">
-        <v>1116</v>
+        <v>1484</v>
       </c>
       <c r="AB33" t="s">
-        <v>1115</v>
+        <v>1470</v>
       </c>
       <c r="AC33" t="s">
-        <v>1084</v>
+        <v>1407</v>
       </c>
       <c r="AD33" t="s">
-        <v>728</v>
+        <v>1414</v>
       </c>
       <c r="AE33" t="s">
-        <v>1062</v>
+        <v>1379</v>
       </c>
       <c r="AF33" t="s">
-        <v>1135</v>
+        <v>1371</v>
       </c>
       <c r="AG33" t="s">
-        <v>1056</v>
+        <v>1485</v>
       </c>
       <c r="AH33" t="s">
-        <v>817</v>
+        <v>1467</v>
       </c>
       <c r="AI33" t="s">
-        <v>284</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7301" uniqueCount="1628">
   <si>
     <t>Places</t>
   </si>
@@ -4516,6 +4516,402 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>2,214,520</t>
+  </si>
+  <si>
+    <t>Azpilicueta 0</t>
+  </si>
+  <si>
+    <t>Omobamidele 1</t>
+  </si>
+  <si>
+    <t>3,850,781</t>
+  </si>
+  <si>
+    <t>James 12</t>
+  </si>
+  <si>
+    <t>Kovacic 9</t>
+  </si>
+  <si>
+    <t>Smith Rowe 13</t>
+  </si>
+  <si>
+    <t>2,023,221</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>Mendy 6</t>
+  </si>
+  <si>
+    <t>883,632</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>1,804,717</t>
+  </si>
+  <si>
+    <t>2,321,575</t>
+  </si>
+  <si>
+    <t>Rüdiger 6</t>
+  </si>
+  <si>
+    <t>Havertz 6$ captain</t>
+  </si>
+  <si>
+    <t>1,138,067</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>Lukaku 0</t>
+  </si>
+  <si>
+    <t>1,694,230</t>
+  </si>
+  <si>
+    <t>Chilwell 12</t>
+  </si>
+  <si>
+    <t>1,697,807</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1,168,547</t>
+  </si>
+  <si>
+    <t>Havertz 3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>995,342</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1,173,626</t>
+  </si>
+  <si>
+    <t>721,351</t>
+  </si>
+  <si>
+    <t>376,005</t>
+  </si>
+  <si>
+    <t>519,563</t>
+  </si>
+  <si>
+    <t>1,496,581</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>340,459</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>324,523</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>Marçal 0</t>
+  </si>
+  <si>
+    <t>Livramento 1</t>
+  </si>
+  <si>
+    <t>Townsend 1</t>
+  </si>
+  <si>
+    <t>2,450,716</t>
+  </si>
+  <si>
+    <t>Gray 4</t>
+  </si>
+  <si>
+    <t>Gallagher 1</t>
+  </si>
+  <si>
+    <t>Klich 1</t>
+  </si>
+  <si>
+    <t>Guaita 1</t>
+  </si>
+  <si>
+    <t>4,114,707</t>
+  </si>
+  <si>
+    <t>1,502,553</t>
+  </si>
+  <si>
+    <t>Raphinha 1</t>
+  </si>
+  <si>
+    <t>Hwang 1</t>
+  </si>
+  <si>
+    <t>900,984</t>
+  </si>
+  <si>
+    <t>McCarthy 1</t>
+  </si>
+  <si>
+    <t>2,032,727</t>
+  </si>
+  <si>
+    <t>Dennis 0</t>
+  </si>
+  <si>
+    <t>2,331,686</t>
+  </si>
+  <si>
+    <t>Rüdiger 9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>896,436</t>
+  </si>
+  <si>
+    <t>Manquillo 1</t>
+  </si>
+  <si>
+    <t>Doucouré 0</t>
+  </si>
+  <si>
+    <t>1,919,020</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1,093,440</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>848,022</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>928,430</t>
+  </si>
+  <si>
+    <t>Meslier 1</t>
+  </si>
+  <si>
+    <t>Digne 1</t>
+  </si>
+  <si>
+    <t>Coady 1</t>
+  </si>
+  <si>
+    <t>Jiménez 4</t>
+  </si>
+  <si>
+    <t>893,728</t>
+  </si>
+  <si>
+    <t>Hwang 5</t>
+  </si>
+  <si>
+    <t>507,313</t>
+  </si>
+  <si>
+    <t>Allan 1</t>
+  </si>
+  <si>
+    <t>Williams -1</t>
+  </si>
+  <si>
+    <t>670,214</t>
+  </si>
+  <si>
+    <t>1,311,712</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>466,476</t>
+  </si>
+  <si>
+    <t>Brownhill 1</t>
+  </si>
+  <si>
+    <t>448,232</t>
+  </si>
+  <si>
+    <t>Martínez 10</t>
+  </si>
+  <si>
+    <t>439,703</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>396,230</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>457,527</t>
+  </si>
+  <si>
+    <t>Sá 1</t>
+  </si>
+  <si>
+    <t>323,836</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>Krul 1</t>
+  </si>
+  <si>
+    <t>Rodrigo 1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>388,254</t>
+  </si>
+  <si>
+    <t>2,426,139</t>
+  </si>
+  <si>
+    <t>631,728</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>129,832</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>244,214</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>38,348</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>142,949</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>335,554</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>229,785</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>28,515</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Livramento 7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2,450,719</t>
+  </si>
+  <si>
+    <t>4,114,710</t>
+  </si>
+  <si>
+    <t>1,502,559</t>
+  </si>
+  <si>
+    <t>900,988</t>
+  </si>
+  <si>
+    <t>2,032,732</t>
+  </si>
+  <si>
+    <t>2,331,689</t>
+  </si>
+  <si>
+    <t>896,440</t>
+  </si>
+  <si>
+    <t>1,919,024</t>
+  </si>
+  <si>
+    <t>1,093,445</t>
+  </si>
+  <si>
+    <t>848,026</t>
+  </si>
+  <si>
+    <t>928,435</t>
+  </si>
+  <si>
+    <t>Digne 0</t>
+  </si>
+  <si>
+    <t>893,732</t>
   </si>
 </sst>
 </file>
@@ -7607,16 +8003,16 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.8984375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="21.53125" collapsed="true"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="15.671875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.6875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.57421875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="18.45703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="16.96484375" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7741,13 +8137,13 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>1614</v>
       </c>
       <c r="D2" t="s">
-        <v>998</v>
+        <v>760</v>
       </c>
       <c r="E2" t="s">
-        <v>997</v>
+        <v>1615</v>
       </c>
       <c r="G2" t="s">
         <v>672</v>
@@ -7762,13 +8158,13 @@
         <v>1369</v>
       </c>
       <c r="U2" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="V2" t="s">
         <v>1485</v>
       </c>
       <c r="W2" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="X2" t="s">
         <v>1372</v>
@@ -7786,16 +8182,16 @@
         <v>1376</v>
       </c>
       <c r="AC2" t="s">
-        <v>1377</v>
+        <v>1537</v>
       </c>
       <c r="AD2" t="s">
-        <v>1378</v>
+        <v>481</v>
       </c>
       <c r="AE2" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF2" t="s">
-        <v>1380</v>
+        <v>700</v>
       </c>
       <c r="AG2" t="s">
         <v>1381</v>
@@ -7804,7 +8200,7 @@
         <v>1382</v>
       </c>
       <c r="AI2" t="s">
-        <v>672</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7815,13 +8211,13 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>653</v>
+        <v>1602</v>
       </c>
       <c r="D3" t="s">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>999</v>
+        <v>1616</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
@@ -7836,28 +8232,28 @@
         <v>1369</v>
       </c>
       <c r="U3" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="V3" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="W3" t="s">
-        <v>1383</v>
+        <v>1497</v>
       </c>
       <c r="X3" t="s">
         <v>1381</v>
       </c>
       <c r="Y3" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Z3" t="s">
         <v>1385</v>
       </c>
       <c r="AA3" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="AB3" t="s">
-        <v>1387</v>
+        <v>1541</v>
       </c>
       <c r="AC3" t="s">
         <v>1388</v>
@@ -7866,19 +8262,19 @@
         <v>1389</v>
       </c>
       <c r="AE3" t="s">
-        <v>1390</v>
+        <v>1542</v>
       </c>
       <c r="AF3" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="AG3" t="s">
-        <v>1392</v>
+        <v>710</v>
       </c>
       <c r="AH3" t="s">
         <v>1067</v>
       </c>
       <c r="AI3" t="s">
-        <v>653</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -7889,13 +8285,13 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>1487</v>
+        <v>829</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="E4" t="s">
-        <v>1001</v>
+        <v>1617</v>
       </c>
       <c r="G4" t="s">
         <v>706</v>
@@ -7910,7 +8306,7 @@
         <v>1393</v>
       </c>
       <c r="U4" t="s">
-        <v>1394</v>
+        <v>1500</v>
       </c>
       <c r="V4" t="s">
         <v>1485</v>
@@ -7919,19 +8315,19 @@
         <v>1381</v>
       </c>
       <c r="X4" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Y4" t="s">
-        <v>1395</v>
+        <v>1501</v>
       </c>
       <c r="Z4" t="s">
         <v>1385</v>
       </c>
       <c r="AA4" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="AB4" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="AC4" t="s">
         <v>1388</v>
@@ -7940,10 +8336,10 @@
         <v>1389</v>
       </c>
       <c r="AE4" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF4" t="s">
-        <v>1380</v>
+        <v>700</v>
       </c>
       <c r="AG4" t="s">
         <v>1397</v>
@@ -7952,7 +8348,7 @@
         <v>1398</v>
       </c>
       <c r="AI4" t="s">
-        <v>1487</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -7963,13 +8359,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>672</v>
+        <v>1553</v>
       </c>
       <c r="D5" t="s">
-        <v>1003</v>
+        <v>894</v>
       </c>
       <c r="E5" t="s">
-        <v>1002</v>
+        <v>1618</v>
       </c>
       <c r="G5" t="s">
         <v>452</v>
@@ -7981,10 +8377,10 @@
         <v>731</v>
       </c>
       <c r="T5" t="s">
-        <v>1400</v>
+        <v>1505</v>
       </c>
       <c r="U5" t="s">
-        <v>1401</v>
+        <v>707</v>
       </c>
       <c r="V5" t="s">
         <v>1402</v>
@@ -7993,7 +8389,7 @@
         <v>1403</v>
       </c>
       <c r="X5" t="s">
-        <v>1404</v>
+        <v>729</v>
       </c>
       <c r="Y5" t="s">
         <v>456</v>
@@ -8002,31 +8398,31 @@
         <v>1375</v>
       </c>
       <c r="AA5" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="AB5" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="AC5" t="s">
-        <v>1407</v>
+        <v>1571</v>
       </c>
       <c r="AD5" t="s">
         <v>1408</v>
       </c>
       <c r="AE5" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF5" t="s">
         <v>1485</v>
       </c>
       <c r="AG5" t="s">
-        <v>1380</v>
+        <v>700</v>
       </c>
       <c r="AH5" t="s">
         <v>1409</v>
       </c>
       <c r="AI5" t="s">
-        <v>672</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -8037,13 +8433,13 @@
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>706</v>
+        <v>1518</v>
       </c>
       <c r="D6" t="s">
-        <v>1005</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
-        <v>1004</v>
+        <v>1619</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -8055,13 +8451,13 @@
         <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>1410</v>
+        <v>1548</v>
       </c>
       <c r="U6" t="s">
         <v>1411</v>
       </c>
       <c r="V6" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="W6" t="s">
         <v>1402</v>
@@ -8100,7 +8496,7 @@
         <v>1418</v>
       </c>
       <c r="AI6" t="s">
-        <v>706</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -8111,13 +8507,13 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>1592</v>
       </c>
       <c r="D7" t="s">
-        <v>1007</v>
+        <v>843</v>
       </c>
       <c r="E7" t="s">
-        <v>1006</v>
+        <v>1620</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
@@ -8129,7 +8525,7 @@
         <v>435</v>
       </c>
       <c r="T7" t="s">
-        <v>1400</v>
+        <v>1505</v>
       </c>
       <c r="U7" t="s">
         <v>1372</v>
@@ -8138,13 +8534,13 @@
         <v>1411</v>
       </c>
       <c r="W7" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="X7" t="s">
-        <v>1377</v>
+        <v>1537</v>
       </c>
       <c r="Y7" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Z7" t="s">
         <v>1376</v>
@@ -8153,7 +8549,7 @@
         <v>1385</v>
       </c>
       <c r="AB7" t="s">
-        <v>1419</v>
+        <v>1550</v>
       </c>
       <c r="AC7" t="s">
         <v>1389</v>
@@ -8162,7 +8558,7 @@
         <v>1388</v>
       </c>
       <c r="AE7" t="s">
-        <v>1390</v>
+        <v>1542</v>
       </c>
       <c r="AF7" t="s">
         <v>1409</v>
@@ -8174,7 +8570,7 @@
         <v>1421</v>
       </c>
       <c r="AI7" t="s">
-        <v>653</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -8185,13 +8581,13 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>653</v>
+        <v>1553</v>
       </c>
       <c r="D8" t="s">
-        <v>1009</v>
+        <v>894</v>
       </c>
       <c r="E8" t="s">
-        <v>1008</v>
+        <v>1621</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8206,7 +8602,7 @@
         <v>1369</v>
       </c>
       <c r="U8" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="V8" t="s">
         <v>1423</v>
@@ -8221,10 +8617,10 @@
         <v>1424</v>
       </c>
       <c r="Z8" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="AA8" t="s">
-        <v>1425</v>
+        <v>1511</v>
       </c>
       <c r="AB8" t="s">
         <v>1385</v>
@@ -8242,13 +8638,13 @@
         <v>1426</v>
       </c>
       <c r="AG8" t="s">
-        <v>1427</v>
+        <v>400</v>
       </c>
       <c r="AH8" t="s">
         <v>1428</v>
       </c>
       <c r="AI8" t="s">
-        <v>653</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -8259,13 +8655,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
-        <v>901</v>
+        <v>1012</v>
       </c>
       <c r="E9" t="s">
-        <v>1010</v>
+        <v>1622</v>
       </c>
       <c r="G9" t="s">
         <v>653</v>
@@ -8286,10 +8682,10 @@
         <v>1429</v>
       </c>
       <c r="W9" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="X9" t="s">
-        <v>1430</v>
+        <v>1555</v>
       </c>
       <c r="Y9" t="s">
         <v>1431</v>
@@ -8298,7 +8694,7 @@
         <v>1385</v>
       </c>
       <c r="AA9" t="s">
-        <v>1432</v>
+        <v>1556</v>
       </c>
       <c r="AB9" t="s">
         <v>1488</v>
@@ -8307,7 +8703,7 @@
         <v>1388</v>
       </c>
       <c r="AD9" t="s">
-        <v>1433</v>
+        <v>1514</v>
       </c>
       <c r="AE9" t="s">
         <v>1434</v>
@@ -8316,13 +8712,13 @@
         <v>1435</v>
       </c>
       <c r="AG9" t="s">
-        <v>1419</v>
+        <v>1550</v>
       </c>
       <c r="AH9" t="s">
         <v>1398</v>
       </c>
       <c r="AI9" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8333,13 +8729,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>653</v>
+        <v>1558</v>
       </c>
       <c r="D10" t="s">
-        <v>1012</v>
+        <v>856</v>
       </c>
       <c r="E10" t="s">
-        <v>1011</v>
+        <v>1617</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -8357,25 +8753,25 @@
         <v>1437</v>
       </c>
       <c r="V10" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="W10" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="X10" t="s">
         <v>1375</v>
       </c>
       <c r="Y10" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="Z10" t="s">
         <v>1373</v>
       </c>
       <c r="AA10" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="AB10" t="s">
-        <v>1433</v>
+        <v>1514</v>
       </c>
       <c r="AC10" t="s">
         <v>1388</v>
@@ -8393,10 +8789,10 @@
         <v>1409</v>
       </c>
       <c r="AH10" t="s">
-        <v>1440</v>
+        <v>767</v>
       </c>
       <c r="AI10" t="s">
-        <v>653</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -8407,13 +8803,13 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>653</v>
+        <v>1492</v>
       </c>
       <c r="D11" t="s">
-        <v>1014</v>
+        <v>1560</v>
       </c>
       <c r="E11" t="s">
-        <v>1013</v>
+        <v>1623</v>
       </c>
       <c r="G11" t="s">
         <v>672</v>
@@ -8437,16 +8833,16 @@
         <v>1381</v>
       </c>
       <c r="X11" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Y11" t="s">
         <v>1373</v>
       </c>
       <c r="Z11" t="s">
-        <v>1395</v>
+        <v>1501</v>
       </c>
       <c r="AA11" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="AB11" t="s">
         <v>1375</v>
@@ -8467,10 +8863,10 @@
         <v>1417</v>
       </c>
       <c r="AH11" t="s">
-        <v>1419</v>
+        <v>1550</v>
       </c>
       <c r="AI11" t="s">
-        <v>653</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -8481,13 +8877,13 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>1487</v>
+        <v>940</v>
       </c>
       <c r="D12" t="s">
-        <v>878</v>
+        <v>1563</v>
       </c>
       <c r="E12" t="s">
-        <v>1015</v>
+        <v>1624</v>
       </c>
       <c r="G12" t="s">
         <v>578</v>
@@ -8508,22 +8904,22 @@
         <v>1441</v>
       </c>
       <c r="W12" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="X12" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="Y12" t="s">
-        <v>1443</v>
+        <v>1520</v>
       </c>
       <c r="Z12" t="s">
         <v>1375</v>
       </c>
       <c r="AA12" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="AB12" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="AC12" t="s">
         <v>1408</v>
@@ -8538,13 +8934,13 @@
         <v>1444</v>
       </c>
       <c r="AG12" t="s">
-        <v>1378</v>
+        <v>481</v>
       </c>
       <c r="AH12" t="s">
-        <v>1430</v>
+        <v>1555</v>
       </c>
       <c r="AI12" t="s">
-        <v>1487</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -8555,13 +8951,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>861</v>
+        <v>1564</v>
       </c>
       <c r="D13" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="E13" t="s">
-        <v>1016</v>
+        <v>1625</v>
       </c>
       <c r="G13" t="s">
         <v>706</v>
@@ -8576,7 +8972,7 @@
         <v>1489</v>
       </c>
       <c r="U13" t="s">
-        <v>1445</v>
+        <v>1105</v>
       </c>
       <c r="V13" t="s">
         <v>1381</v>
@@ -8585,10 +8981,10 @@
         <v>1409</v>
       </c>
       <c r="X13" t="s">
-        <v>1401</v>
+        <v>707</v>
       </c>
       <c r="Y13" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Z13" t="s">
         <v>1373</v>
@@ -8597,7 +8993,7 @@
         <v>1385</v>
       </c>
       <c r="AB13" t="s">
-        <v>1395</v>
+        <v>1501</v>
       </c>
       <c r="AC13" t="s">
         <v>1414</v>
@@ -8615,10 +9011,10 @@
         <v>1421</v>
       </c>
       <c r="AH13" t="s">
-        <v>1447</v>
+        <v>784</v>
       </c>
       <c r="AI13" t="s">
-        <v>861</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -8629,13 +9025,13 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>1487</v>
+        <v>1524</v>
       </c>
       <c r="D14" t="s">
-        <v>1019</v>
+        <v>894</v>
       </c>
       <c r="E14" t="s">
-        <v>1018</v>
+        <v>1627</v>
       </c>
       <c r="G14" t="s">
         <v>672</v>
@@ -8647,19 +9043,19 @@
         <v>796</v>
       </c>
       <c r="T14" t="s">
-        <v>1448</v>
+        <v>1566</v>
       </c>
       <c r="U14" t="s">
-        <v>1449</v>
+        <v>1626</v>
       </c>
       <c r="V14" t="s">
         <v>565</v>
       </c>
       <c r="W14" t="s">
-        <v>1450</v>
+        <v>1568</v>
       </c>
       <c r="X14" t="s">
-        <v>1383</v>
+        <v>1497</v>
       </c>
       <c r="Y14" t="s">
         <v>1451</v>
@@ -8671,7 +9067,7 @@
         <v>1385</v>
       </c>
       <c r="AB14" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AC14" t="s">
         <v>1408</v>
@@ -8680,7 +9076,7 @@
         <v>1491</v>
       </c>
       <c r="AE14" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF14" t="s">
         <v>456</v>
@@ -8689,10 +9085,10 @@
         <v>1421</v>
       </c>
       <c r="AH14" t="s">
-        <v>1440</v>
+        <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>1487</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -8703,13 +9099,13 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>1482</v>
+        <v>1518</v>
       </c>
       <c r="D15" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="E15" t="s">
-        <v>1020</v>
+        <v>1572</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -8745,7 +9141,7 @@
         <v>1457</v>
       </c>
       <c r="AB15" t="s">
-        <v>1407</v>
+        <v>1571</v>
       </c>
       <c r="AC15" t="s">
         <v>1414</v>
@@ -8754,19 +9150,19 @@
         <v>1389</v>
       </c>
       <c r="AE15" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF15" t="s">
         <v>1409</v>
       </c>
       <c r="AG15" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AH15" t="s">
-        <v>1432</v>
+        <v>1556</v>
       </c>
       <c r="AI15" t="s">
-        <v>1482</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -8777,13 +9173,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>653</v>
+        <v>1518</v>
       </c>
       <c r="D16" t="s">
         <v>865</v>
       </c>
       <c r="E16" t="s">
-        <v>1022</v>
+        <v>1575</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
@@ -8804,13 +9200,13 @@
         <v>1441</v>
       </c>
       <c r="W16" t="s">
-        <v>1459</v>
+        <v>694</v>
       </c>
       <c r="X16" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="Y16" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Z16" t="s">
         <v>1375</v>
@@ -8822,7 +9218,7 @@
         <v>1388</v>
       </c>
       <c r="AC16" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AD16" t="s">
         <v>1414</v>
@@ -8834,13 +9230,13 @@
         <v>1398</v>
       </c>
       <c r="AG16" t="s">
-        <v>1461</v>
+        <v>1573</v>
       </c>
       <c r="AH16" t="s">
-        <v>1462</v>
+        <v>1574</v>
       </c>
       <c r="AI16" t="s">
-        <v>653</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -8851,13 +9247,13 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>653</v>
+        <v>1524</v>
       </c>
       <c r="D17" t="s">
-        <v>1024</v>
+        <v>1577</v>
       </c>
       <c r="E17" t="s">
-        <v>1023</v>
+        <v>1576</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
@@ -8869,22 +9265,22 @@
         <v>298</v>
       </c>
       <c r="T17" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="U17" t="s">
-        <v>1401</v>
+        <v>707</v>
       </c>
       <c r="V17" t="s">
         <v>1402</v>
       </c>
       <c r="W17" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="X17" t="s">
-        <v>1463</v>
+        <v>809</v>
       </c>
       <c r="Y17" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Z17" t="s">
         <v>1385</v>
@@ -8908,13 +9304,13 @@
         <v>1409</v>
       </c>
       <c r="AG17" t="s">
-        <v>1461</v>
+        <v>1573</v>
       </c>
       <c r="AH17" t="s">
-        <v>1427</v>
+        <v>400</v>
       </c>
       <c r="AI17" t="s">
-        <v>653</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -8925,13 +9321,13 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>1492</v>
+        <v>981</v>
       </c>
       <c r="D18" t="s">
-        <v>1026</v>
+        <v>1532</v>
       </c>
       <c r="E18" t="s">
-        <v>1025</v>
+        <v>1578</v>
       </c>
       <c r="G18" t="s">
         <v>672</v>
@@ -8955,16 +9351,16 @@
         <v>1381</v>
       </c>
       <c r="X18" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="Y18" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Z18" t="s">
         <v>1385</v>
       </c>
       <c r="AA18" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="AB18" t="s">
         <v>1373</v>
@@ -8976,7 +9372,7 @@
         <v>1491</v>
       </c>
       <c r="AE18" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF18" t="s">
         <v>1423</v>
@@ -8985,10 +9381,10 @@
         <v>1409</v>
       </c>
       <c r="AH18" t="s">
-        <v>1464</v>
+        <v>812</v>
       </c>
       <c r="AI18" t="s">
-        <v>1492</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -8999,13 +9395,13 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>861</v>
+        <v>1553</v>
       </c>
       <c r="D19" t="s">
-        <v>1028</v>
+        <v>1534</v>
       </c>
       <c r="E19" t="s">
-        <v>1027</v>
+        <v>1580</v>
       </c>
       <c r="G19" t="s">
         <v>706</v>
@@ -9020,7 +9416,7 @@
         <v>1489</v>
       </c>
       <c r="U19" t="s">
-        <v>1383</v>
+        <v>1497</v>
       </c>
       <c r="V19" t="s">
         <v>1466</v>
@@ -9029,19 +9425,19 @@
         <v>1402</v>
       </c>
       <c r="X19" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="Y19" t="s">
         <v>1375</v>
       </c>
       <c r="Z19" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="AA19" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="AB19" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AC19" t="s">
         <v>1408</v>
@@ -9053,7 +9449,7 @@
         <v>1434</v>
       </c>
       <c r="AF19" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AG19" t="s">
         <v>1490</v>
@@ -9062,7 +9458,7 @@
         <v>456</v>
       </c>
       <c r="AI19" t="s">
-        <v>861</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -9073,13 +9469,13 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>1494</v>
+        <v>1599</v>
       </c>
       <c r="D20" t="s">
-        <v>1030</v>
+        <v>1583</v>
       </c>
       <c r="E20" t="s">
-        <v>1029</v>
+        <v>1582</v>
       </c>
       <c r="G20" t="s">
         <v>452</v>
@@ -9091,10 +9487,10 @@
         <v>822</v>
       </c>
       <c r="T20" t="s">
-        <v>1493</v>
+        <v>1581</v>
       </c>
       <c r="U20" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="V20" t="s">
         <v>1441</v>
@@ -9103,10 +9499,10 @@
         <v>1372</v>
       </c>
       <c r="X20" t="s">
-        <v>1430</v>
+        <v>1555</v>
       </c>
       <c r="Y20" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Z20" t="s">
         <v>1457</v>
@@ -9118,7 +9514,7 @@
         <v>1414</v>
       </c>
       <c r="AC20" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AD20" t="s">
         <v>1389</v>
@@ -9136,7 +9532,7 @@
         <v>1420</v>
       </c>
       <c r="AI20" t="s">
-        <v>1494</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -9147,13 +9543,13 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>1399</v>
+        <v>1455</v>
       </c>
       <c r="D21" t="s">
-        <v>1032</v>
+        <v>1585</v>
       </c>
       <c r="E21" t="s">
-        <v>1031</v>
+        <v>1584</v>
       </c>
       <c r="G21" t="s">
         <v>706</v>
@@ -9186,7 +9582,7 @@
         <v>456</v>
       </c>
       <c r="AA21" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="AB21" t="s">
         <v>1408</v>
@@ -9198,19 +9594,19 @@
         <v>1470</v>
       </c>
       <c r="AE21" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF21" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AG21" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AH21" t="s">
         <v>1409</v>
       </c>
       <c r="AI21" t="s">
-        <v>1399</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -9221,13 +9617,13 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>653</v>
+        <v>981</v>
       </c>
       <c r="D22" t="s">
-        <v>1034</v>
+        <v>1534</v>
       </c>
       <c r="E22" t="s">
-        <v>1033</v>
+        <v>1586</v>
       </c>
       <c r="G22" t="s">
         <v>1474</v>
@@ -9239,10 +9635,10 @@
         <v>830</v>
       </c>
       <c r="T22" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="U22" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="V22" t="s">
         <v>1381</v>
@@ -9251,10 +9647,10 @@
         <v>1402</v>
       </c>
       <c r="X22" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Y22" t="s">
-        <v>1425</v>
+        <v>1511</v>
       </c>
       <c r="Z22" t="s">
         <v>1471</v>
@@ -9281,10 +9677,10 @@
         <v>1409</v>
       </c>
       <c r="AH22" t="s">
-        <v>1473</v>
+        <v>828</v>
       </c>
       <c r="AI22" t="s">
-        <v>653</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -9295,13 +9691,13 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>653</v>
+        <v>1492</v>
       </c>
       <c r="D23" t="s">
-        <v>1036</v>
+        <v>1589</v>
       </c>
       <c r="E23" t="s">
-        <v>1035</v>
+        <v>1588</v>
       </c>
       <c r="G23" t="s">
         <v>706</v>
@@ -9313,13 +9709,13 @@
         <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>1475</v>
+        <v>1587</v>
       </c>
       <c r="U23" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="V23" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="W23" t="s">
         <v>1441</v>
@@ -9328,7 +9724,7 @@
         <v>1373</v>
       </c>
       <c r="Y23" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="Z23" t="s">
         <v>1385</v>
@@ -9355,10 +9751,10 @@
         <v>1409</v>
       </c>
       <c r="AH23" t="s">
-        <v>1463</v>
+        <v>809</v>
       </c>
       <c r="AI23" t="s">
-        <v>653</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -9369,13 +9765,13 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>1495</v>
+        <v>1592</v>
       </c>
       <c r="D24" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="E24" t="s">
-        <v>1037</v>
+        <v>1593</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -9387,7 +9783,7 @@
         <v>309</v>
       </c>
       <c r="T24" t="s">
-        <v>1478</v>
+        <v>1590</v>
       </c>
       <c r="U24" t="s">
         <v>1402</v>
@@ -9405,7 +9801,7 @@
         <v>1480</v>
       </c>
       <c r="Z24" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="AA24" t="s">
         <v>1385</v>
@@ -9414,25 +9810,25 @@
         <v>1469</v>
       </c>
       <c r="AC24" t="s">
-        <v>1481</v>
+        <v>1591</v>
       </c>
       <c r="AD24" t="s">
         <v>1388</v>
       </c>
       <c r="AE24" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF24" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="AG24" t="s">
-        <v>1392</v>
+        <v>710</v>
       </c>
       <c r="AH24" t="s">
         <v>1428</v>
       </c>
       <c r="AI24" t="s">
-        <v>1495</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -9443,13 +9839,13 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>1487</v>
+        <v>874</v>
       </c>
       <c r="D25" t="s">
-        <v>798</v>
+        <v>860</v>
       </c>
       <c r="E25" t="s">
-        <v>1039</v>
+        <v>1594</v>
       </c>
       <c r="G25" t="s">
         <v>578</v>
@@ -9461,13 +9857,13 @@
         <v>487</v>
       </c>
       <c r="T25" t="s">
-        <v>1400</v>
+        <v>1505</v>
       </c>
       <c r="U25" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="V25" t="s">
-        <v>1401</v>
+        <v>707</v>
       </c>
       <c r="W25" t="s">
         <v>1441</v>
@@ -9479,13 +9875,13 @@
         <v>1376</v>
       </c>
       <c r="Z25" t="s">
-        <v>1377</v>
+        <v>1537</v>
       </c>
       <c r="AA25" t="s">
         <v>1457</v>
       </c>
       <c r="AB25" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AC25" t="s">
         <v>1414</v>
@@ -9494,7 +9890,7 @@
         <v>1491</v>
       </c>
       <c r="AE25" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF25" t="s">
         <v>1458</v>
@@ -9506,7 +9902,7 @@
         <v>1421</v>
       </c>
       <c r="AI25" t="s">
-        <v>1487</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -9517,13 +9913,13 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>653</v>
+        <v>1524</v>
       </c>
       <c r="D26" t="s">
-        <v>1041</v>
+        <v>1596</v>
       </c>
       <c r="E26" t="s">
-        <v>1040</v>
+        <v>1595</v>
       </c>
       <c r="G26" t="s">
         <v>653</v>
@@ -9544,10 +9940,10 @@
         <v>1402</v>
       </c>
       <c r="W26" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="X26" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Y26" t="s">
         <v>1375</v>
@@ -9565,22 +9961,22 @@
         <v>1483</v>
       </c>
       <c r="AD26" t="s">
-        <v>1407</v>
+        <v>1571</v>
       </c>
       <c r="AE26" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF26" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AG26" t="s">
         <v>1485</v>
       </c>
       <c r="AH26" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AI26" t="s">
-        <v>653</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -9591,13 +9987,13 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>861</v>
+        <v>1558</v>
       </c>
       <c r="D27" t="s">
-        <v>1043</v>
+        <v>1598</v>
       </c>
       <c r="E27" t="s">
-        <v>1042</v>
+        <v>1597</v>
       </c>
       <c r="G27" t="s">
         <v>672</v>
@@ -9621,7 +10017,7 @@
         <v>1441</v>
       </c>
       <c r="X27" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="Y27" t="s">
         <v>1424</v>
@@ -9630,10 +10026,10 @@
         <v>1375</v>
       </c>
       <c r="AA27" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="AB27" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AC27" t="s">
         <v>1414</v>
@@ -9642,19 +10038,19 @@
         <v>1408</v>
       </c>
       <c r="AE27" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF27" t="s">
         <v>456</v>
       </c>
       <c r="AG27" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AH27" t="s">
         <v>1456</v>
       </c>
       <c r="AI27" t="s">
-        <v>861</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -9665,13 +10061,13 @@
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>653</v>
+        <v>1561</v>
       </c>
       <c r="D28" t="s">
-        <v>1028</v>
+        <v>1601</v>
       </c>
       <c r="E28" t="s">
-        <v>1044</v>
+        <v>1600</v>
       </c>
       <c r="G28" t="s">
         <v>452</v>
@@ -9689,13 +10085,13 @@
         <v>1402</v>
       </c>
       <c r="V28" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="W28" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="X28" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="Y28" t="s">
         <v>1375</v>
@@ -9707,7 +10103,7 @@
         <v>1373</v>
       </c>
       <c r="AB28" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="AC28" t="s">
         <v>1414</v>
@@ -9719,16 +10115,16 @@
         <v>399</v>
       </c>
       <c r="AF28" t="s">
-        <v>1370</v>
+        <v>1535</v>
       </c>
       <c r="AG28" t="s">
-        <v>1419</v>
+        <v>1550</v>
       </c>
       <c r="AH28" t="s">
         <v>1471</v>
       </c>
       <c r="AI28" t="s">
-        <v>653</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -9739,13 +10135,13 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>653</v>
+        <v>988</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1604</v>
       </c>
       <c r="E29" t="s">
-        <v>1045</v>
+        <v>1603</v>
       </c>
       <c r="G29" t="s">
         <v>706</v>
@@ -9757,10 +10153,10 @@
         <v>862</v>
       </c>
       <c r="T29" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="U29" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="V29" t="s">
         <v>1381</v>
@@ -9769,16 +10165,16 @@
         <v>1441</v>
       </c>
       <c r="X29" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="Y29" t="s">
-        <v>1384</v>
+        <v>1539</v>
       </c>
       <c r="Z29" t="s">
         <v>1385</v>
       </c>
       <c r="AA29" t="s">
-        <v>1425</v>
+        <v>1511</v>
       </c>
       <c r="AB29" t="s">
         <v>1470</v>
@@ -9793,7 +10189,7 @@
         <v>1369</v>
       </c>
       <c r="AF29" t="s">
-        <v>1391</v>
+        <v>681</v>
       </c>
       <c r="AG29" t="s">
         <v>1485</v>
@@ -9802,7 +10198,7 @@
         <v>1420</v>
       </c>
       <c r="AI29" t="s">
-        <v>653</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -9813,13 +10209,13 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>861</v>
+        <v>1564</v>
       </c>
       <c r="D30" t="s">
-        <v>1048</v>
+        <v>1606</v>
       </c>
       <c r="E30" t="s">
-        <v>1047</v>
+        <v>1605</v>
       </c>
       <c r="G30" t="s">
         <v>930</v>
@@ -9837,19 +10233,19 @@
         <v>1402</v>
       </c>
       <c r="V30" t="s">
-        <v>1459</v>
+        <v>694</v>
       </c>
       <c r="W30" t="s">
-        <v>1394</v>
+        <v>1500</v>
       </c>
       <c r="X30" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Y30" t="s">
         <v>1385</v>
       </c>
       <c r="Z30" t="s">
-        <v>1425</v>
+        <v>1511</v>
       </c>
       <c r="AA30" t="s">
         <v>1424</v>
@@ -9864,19 +10260,19 @@
         <v>1414</v>
       </c>
       <c r="AE30" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF30" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AG30" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AH30" t="s">
-        <v>1462</v>
+        <v>1574</v>
       </c>
       <c r="AI30" t="s">
-        <v>861</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -9887,13 +10283,13 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>861</v>
+        <v>1399</v>
       </c>
       <c r="D31" t="s">
-        <v>1050</v>
+        <v>1608</v>
       </c>
       <c r="E31" t="s">
-        <v>1049</v>
+        <v>1607</v>
       </c>
       <c r="G31" t="s">
         <v>706</v>
@@ -9914,19 +10310,19 @@
         <v>1402</v>
       </c>
       <c r="W31" t="s">
-        <v>1383</v>
+        <v>1497</v>
       </c>
       <c r="X31" t="s">
         <v>1381</v>
       </c>
       <c r="Y31" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Z31" t="s">
         <v>1375</v>
       </c>
       <c r="AA31" t="s">
-        <v>1377</v>
+        <v>1537</v>
       </c>
       <c r="AB31" t="s">
         <v>1424</v>
@@ -9938,19 +10334,19 @@
         <v>1414</v>
       </c>
       <c r="AE31" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF31" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AG31" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AH31" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AI31" t="s">
-        <v>861</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -9961,13 +10357,13 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>861</v>
+        <v>1518</v>
       </c>
       <c r="D32" t="s">
-        <v>1052</v>
+        <v>1610</v>
       </c>
       <c r="E32" t="s">
-        <v>1051</v>
+        <v>1609</v>
       </c>
       <c r="G32" t="s">
         <v>706</v>
@@ -9988,16 +10384,16 @@
         <v>1441</v>
       </c>
       <c r="W32" t="s">
-        <v>1459</v>
+        <v>694</v>
       </c>
       <c r="X32" t="s">
         <v>1402</v>
       </c>
       <c r="Y32" t="s">
-        <v>1406</v>
+        <v>1545</v>
       </c>
       <c r="Z32" t="s">
-        <v>1377</v>
+        <v>1537</v>
       </c>
       <c r="AA32" t="s">
         <v>1385</v>
@@ -10006,25 +10402,25 @@
         <v>1389</v>
       </c>
       <c r="AC32" t="s">
-        <v>1453</v>
+        <v>1569</v>
       </c>
       <c r="AD32" t="s">
         <v>1414</v>
       </c>
       <c r="AE32" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF32" t="s">
-        <v>1430</v>
+        <v>1555</v>
       </c>
       <c r="AG32" t="s">
-        <v>1386</v>
+        <v>1540</v>
       </c>
       <c r="AH32" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AI32" t="s">
-        <v>861</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -10035,13 +10431,13 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>861</v>
+        <v>1129</v>
       </c>
       <c r="D33" t="s">
-        <v>1054</v>
+        <v>1612</v>
       </c>
       <c r="E33" t="s">
-        <v>1053</v>
+        <v>1611</v>
       </c>
       <c r="G33" t="s">
         <v>452</v>
@@ -10059,13 +10455,13 @@
         <v>1402</v>
       </c>
       <c r="V33" t="s">
-        <v>1438</v>
+        <v>1516</v>
       </c>
       <c r="W33" t="s">
         <v>1381</v>
       </c>
       <c r="X33" t="s">
-        <v>1425</v>
+        <v>1511</v>
       </c>
       <c r="Y33" t="s">
         <v>1424</v>
@@ -10080,25 +10476,25 @@
         <v>1470</v>
       </c>
       <c r="AC33" t="s">
-        <v>1407</v>
+        <v>1571</v>
       </c>
       <c r="AD33" t="s">
         <v>1414</v>
       </c>
       <c r="AE33" t="s">
-        <v>1379</v>
+        <v>1062</v>
       </c>
       <c r="AF33" t="s">
-        <v>1371</v>
+        <v>1613</v>
       </c>
       <c r="AG33" t="s">
         <v>1485</v>
       </c>
       <c r="AH33" t="s">
-        <v>1467</v>
+        <v>1579</v>
       </c>
       <c r="AI33" t="s">
-        <v>861</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7301" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8658" uniqueCount="1702">
   <si>
     <t>Places</t>
   </si>
@@ -4912,6 +4912,228 @@
   </si>
   <si>
     <t>893,732</t>
+  </si>
+  <si>
+    <t>Sánchez 4</t>
+  </si>
+  <si>
+    <t>Livramento 9</t>
+  </si>
+  <si>
+    <t>2,253,626</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>Gray 5</t>
+  </si>
+  <si>
+    <t>3,681,409</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>James 13</t>
+  </si>
+  <si>
+    <t>Kovacic 11</t>
+  </si>
+  <si>
+    <t>1,584,650</t>
+  </si>
+  <si>
+    <t>Cancelo 1</t>
+  </si>
+  <si>
+    <t>Hwang 8</t>
+  </si>
+  <si>
+    <t>Duffy 0</t>
+  </si>
+  <si>
+    <t>912,045</t>
+  </si>
+  <si>
+    <t>McCarthy 2</t>
+  </si>
+  <si>
+    <t>Moder 1</t>
+  </si>
+  <si>
+    <t>1,996,141</t>
+  </si>
+  <si>
+    <t>Dennis 12</t>
+  </si>
+  <si>
+    <t>1,855,985</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>1,123,513</t>
+  </si>
+  <si>
+    <t>Dias 4$ captain</t>
+  </si>
+  <si>
+    <t>Manquillo 2</t>
+  </si>
+  <si>
+    <t>Bernardo 5</t>
+  </si>
+  <si>
+    <t>1,817,832</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>1,684,357</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>Dias 2</t>
+  </si>
+  <si>
+    <t>1,152,156</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>Ederson 2</t>
+  </si>
+  <si>
+    <t>812,952</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1,099,835</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>Digne -1</t>
+  </si>
+  <si>
+    <t>Jiménez 5</t>
+  </si>
+  <si>
+    <t>1,009,957</t>
+  </si>
+  <si>
+    <t>592,894</t>
+  </si>
+  <si>
+    <t>587,373</t>
+  </si>
+  <si>
+    <t>McArthur 5</t>
+  </si>
+  <si>
+    <t>1,334,564</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>569,707</t>
+  </si>
+  <si>
+    <t>Laporte 2</t>
+  </si>
+  <si>
+    <t>364,636</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>372,527</t>
+  </si>
+  <si>
+    <t>Foden 18</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>296,166</t>
+  </si>
+  <si>
+    <t>579,551</t>
+  </si>
+  <si>
+    <t>Sá 3</t>
+  </si>
+  <si>
+    <t>Jesus 10$ captain</t>
+  </si>
+  <si>
+    <t>301,418</t>
+  </si>
+  <si>
+    <t>Rodrigo 8</t>
+  </si>
+  <si>
+    <t>231,474</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>2,524,691</t>
+  </si>
+  <si>
+    <t>719,665</t>
+  </si>
+  <si>
+    <t>194,309</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>240,571</t>
+  </si>
+  <si>
+    <t>2,253,635</t>
+  </si>
+  <si>
+    <t>37,355</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>277,925</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>480,096</t>
+  </si>
+  <si>
+    <t>285,781</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>Mahrez 6</t>
+  </si>
+  <si>
+    <t>38,036</t>
   </si>
 </sst>
 </file>
@@ -8137,13 +8359,13 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>1614</v>
+        <v>988</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>1631</v>
       </c>
       <c r="E2" t="s">
-        <v>1615</v>
+        <v>1692</v>
       </c>
       <c r="G2" t="s">
         <v>672</v>
@@ -8155,7 +8377,7 @@
         <v>269</v>
       </c>
       <c r="T2" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U2" t="s">
         <v>1535</v>
@@ -8164,7 +8386,7 @@
         <v>1485</v>
       </c>
       <c r="W2" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="X2" t="s">
         <v>1372</v>
@@ -8182,10 +8404,10 @@
         <v>1376</v>
       </c>
       <c r="AC2" t="s">
-        <v>1537</v>
+        <v>1132</v>
       </c>
       <c r="AD2" t="s">
-        <v>481</v>
+        <v>692</v>
       </c>
       <c r="AE2" t="s">
         <v>1062</v>
@@ -8197,10 +8419,10 @@
         <v>1381</v>
       </c>
       <c r="AH2" t="s">
-        <v>1382</v>
+        <v>699</v>
       </c>
       <c r="AI2" t="s">
-        <v>1614</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -8211,13 +8433,13 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>1602</v>
+        <v>1564</v>
       </c>
       <c r="D3" t="s">
-        <v>1000</v>
+        <v>1634</v>
       </c>
       <c r="E3" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
@@ -8229,10 +8451,10 @@
         <v>713</v>
       </c>
       <c r="T3" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U3" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="V3" t="s">
         <v>1535</v>
@@ -8244,16 +8466,16 @@
         <v>1381</v>
       </c>
       <c r="Y3" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Z3" t="s">
         <v>1385</v>
       </c>
       <c r="AA3" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="AB3" t="s">
-        <v>1541</v>
+        <v>553</v>
       </c>
       <c r="AC3" t="s">
         <v>1388</v>
@@ -8262,10 +8484,10 @@
         <v>1389</v>
       </c>
       <c r="AE3" t="s">
-        <v>1542</v>
+        <v>709</v>
       </c>
       <c r="AF3" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="AG3" t="s">
         <v>710</v>
@@ -8274,7 +8496,7 @@
         <v>1067</v>
       </c>
       <c r="AI3" t="s">
-        <v>1602</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -8285,13 +8507,13 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>829</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>856</v>
+        <v>1523</v>
       </c>
       <c r="E4" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="G4" t="s">
         <v>706</v>
@@ -8306,7 +8528,7 @@
         <v>1393</v>
       </c>
       <c r="U4" t="s">
-        <v>1500</v>
+        <v>1635</v>
       </c>
       <c r="V4" t="s">
         <v>1485</v>
@@ -8315,10 +8537,10 @@
         <v>1381</v>
       </c>
       <c r="X4" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Y4" t="s">
-        <v>1501</v>
+        <v>1636</v>
       </c>
       <c r="Z4" t="s">
         <v>1385</v>
@@ -8327,7 +8549,7 @@
         <v>1502</v>
       </c>
       <c r="AB4" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="AC4" t="s">
         <v>1388</v>
@@ -8348,7 +8570,7 @@
         <v>1398</v>
       </c>
       <c r="AI4" t="s">
-        <v>829</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -8359,13 +8581,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>1553</v>
+        <v>923</v>
       </c>
       <c r="D5" t="s">
-        <v>894</v>
+        <v>1021</v>
       </c>
       <c r="E5" t="s">
-        <v>1618</v>
+        <v>1641</v>
       </c>
       <c r="G5" t="s">
         <v>452</v>
@@ -8383,7 +8605,7 @@
         <v>707</v>
       </c>
       <c r="V5" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W5" t="s">
         <v>1403</v>
@@ -8401,10 +8623,10 @@
         <v>1545</v>
       </c>
       <c r="AB5" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="AC5" t="s">
-        <v>1571</v>
+        <v>1639</v>
       </c>
       <c r="AD5" t="s">
         <v>1408</v>
@@ -8419,10 +8641,10 @@
         <v>700</v>
       </c>
       <c r="AH5" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AI5" t="s">
-        <v>1553</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -8433,13 +8655,13 @@
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
       <c r="D6" t="s">
-        <v>820</v>
+        <v>1024</v>
       </c>
       <c r="E6" t="s">
-        <v>1619</v>
+        <v>1644</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -8451,16 +8673,16 @@
         <v>743</v>
       </c>
       <c r="T6" t="s">
-        <v>1548</v>
+        <v>1642</v>
       </c>
       <c r="U6" t="s">
-        <v>1411</v>
+        <v>746</v>
       </c>
       <c r="V6" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="W6" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="X6" t="s">
         <v>1412</v>
@@ -8493,10 +8715,10 @@
         <v>1490</v>
       </c>
       <c r="AH6" t="s">
-        <v>1418</v>
+        <v>1643</v>
       </c>
       <c r="AI6" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -8507,13 +8729,13 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>1592</v>
+        <v>931</v>
       </c>
       <c r="D7" t="s">
-        <v>843</v>
+        <v>1647</v>
       </c>
       <c r="E7" t="s">
-        <v>1620</v>
+        <v>1646</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
@@ -8531,13 +8753,13 @@
         <v>1372</v>
       </c>
       <c r="V7" t="s">
-        <v>1411</v>
+        <v>746</v>
       </c>
       <c r="W7" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="X7" t="s">
-        <v>1537</v>
+        <v>1132</v>
       </c>
       <c r="Y7" t="s">
         <v>1545</v>
@@ -8549,7 +8771,7 @@
         <v>1385</v>
       </c>
       <c r="AB7" t="s">
-        <v>1550</v>
+        <v>1645</v>
       </c>
       <c r="AC7" t="s">
         <v>1389</v>
@@ -8558,19 +8780,19 @@
         <v>1388</v>
       </c>
       <c r="AE7" t="s">
-        <v>1542</v>
+        <v>709</v>
       </c>
       <c r="AF7" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AG7" t="s">
         <v>1420</v>
       </c>
       <c r="AH7" t="s">
-        <v>1421</v>
+        <v>751</v>
       </c>
       <c r="AI7" t="s">
-        <v>1592</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -8581,13 +8803,13 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>1553</v>
+        <v>981</v>
       </c>
       <c r="D8" t="s">
-        <v>894</v>
+        <v>1026</v>
       </c>
       <c r="E8" t="s">
-        <v>1621</v>
+        <v>1648</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8599,7 +8821,7 @@
         <v>758</v>
       </c>
       <c r="T8" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U8" t="s">
         <v>1552</v>
@@ -8635,7 +8857,7 @@
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>1426</v>
+        <v>1090</v>
       </c>
       <c r="AG8" t="s">
         <v>400</v>
@@ -8644,7 +8866,7 @@
         <v>1428</v>
       </c>
       <c r="AI8" t="s">
-        <v>1553</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -8655,13 +8877,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>672</v>
+        <v>1553</v>
       </c>
       <c r="D9" t="s">
-        <v>1012</v>
+        <v>1653</v>
       </c>
       <c r="E9" t="s">
-        <v>1622</v>
+        <v>1652</v>
       </c>
       <c r="G9" t="s">
         <v>653</v>
@@ -8673,22 +8895,22 @@
         <v>763</v>
       </c>
       <c r="T9" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U9" t="s">
         <v>1381</v>
       </c>
       <c r="V9" t="s">
-        <v>1429</v>
+        <v>1649</v>
       </c>
       <c r="W9" t="s">
         <v>1535</v>
       </c>
       <c r="X9" t="s">
-        <v>1555</v>
+        <v>1650</v>
       </c>
       <c r="Y9" t="s">
-        <v>1431</v>
+        <v>1651</v>
       </c>
       <c r="Z9" t="s">
         <v>1385</v>
@@ -8712,13 +8934,13 @@
         <v>1435</v>
       </c>
       <c r="AG9" t="s">
-        <v>1550</v>
+        <v>1645</v>
       </c>
       <c r="AH9" t="s">
         <v>1398</v>
       </c>
       <c r="AI9" t="s">
-        <v>672</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8729,13 +8951,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>1558</v>
+        <v>988</v>
       </c>
       <c r="D10" t="s">
-        <v>856</v>
+        <v>1655</v>
       </c>
       <c r="E10" t="s">
-        <v>1617</v>
+        <v>1654</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -8762,13 +8984,13 @@
         <v>1375</v>
       </c>
       <c r="Y10" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="Z10" t="s">
         <v>1373</v>
       </c>
       <c r="AA10" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="AB10" t="s">
         <v>1514</v>
@@ -8786,13 +9008,13 @@
         <v>1398</v>
       </c>
       <c r="AG10" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AH10" t="s">
         <v>767</v>
       </c>
       <c r="AI10" t="s">
-        <v>1558</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -8803,13 +9025,13 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>1492</v>
+        <v>981</v>
       </c>
       <c r="D11" t="s">
-        <v>1560</v>
+        <v>1658</v>
       </c>
       <c r="E11" t="s">
-        <v>1623</v>
+        <v>1657</v>
       </c>
       <c r="G11" t="s">
         <v>672</v>
@@ -8824,10 +9046,10 @@
         <v>1434</v>
       </c>
       <c r="U11" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="V11" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W11" t="s">
         <v>1381</v>
@@ -8839,10 +9061,10 @@
         <v>1373</v>
       </c>
       <c r="Z11" t="s">
-        <v>1501</v>
+        <v>1636</v>
       </c>
       <c r="AA11" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="AB11" t="s">
         <v>1375</v>
@@ -8854,7 +9076,7 @@
         <v>1408</v>
       </c>
       <c r="AE11" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="AF11" t="s">
         <v>1423</v>
@@ -8863,10 +9085,10 @@
         <v>1417</v>
       </c>
       <c r="AH11" t="s">
-        <v>1550</v>
+        <v>1645</v>
       </c>
       <c r="AI11" t="s">
-        <v>1492</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -8877,13 +9099,13 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>940</v>
+        <v>778</v>
       </c>
       <c r="D12" t="s">
-        <v>1563</v>
+        <v>1028</v>
       </c>
       <c r="E12" t="s">
-        <v>1624</v>
+        <v>1660</v>
       </c>
       <c r="G12" t="s">
         <v>578</v>
@@ -8895,19 +9117,19 @@
         <v>289</v>
       </c>
       <c r="T12" t="s">
-        <v>1442</v>
+        <v>1659</v>
       </c>
       <c r="U12" t="s">
         <v>1485</v>
       </c>
       <c r="V12" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="W12" t="s">
         <v>1552</v>
       </c>
       <c r="X12" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="Y12" t="s">
         <v>1520</v>
@@ -8916,7 +9138,7 @@
         <v>1375</v>
       </c>
       <c r="AA12" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="AB12" t="s">
         <v>1502</v>
@@ -8931,16 +9153,16 @@
         <v>1489</v>
       </c>
       <c r="AF12" t="s">
-        <v>1444</v>
+        <v>492</v>
       </c>
       <c r="AG12" t="s">
-        <v>481</v>
+        <v>692</v>
       </c>
       <c r="AH12" t="s">
-        <v>1555</v>
+        <v>1650</v>
       </c>
       <c r="AI12" t="s">
-        <v>940</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -8951,13 +9173,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>1564</v>
+        <v>1661</v>
       </c>
       <c r="D13" t="s">
-        <v>1041</v>
+        <v>1663</v>
       </c>
       <c r="E13" t="s">
-        <v>1625</v>
+        <v>1662</v>
       </c>
       <c r="G13" t="s">
         <v>706</v>
@@ -8978,13 +9200,13 @@
         <v>1381</v>
       </c>
       <c r="W13" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="X13" t="s">
         <v>707</v>
       </c>
       <c r="Y13" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Z13" t="s">
         <v>1373</v>
@@ -8993,7 +9215,7 @@
         <v>1385</v>
       </c>
       <c r="AB13" t="s">
-        <v>1501</v>
+        <v>1636</v>
       </c>
       <c r="AC13" t="s">
         <v>1414</v>
@@ -9008,13 +9230,13 @@
         <v>1437</v>
       </c>
       <c r="AG13" t="s">
-        <v>1421</v>
+        <v>751</v>
       </c>
       <c r="AH13" t="s">
         <v>784</v>
       </c>
       <c r="AI13" t="s">
-        <v>1564</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -9025,13 +9247,13 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>1524</v>
+        <v>923</v>
       </c>
       <c r="D14" t="s">
-        <v>894</v>
+        <v>865</v>
       </c>
       <c r="E14" t="s">
-        <v>1627</v>
+        <v>1666</v>
       </c>
       <c r="G14" t="s">
         <v>672</v>
@@ -9043,16 +9265,16 @@
         <v>796</v>
       </c>
       <c r="T14" t="s">
-        <v>1566</v>
+        <v>1106</v>
       </c>
       <c r="U14" t="s">
-        <v>1626</v>
+        <v>1664</v>
       </c>
       <c r="V14" t="s">
         <v>565</v>
       </c>
       <c r="W14" t="s">
-        <v>1568</v>
+        <v>791</v>
       </c>
       <c r="X14" t="s">
         <v>1497</v>
@@ -9067,7 +9289,7 @@
         <v>1385</v>
       </c>
       <c r="AB14" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AC14" t="s">
         <v>1408</v>
@@ -9082,13 +9304,13 @@
         <v>456</v>
       </c>
       <c r="AG14" t="s">
-        <v>1421</v>
+        <v>751</v>
       </c>
       <c r="AH14" t="s">
         <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>1524</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -9099,13 +9321,13 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
       <c r="D15" t="s">
-        <v>1028</v>
+        <v>1608</v>
       </c>
       <c r="E15" t="s">
-        <v>1572</v>
+        <v>1667</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -9120,13 +9342,13 @@
         <v>1489</v>
       </c>
       <c r="U15" t="s">
-        <v>1411</v>
+        <v>746</v>
       </c>
       <c r="V15" t="s">
         <v>1381</v>
       </c>
       <c r="W15" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="X15" t="s">
         <v>1456</v>
@@ -9141,7 +9363,7 @@
         <v>1457</v>
       </c>
       <c r="AB15" t="s">
-        <v>1571</v>
+        <v>1639</v>
       </c>
       <c r="AC15" t="s">
         <v>1414</v>
@@ -9153,16 +9375,16 @@
         <v>1062</v>
       </c>
       <c r="AF15" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AG15" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AH15" t="s">
         <v>1556</v>
       </c>
       <c r="AI15" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -9173,13 +9395,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D16" t="s">
-        <v>865</v>
+        <v>1608</v>
       </c>
       <c r="E16" t="s">
-        <v>1575</v>
+        <v>1668</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
@@ -9191,22 +9413,22 @@
         <v>296</v>
       </c>
       <c r="T16" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U16" t="s">
         <v>1458</v>
       </c>
       <c r="V16" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="W16" t="s">
         <v>694</v>
       </c>
       <c r="X16" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="Y16" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Z16" t="s">
         <v>1375</v>
@@ -9218,13 +9440,13 @@
         <v>1388</v>
       </c>
       <c r="AC16" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AD16" t="s">
         <v>1414</v>
       </c>
       <c r="AE16" t="s">
-        <v>1460</v>
+        <v>804</v>
       </c>
       <c r="AF16" t="s">
         <v>1398</v>
@@ -9236,7 +9458,7 @@
         <v>1574</v>
       </c>
       <c r="AI16" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9247,13 +9469,13 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D17" t="s">
-        <v>1577</v>
+        <v>1671</v>
       </c>
       <c r="E17" t="s">
-        <v>1576</v>
+        <v>1670</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
@@ -9271,16 +9493,16 @@
         <v>707</v>
       </c>
       <c r="V17" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W17" t="s">
         <v>1516</v>
       </c>
       <c r="X17" t="s">
-        <v>809</v>
+        <v>1669</v>
       </c>
       <c r="Y17" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Z17" t="s">
         <v>1385</v>
@@ -9298,10 +9520,10 @@
         <v>1414</v>
       </c>
       <c r="AE17" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="AF17" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AG17" t="s">
         <v>1573</v>
@@ -9310,7 +9532,7 @@
         <v>400</v>
       </c>
       <c r="AI17" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -9321,13 +9543,13 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>981</v>
+        <v>1599</v>
       </c>
       <c r="D18" t="s">
-        <v>1532</v>
+        <v>1589</v>
       </c>
       <c r="E18" t="s">
-        <v>1578</v>
+        <v>1672</v>
       </c>
       <c r="G18" t="s">
         <v>672</v>
@@ -9345,13 +9567,13 @@
         <v>1485</v>
       </c>
       <c r="V18" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W18" t="s">
         <v>1381</v>
       </c>
       <c r="X18" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="Y18" t="s">
         <v>1545</v>
@@ -9360,7 +9582,7 @@
         <v>1385</v>
       </c>
       <c r="AA18" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="AB18" t="s">
         <v>1373</v>
@@ -9378,13 +9600,13 @@
         <v>1423</v>
       </c>
       <c r="AG18" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AH18" t="s">
         <v>812</v>
       </c>
       <c r="AI18" t="s">
-        <v>981</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -9395,13 +9617,13 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>1553</v>
+        <v>1599</v>
       </c>
       <c r="D19" t="s">
-        <v>1534</v>
+        <v>1675</v>
       </c>
       <c r="E19" t="s">
-        <v>1580</v>
+        <v>1674</v>
       </c>
       <c r="G19" t="s">
         <v>706</v>
@@ -9419,13 +9641,13 @@
         <v>1497</v>
       </c>
       <c r="V19" t="s">
-        <v>1466</v>
+        <v>1673</v>
       </c>
       <c r="W19" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="X19" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="Y19" t="s">
         <v>1375</v>
@@ -9434,10 +9656,10 @@
         <v>1545</v>
       </c>
       <c r="AA19" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="AB19" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AC19" t="s">
         <v>1408</v>
@@ -9449,7 +9671,7 @@
         <v>1434</v>
       </c>
       <c r="AF19" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AG19" t="s">
         <v>1490</v>
@@ -9458,7 +9680,7 @@
         <v>456</v>
       </c>
       <c r="AI19" t="s">
-        <v>1553</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -9469,13 +9691,13 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>1599</v>
+        <v>1561</v>
       </c>
       <c r="D20" t="s">
-        <v>1583</v>
+        <v>1675</v>
       </c>
       <c r="E20" t="s">
-        <v>1582</v>
+        <v>1676</v>
       </c>
       <c r="G20" t="s">
         <v>452</v>
@@ -9490,16 +9712,16 @@
         <v>1581</v>
       </c>
       <c r="U20" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="V20" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="W20" t="s">
         <v>1372</v>
       </c>
       <c r="X20" t="s">
-        <v>1555</v>
+        <v>1650</v>
       </c>
       <c r="Y20" t="s">
         <v>1545</v>
@@ -9514,25 +9736,25 @@
         <v>1414</v>
       </c>
       <c r="AC20" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AD20" t="s">
         <v>1389</v>
       </c>
       <c r="AE20" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="AF20" t="s">
         <v>1373</v>
       </c>
       <c r="AG20" t="s">
-        <v>1421</v>
+        <v>751</v>
       </c>
       <c r="AH20" t="s">
         <v>1420</v>
       </c>
       <c r="AI20" t="s">
-        <v>1599</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -9543,13 +9765,13 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>1455</v>
+        <v>1678</v>
       </c>
       <c r="D21" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="E21" t="s">
-        <v>1584</v>
+        <v>1679</v>
       </c>
       <c r="G21" t="s">
         <v>706</v>
@@ -9564,19 +9786,19 @@
         <v>1489</v>
       </c>
       <c r="U21" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="V21" t="s">
         <v>1381</v>
       </c>
       <c r="W21" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="X21" t="s">
         <v>1375</v>
       </c>
       <c r="Y21" t="s">
-        <v>1469</v>
+        <v>1677</v>
       </c>
       <c r="Z21" t="s">
         <v>456</v>
@@ -9597,16 +9819,16 @@
         <v>1062</v>
       </c>
       <c r="AF21" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AG21" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AH21" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AI21" t="s">
-        <v>1455</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -9617,13 +9839,13 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>981</v>
+        <v>1129</v>
       </c>
       <c r="D22" t="s">
-        <v>1534</v>
+        <v>1589</v>
       </c>
       <c r="E22" t="s">
-        <v>1586</v>
+        <v>1680</v>
       </c>
       <c r="G22" t="s">
         <v>1474</v>
@@ -9644,7 +9866,7 @@
         <v>1381</v>
       </c>
       <c r="W22" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="X22" t="s">
         <v>1545</v>
@@ -9665,22 +9887,22 @@
         <v>1414</v>
       </c>
       <c r="AD22" t="s">
-        <v>1472</v>
+        <v>907</v>
       </c>
       <c r="AE22" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="AF22" t="s">
         <v>1490</v>
       </c>
       <c r="AG22" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AH22" t="s">
         <v>828</v>
       </c>
       <c r="AI22" t="s">
-        <v>981</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -9691,13 +9913,13 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>1492</v>
+        <v>1561</v>
       </c>
       <c r="D23" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="E23" t="s">
-        <v>1588</v>
+        <v>1683</v>
       </c>
       <c r="G23" t="s">
         <v>706</v>
@@ -9709,7 +9931,7 @@
         <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>1587</v>
+        <v>1681</v>
       </c>
       <c r="U23" t="s">
         <v>1516</v>
@@ -9718,13 +9940,13 @@
         <v>1535</v>
       </c>
       <c r="W23" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="X23" t="s">
         <v>1373</v>
       </c>
       <c r="Y23" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="Z23" t="s">
         <v>1385</v>
@@ -9736,7 +9958,7 @@
         <v>1414</v>
       </c>
       <c r="AC23" t="s">
-        <v>1476</v>
+        <v>1682</v>
       </c>
       <c r="AD23" t="s">
         <v>1408</v>
@@ -9748,13 +9970,13 @@
         <v>1477</v>
       </c>
       <c r="AG23" t="s">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="AH23" t="s">
-        <v>809</v>
+        <v>1669</v>
       </c>
       <c r="AI23" t="s">
-        <v>1492</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -9765,13 +9987,13 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>1592</v>
+        <v>829</v>
       </c>
       <c r="D24" t="s">
-        <v>1050</v>
+        <v>1686</v>
       </c>
       <c r="E24" t="s">
-        <v>1593</v>
+        <v>1685</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -9786,7 +10008,7 @@
         <v>1590</v>
       </c>
       <c r="U24" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="V24" t="s">
         <v>1372</v>
@@ -9807,10 +10029,10 @@
         <v>1385</v>
       </c>
       <c r="AB24" t="s">
-        <v>1469</v>
+        <v>1677</v>
       </c>
       <c r="AC24" t="s">
-        <v>1591</v>
+        <v>1684</v>
       </c>
       <c r="AD24" t="s">
         <v>1388</v>
@@ -9828,7 +10050,7 @@
         <v>1428</v>
       </c>
       <c r="AI24" t="s">
-        <v>1592</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -9839,13 +10061,13 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="D25" t="s">
-        <v>860</v>
+        <v>1005</v>
       </c>
       <c r="E25" t="s">
-        <v>1594</v>
+        <v>1687</v>
       </c>
       <c r="G25" t="s">
         <v>578</v>
@@ -9866,7 +10088,7 @@
         <v>707</v>
       </c>
       <c r="W25" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="X25" t="s">
         <v>1373</v>
@@ -9875,13 +10097,13 @@
         <v>1376</v>
       </c>
       <c r="Z25" t="s">
-        <v>1537</v>
+        <v>1132</v>
       </c>
       <c r="AA25" t="s">
         <v>1457</v>
       </c>
       <c r="AB25" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AC25" t="s">
         <v>1414</v>
@@ -9899,10 +10121,10 @@
         <v>1420</v>
       </c>
       <c r="AH25" t="s">
-        <v>1421</v>
+        <v>751</v>
       </c>
       <c r="AI25" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -9913,13 +10135,13 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>1524</v>
+        <v>1564</v>
       </c>
       <c r="D26" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="E26" t="s">
-        <v>1595</v>
+        <v>1688</v>
       </c>
       <c r="G26" t="s">
         <v>653</v>
@@ -9937,7 +10159,7 @@
         <v>1381</v>
       </c>
       <c r="V26" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W26" t="s">
         <v>1516</v>
@@ -9961,22 +10183,22 @@
         <v>1483</v>
       </c>
       <c r="AD26" t="s">
-        <v>1571</v>
+        <v>1639</v>
       </c>
       <c r="AE26" t="s">
         <v>1062</v>
       </c>
       <c r="AF26" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AG26" t="s">
         <v>1485</v>
       </c>
       <c r="AH26" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AI26" t="s">
-        <v>1524</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -9987,13 +10209,13 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>1558</v>
+        <v>923</v>
       </c>
       <c r="D27" t="s">
-        <v>1598</v>
+        <v>1690</v>
       </c>
       <c r="E27" t="s">
-        <v>1597</v>
+        <v>1689</v>
       </c>
       <c r="G27" t="s">
         <v>672</v>
@@ -10011,10 +10233,10 @@
         <v>1381</v>
       </c>
       <c r="V27" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W27" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="X27" t="s">
         <v>1552</v>
@@ -10029,7 +10251,7 @@
         <v>1545</v>
       </c>
       <c r="AB27" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AC27" t="s">
         <v>1414</v>
@@ -10044,13 +10266,13 @@
         <v>456</v>
       </c>
       <c r="AG27" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AH27" t="s">
         <v>1456</v>
       </c>
       <c r="AI27" t="s">
-        <v>1558</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -10061,13 +10283,13 @@
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>1561</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>1601</v>
+        <v>1054</v>
       </c>
       <c r="E28" t="s">
-        <v>1600</v>
+        <v>1691</v>
       </c>
       <c r="G28" t="s">
         <v>452</v>
@@ -10079,16 +10301,16 @@
         <v>857</v>
       </c>
       <c r="T28" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="U28" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="V28" t="s">
         <v>1516</v>
       </c>
       <c r="W28" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="X28" t="s">
         <v>1552</v>
@@ -10103,7 +10325,7 @@
         <v>1373</v>
       </c>
       <c r="AB28" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="AC28" t="s">
         <v>1414</v>
@@ -10118,13 +10340,13 @@
         <v>1535</v>
       </c>
       <c r="AG28" t="s">
-        <v>1550</v>
+        <v>1645</v>
       </c>
       <c r="AH28" t="s">
         <v>1471</v>
       </c>
       <c r="AI28" t="s">
-        <v>1561</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -10135,13 +10357,13 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>988</v>
+        <v>1661</v>
       </c>
       <c r="D29" t="s">
-        <v>1604</v>
+        <v>1694</v>
       </c>
       <c r="E29" t="s">
-        <v>1603</v>
+        <v>1693</v>
       </c>
       <c r="G29" t="s">
         <v>706</v>
@@ -10156,19 +10378,19 @@
         <v>1062</v>
       </c>
       <c r="U29" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="V29" t="s">
         <v>1381</v>
       </c>
       <c r="W29" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="X29" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="Y29" t="s">
-        <v>1539</v>
+        <v>1632</v>
       </c>
       <c r="Z29" t="s">
         <v>1385</v>
@@ -10186,10 +10408,10 @@
         <v>1414</v>
       </c>
       <c r="AE29" t="s">
-        <v>1369</v>
+        <v>1628</v>
       </c>
       <c r="AF29" t="s">
-        <v>681</v>
+        <v>1065</v>
       </c>
       <c r="AG29" t="s">
         <v>1485</v>
@@ -10198,7 +10420,7 @@
         <v>1420</v>
       </c>
       <c r="AI29" t="s">
-        <v>988</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -10209,13 +10431,13 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>1564</v>
+        <v>1521</v>
       </c>
       <c r="D30" t="s">
-        <v>1606</v>
+        <v>1696</v>
       </c>
       <c r="E30" t="s">
-        <v>1605</v>
+        <v>1695</v>
       </c>
       <c r="G30" t="s">
         <v>930</v>
@@ -10230,13 +10452,13 @@
         <v>1489</v>
       </c>
       <c r="U30" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="V30" t="s">
         <v>694</v>
       </c>
       <c r="W30" t="s">
-        <v>1500</v>
+        <v>1635</v>
       </c>
       <c r="X30" t="s">
         <v>1545</v>
@@ -10263,16 +10485,16 @@
         <v>1062</v>
       </c>
       <c r="AF30" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AG30" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AH30" t="s">
         <v>1574</v>
       </c>
       <c r="AI30" t="s">
-        <v>1564</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -10283,13 +10505,13 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>1399</v>
+        <v>1518</v>
       </c>
       <c r="D31" t="s">
-        <v>1608</v>
+        <v>1043</v>
       </c>
       <c r="E31" t="s">
-        <v>1607</v>
+        <v>1697</v>
       </c>
       <c r="G31" t="s">
         <v>706</v>
@@ -10304,10 +10526,10 @@
         <v>1489</v>
       </c>
       <c r="U31" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="V31" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="W31" t="s">
         <v>1497</v>
@@ -10322,7 +10544,7 @@
         <v>1375</v>
       </c>
       <c r="AA31" t="s">
-        <v>1537</v>
+        <v>1132</v>
       </c>
       <c r="AB31" t="s">
         <v>1424</v>
@@ -10337,16 +10559,16 @@
         <v>1062</v>
       </c>
       <c r="AF31" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AG31" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AH31" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AI31" t="s">
-        <v>1399</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -10357,13 +10579,13 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
       <c r="D32" t="s">
-        <v>1610</v>
+        <v>1699</v>
       </c>
       <c r="E32" t="s">
-        <v>1609</v>
+        <v>1698</v>
       </c>
       <c r="G32" t="s">
         <v>706</v>
@@ -10381,19 +10603,19 @@
         <v>1381</v>
       </c>
       <c r="V32" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="W32" t="s">
         <v>694</v>
       </c>
       <c r="X32" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="Y32" t="s">
         <v>1545</v>
       </c>
       <c r="Z32" t="s">
-        <v>1537</v>
+        <v>1132</v>
       </c>
       <c r="AA32" t="s">
         <v>1385</v>
@@ -10402,7 +10624,7 @@
         <v>1389</v>
       </c>
       <c r="AC32" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="AD32" t="s">
         <v>1414</v>
@@ -10411,16 +10633,16 @@
         <v>1062</v>
       </c>
       <c r="AF32" t="s">
-        <v>1555</v>
+        <v>1650</v>
       </c>
       <c r="AG32" t="s">
-        <v>1540</v>
+        <v>691</v>
       </c>
       <c r="AH32" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AI32" t="s">
-        <v>1518</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -10431,13 +10653,13 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>1129</v>
+        <v>844</v>
       </c>
       <c r="D33" t="s">
-        <v>1612</v>
+        <v>1694</v>
       </c>
       <c r="E33" t="s">
-        <v>1611</v>
+        <v>1701</v>
       </c>
       <c r="G33" t="s">
         <v>452</v>
@@ -10452,7 +10674,7 @@
         <v>1489</v>
       </c>
       <c r="U33" t="s">
-        <v>1402</v>
+        <v>1638</v>
       </c>
       <c r="V33" t="s">
         <v>1516</v>
@@ -10470,13 +10692,13 @@
         <v>1385</v>
       </c>
       <c r="AA33" t="s">
-        <v>1484</v>
+        <v>1700</v>
       </c>
       <c r="AB33" t="s">
         <v>1470</v>
       </c>
       <c r="AC33" t="s">
-        <v>1571</v>
+        <v>1639</v>
       </c>
       <c r="AD33" t="s">
         <v>1414</v>
@@ -10485,16 +10707,16 @@
         <v>1062</v>
       </c>
       <c r="AF33" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="AG33" t="s">
         <v>1485</v>
       </c>
       <c r="AH33" t="s">
-        <v>1579</v>
+        <v>817</v>
       </c>
       <c r="AI33" t="s">
-        <v>1129</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8658" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="1801">
   <si>
     <t>Places</t>
   </si>
@@ -5134,6 +5134,303 @@
   </si>
   <si>
     <t>38,036</t>
+  </si>
+  <si>
+    <t>Cresswell 9</t>
+  </si>
+  <si>
+    <t>Vardy 2$ captain</t>
+  </si>
+  <si>
+    <t>Schmeichel 3</t>
+  </si>
+  <si>
+    <t>Amartey 2</t>
+  </si>
+  <si>
+    <t>Vardy 1</t>
+  </si>
+  <si>
+    <t>Bergwijn 0</t>
+  </si>
+  <si>
+    <t>Antonio 6</t>
+  </si>
+  <si>
+    <t>Pinnock 1</t>
+  </si>
+  <si>
+    <t>Mbeumo 1</t>
+  </si>
+  <si>
+    <t>Raya 1</t>
+  </si>
+  <si>
+    <t>Højbjerg 2</t>
+  </si>
+  <si>
+    <t>Lloris 3</t>
+  </si>
+  <si>
+    <t>Jansson 1</t>
+  </si>
+  <si>
+    <t>Maddison 7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Tielemans 7</t>
+  </si>
+  <si>
+    <t>Fernandes 1</t>
+  </si>
+  <si>
+    <t>Salah 42$ captain</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 9</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1,913,042</t>
+  </si>
+  <si>
+    <t>Cresswell 12</t>
+  </si>
+  <si>
+    <t>Salah 48$ captain</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold 10</t>
+  </si>
+  <si>
+    <t>Salah 24</t>
+  </si>
+  <si>
+    <t>3,809,788</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1,939,413</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>920,610</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Bergwijn 1</t>
+  </si>
+  <si>
+    <t>Antonio 7</t>
+  </si>
+  <si>
+    <t>2,381,289</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>2,254,179</t>
+  </si>
+  <si>
+    <t>1,309,322</t>
+  </si>
+  <si>
+    <t>2,314,765</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>1,423,824</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>799,393</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>826,065</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>Alisson 7</t>
+  </si>
+  <si>
+    <t>1,313,957</t>
+  </si>
+  <si>
+    <t>Maddison 8</t>
+  </si>
+  <si>
+    <t>1,538,443</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>780,834</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Shaw -1</t>
+  </si>
+  <si>
+    <t>588,843</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>1,788,630</t>
+  </si>
+  <si>
+    <t>845,095</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>387,417</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>543,687</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>195,256</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>Jota 11</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>581,218</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>Matip 0</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>578,689</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>338,622</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>3,517,329</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>Kane 2</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>519,934</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>129,827</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>218,843</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>83,427</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>347,623</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>468,918</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>84,667</t>
   </si>
 </sst>
 </file>
@@ -8220,21 +8517,21 @@
     <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.24609375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="22.3359375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="21.53125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.640625" collapsed="true"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="15.671875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.57421875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="25.09375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="16.96484375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.80078125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -8359,13 +8656,13 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>988</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>1631</v>
+        <v>1608</v>
       </c>
       <c r="E2" t="s">
-        <v>1692</v>
+        <v>1722</v>
       </c>
       <c r="G2" t="s">
         <v>672</v>
@@ -8389,19 +8686,19 @@
         <v>1629</v>
       </c>
       <c r="X2" t="s">
-        <v>1372</v>
+        <v>1723</v>
       </c>
       <c r="Y2" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="Z2" t="s">
-        <v>1374</v>
+        <v>1718</v>
       </c>
       <c r="AA2" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AB2" t="s">
-        <v>1376</v>
+        <v>698</v>
       </c>
       <c r="AC2" t="s">
         <v>1132</v>
@@ -8416,13 +8713,13 @@
         <v>700</v>
       </c>
       <c r="AG2" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="AH2" t="s">
         <v>699</v>
       </c>
       <c r="AI2" t="s">
-        <v>988</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -8433,13 +8730,13 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>1564</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>1634</v>
+        <v>1728</v>
       </c>
       <c r="E3" t="s">
-        <v>1633</v>
+        <v>1727</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
@@ -8463,13 +8760,13 @@
         <v>1497</v>
       </c>
       <c r="X3" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="Y3" t="s">
         <v>1632</v>
       </c>
       <c r="Z3" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA3" t="s">
         <v>691</v>
@@ -8478,10 +8775,10 @@
         <v>553</v>
       </c>
       <c r="AC3" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD3" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AE3" t="s">
         <v>709</v>
@@ -8496,7 +8793,7 @@
         <v>1067</v>
       </c>
       <c r="AI3" t="s">
-        <v>1564</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -8507,13 +8804,13 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>1729</v>
       </c>
       <c r="D4" t="s">
-        <v>1523</v>
+        <v>1731</v>
       </c>
       <c r="E4" t="s">
-        <v>1637</v>
+        <v>1730</v>
       </c>
       <c r="G4" t="s">
         <v>706</v>
@@ -8525,7 +8822,7 @@
         <v>722</v>
       </c>
       <c r="T4" t="s">
-        <v>1393</v>
+        <v>1704</v>
       </c>
       <c r="U4" t="s">
         <v>1635</v>
@@ -8534,7 +8831,7 @@
         <v>1485</v>
       </c>
       <c r="W4" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="X4" t="s">
         <v>1632</v>
@@ -8543,7 +8840,7 @@
         <v>1636</v>
       </c>
       <c r="Z4" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA4" t="s">
         <v>1502</v>
@@ -8552,10 +8849,10 @@
         <v>1065</v>
       </c>
       <c r="AC4" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD4" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AE4" t="s">
         <v>1062</v>
@@ -8564,13 +8861,13 @@
         <v>700</v>
       </c>
       <c r="AG4" t="s">
-        <v>1397</v>
+        <v>509</v>
       </c>
       <c r="AH4" t="s">
-        <v>1398</v>
+        <v>1705</v>
       </c>
       <c r="AI4" t="s">
-        <v>268</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -8581,13 +8878,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>923</v>
+        <v>1732</v>
       </c>
       <c r="D5" t="s">
-        <v>1021</v>
+        <v>1734</v>
       </c>
       <c r="E5" t="s">
-        <v>1641</v>
+        <v>1733</v>
       </c>
       <c r="G5" t="s">
         <v>452</v>
@@ -8608,7 +8905,7 @@
         <v>1638</v>
       </c>
       <c r="W5" t="s">
-        <v>1403</v>
+        <v>1073</v>
       </c>
       <c r="X5" t="s">
         <v>729</v>
@@ -8617,7 +8914,7 @@
         <v>456</v>
       </c>
       <c r="Z5" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AA5" t="s">
         <v>1545</v>
@@ -8629,7 +8926,7 @@
         <v>1639</v>
       </c>
       <c r="AD5" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AE5" t="s">
         <v>1062</v>
@@ -8644,7 +8941,7 @@
         <v>1640</v>
       </c>
       <c r="AI5" t="s">
-        <v>923</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -8655,13 +8952,13 @@
         <v>2522621</v>
       </c>
       <c r="C6" t="s">
-        <v>1492</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>1024</v>
+        <v>1738</v>
       </c>
       <c r="E6" t="s">
-        <v>1644</v>
+        <v>1737</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -8685,31 +8982,31 @@
         <v>1638</v>
       </c>
       <c r="X6" t="s">
-        <v>1412</v>
+        <v>1735</v>
       </c>
       <c r="Y6" t="s">
         <v>1488</v>
       </c>
       <c r="Z6" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA6" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AB6" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AC6" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD6" t="s">
-        <v>1415</v>
+        <v>904</v>
       </c>
       <c r="AE6" t="s">
         <v>1489</v>
       </c>
       <c r="AF6" t="s">
-        <v>1417</v>
+        <v>736</v>
       </c>
       <c r="AG6" t="s">
         <v>1490</v>
@@ -8718,7 +9015,7 @@
         <v>1643</v>
       </c>
       <c r="AI6" t="s">
-        <v>1492</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -8729,13 +9026,13 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>931</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>1647</v>
+        <v>1036</v>
       </c>
       <c r="E7" t="s">
-        <v>1646</v>
+        <v>1739</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
@@ -8750,7 +9047,7 @@
         <v>1505</v>
       </c>
       <c r="U7" t="s">
-        <v>1372</v>
+        <v>1723</v>
       </c>
       <c r="V7" t="s">
         <v>746</v>
@@ -8765,19 +9062,19 @@
         <v>1545</v>
       </c>
       <c r="Z7" t="s">
-        <v>1376</v>
+        <v>698</v>
       </c>
       <c r="AA7" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB7" t="s">
         <v>1645</v>
       </c>
       <c r="AC7" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AD7" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AE7" t="s">
         <v>709</v>
@@ -8786,13 +9083,13 @@
         <v>1640</v>
       </c>
       <c r="AG7" t="s">
-        <v>1420</v>
+        <v>750</v>
       </c>
       <c r="AH7" t="s">
         <v>751</v>
       </c>
       <c r="AI7" t="s">
-        <v>931</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -8803,13 +9100,13 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>981</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>1026</v>
+        <v>1696</v>
       </c>
       <c r="E8" t="s">
-        <v>1648</v>
+        <v>1740</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8827,16 +9124,16 @@
         <v>1552</v>
       </c>
       <c r="V8" t="s">
-        <v>1423</v>
+        <v>1709</v>
       </c>
       <c r="W8" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="X8" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="Y8" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="Z8" t="s">
         <v>1545</v>
@@ -8845,13 +9142,13 @@
         <v>1511</v>
       </c>
       <c r="AB8" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AC8" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD8" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AE8" t="s">
         <v>399</v>
@@ -8863,10 +9160,10 @@
         <v>400</v>
       </c>
       <c r="AH8" t="s">
-        <v>1428</v>
+        <v>757</v>
       </c>
       <c r="AI8" t="s">
-        <v>981</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -8877,13 +9174,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>1553</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>1653</v>
+        <v>1038</v>
       </c>
       <c r="E9" t="s">
-        <v>1652</v>
+        <v>1741</v>
       </c>
       <c r="G9" t="s">
         <v>653</v>
@@ -8898,7 +9195,7 @@
         <v>1628</v>
       </c>
       <c r="U9" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="V9" t="s">
         <v>1649</v>
@@ -8913,7 +9210,7 @@
         <v>1651</v>
       </c>
       <c r="Z9" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA9" t="s">
         <v>1556</v>
@@ -8922,25 +9219,25 @@
         <v>1488</v>
       </c>
       <c r="AC9" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD9" t="s">
         <v>1514</v>
       </c>
       <c r="AE9" t="s">
-        <v>1434</v>
+        <v>1097</v>
       </c>
       <c r="AF9" t="s">
-        <v>1435</v>
+        <v>1712</v>
       </c>
       <c r="AG9" t="s">
         <v>1645</v>
       </c>
       <c r="AH9" t="s">
-        <v>1398</v>
+        <v>1705</v>
       </c>
       <c r="AI9" t="s">
-        <v>1553</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8951,13 +9248,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>988</v>
+        <v>1742</v>
       </c>
       <c r="D10" t="s">
-        <v>1655</v>
+        <v>1744</v>
       </c>
       <c r="E10" t="s">
-        <v>1654</v>
+        <v>1743</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -8969,10 +9266,10 @@
         <v>285</v>
       </c>
       <c r="T10" t="s">
-        <v>1436</v>
+        <v>1713</v>
       </c>
       <c r="U10" t="s">
-        <v>1437</v>
+        <v>1714</v>
       </c>
       <c r="V10" t="s">
         <v>1516</v>
@@ -8981,13 +9278,13 @@
         <v>1535</v>
       </c>
       <c r="X10" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="Y10" t="s">
         <v>691</v>
       </c>
       <c r="Z10" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AA10" t="s">
         <v>1632</v>
@@ -8996,16 +9293,16 @@
         <v>1514</v>
       </c>
       <c r="AC10" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD10" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE10" t="s">
-        <v>1439</v>
+        <v>766</v>
       </c>
       <c r="AF10" t="s">
-        <v>1398</v>
+        <v>1705</v>
       </c>
       <c r="AG10" t="s">
         <v>1640</v>
@@ -9014,7 +9311,7 @@
         <v>767</v>
       </c>
       <c r="AI10" t="s">
-        <v>988</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -9025,13 +9322,13 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>981</v>
+        <v>1745</v>
       </c>
       <c r="D11" t="s">
-        <v>1658</v>
+        <v>1612</v>
       </c>
       <c r="E11" t="s">
-        <v>1657</v>
+        <v>1746</v>
       </c>
       <c r="G11" t="s">
         <v>672</v>
@@ -9043,7 +9340,7 @@
         <v>772</v>
       </c>
       <c r="T11" t="s">
-        <v>1434</v>
+        <v>1097</v>
       </c>
       <c r="U11" t="s">
         <v>1656</v>
@@ -9052,13 +9349,13 @@
         <v>1638</v>
       </c>
       <c r="W11" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="X11" t="s">
         <v>1545</v>
       </c>
       <c r="Y11" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="Z11" t="s">
         <v>1636</v>
@@ -9067,28 +9364,28 @@
         <v>1632</v>
       </c>
       <c r="AB11" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AC11" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD11" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AE11" t="s">
         <v>1628</v>
       </c>
       <c r="AF11" t="s">
-        <v>1423</v>
+        <v>1709</v>
       </c>
       <c r="AG11" t="s">
-        <v>1417</v>
+        <v>736</v>
       </c>
       <c r="AH11" t="s">
         <v>1645</v>
       </c>
       <c r="AI11" t="s">
-        <v>981</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -9099,13 +9396,13 @@
         <v>440807</v>
       </c>
       <c r="C12" t="s">
-        <v>778</v>
+        <v>1747</v>
       </c>
       <c r="D12" t="s">
-        <v>1028</v>
+        <v>1749</v>
       </c>
       <c r="E12" t="s">
-        <v>1660</v>
+        <v>1748</v>
       </c>
       <c r="G12" t="s">
         <v>578</v>
@@ -9135,7 +9432,7 @@
         <v>1520</v>
       </c>
       <c r="Z12" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AA12" t="s">
         <v>691</v>
@@ -9144,10 +9441,10 @@
         <v>1502</v>
       </c>
       <c r="AC12" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD12" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE12" t="s">
         <v>1489</v>
@@ -9162,7 +9459,7 @@
         <v>1650</v>
       </c>
       <c r="AI12" t="s">
-        <v>778</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -9173,13 +9470,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>1661</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>1663</v>
+        <v>1696</v>
       </c>
       <c r="E13" t="s">
-        <v>1662</v>
+        <v>1751</v>
       </c>
       <c r="G13" t="s">
         <v>706</v>
@@ -9197,7 +9494,7 @@
         <v>1105</v>
       </c>
       <c r="V13" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="W13" t="s">
         <v>1640</v>
@@ -9209,25 +9506,25 @@
         <v>1632</v>
       </c>
       <c r="Z13" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AA13" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB13" t="s">
         <v>1636</v>
       </c>
       <c r="AC13" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD13" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AE13" t="s">
-        <v>1446</v>
+        <v>1750</v>
       </c>
       <c r="AF13" t="s">
-        <v>1437</v>
+        <v>1714</v>
       </c>
       <c r="AG13" t="s">
         <v>751</v>
@@ -9236,7 +9533,7 @@
         <v>784</v>
       </c>
       <c r="AI13" t="s">
-        <v>1661</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -9247,13 +9544,13 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>923</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>865</v>
+        <v>1754</v>
       </c>
       <c r="E14" t="s">
-        <v>1666</v>
+        <v>1753</v>
       </c>
       <c r="G14" t="s">
         <v>672</v>
@@ -9280,19 +9577,19 @@
         <v>1497</v>
       </c>
       <c r="Y14" t="s">
-        <v>1451</v>
+        <v>789</v>
       </c>
       <c r="Z14" t="s">
-        <v>1452</v>
+        <v>1752</v>
       </c>
       <c r="AA14" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB14" t="s">
         <v>1665</v>
       </c>
       <c r="AC14" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD14" t="s">
         <v>1491</v>
@@ -9310,7 +9607,7 @@
         <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>923</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -9321,13 +9618,13 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>1492</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>1608</v>
+        <v>1756</v>
       </c>
       <c r="E15" t="s">
-        <v>1667</v>
+        <v>1755</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -9345,7 +9642,7 @@
         <v>746</v>
       </c>
       <c r="V15" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="W15" t="s">
         <v>1638</v>
@@ -9354,22 +9651,22 @@
         <v>1456</v>
       </c>
       <c r="Y15" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="Z15" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="AA15" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AB15" t="s">
         <v>1639</v>
       </c>
       <c r="AC15" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD15" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AE15" t="s">
         <v>1062</v>
@@ -9384,7 +9681,7 @@
         <v>1556</v>
       </c>
       <c r="AI15" t="s">
-        <v>1492</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -9395,13 +9692,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>1524</v>
+        <v>1721</v>
       </c>
       <c r="D16" t="s">
-        <v>1608</v>
+        <v>1759</v>
       </c>
       <c r="E16" t="s">
-        <v>1668</v>
+        <v>1758</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
@@ -9416,7 +9713,7 @@
         <v>1628</v>
       </c>
       <c r="U16" t="s">
-        <v>1458</v>
+        <v>1757</v>
       </c>
       <c r="V16" t="s">
         <v>1656</v>
@@ -9431,25 +9728,25 @@
         <v>1632</v>
       </c>
       <c r="Z16" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AA16" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AB16" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AC16" t="s">
         <v>1665</v>
       </c>
       <c r="AD16" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE16" t="s">
         <v>804</v>
       </c>
       <c r="AF16" t="s">
-        <v>1398</v>
+        <v>1705</v>
       </c>
       <c r="AG16" t="s">
         <v>1573</v>
@@ -9458,7 +9755,7 @@
         <v>1574</v>
       </c>
       <c r="AI16" t="s">
-        <v>1524</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9469,13 +9766,13 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>1521</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>1671</v>
+        <v>1048</v>
       </c>
       <c r="E17" t="s">
-        <v>1670</v>
+        <v>1760</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
@@ -9505,19 +9802,19 @@
         <v>1632</v>
       </c>
       <c r="Z17" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA17" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AB17" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AC17" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD17" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE17" t="s">
         <v>1628</v>
@@ -9532,7 +9829,7 @@
         <v>400</v>
       </c>
       <c r="AI17" t="s">
-        <v>1521</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -9543,13 +9840,13 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>1599</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>1589</v>
+        <v>1762</v>
       </c>
       <c r="E18" t="s">
-        <v>1672</v>
+        <v>1761</v>
       </c>
       <c r="G18" t="s">
         <v>672</v>
@@ -9561,7 +9858,7 @@
         <v>813</v>
       </c>
       <c r="T18" t="s">
-        <v>1393</v>
+        <v>1704</v>
       </c>
       <c r="U18" t="s">
         <v>1485</v>
@@ -9570,7 +9867,7 @@
         <v>1638</v>
       </c>
       <c r="W18" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="X18" t="s">
         <v>691</v>
@@ -9579,16 +9876,16 @@
         <v>1545</v>
       </c>
       <c r="Z18" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA18" t="s">
         <v>1632</v>
       </c>
       <c r="AB18" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AC18" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD18" t="s">
         <v>1491</v>
@@ -9597,7 +9894,7 @@
         <v>1062</v>
       </c>
       <c r="AF18" t="s">
-        <v>1423</v>
+        <v>1709</v>
       </c>
       <c r="AG18" t="s">
         <v>1640</v>
@@ -9606,7 +9903,7 @@
         <v>812</v>
       </c>
       <c r="AI18" t="s">
-        <v>1599</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -9617,13 +9914,13 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>1599</v>
+        <v>1763</v>
       </c>
       <c r="D19" t="s">
-        <v>1675</v>
+        <v>1765</v>
       </c>
       <c r="E19" t="s">
-        <v>1674</v>
+        <v>1764</v>
       </c>
       <c r="G19" t="s">
         <v>706</v>
@@ -9650,7 +9947,7 @@
         <v>1629</v>
       </c>
       <c r="Y19" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="Z19" t="s">
         <v>1545</v>
@@ -9662,13 +9959,13 @@
         <v>1665</v>
       </c>
       <c r="AC19" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD19" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE19" t="s">
-        <v>1434</v>
+        <v>1097</v>
       </c>
       <c r="AF19" t="s">
         <v>817</v>
@@ -9680,7 +9977,7 @@
         <v>456</v>
       </c>
       <c r="AI19" t="s">
-        <v>1599</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -9691,13 +9988,13 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>1561</v>
+        <v>1732</v>
       </c>
       <c r="D20" t="s">
-        <v>1675</v>
+        <v>1767</v>
       </c>
       <c r="E20" t="s">
-        <v>1676</v>
+        <v>1766</v>
       </c>
       <c r="G20" t="s">
         <v>452</v>
@@ -9718,7 +10015,7 @@
         <v>1656</v>
       </c>
       <c r="W20" t="s">
-        <v>1372</v>
+        <v>1723</v>
       </c>
       <c r="X20" t="s">
         <v>1650</v>
@@ -9727,34 +10024,34 @@
         <v>1545</v>
       </c>
       <c r="Z20" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AA20" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB20" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AC20" t="s">
         <v>1665</v>
       </c>
       <c r="AD20" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AE20" t="s">
         <v>1628</v>
       </c>
       <c r="AF20" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AG20" t="s">
         <v>751</v>
       </c>
       <c r="AH20" t="s">
-        <v>1420</v>
+        <v>750</v>
       </c>
       <c r="AI20" t="s">
-        <v>1561</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -9765,13 +10062,13 @@
         <v>474028</v>
       </c>
       <c r="C21" t="s">
-        <v>1678</v>
+        <v>1768</v>
       </c>
       <c r="D21" t="s">
-        <v>1598</v>
+        <v>1770</v>
       </c>
       <c r="E21" t="s">
-        <v>1679</v>
+        <v>1769</v>
       </c>
       <c r="G21" t="s">
         <v>706</v>
@@ -9789,13 +10086,13 @@
         <v>1656</v>
       </c>
       <c r="V21" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="W21" t="s">
         <v>1638</v>
       </c>
       <c r="X21" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="Y21" t="s">
         <v>1677</v>
@@ -9807,13 +10104,13 @@
         <v>1545</v>
       </c>
       <c r="AB21" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AC21" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD21" t="s">
-        <v>1470</v>
+        <v>799</v>
       </c>
       <c r="AE21" t="s">
         <v>1062</v>
@@ -9828,7 +10125,7 @@
         <v>1640</v>
       </c>
       <c r="AI21" t="s">
-        <v>1678</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -9839,13 +10136,13 @@
         <v>1229286</v>
       </c>
       <c r="C22" t="s">
-        <v>1129</v>
+        <v>1772</v>
       </c>
       <c r="D22" t="s">
-        <v>1589</v>
+        <v>1774</v>
       </c>
       <c r="E22" t="s">
-        <v>1680</v>
+        <v>1773</v>
       </c>
       <c r="G22" t="s">
         <v>1474</v>
@@ -9863,7 +10160,7 @@
         <v>1516</v>
       </c>
       <c r="V22" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="W22" t="s">
         <v>1638</v>
@@ -9875,16 +10172,16 @@
         <v>1511</v>
       </c>
       <c r="Z22" t="s">
-        <v>1471</v>
+        <v>1771</v>
       </c>
       <c r="AA22" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AB22" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AC22" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD22" t="s">
         <v>907</v>
@@ -9902,7 +10199,7 @@
         <v>828</v>
       </c>
       <c r="AI22" t="s">
-        <v>1129</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -9913,13 +10210,13 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>1561</v>
+        <v>1776</v>
       </c>
       <c r="D23" t="s">
-        <v>1598</v>
+        <v>1774</v>
       </c>
       <c r="E23" t="s">
-        <v>1683</v>
+        <v>1777</v>
       </c>
       <c r="G23" t="s">
         <v>706</v>
@@ -9943,31 +10240,31 @@
         <v>1656</v>
       </c>
       <c r="X23" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="Y23" t="s">
         <v>1065</v>
       </c>
       <c r="Z23" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA23" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AB23" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AC23" t="s">
         <v>1682</v>
       </c>
       <c r="AD23" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AE23" t="s">
         <v>399</v>
       </c>
       <c r="AF23" t="s">
-        <v>1477</v>
+        <v>1775</v>
       </c>
       <c r="AG23" t="s">
         <v>1640</v>
@@ -9976,7 +10273,7 @@
         <v>1669</v>
       </c>
       <c r="AI23" t="s">
-        <v>1561</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -9987,13 +10284,13 @@
         <v>1708392</v>
       </c>
       <c r="C24" t="s">
-        <v>829</v>
+        <v>1778</v>
       </c>
       <c r="D24" t="s">
-        <v>1686</v>
+        <v>1780</v>
       </c>
       <c r="E24" t="s">
-        <v>1685</v>
+        <v>1779</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -10011,22 +10308,22 @@
         <v>1638</v>
       </c>
       <c r="V24" t="s">
-        <v>1372</v>
+        <v>1723</v>
       </c>
       <c r="W24" t="s">
         <v>565</v>
       </c>
       <c r="X24" t="s">
-        <v>1479</v>
+        <v>1126</v>
       </c>
       <c r="Y24" t="s">
-        <v>1480</v>
+        <v>586</v>
       </c>
       <c r="Z24" t="s">
         <v>1502</v>
       </c>
       <c r="AA24" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB24" t="s">
         <v>1677</v>
@@ -10035,7 +10332,7 @@
         <v>1684</v>
       </c>
       <c r="AD24" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AE24" t="s">
         <v>1062</v>
@@ -10047,10 +10344,10 @@
         <v>710</v>
       </c>
       <c r="AH24" t="s">
-        <v>1428</v>
+        <v>757</v>
       </c>
       <c r="AI24" t="s">
-        <v>829</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -10061,13 +10358,13 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>844</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>1005</v>
+        <v>1782</v>
       </c>
       <c r="E25" t="s">
-        <v>1687</v>
+        <v>1781</v>
       </c>
       <c r="G25" t="s">
         <v>578</v>
@@ -10091,22 +10388,22 @@
         <v>1656</v>
       </c>
       <c r="X25" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="Y25" t="s">
-        <v>1376</v>
+        <v>698</v>
       </c>
       <c r="Z25" t="s">
         <v>1132</v>
       </c>
       <c r="AA25" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AB25" t="s">
         <v>1665</v>
       </c>
       <c r="AC25" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD25" t="s">
         <v>1491</v>
@@ -10115,16 +10412,16 @@
         <v>1062</v>
       </c>
       <c r="AF25" t="s">
-        <v>1458</v>
+        <v>1757</v>
       </c>
       <c r="AG25" t="s">
-        <v>1420</v>
+        <v>750</v>
       </c>
       <c r="AH25" t="s">
         <v>751</v>
       </c>
       <c r="AI25" t="s">
-        <v>844</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -10135,13 +10432,13 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>1564</v>
+        <v>1784</v>
       </c>
       <c r="D26" t="s">
-        <v>1583</v>
+        <v>1786</v>
       </c>
       <c r="E26" t="s">
-        <v>1688</v>
+        <v>1785</v>
       </c>
       <c r="G26" t="s">
         <v>653</v>
@@ -10153,10 +10450,10 @@
         <v>849</v>
       </c>
       <c r="T26" t="s">
-        <v>1434</v>
+        <v>1097</v>
       </c>
       <c r="U26" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="V26" t="s">
         <v>1638</v>
@@ -10168,19 +10465,19 @@
         <v>1545</v>
       </c>
       <c r="Y26" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="Z26" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="AA26" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="AB26" t="s">
-        <v>1470</v>
+        <v>799</v>
       </c>
       <c r="AC26" t="s">
-        <v>1483</v>
+        <v>1783</v>
       </c>
       <c r="AD26" t="s">
         <v>1639</v>
@@ -10198,7 +10495,7 @@
         <v>817</v>
       </c>
       <c r="AI26" t="s">
-        <v>1564</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -10209,13 +10506,13 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>923</v>
+        <v>1787</v>
       </c>
       <c r="D27" t="s">
-        <v>1690</v>
+        <v>1789</v>
       </c>
       <c r="E27" t="s">
-        <v>1689</v>
+        <v>1788</v>
       </c>
       <c r="G27" t="s">
         <v>672</v>
@@ -10230,7 +10527,7 @@
         <v>1489</v>
       </c>
       <c r="U27" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="V27" t="s">
         <v>1638</v>
@@ -10242,10 +10539,10 @@
         <v>1552</v>
       </c>
       <c r="Y27" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="Z27" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AA27" t="s">
         <v>1545</v>
@@ -10254,10 +10551,10 @@
         <v>1665</v>
       </c>
       <c r="AC27" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD27" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AE27" t="s">
         <v>1062</v>
@@ -10272,7 +10569,7 @@
         <v>1456</v>
       </c>
       <c r="AI27" t="s">
-        <v>923</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -10283,13 +10580,13 @@
         <v>290784</v>
       </c>
       <c r="C28" t="s">
-        <v>673</v>
+        <v>1790</v>
       </c>
       <c r="D28" t="s">
-        <v>1054</v>
+        <v>1792</v>
       </c>
       <c r="E28" t="s">
-        <v>1691</v>
+        <v>1791</v>
       </c>
       <c r="G28" t="s">
         <v>452</v>
@@ -10316,22 +10613,22 @@
         <v>1552</v>
       </c>
       <c r="Y28" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="Z28" t="s">
-        <v>1376</v>
+        <v>698</v>
       </c>
       <c r="AA28" t="s">
-        <v>1373</v>
+        <v>1083</v>
       </c>
       <c r="AB28" t="s">
         <v>1065</v>
       </c>
       <c r="AC28" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AD28" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AE28" t="s">
         <v>399</v>
@@ -10343,10 +10640,10 @@
         <v>1645</v>
       </c>
       <c r="AH28" t="s">
-        <v>1471</v>
+        <v>1771</v>
       </c>
       <c r="AI28" t="s">
-        <v>673</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -10357,13 +10654,13 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>1661</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>1694</v>
+        <v>1794</v>
       </c>
       <c r="E29" t="s">
-        <v>1693</v>
+        <v>1793</v>
       </c>
       <c r="G29" t="s">
         <v>706</v>
@@ -10381,7 +10678,7 @@
         <v>1629</v>
       </c>
       <c r="V29" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="W29" t="s">
         <v>1656</v>
@@ -10393,19 +10690,19 @@
         <v>1632</v>
       </c>
       <c r="Z29" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA29" t="s">
         <v>1511</v>
       </c>
       <c r="AB29" t="s">
-        <v>1470</v>
+        <v>799</v>
       </c>
       <c r="AC29" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD29" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE29" t="s">
         <v>1628</v>
@@ -10417,10 +10714,10 @@
         <v>1485</v>
       </c>
       <c r="AH29" t="s">
-        <v>1420</v>
+        <v>750</v>
       </c>
       <c r="AI29" t="s">
-        <v>1661</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -10431,13 +10728,13 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>1521</v>
+        <v>316</v>
       </c>
       <c r="D30" t="s">
-        <v>1696</v>
+        <v>1774</v>
       </c>
       <c r="E30" t="s">
-        <v>1695</v>
+        <v>1773</v>
       </c>
       <c r="G30" t="s">
         <v>930</v>
@@ -10464,22 +10761,22 @@
         <v>1545</v>
       </c>
       <c r="Y30" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="Z30" t="s">
         <v>1511</v>
       </c>
       <c r="AA30" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="AB30" t="s">
-        <v>1470</v>
+        <v>799</v>
       </c>
       <c r="AC30" t="s">
-        <v>1388</v>
+        <v>683</v>
       </c>
       <c r="AD30" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE30" t="s">
         <v>1062</v>
@@ -10494,7 +10791,7 @@
         <v>1574</v>
       </c>
       <c r="AI30" t="s">
-        <v>1521</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -10505,13 +10802,13 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>1518</v>
+        <v>1732</v>
       </c>
       <c r="D31" t="s">
-        <v>1043</v>
+        <v>1796</v>
       </c>
       <c r="E31" t="s">
-        <v>1697</v>
+        <v>1795</v>
       </c>
       <c r="G31" t="s">
         <v>706</v>
@@ -10535,25 +10832,25 @@
         <v>1497</v>
       </c>
       <c r="X31" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="Y31" t="s">
         <v>1545</v>
       </c>
       <c r="Z31" t="s">
-        <v>1375</v>
+        <v>1724</v>
       </c>
       <c r="AA31" t="s">
         <v>1132</v>
       </c>
       <c r="AB31" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="AC31" t="s">
-        <v>1408</v>
+        <v>1706</v>
       </c>
       <c r="AD31" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE31" t="s">
         <v>1062</v>
@@ -10568,7 +10865,7 @@
         <v>817</v>
       </c>
       <c r="AI31" t="s">
-        <v>1518</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -10579,13 +10876,13 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>1492</v>
+        <v>890</v>
       </c>
       <c r="D32" t="s">
-        <v>1699</v>
+        <v>1798</v>
       </c>
       <c r="E32" t="s">
-        <v>1698</v>
+        <v>1797</v>
       </c>
       <c r="G32" t="s">
         <v>706</v>
@@ -10600,7 +10897,7 @@
         <v>1489</v>
       </c>
       <c r="U32" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="V32" t="s">
         <v>1656</v>
@@ -10618,16 +10915,16 @@
         <v>1132</v>
       </c>
       <c r="AA32" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AB32" t="s">
-        <v>1389</v>
+        <v>1703</v>
       </c>
       <c r="AC32" t="s">
         <v>1665</v>
       </c>
       <c r="AD32" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE32" t="s">
         <v>1062</v>
@@ -10642,7 +10939,7 @@
         <v>817</v>
       </c>
       <c r="AI32" t="s">
-        <v>1492</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -10653,13 +10950,13 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>844</v>
+        <v>1799</v>
       </c>
       <c r="D33" t="s">
-        <v>1694</v>
+        <v>1794</v>
       </c>
       <c r="E33" t="s">
-        <v>1701</v>
+        <v>1800</v>
       </c>
       <c r="G33" t="s">
         <v>452</v>
@@ -10680,28 +10977,28 @@
         <v>1516</v>
       </c>
       <c r="W33" t="s">
-        <v>1381</v>
+        <v>1725</v>
       </c>
       <c r="X33" t="s">
         <v>1511</v>
       </c>
       <c r="Y33" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="Z33" t="s">
-        <v>1385</v>
+        <v>1726</v>
       </c>
       <c r="AA33" t="s">
         <v>1700</v>
       </c>
       <c r="AB33" t="s">
-        <v>1470</v>
+        <v>799</v>
       </c>
       <c r="AC33" t="s">
         <v>1639</v>
       </c>
       <c r="AD33" t="s">
-        <v>1414</v>
+        <v>1736</v>
       </c>
       <c r="AE33" t="s">
         <v>1062</v>
@@ -10716,7 +11013,7 @@
         <v>817</v>
       </c>
       <c r="AI33" t="s">
-        <v>844</v>
+        <v>1799</v>
       </c>
     </row>
   </sheetData>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6000" uniqueCount="1624">
   <si>
     <t>Places</t>
   </si>
@@ -4632,6 +4632,276 @@
   </si>
   <si>
     <t>366</t>
+  </si>
+  <si>
+    <t>Thiago Silva 6</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>472,276</t>
+  </si>
+  <si>
+    <t>26,246</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>881,322</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>248,617</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>530,085</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>1,343,904</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>Mings 0</t>
+  </si>
+  <si>
+    <t>2,104,014</t>
+  </si>
+  <si>
+    <t>Cucho 5</t>
+  </si>
+  <si>
+    <t>3,457,474</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>Skipp 2</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka -1</t>
+  </si>
+  <si>
+    <t>5,231,465</t>
+  </si>
+  <si>
+    <t>343,527</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>Keane 4</t>
+  </si>
+  <si>
+    <t>3,424,710</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2,745,133</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2,002,538</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>Aubameyang 6</t>
+  </si>
+  <si>
+    <t>Aarons -3</t>
+  </si>
+  <si>
+    <t>5,263,115</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>Maguire -1</t>
+  </si>
+  <si>
+    <t>James 26$ captain</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>5,963,490</t>
+  </si>
+  <si>
+    <t>de Gea 1</t>
+  </si>
+  <si>
+    <t>Gabriel 2</t>
+  </si>
+  <si>
+    <t>7,888,648</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>1,851,836</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>3,867,961</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>2,095,388</t>
+  </si>
+  <si>
+    <t>953,365</t>
+  </si>
+  <si>
+    <t>2,533,325</t>
+  </si>
+  <si>
+    <t>2,345,103</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>1,428,743</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>1,968,424</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>831,215</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>1,404,654</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>1,631,454</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>598,219</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>1,944,694</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>973,697</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>397,374</t>
+  </si>
+  <si>
+    <t>590,471</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>212,855</t>
+  </si>
+  <si>
+    <t>668,975</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>686,900</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>348,159</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>3,761,139</t>
+  </si>
+  <si>
+    <t>566,082</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>143,451</t>
+  </si>
+  <si>
+    <t>110,739</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>518,114</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>304,458</t>
+  </si>
+  <si>
+    <t>512,518</t>
+  </si>
+  <si>
+    <t>112,166</t>
   </si>
 </sst>
 </file>
@@ -5465,26 +5735,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="28" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="18.23828125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.14453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="14.6953125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.3828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5608,16 +5882,16 @@
         <v>5695560</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>1535</v>
       </c>
       <c r="D2" t="s">
-        <v>889</v>
+        <v>1395</v>
       </c>
       <c r="E2" t="s">
-        <v>888</v>
+        <v>1536</v>
       </c>
       <c r="G2" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R2" t="s">
         <v>887</v>
@@ -5626,37 +5900,37 @@
         <v>886</v>
       </c>
       <c r="T2" t="s">
-        <v>880</v>
+        <v>1444</v>
       </c>
       <c r="U2" t="s">
         <v>736</v>
       </c>
       <c r="V2" t="s">
-        <v>734</v>
+        <v>1534</v>
       </c>
       <c r="W2" t="s">
-        <v>687</v>
+        <v>1314</v>
       </c>
       <c r="X2" t="s">
-        <v>903</v>
+        <v>1339</v>
       </c>
       <c r="Y2" t="s">
         <v>881</v>
       </c>
       <c r="Z2" t="s">
-        <v>738</v>
+        <v>1017</v>
       </c>
       <c r="AA2" t="s">
-        <v>882</v>
+        <v>383</v>
       </c>
       <c r="AB2" t="s">
         <v>883</v>
       </c>
       <c r="AC2" t="s">
-        <v>728</v>
+        <v>1287</v>
       </c>
       <c r="AD2" t="s">
-        <v>682</v>
+        <v>1351</v>
       </c>
       <c r="AE2" t="s">
         <v>884</v>
@@ -5671,7 +5945,7 @@
         <v>885</v>
       </c>
       <c r="AI2" t="s">
-        <v>671</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -5682,13 +5956,13 @@
         <v>1153704</v>
       </c>
       <c r="C3" t="s">
-        <v>890</v>
+        <v>1472</v>
       </c>
       <c r="D3" t="s">
-        <v>894</v>
+        <v>1538</v>
       </c>
       <c r="E3" t="s">
-        <v>893</v>
+        <v>1537</v>
       </c>
       <c r="G3" t="s">
         <v>452</v>
@@ -5700,52 +5974,52 @@
         <v>891</v>
       </c>
       <c r="T3" t="s">
-        <v>674</v>
+        <v>1280</v>
       </c>
       <c r="U3" t="s">
-        <v>688</v>
+        <v>1305</v>
       </c>
       <c r="V3" t="s">
-        <v>816</v>
+        <v>1314</v>
       </c>
       <c r="W3" t="s">
-        <v>677</v>
+        <v>1340</v>
       </c>
       <c r="X3" t="s">
-        <v>756</v>
+        <v>1301</v>
       </c>
       <c r="Y3" t="s">
-        <v>678</v>
+        <v>1331</v>
       </c>
       <c r="Z3" t="s">
-        <v>698</v>
+        <v>1339</v>
       </c>
       <c r="AA3" t="s">
-        <v>679</v>
+        <v>1284</v>
       </c>
       <c r="AB3" t="s">
-        <v>682</v>
+        <v>1291</v>
       </c>
       <c r="AC3" t="s">
-        <v>904</v>
+        <v>1351</v>
       </c>
       <c r="AD3" t="s">
-        <v>795</v>
+        <v>1329</v>
       </c>
       <c r="AE3" t="s">
-        <v>693</v>
+        <v>1005</v>
       </c>
       <c r="AF3" t="s">
-        <v>675</v>
+        <v>1283</v>
       </c>
       <c r="AG3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AH3" t="s">
         <v>817</v>
       </c>
-      <c r="AH3" t="s">
-        <v>676</v>
-      </c>
       <c r="AI3" t="s">
-        <v>890</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -5756,16 +6030,16 @@
         <v>440807</v>
       </c>
       <c r="C4" t="s">
-        <v>778</v>
+        <v>1362</v>
       </c>
       <c r="D4" t="s">
-        <v>780</v>
+        <v>1540</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>1539</v>
       </c>
       <c r="G4" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="R4" t="s">
         <v>418</v>
@@ -5774,52 +6048,52 @@
         <v>289</v>
       </c>
       <c r="T4" t="s">
-        <v>686</v>
+        <v>1315</v>
       </c>
       <c r="U4" t="s">
-        <v>688</v>
+        <v>1278</v>
       </c>
       <c r="V4" t="s">
-        <v>677</v>
+        <v>1314</v>
       </c>
       <c r="W4" t="s">
-        <v>687</v>
+        <v>1292</v>
       </c>
       <c r="X4" t="s">
-        <v>776</v>
+        <v>1301</v>
       </c>
       <c r="Y4" t="s">
-        <v>721</v>
+        <v>1289</v>
       </c>
       <c r="Z4" t="s">
-        <v>678</v>
+        <v>1339</v>
       </c>
       <c r="AA4" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="AB4" t="s">
-        <v>902</v>
+        <v>1284</v>
       </c>
       <c r="AC4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG4" t="s">
         <v>692</v>
       </c>
-      <c r="AD4" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>777</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>679</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>676</v>
-      </c>
       <c r="AH4" t="s">
-        <v>761</v>
+        <v>1312</v>
       </c>
       <c r="AI4" t="s">
-        <v>778</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -5830,16 +6104,16 @@
         <v>4642646</v>
       </c>
       <c r="C5" t="s">
-        <v>730</v>
+        <v>1541</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>1543</v>
       </c>
       <c r="E5" t="s">
-        <v>897</v>
+        <v>1542</v>
       </c>
       <c r="G5" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="R5" t="s">
         <v>896</v>
@@ -5848,52 +6122,52 @@
         <v>895</v>
       </c>
       <c r="T5" t="s">
-        <v>674</v>
+        <v>1005</v>
       </c>
       <c r="U5" t="s">
-        <v>677</v>
+        <v>1278</v>
       </c>
       <c r="V5" t="s">
-        <v>696</v>
+        <v>1301</v>
       </c>
       <c r="W5" t="s">
-        <v>689</v>
+        <v>1305</v>
       </c>
       <c r="X5" t="s">
-        <v>721</v>
+        <v>1017</v>
       </c>
       <c r="Y5" t="s">
-        <v>738</v>
+        <v>1291</v>
       </c>
       <c r="Z5" t="s">
-        <v>678</v>
+        <v>1284</v>
       </c>
       <c r="AA5" t="s">
-        <v>720</v>
+        <v>1339</v>
       </c>
       <c r="AB5" t="s">
-        <v>904</v>
+        <v>1304</v>
       </c>
       <c r="AC5" t="s">
-        <v>795</v>
+        <v>907</v>
       </c>
       <c r="AD5" t="s">
-        <v>728</v>
+        <v>1317</v>
       </c>
       <c r="AE5" t="s">
-        <v>693</v>
+        <v>1300</v>
       </c>
       <c r="AF5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AG5" t="s">
         <v>707</v>
       </c>
-      <c r="AG5" t="s">
-        <v>747</v>
-      </c>
       <c r="AH5" t="s">
-        <v>676</v>
+        <v>1290</v>
       </c>
       <c r="AI5" t="s">
-        <v>730</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -5904,16 +6178,16 @@
         <v>1364835</v>
       </c>
       <c r="C6" t="s">
-        <v>844</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>901</v>
+        <v>1545</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
+        <v>1544</v>
       </c>
       <c r="G6" t="s">
-        <v>706</v>
+        <v>578</v>
       </c>
       <c r="R6" t="s">
         <v>899</v>
@@ -5922,52 +6196,52 @@
         <v>898</v>
       </c>
       <c r="T6" t="s">
-        <v>726</v>
+        <v>1285</v>
       </c>
       <c r="U6" t="s">
         <v>736</v>
       </c>
       <c r="V6" t="s">
-        <v>675</v>
+        <v>1340</v>
       </c>
       <c r="W6" t="s">
-        <v>687</v>
+        <v>1305</v>
       </c>
       <c r="X6" t="s">
-        <v>689</v>
+        <v>1294</v>
       </c>
       <c r="Y6" t="s">
-        <v>782</v>
+        <v>1276</v>
       </c>
       <c r="Z6" t="s">
-        <v>678</v>
+        <v>1341</v>
       </c>
       <c r="AA6" t="s">
-        <v>720</v>
+        <v>1304</v>
       </c>
       <c r="AB6" t="s">
-        <v>749</v>
+        <v>1302</v>
       </c>
       <c r="AC6" t="s">
-        <v>683</v>
+        <v>1326</v>
       </c>
       <c r="AD6" t="s">
-        <v>902</v>
+        <v>692</v>
       </c>
       <c r="AE6" t="s">
-        <v>762</v>
+        <v>1028</v>
       </c>
       <c r="AF6" t="s">
-        <v>679</v>
+        <v>1307</v>
       </c>
       <c r="AG6" t="s">
-        <v>805</v>
+        <v>1310</v>
       </c>
       <c r="AH6" t="s">
-        <v>751</v>
+        <v>1334</v>
       </c>
       <c r="AI6" t="s">
-        <v>844</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -5978,13 +6252,13 @@
         <v>5306515</v>
       </c>
       <c r="C7" t="s">
-        <v>771</v>
+        <v>1541</v>
       </c>
       <c r="D7" t="s">
-        <v>913</v>
+        <v>1547</v>
       </c>
       <c r="E7" t="s">
-        <v>912</v>
+        <v>1546</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
@@ -5996,31 +6270,31 @@
         <v>910</v>
       </c>
       <c r="T7" t="s">
-        <v>378</v>
+        <v>1296</v>
       </c>
       <c r="U7" t="s">
-        <v>687</v>
+        <v>1314</v>
       </c>
       <c r="V7" t="s">
-        <v>676</v>
+        <v>1301</v>
       </c>
       <c r="W7" t="s">
-        <v>727</v>
+        <v>1012</v>
       </c>
       <c r="X7" t="s">
-        <v>678</v>
+        <v>1339</v>
       </c>
       <c r="Y7" t="s">
-        <v>738</v>
+        <v>1017</v>
       </c>
       <c r="Z7" t="s">
-        <v>776</v>
+        <v>492</v>
       </c>
       <c r="AA7" t="s">
-        <v>680</v>
+        <v>1291</v>
       </c>
       <c r="AB7" t="s">
-        <v>905</v>
+        <v>1351</v>
       </c>
       <c r="AC7" t="s">
         <v>906</v>
@@ -6029,19 +6303,19 @@
         <v>907</v>
       </c>
       <c r="AE7" t="s">
-        <v>880</v>
+        <v>1444</v>
       </c>
       <c r="AF7" t="s">
         <v>707</v>
       </c>
       <c r="AG7" t="s">
-        <v>908</v>
+        <v>791</v>
       </c>
       <c r="AH7" t="s">
-        <v>909</v>
+        <v>817</v>
       </c>
       <c r="AI7" t="s">
-        <v>771</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -6052,16 +6326,16 @@
         <v>2249991</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>918</v>
+        <v>996</v>
       </c>
       <c r="E8" t="s">
-        <v>917</v>
+        <v>1549</v>
       </c>
       <c r="G8" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R8" t="s">
         <v>916</v>
@@ -6070,31 +6344,31 @@
         <v>915</v>
       </c>
       <c r="T8" t="s">
-        <v>880</v>
+        <v>1444</v>
       </c>
       <c r="U8" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
       <c r="V8" t="s">
-        <v>687</v>
+        <v>1314</v>
       </c>
       <c r="W8" t="s">
-        <v>719</v>
+        <v>1548</v>
       </c>
       <c r="X8" t="s">
-        <v>914</v>
+        <v>1042</v>
       </c>
       <c r="Y8" t="s">
-        <v>756</v>
+        <v>1332</v>
       </c>
       <c r="Z8" t="s">
-        <v>691</v>
+        <v>1386</v>
       </c>
       <c r="AA8" t="s">
-        <v>903</v>
+        <v>1339</v>
       </c>
       <c r="AB8" t="s">
-        <v>682</v>
+        <v>1351</v>
       </c>
       <c r="AC8" t="s">
         <v>683</v>
@@ -6103,19 +6377,19 @@
         <v>906</v>
       </c>
       <c r="AE8" t="s">
-        <v>674</v>
+        <v>1300</v>
       </c>
       <c r="AF8" t="s">
-        <v>789</v>
+        <v>509</v>
       </c>
       <c r="AG8" t="s">
-        <v>805</v>
+        <v>1294</v>
       </c>
       <c r="AH8" t="s">
-        <v>412</v>
+        <v>1372</v>
       </c>
       <c r="AI8" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -6126,16 +6400,16 @@
         <v>2056865</v>
       </c>
       <c r="C9" t="s">
-        <v>923</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>716</v>
+        <v>1552</v>
       </c>
       <c r="E9" t="s">
-        <v>926</v>
+        <v>1551</v>
       </c>
       <c r="G9" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="R9" t="s">
         <v>925</v>
@@ -6144,16 +6418,16 @@
         <v>924</v>
       </c>
       <c r="T9" t="s">
-        <v>833</v>
+        <v>1321</v>
       </c>
       <c r="U9" t="s">
-        <v>782</v>
+        <v>1340</v>
       </c>
       <c r="V9" t="s">
-        <v>687</v>
+        <v>1314</v>
       </c>
       <c r="W9" t="s">
-        <v>919</v>
+        <v>1303</v>
       </c>
       <c r="X9" t="s">
         <v>691</v>
@@ -6162,34 +6436,34 @@
         <v>698</v>
       </c>
       <c r="Z9" t="s">
-        <v>679</v>
+        <v>1302</v>
       </c>
       <c r="AA9" t="s">
-        <v>701</v>
+        <v>1284</v>
       </c>
       <c r="AB9" t="s">
-        <v>756</v>
+        <v>1386</v>
       </c>
       <c r="AC9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AD9" t="s">
         <v>920</v>
       </c>
-      <c r="AD9" t="s">
-        <v>728</v>
-      </c>
       <c r="AE9" t="s">
-        <v>693</v>
+        <v>1005</v>
       </c>
       <c r="AF9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AG9" t="s">
-        <v>684</v>
+        <v>1334</v>
       </c>
       <c r="AH9" t="s">
-        <v>922</v>
+        <v>1550</v>
       </c>
       <c r="AI9" t="s">
-        <v>923</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -6200,13 +6474,13 @@
         <v>5142355</v>
       </c>
       <c r="C10" t="s">
-        <v>940</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>944</v>
+        <v>775</v>
       </c>
       <c r="E10" t="s">
-        <v>943</v>
+        <v>1555</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -6218,52 +6492,52 @@
         <v>941</v>
       </c>
       <c r="T10" t="s">
-        <v>781</v>
+        <v>1365</v>
       </c>
       <c r="U10" t="s">
-        <v>873</v>
+        <v>791</v>
       </c>
       <c r="V10" t="s">
-        <v>719</v>
+        <v>509</v>
       </c>
       <c r="W10" t="s">
-        <v>791</v>
+        <v>1314</v>
       </c>
       <c r="X10" t="s">
-        <v>936</v>
+        <v>1294</v>
       </c>
       <c r="Y10" t="s">
-        <v>805</v>
+        <v>1341</v>
       </c>
       <c r="Z10" t="s">
-        <v>937</v>
+        <v>413</v>
       </c>
       <c r="AA10" t="s">
-        <v>678</v>
+        <v>1553</v>
       </c>
       <c r="AB10" t="s">
-        <v>747</v>
+        <v>1468</v>
       </c>
       <c r="AC10" t="s">
-        <v>904</v>
+        <v>683</v>
       </c>
       <c r="AD10" t="s">
-        <v>728</v>
+        <v>1322</v>
       </c>
       <c r="AE10" t="s">
         <v>709</v>
       </c>
       <c r="AF10" t="s">
-        <v>938</v>
+        <v>1554</v>
       </c>
       <c r="AG10" t="s">
-        <v>939</v>
+        <v>1293</v>
       </c>
       <c r="AH10" t="s">
-        <v>806</v>
+        <v>1295</v>
       </c>
       <c r="AI10" t="s">
-        <v>940</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -6274,16 +6548,16 @@
         <v>1628438</v>
       </c>
       <c r="C11" t="s">
-        <v>771</v>
+        <v>1383</v>
       </c>
       <c r="D11" t="s">
-        <v>827</v>
+        <v>1557</v>
       </c>
       <c r="E11" t="s">
-        <v>947</v>
+        <v>1556</v>
       </c>
       <c r="G11" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="R11" t="s">
         <v>946</v>
@@ -6292,37 +6566,37 @@
         <v>945</v>
       </c>
       <c r="T11" t="s">
-        <v>674</v>
+        <v>1300</v>
       </c>
       <c r="U11" t="s">
-        <v>688</v>
+        <v>1292</v>
       </c>
       <c r="V11" t="s">
-        <v>675</v>
+        <v>1301</v>
       </c>
       <c r="W11" t="s">
         <v>791</v>
       </c>
       <c r="X11" t="s">
-        <v>698</v>
+        <v>1302</v>
       </c>
       <c r="Y11" t="s">
-        <v>739</v>
+        <v>1291</v>
       </c>
       <c r="Z11" t="s">
-        <v>738</v>
+        <v>1279</v>
       </c>
       <c r="AA11" t="s">
-        <v>678</v>
+        <v>1017</v>
       </c>
       <c r="AB11" t="s">
-        <v>749</v>
+        <v>1339</v>
       </c>
       <c r="AC11" t="s">
-        <v>682</v>
+        <v>1310</v>
       </c>
       <c r="AD11" t="s">
-        <v>904</v>
+        <v>683</v>
       </c>
       <c r="AE11" t="s">
         <v>804</v>
@@ -6331,13 +6605,13 @@
         <v>707</v>
       </c>
       <c r="AG11" t="s">
-        <v>756</v>
+        <v>1307</v>
       </c>
       <c r="AH11" t="s">
-        <v>676</v>
+        <v>1287</v>
       </c>
       <c r="AI11" t="s">
-        <v>771</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -6348,16 +6622,16 @@
         <v>1427447</v>
       </c>
       <c r="C12" t="s">
-        <v>874</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>954</v>
+        <v>1560</v>
       </c>
       <c r="E12" t="s">
-        <v>953</v>
+        <v>1559</v>
       </c>
       <c r="G12" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
       <c r="R12" t="s">
         <v>952</v>
@@ -6366,52 +6640,52 @@
         <v>951</v>
       </c>
       <c r="T12" t="s">
-        <v>948</v>
+        <v>1296</v>
       </c>
       <c r="U12" t="s">
-        <v>677</v>
+        <v>1340</v>
       </c>
       <c r="V12" t="s">
-        <v>949</v>
+        <v>1558</v>
       </c>
       <c r="W12" t="s">
-        <v>688</v>
+        <v>1314</v>
       </c>
       <c r="X12" t="s">
-        <v>687</v>
+        <v>1305</v>
       </c>
       <c r="Y12" t="s">
-        <v>914</v>
+        <v>1341</v>
       </c>
       <c r="Z12" t="s">
-        <v>697</v>
+        <v>1291</v>
       </c>
       <c r="AA12" t="s">
-        <v>776</v>
+        <v>1042</v>
       </c>
       <c r="AB12" t="s">
-        <v>720</v>
+        <v>1017</v>
       </c>
       <c r="AC12" t="s">
         <v>904</v>
       </c>
       <c r="AD12" t="s">
-        <v>907</v>
+        <v>1306</v>
       </c>
       <c r="AE12" t="s">
-        <v>950</v>
+        <v>1005</v>
       </c>
       <c r="AF12" t="s">
-        <v>684</v>
+        <v>914</v>
       </c>
       <c r="AG12" t="s">
-        <v>921</v>
+        <v>1334</v>
       </c>
       <c r="AH12" t="s">
-        <v>721</v>
+        <v>1310</v>
       </c>
       <c r="AI12" t="s">
-        <v>874</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -6422,13 +6696,13 @@
         <v>5648774</v>
       </c>
       <c r="C13" t="s">
-        <v>940</v>
+        <v>1561</v>
       </c>
       <c r="D13" t="s">
-        <v>705</v>
+        <v>865</v>
       </c>
       <c r="E13" t="s">
-        <v>960</v>
+        <v>1562</v>
       </c>
       <c r="G13" t="s">
         <v>653</v>
@@ -6440,52 +6714,52 @@
         <v>958</v>
       </c>
       <c r="T13" t="s">
-        <v>741</v>
+        <v>1308</v>
       </c>
       <c r="U13" t="s">
-        <v>675</v>
+        <v>1295</v>
       </c>
       <c r="V13" t="s">
-        <v>718</v>
+        <v>1372</v>
       </c>
       <c r="W13" t="s">
-        <v>755</v>
+        <v>1330</v>
       </c>
       <c r="X13" t="s">
-        <v>395</v>
+        <v>1338</v>
       </c>
       <c r="Y13" t="s">
-        <v>678</v>
+        <v>1339</v>
       </c>
       <c r="Z13" t="s">
-        <v>955</v>
+        <v>1527</v>
       </c>
       <c r="AA13" t="s">
-        <v>738</v>
+        <v>1017</v>
       </c>
       <c r="AB13" t="s">
-        <v>776</v>
+        <v>492</v>
       </c>
       <c r="AC13" t="s">
-        <v>904</v>
+        <v>683</v>
       </c>
       <c r="AD13" t="s">
-        <v>728</v>
+        <v>1287</v>
       </c>
       <c r="AE13" t="s">
         <v>399</v>
       </c>
       <c r="AF13" t="s">
-        <v>806</v>
+        <v>1307</v>
       </c>
       <c r="AG13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AH13" t="s">
         <v>957</v>
       </c>
       <c r="AI13" t="s">
-        <v>940</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -6496,16 +6770,16 @@
         <v>3452385</v>
       </c>
       <c r="C14" t="s">
-        <v>771</v>
+        <v>1563</v>
       </c>
       <c r="D14" t="s">
-        <v>967</v>
+        <v>1565</v>
       </c>
       <c r="E14" t="s">
-        <v>966</v>
+        <v>1564</v>
       </c>
       <c r="G14" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R14" t="s">
         <v>965</v>
@@ -6514,52 +6788,52 @@
         <v>964</v>
       </c>
       <c r="T14" t="s">
-        <v>717</v>
+        <v>1327</v>
       </c>
       <c r="U14" t="s">
-        <v>922</v>
+        <v>1303</v>
       </c>
       <c r="V14" t="s">
         <v>736</v>
       </c>
       <c r="W14" t="s">
-        <v>395</v>
+        <v>1338</v>
       </c>
       <c r="X14" t="s">
-        <v>738</v>
+        <v>1332</v>
       </c>
       <c r="Y14" t="s">
-        <v>903</v>
+        <v>1339</v>
       </c>
       <c r="Z14" t="s">
-        <v>681</v>
+        <v>1006</v>
       </c>
       <c r="AA14" t="s">
-        <v>691</v>
+        <v>1017</v>
       </c>
       <c r="AB14" t="s">
-        <v>682</v>
+        <v>1304</v>
       </c>
       <c r="AC14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD14" t="s">
         <v>683</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>728</v>
       </c>
       <c r="AE14" t="s">
         <v>961</v>
       </c>
       <c r="AF14" t="s">
-        <v>962</v>
+        <v>1287</v>
       </c>
       <c r="AG14" t="s">
-        <v>685</v>
+        <v>1328</v>
       </c>
       <c r="AH14" t="s">
         <v>963</v>
       </c>
       <c r="AI14" t="s">
-        <v>771</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -6570,13 +6844,13 @@
         <v>2297330</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>1447</v>
       </c>
       <c r="D15" t="s">
-        <v>975</v>
+        <v>1569</v>
       </c>
       <c r="E15" t="s">
-        <v>974</v>
+        <v>1568</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -6588,52 +6862,52 @@
         <v>972</v>
       </c>
       <c r="T15" t="s">
-        <v>717</v>
+        <v>1327</v>
       </c>
       <c r="U15" t="s">
-        <v>718</v>
+        <v>1312</v>
       </c>
       <c r="V15" t="s">
-        <v>677</v>
+        <v>1278</v>
       </c>
       <c r="W15" t="s">
-        <v>968</v>
+        <v>416</v>
       </c>
       <c r="X15" t="s">
-        <v>937</v>
+        <v>413</v>
       </c>
       <c r="Y15" t="s">
-        <v>882</v>
+        <v>383</v>
       </c>
       <c r="Z15" t="s">
-        <v>969</v>
+        <v>1006</v>
       </c>
       <c r="AA15" t="s">
-        <v>690</v>
+        <v>456</v>
       </c>
       <c r="AB15" t="s">
-        <v>970</v>
+        <v>1326</v>
       </c>
       <c r="AC15" t="s">
-        <v>795</v>
+        <v>1317</v>
       </c>
       <c r="AD15" t="s">
-        <v>794</v>
+        <v>1566</v>
       </c>
       <c r="AE15" t="s">
         <v>884</v>
       </c>
       <c r="AF15" t="s">
-        <v>805</v>
+        <v>1294</v>
       </c>
       <c r="AG15" t="s">
-        <v>971</v>
+        <v>1372</v>
       </c>
       <c r="AH15" t="s">
-        <v>400</v>
+        <v>1567</v>
       </c>
       <c r="AI15" t="s">
-        <v>290</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -6644,13 +6918,13 @@
         <v>5361878</v>
       </c>
       <c r="C16" t="s">
-        <v>981</v>
+        <v>1572</v>
       </c>
       <c r="D16" t="s">
-        <v>985</v>
+        <v>725</v>
       </c>
       <c r="E16" t="s">
-        <v>984</v>
+        <v>1573</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
@@ -6662,40 +6936,40 @@
         <v>982</v>
       </c>
       <c r="T16" t="s">
-        <v>781</v>
+        <v>1327</v>
       </c>
       <c r="U16" t="s">
-        <v>922</v>
+        <v>1570</v>
       </c>
       <c r="V16" t="s">
-        <v>718</v>
+        <v>1571</v>
       </c>
       <c r="W16" t="s">
-        <v>938</v>
+        <v>1372</v>
       </c>
       <c r="X16" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AA16" t="s">
         <v>914</v>
       </c>
-      <c r="Y16" t="s">
-        <v>776</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>976</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>977</v>
-      </c>
       <c r="AB16" t="s">
-        <v>907</v>
+        <v>1329</v>
       </c>
       <c r="AC16" t="s">
-        <v>978</v>
+        <v>1317</v>
       </c>
       <c r="AD16" t="s">
-        <v>902</v>
+        <v>1323</v>
       </c>
       <c r="AE16" t="s">
-        <v>717</v>
+        <v>1365</v>
       </c>
       <c r="AF16" t="s">
         <v>707</v>
@@ -6707,7 +6981,7 @@
         <v>980</v>
       </c>
       <c r="AI16" t="s">
-        <v>981</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -6718,13 +6992,13 @@
         <v>5344757</v>
       </c>
       <c r="C17" t="s">
-        <v>988</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>992</v>
+        <v>1577</v>
       </c>
       <c r="E17" t="s">
-        <v>991</v>
+        <v>1576</v>
       </c>
       <c r="G17" t="s">
         <v>653</v>
@@ -6736,52 +7010,52 @@
         <v>989</v>
       </c>
       <c r="T17" t="s">
-        <v>948</v>
+        <v>1574</v>
       </c>
       <c r="U17" t="s">
-        <v>412</v>
+        <v>1548</v>
       </c>
       <c r="V17" t="s">
         <v>919</v>
       </c>
       <c r="W17" t="s">
-        <v>734</v>
+        <v>1534</v>
       </c>
       <c r="X17" t="s">
-        <v>739</v>
+        <v>986</v>
       </c>
       <c r="Y17" t="s">
-        <v>969</v>
+        <v>1279</v>
       </c>
       <c r="Z17" t="s">
-        <v>776</v>
+        <v>1419</v>
       </c>
       <c r="AA17" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB17" t="s">
         <v>691</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>698</v>
       </c>
-      <c r="AC17" t="s">
-        <v>683</v>
-      </c>
       <c r="AD17" t="s">
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="AE17" t="s">
-        <v>693</v>
+        <v>1005</v>
       </c>
       <c r="AF17" t="s">
-        <v>986</v>
+        <v>1531</v>
       </c>
       <c r="AG17" t="s">
-        <v>987</v>
+        <v>1575</v>
       </c>
       <c r="AH17" t="s">
-        <v>749</v>
+        <v>1310</v>
       </c>
       <c r="AI17" t="s">
-        <v>988</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7708,29 +7982,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="25" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.32421875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.2109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.5078125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -7854,13 +8131,13 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>1344</v>
       </c>
       <c r="D2" t="s">
-        <v>1298</v>
+        <v>1579</v>
       </c>
       <c r="E2" t="s">
-        <v>1337</v>
+        <v>1578</v>
       </c>
       <c r="G2" t="s">
         <v>672</v>
@@ -7875,31 +8152,31 @@
         <v>1300</v>
       </c>
       <c r="U2" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="V2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="W2" t="s">
         <v>1278</v>
       </c>
-      <c r="W2" t="s">
-        <v>1301</v>
-      </c>
       <c r="X2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="Y2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Z2" t="s">
         <v>1017</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1335</v>
-      </c>
       <c r="AA2" t="s">
-        <v>1339</v>
+        <v>1042</v>
       </c>
       <c r="AB2" t="s">
         <v>698</v>
       </c>
       <c r="AC2" t="s">
-        <v>1042</v>
+        <v>700</v>
       </c>
       <c r="AD2" t="s">
         <v>692</v>
@@ -7908,7 +8185,7 @@
         <v>1005</v>
       </c>
       <c r="AF2" t="s">
-        <v>700</v>
+        <v>1290</v>
       </c>
       <c r="AG2" t="s">
         <v>1340</v>
@@ -7917,7 +8194,7 @@
         <v>699</v>
       </c>
       <c r="AI2" t="s">
-        <v>308</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7928,13 +8205,13 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>1343</v>
+        <v>1581</v>
       </c>
       <c r="E3" t="s">
-        <v>1342</v>
+        <v>1580</v>
       </c>
       <c r="G3" t="s">
         <v>672</v>
@@ -7949,49 +8226,49 @@
         <v>1300</v>
       </c>
       <c r="U3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V3" t="s">
+        <v>710</v>
+      </c>
+      <c r="W3" t="s">
         <v>1301</v>
       </c>
-      <c r="V3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1283</v>
-      </c>
       <c r="X3" t="s">
-        <v>1340</v>
+        <v>1006</v>
       </c>
       <c r="Y3" t="s">
-        <v>1302</v>
+        <v>691</v>
       </c>
       <c r="Z3" t="s">
         <v>1341</v>
       </c>
       <c r="AA3" t="s">
-        <v>691</v>
+        <v>553</v>
       </c>
       <c r="AB3" t="s">
-        <v>553</v>
+        <v>1302</v>
       </c>
       <c r="AC3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AD3" t="s">
         <v>683</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1326</v>
       </c>
       <c r="AE3" t="s">
         <v>709</v>
       </c>
       <c r="AF3" t="s">
-        <v>1006</v>
+        <v>1290</v>
       </c>
       <c r="AG3" t="s">
-        <v>710</v>
+        <v>1283</v>
       </c>
       <c r="AH3" t="s">
         <v>1008</v>
       </c>
       <c r="AI3" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -8005,10 +8282,10 @@
         <v>1344</v>
       </c>
       <c r="D4" t="s">
-        <v>1346</v>
+        <v>996</v>
       </c>
       <c r="E4" t="s">
-        <v>1345</v>
+        <v>1582</v>
       </c>
       <c r="G4" t="s">
         <v>706</v>
@@ -8076,13 +8353,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>1347</v>
+        <v>1460</v>
       </c>
       <c r="D5" t="s">
-        <v>1349</v>
+        <v>1068</v>
       </c>
       <c r="E5" t="s">
-        <v>1348</v>
+        <v>1583</v>
       </c>
       <c r="G5" t="s">
         <v>452</v>
@@ -8097,40 +8374,40 @@
         <v>1285</v>
       </c>
       <c r="U5" t="s">
-        <v>707</v>
+        <v>1012</v>
       </c>
       <c r="V5" t="s">
         <v>1305</v>
       </c>
       <c r="W5" t="s">
-        <v>1012</v>
+        <v>1278</v>
       </c>
       <c r="X5" t="s">
         <v>729</v>
       </c>
       <c r="Y5" t="s">
-        <v>456</v>
+        <v>1339</v>
       </c>
       <c r="Z5" t="s">
-        <v>1339</v>
+        <v>691</v>
       </c>
       <c r="AA5" t="s">
         <v>1291</v>
       </c>
       <c r="AB5" t="s">
-        <v>691</v>
+        <v>456</v>
       </c>
       <c r="AC5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AD5" t="s">
         <v>1306</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>1329</v>
       </c>
       <c r="AE5" t="s">
         <v>1005</v>
       </c>
       <c r="AF5" t="s">
-        <v>1278</v>
+        <v>707</v>
       </c>
       <c r="AG5" t="s">
         <v>700</v>
@@ -8139,7 +8416,7 @@
         <v>1307</v>
       </c>
       <c r="AI5" t="s">
-        <v>1347</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -8153,10 +8430,10 @@
         <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>1353</v>
+        <v>997</v>
       </c>
       <c r="E6" t="s">
-        <v>1352</v>
+        <v>1584</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -8227,10 +8504,10 @@
         <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>997</v>
+        <v>1586</v>
       </c>
       <c r="E7" t="s">
-        <v>1354</v>
+        <v>1585</v>
       </c>
       <c r="G7" t="s">
         <v>672</v>
@@ -8301,10 +8578,10 @@
         <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>1324</v>
+        <v>1588</v>
       </c>
       <c r="E8" t="s">
-        <v>1355</v>
+        <v>1587</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8372,13 +8649,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>998</v>
+        <v>1590</v>
       </c>
       <c r="E9" t="s">
-        <v>1356</v>
+        <v>1589</v>
       </c>
       <c r="G9" t="s">
         <v>653</v>
@@ -8393,49 +8670,49 @@
         <v>1300</v>
       </c>
       <c r="U9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="V9" t="s">
         <v>1340</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>1311</v>
       </c>
-      <c r="W9" t="s">
-        <v>1290</v>
-      </c>
       <c r="X9" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="Y9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AA9" t="s">
         <v>1313</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>1341</v>
       </c>
-      <c r="AA9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1279</v>
-      </c>
       <c r="AC9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AD9" t="s">
         <v>683</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>1287</v>
       </c>
       <c r="AE9" t="s">
         <v>1028</v>
       </c>
       <c r="AF9" t="s">
-        <v>1332</v>
+        <v>1290</v>
       </c>
       <c r="AG9" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="AH9" t="s">
-        <v>1328</v>
+        <v>1287</v>
       </c>
       <c r="AI9" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8446,13 +8723,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>1357</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>1359</v>
+        <v>1588</v>
       </c>
       <c r="E10" t="s">
-        <v>1358</v>
+        <v>1587</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -8467,13 +8744,13 @@
         <v>1333</v>
       </c>
       <c r="U10" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="V10" t="s">
         <v>1288</v>
       </c>
       <c r="W10" t="s">
-        <v>1290</v>
+        <v>1334</v>
       </c>
       <c r="X10" t="s">
         <v>1339</v>
@@ -8491,16 +8768,16 @@
         <v>1287</v>
       </c>
       <c r="AC10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD10" t="s">
         <v>683</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1351</v>
       </c>
       <c r="AE10" t="s">
         <v>766</v>
       </c>
       <c r="AF10" t="s">
-        <v>1328</v>
+        <v>1290</v>
       </c>
       <c r="AG10" t="s">
         <v>1307</v>
@@ -8509,7 +8786,7 @@
         <v>767</v>
       </c>
       <c r="AI10" t="s">
-        <v>1357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -8523,10 +8800,10 @@
         <v>1360</v>
       </c>
       <c r="D11" t="s">
-        <v>1299</v>
+        <v>1592</v>
       </c>
       <c r="E11" t="s">
-        <v>1361</v>
+        <v>1591</v>
       </c>
       <c r="G11" t="s">
         <v>672</v>
@@ -8597,10 +8874,10 @@
         <v>1362</v>
       </c>
       <c r="D12" t="s">
-        <v>1364</v>
+        <v>1540</v>
       </c>
       <c r="E12" t="s">
-        <v>1363</v>
+        <v>1539</v>
       </c>
       <c r="G12" t="s">
         <v>578</v>
@@ -8668,13 +8945,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>1535</v>
       </c>
       <c r="D13" t="s">
-        <v>1324</v>
+        <v>1594</v>
       </c>
       <c r="E13" t="s">
-        <v>1366</v>
+        <v>1593</v>
       </c>
       <c r="G13" t="s">
         <v>706</v>
@@ -8689,25 +8966,25 @@
         <v>1280</v>
       </c>
       <c r="U13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V13" t="s">
         <v>1033</v>
       </c>
-      <c r="V13" t="s">
-        <v>1340</v>
-      </c>
       <c r="W13" t="s">
-        <v>1307</v>
+        <v>1334</v>
       </c>
       <c r="X13" t="s">
         <v>707</v>
       </c>
       <c r="Y13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Z13" t="s">
         <v>1302</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>1017</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>1341</v>
       </c>
       <c r="AB13" t="s">
         <v>1304</v>
@@ -8722,7 +8999,7 @@
         <v>1365</v>
       </c>
       <c r="AF13" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
       <c r="AG13" t="s">
         <v>751</v>
@@ -8731,7 +9008,7 @@
         <v>784</v>
       </c>
       <c r="AI13" t="s">
-        <v>284</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -8742,13 +9019,13 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>890</v>
       </c>
       <c r="D14" t="s">
-        <v>1369</v>
+        <v>1596</v>
       </c>
       <c r="E14" t="s">
-        <v>1368</v>
+        <v>1595</v>
       </c>
       <c r="G14" t="s">
         <v>672</v>
@@ -8763,10 +9040,10 @@
         <v>1034</v>
       </c>
       <c r="U14" t="s">
+        <v>789</v>
+      </c>
+      <c r="V14" t="s">
         <v>1316</v>
-      </c>
-      <c r="V14" t="s">
-        <v>565</v>
       </c>
       <c r="W14" t="s">
         <v>791</v>
@@ -8775,7 +9052,7 @@
         <v>1283</v>
       </c>
       <c r="Y14" t="s">
-        <v>789</v>
+        <v>456</v>
       </c>
       <c r="Z14" t="s">
         <v>1367</v>
@@ -8784,19 +9061,19 @@
         <v>1341</v>
       </c>
       <c r="AB14" t="s">
-        <v>1317</v>
+        <v>1282</v>
       </c>
       <c r="AC14" t="s">
         <v>1329</v>
       </c>
       <c r="AD14" t="s">
-        <v>1282</v>
+        <v>1317</v>
       </c>
       <c r="AE14" t="s">
         <v>1005</v>
       </c>
       <c r="AF14" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="AG14" t="s">
         <v>751</v>
@@ -8805,7 +9082,7 @@
         <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>286</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -8819,10 +9096,10 @@
         <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>1371</v>
+        <v>1540</v>
       </c>
       <c r="E15" t="s">
-        <v>1370</v>
+        <v>1539</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -8890,13 +9167,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>1336</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>1374</v>
+        <v>1598</v>
       </c>
       <c r="E16" t="s">
-        <v>1373</v>
+        <v>1597</v>
       </c>
       <c r="G16" t="s">
         <v>653</v>
@@ -8911,31 +9188,31 @@
         <v>1300</v>
       </c>
       <c r="U16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="V16" t="s">
         <v>1372</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>1314</v>
       </c>
-      <c r="W16" t="s">
-        <v>694</v>
-      </c>
       <c r="X16" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y16" t="s">
         <v>1006</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1302</v>
       </c>
       <c r="Z16" t="s">
         <v>1339</v>
       </c>
       <c r="AA16" t="s">
-        <v>383</v>
+        <v>1302</v>
       </c>
       <c r="AB16" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AC16" t="s">
         <v>683</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1317</v>
       </c>
       <c r="AD16" t="s">
         <v>1351</v>
@@ -8944,7 +9221,7 @@
         <v>804</v>
       </c>
       <c r="AF16" t="s">
-        <v>1328</v>
+        <v>694</v>
       </c>
       <c r="AG16" t="s">
         <v>1294</v>
@@ -8953,7 +9230,7 @@
         <v>1295</v>
       </c>
       <c r="AI16" t="s">
-        <v>1336</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -8967,10 +9244,10 @@
         <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>999</v>
+        <v>1600</v>
       </c>
       <c r="E17" t="s">
-        <v>1375</v>
+        <v>1599</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
@@ -9041,10 +9318,10 @@
         <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>1377</v>
+        <v>1602</v>
       </c>
       <c r="E18" t="s">
-        <v>1376</v>
+        <v>1601</v>
       </c>
       <c r="G18" t="s">
         <v>672</v>
@@ -9112,13 +9389,13 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="D19" t="s">
-        <v>1380</v>
+        <v>1513</v>
       </c>
       <c r="E19" t="s">
-        <v>1379</v>
+        <v>1603</v>
       </c>
       <c r="G19" t="s">
         <v>706</v>
@@ -9133,40 +9410,40 @@
         <v>1280</v>
       </c>
       <c r="U19" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="V19" t="s">
         <v>1319</v>
       </c>
       <c r="W19" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="X19" t="s">
-        <v>1301</v>
+        <v>817</v>
       </c>
       <c r="Y19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA19" t="s">
         <v>1339</v>
       </c>
-      <c r="Z19" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1006</v>
-      </c>
       <c r="AB19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AC19" t="s">
         <v>1317</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>1329</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>1351</v>
       </c>
       <c r="AE19" t="s">
         <v>1028</v>
       </c>
       <c r="AF19" t="s">
-        <v>817</v>
+        <v>1283</v>
       </c>
       <c r="AG19" t="s">
         <v>1281</v>
@@ -9175,7 +9452,7 @@
         <v>456</v>
       </c>
       <c r="AI19" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -9189,10 +9466,10 @@
         <v>1347</v>
       </c>
       <c r="D20" t="s">
-        <v>1382</v>
+        <v>1605</v>
       </c>
       <c r="E20" t="s">
-        <v>1381</v>
+        <v>1604</v>
       </c>
       <c r="G20" t="s">
         <v>452</v>
@@ -9263,10 +9540,10 @@
         <v>1383</v>
       </c>
       <c r="D21" t="s">
-        <v>1385</v>
+        <v>1404</v>
       </c>
       <c r="E21" t="s">
-        <v>1384</v>
+        <v>1606</v>
       </c>
       <c r="G21" t="s">
         <v>706</v>
@@ -9337,10 +9614,10 @@
         <v>1387</v>
       </c>
       <c r="D22" t="s">
-        <v>1389</v>
+        <v>1608</v>
       </c>
       <c r="E22" t="s">
-        <v>1388</v>
+        <v>1607</v>
       </c>
       <c r="G22" t="s">
         <v>1277</v>
@@ -9411,10 +9688,10 @@
         <v>1391</v>
       </c>
       <c r="D23" t="s">
-        <v>1389</v>
+        <v>1610</v>
       </c>
       <c r="E23" t="s">
-        <v>1392</v>
+        <v>1609</v>
       </c>
       <c r="G23" t="s">
         <v>706</v>
@@ -9485,10 +9762,10 @@
         <v>1393</v>
       </c>
       <c r="D24" t="s">
-        <v>1395</v>
+        <v>1557</v>
       </c>
       <c r="E24" t="s">
-        <v>1394</v>
+        <v>1611</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -9509,28 +9786,28 @@
         <v>1338</v>
       </c>
       <c r="W24" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="X24" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Y24" t="s">
         <v>1040</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>586</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>1284</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>1341</v>
       </c>
       <c r="AB24" t="s">
         <v>1320</v>
       </c>
       <c r="AC24" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD24" t="s">
         <v>1323</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>683</v>
       </c>
       <c r="AE24" t="s">
         <v>1005</v>
@@ -9539,7 +9816,7 @@
         <v>1290</v>
       </c>
       <c r="AG24" t="s">
-        <v>710</v>
+        <v>565</v>
       </c>
       <c r="AH24" t="s">
         <v>757</v>
@@ -9556,13 +9833,13 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>1612</v>
       </c>
       <c r="D25" t="s">
         <v>1397</v>
       </c>
       <c r="E25" t="s">
-        <v>1396</v>
+        <v>1613</v>
       </c>
       <c r="G25" t="s">
         <v>578</v>
@@ -9577,40 +9854,40 @@
         <v>1285</v>
       </c>
       <c r="U25" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1372</v>
+      </c>
+      <c r="W25" t="s">
         <v>1292</v>
       </c>
-      <c r="V25" t="s">
-        <v>707</v>
-      </c>
-      <c r="W25" t="s">
-        <v>1314</v>
-      </c>
       <c r="X25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Y25" t="s">
         <v>1017</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA25" t="s">
         <v>698</v>
       </c>
-      <c r="Z25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>383</v>
-      </c>
       <c r="AB25" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AD25" t="s">
         <v>1317</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1282</v>
       </c>
       <c r="AE25" t="s">
         <v>1005</v>
       </c>
       <c r="AF25" t="s">
-        <v>1372</v>
+        <v>707</v>
       </c>
       <c r="AG25" t="s">
         <v>750</v>
@@ -9619,7 +9896,7 @@
         <v>751</v>
       </c>
       <c r="AI25" t="s">
-        <v>671</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -9633,10 +9910,10 @@
         <v>1399</v>
       </c>
       <c r="D26" t="s">
-        <v>1401</v>
+        <v>1615</v>
       </c>
       <c r="E26" t="s">
-        <v>1400</v>
+        <v>1614</v>
       </c>
       <c r="G26" t="s">
         <v>653</v>
@@ -9707,10 +9984,10 @@
         <v>1402</v>
       </c>
       <c r="D27" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="E27" t="s">
-        <v>1403</v>
+        <v>1616</v>
       </c>
       <c r="G27" t="s">
         <v>672</v>
@@ -9781,10 +10058,10 @@
         <v>1405</v>
       </c>
       <c r="D28" t="s">
-        <v>1407</v>
+        <v>1543</v>
       </c>
       <c r="E28" t="s">
-        <v>1406</v>
+        <v>1542</v>
       </c>
       <c r="G28" t="s">
         <v>452</v>
@@ -9855,10 +10132,10 @@
         <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>1409</v>
+        <v>1618</v>
       </c>
       <c r="E29" t="s">
-        <v>1408</v>
+        <v>1617</v>
       </c>
       <c r="G29" t="s">
         <v>706</v>
@@ -9926,13 +10203,13 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>1389</v>
+        <v>1620</v>
       </c>
       <c r="E30" t="s">
-        <v>1388</v>
+        <v>1619</v>
       </c>
       <c r="G30" t="s">
         <v>930</v>
@@ -9950,7 +10227,7 @@
         <v>1305</v>
       </c>
       <c r="V30" t="s">
-        <v>694</v>
+        <v>1301</v>
       </c>
       <c r="W30" t="s">
         <v>1303</v>
@@ -9962,25 +10239,25 @@
         <v>1341</v>
       </c>
       <c r="Z30" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AA30" t="s">
         <v>1286</v>
       </c>
-      <c r="AA30" t="s">
-        <v>1331</v>
-      </c>
       <c r="AB30" t="s">
-        <v>799</v>
+        <v>1351</v>
       </c>
       <c r="AC30" t="s">
         <v>683</v>
       </c>
       <c r="AD30" t="s">
-        <v>1351</v>
+        <v>799</v>
       </c>
       <c r="AE30" t="s">
         <v>1005</v>
       </c>
       <c r="AF30" t="s">
-        <v>1301</v>
+        <v>694</v>
       </c>
       <c r="AG30" t="s">
         <v>817</v>
@@ -9989,7 +10266,7 @@
         <v>1295</v>
       </c>
       <c r="AI30" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -10000,13 +10277,13 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>1347</v>
+        <v>1387</v>
       </c>
       <c r="D31" t="s">
-        <v>1411</v>
+        <v>1385</v>
       </c>
       <c r="E31" t="s">
-        <v>1410</v>
+        <v>1621</v>
       </c>
       <c r="G31" t="s">
         <v>706</v>
@@ -10024,37 +10301,37 @@
         <v>1314</v>
       </c>
       <c r="V31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="W31" t="s">
         <v>1305</v>
       </c>
-      <c r="W31" t="s">
-        <v>1283</v>
-      </c>
       <c r="X31" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Y31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Z31" t="s">
         <v>1291</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>1339</v>
       </c>
       <c r="AA31" t="s">
         <v>1042</v>
       </c>
       <c r="AB31" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="AC31" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD31" t="s">
         <v>1329</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>1351</v>
       </c>
       <c r="AE31" t="s">
         <v>1005</v>
       </c>
       <c r="AF31" t="s">
-        <v>1317</v>
+        <v>1283</v>
       </c>
       <c r="AG31" t="s">
         <v>1301</v>
@@ -10063,7 +10340,7 @@
         <v>817</v>
       </c>
       <c r="AI31" t="s">
-        <v>1347</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -10074,13 +10351,13 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>890</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>1413</v>
+        <v>1620</v>
       </c>
       <c r="E32" t="s">
-        <v>1412</v>
+        <v>1622</v>
       </c>
       <c r="G32" t="s">
         <v>706</v>
@@ -10095,40 +10372,40 @@
         <v>1280</v>
       </c>
       <c r="U32" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V32" t="s">
         <v>1340</v>
       </c>
-      <c r="V32" t="s">
-        <v>1314</v>
-      </c>
       <c r="W32" t="s">
-        <v>694</v>
+        <v>1312</v>
       </c>
       <c r="X32" t="s">
         <v>1305</v>
       </c>
       <c r="Y32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AA32" t="s">
         <v>1291</v>
       </c>
-      <c r="Z32" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>1341</v>
-      </c>
       <c r="AB32" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD32" t="s">
         <v>1326</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>1351</v>
       </c>
       <c r="AE32" t="s">
         <v>1005</v>
       </c>
       <c r="AF32" t="s">
-        <v>1312</v>
+        <v>694</v>
       </c>
       <c r="AG32" t="s">
         <v>691</v>
@@ -10137,7 +10414,7 @@
         <v>817</v>
       </c>
       <c r="AI32" t="s">
-        <v>890</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -10151,10 +10428,10 @@
         <v>1414</v>
       </c>
       <c r="D33" t="s">
-        <v>1409</v>
+        <v>1618</v>
       </c>
       <c r="E33" t="s">
-        <v>1415</v>
+        <v>1623</v>
       </c>
       <c r="G33" t="s">
         <v>452</v>

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="1655">
   <si>
     <t>Places</t>
   </si>
@@ -4845,12 +4845,163 @@
   </si>
   <si>
     <t>265</t>
+  </si>
+  <si>
+    <t>1,871,045</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>3,357,664</t>
+  </si>
+  <si>
+    <t>1,457,782</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>Hwang 2</t>
+  </si>
+  <si>
+    <t>720,832</t>
+  </si>
+  <si>
+    <t>2,283,457</t>
+  </si>
+  <si>
+    <t>2,072,528</t>
+  </si>
+  <si>
+    <t>1,115,680</t>
+  </si>
+  <si>
+    <t>2,222,844</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>1,118,040</t>
+  </si>
+  <si>
+    <t>1,021,164</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>777,525</t>
+  </si>
+  <si>
+    <t>1,782,805</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>Jiménez 9</t>
+  </si>
+  <si>
+    <t>Digne 0</t>
+  </si>
+  <si>
+    <t>1,918,293</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>887,025</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>737,212</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>1,633,706</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>1,168,304</t>
+  </si>
+  <si>
+    <t>388,527</t>
+  </si>
+  <si>
+    <t>689,122</t>
+  </si>
+  <si>
+    <t>171,516</t>
+  </si>
+  <si>
+    <t>687,432</t>
+  </si>
+  <si>
+    <t>743,656</t>
+  </si>
+  <si>
+    <t>184,334</t>
+  </si>
+  <si>
+    <t>3,690,390</t>
+  </si>
+  <si>
+    <t>553,532</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>95,192</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>330,074</t>
+  </si>
+  <si>
+    <t>129,594</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>161,226</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>478,918</t>
+  </si>
+  <si>
+    <t>507,381</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>157,970</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5331,19 +5482,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="3.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="21" width="4.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="6.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="12.7109375" collapsed="true"/>
+    <col min="4" max="7" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="8" max="12" bestFit="true" customWidth="true" style="3" width="3.28515625" collapsed="true"/>
+    <col min="13" max="21" bestFit="true" customWidth="true" style="3" width="4.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="5.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="5.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="6.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -5677,28 +5828,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="25" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -7110,28 +7261,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="23" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -7410,18 +7561,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="28" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="34" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="20" max="28" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="34" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8018,30 +8169,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.43359375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.74609375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="22.5859375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.5859375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.07421875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.7890625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.4609375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -8165,13 +8318,13 @@
         <v>2438499</v>
       </c>
       <c r="C2" t="s">
-        <v>785</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>1443</v>
+        <v>1606</v>
       </c>
       <c r="E2" t="s">
-        <v>1442</v>
+        <v>1605</v>
       </c>
       <c r="G2" t="s">
         <v>452</v>
@@ -8186,16 +8339,16 @@
         <v>693</v>
       </c>
       <c r="U2" t="s">
+        <v>943</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W2" t="s">
         <v>1432</v>
       </c>
-      <c r="V2" t="s">
-        <v>943</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1433</v>
-      </c>
       <c r="X2" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="s">
         <v>1435</v>
@@ -8204,10 +8357,10 @@
         <v>1436</v>
       </c>
       <c r="AA2" t="s">
-        <v>1203</v>
+        <v>1434</v>
       </c>
       <c r="AB2" t="s">
-        <v>1437</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="s">
         <v>1252</v>
@@ -8222,13 +8375,13 @@
         <v>1439</v>
       </c>
       <c r="AG2" t="s">
-        <v>1440</v>
+        <v>1203</v>
       </c>
       <c r="AH2" t="s">
-        <v>1441</v>
+        <v>1225</v>
       </c>
       <c r="AI2" t="s">
-        <v>785</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -8239,13 +8392,13 @@
         <v>1293900</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
-        <v>1451</v>
+        <v>939</v>
       </c>
       <c r="E3" t="s">
-        <v>1450</v>
+        <v>1607</v>
       </c>
       <c r="G3" t="s">
         <v>653</v>
@@ -8260,49 +8413,49 @@
         <v>1438</v>
       </c>
       <c r="U3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W3" t="s">
         <v>943</v>
       </c>
-      <c r="V3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1432</v>
-      </c>
       <c r="X3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Z3" t="s">
         <v>947</v>
       </c>
-      <c r="Y3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1436</v>
-      </c>
       <c r="AA3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AB3" t="s">
-        <v>1446</v>
+        <v>679</v>
       </c>
       <c r="AC3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1447</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1252</v>
       </c>
       <c r="AE3" t="s">
         <v>1448</v>
       </c>
       <c r="AF3" t="s">
-        <v>1441</v>
+        <v>1225</v>
       </c>
       <c r="AG3" t="s">
-        <v>1449</v>
+        <v>1218</v>
       </c>
       <c r="AH3" t="s">
         <v>949</v>
       </c>
       <c r="AI3" t="s">
-        <v>268</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -8313,13 +8466,13 @@
         <v>4115919</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>1370</v>
+        <v>1609</v>
       </c>
       <c r="E4" t="s">
-        <v>1456</v>
+        <v>1608</v>
       </c>
       <c r="G4" t="s">
         <v>653</v>
@@ -8343,19 +8496,19 @@
         <v>1432</v>
       </c>
       <c r="X4" t="s">
-        <v>1444</v>
+        <v>1454</v>
       </c>
       <c r="Y4" t="s">
-        <v>1453</v>
+        <v>679</v>
       </c>
       <c r="Z4" t="s">
-        <v>1454</v>
+        <v>1435</v>
       </c>
       <c r="AA4" t="s">
-        <v>1435</v>
+        <v>947</v>
       </c>
       <c r="AB4" t="s">
-        <v>947</v>
+        <v>700</v>
       </c>
       <c r="AC4" t="s">
         <v>1447</v>
@@ -8367,7 +8520,7 @@
         <v>693</v>
       </c>
       <c r="AF4" t="s">
-        <v>700</v>
+        <v>1453</v>
       </c>
       <c r="AG4" t="s">
         <v>1455</v>
@@ -8376,7 +8529,7 @@
         <v>685</v>
       </c>
       <c r="AI4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -8387,13 +8540,13 @@
         <v>2324952</v>
       </c>
       <c r="C5" t="s">
-        <v>1461</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>1463</v>
+        <v>1523</v>
       </c>
       <c r="E5" t="s">
-        <v>1462</v>
+        <v>1611</v>
       </c>
       <c r="G5" t="s">
         <v>706</v>
@@ -8408,49 +8561,49 @@
         <v>1220</v>
       </c>
       <c r="U5" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="V5" t="s">
         <v>1457</v>
       </c>
       <c r="W5" t="s">
-        <v>727</v>
+        <v>1440</v>
       </c>
       <c r="X5" t="s">
         <v>1458</v>
       </c>
       <c r="Y5" t="s">
-        <v>1459</v>
+        <v>1436</v>
       </c>
       <c r="Z5" t="s">
-        <v>1436</v>
+        <v>404</v>
       </c>
       <c r="AA5" t="s">
-        <v>404</v>
+        <v>1445</v>
       </c>
       <c r="AB5" t="s">
         <v>700</v>
       </c>
       <c r="AC5" t="s">
-        <v>1460</v>
+        <v>1252</v>
       </c>
       <c r="AD5" t="s">
-        <v>1252</v>
+        <v>1610</v>
       </c>
       <c r="AE5" t="s">
         <v>693</v>
       </c>
       <c r="AF5" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
       <c r="AG5" t="s">
-        <v>1440</v>
+        <v>707</v>
       </c>
       <c r="AH5" t="s">
         <v>1239</v>
       </c>
       <c r="AI5" t="s">
-        <v>1461</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -8467,7 +8620,7 @@
         <v>1468</v>
       </c>
       <c r="E6" t="s">
-        <v>1467</v>
+        <v>1612</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -8535,13 +8688,13 @@
         <v>488734</v>
       </c>
       <c r="C7" t="s">
-        <v>1470</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="E7" t="s">
-        <v>1471</v>
+        <v>1613</v>
       </c>
       <c r="G7" t="s">
         <v>706</v>
@@ -8565,31 +8718,31 @@
         <v>943</v>
       </c>
       <c r="X7" t="s">
-        <v>1437</v>
+        <v>1239</v>
       </c>
       <c r="Y7" t="s">
+        <v>980</v>
+      </c>
+      <c r="Z7" t="s">
         <v>404</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>1203</v>
       </c>
       <c r="AA7" t="s">
         <v>1436</v>
       </c>
       <c r="AB7" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="AC7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AD7" t="s">
         <v>1252</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1447</v>
       </c>
       <c r="AE7" t="s">
         <v>1448</v>
       </c>
       <c r="AF7" t="s">
-        <v>1239</v>
+        <v>1203</v>
       </c>
       <c r="AG7" t="s">
         <v>750</v>
@@ -8598,7 +8751,7 @@
         <v>1469</v>
       </c>
       <c r="AI7" t="s">
-        <v>1470</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -8609,13 +8762,13 @@
         <v>1069199</v>
       </c>
       <c r="C8" t="s">
-        <v>1475</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>1477</v>
+        <v>1488</v>
       </c>
       <c r="E8" t="s">
-        <v>1476</v>
+        <v>1614</v>
       </c>
       <c r="G8" t="s">
         <v>653</v>
@@ -8630,19 +8783,19 @@
         <v>1438</v>
       </c>
       <c r="U8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="W8" t="s">
         <v>1472</v>
       </c>
-      <c r="V8" t="s">
-        <v>1473</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1432</v>
-      </c>
       <c r="X8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Y8" t="s">
         <v>1434</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1459</v>
       </c>
       <c r="Z8" t="s">
         <v>404</v>
@@ -8663,7 +8816,7 @@
         <v>399</v>
       </c>
       <c r="AF8" t="s">
-        <v>1253</v>
+        <v>1459</v>
       </c>
       <c r="AG8" t="s">
         <v>400</v>
@@ -8672,7 +8825,7 @@
         <v>757</v>
       </c>
       <c r="AI8" t="s">
-        <v>1475</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -8683,13 +8836,13 @@
         <v>1327409</v>
       </c>
       <c r="C9" t="s">
-        <v>908</v>
+        <v>1461</v>
       </c>
       <c r="D9" t="s">
-        <v>1483</v>
+        <v>1616</v>
       </c>
       <c r="E9" t="s">
-        <v>1482</v>
+        <v>1615</v>
       </c>
       <c r="G9" t="s">
         <v>672</v>
@@ -8704,34 +8857,34 @@
         <v>1438</v>
       </c>
       <c r="U9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="V9" t="s">
         <v>1432</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>971</v>
       </c>
-      <c r="W9" t="s">
-        <v>1441</v>
-      </c>
       <c r="X9" t="s">
-        <v>1478</v>
+        <v>1216</v>
       </c>
       <c r="Y9" t="s">
         <v>1479</v>
       </c>
       <c r="Z9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AB9" t="s">
         <v>1436</v>
       </c>
-      <c r="AA9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1255</v>
-      </c>
       <c r="AC9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AD9" t="s">
         <v>1447</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>1460</v>
       </c>
       <c r="AE9" t="s">
         <v>1480</v>
@@ -8740,13 +8893,13 @@
         <v>1481</v>
       </c>
       <c r="AG9" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="AH9" t="s">
         <v>685</v>
       </c>
       <c r="AI9" t="s">
-        <v>908</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -8757,13 +8910,13 @@
         <v>2203632</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>1271</v>
+        <v>1488</v>
       </c>
       <c r="E10" t="s">
-        <v>1486</v>
+        <v>1617</v>
       </c>
       <c r="G10" t="s">
         <v>706</v>
@@ -8796,7 +8949,7 @@
         <v>1434</v>
       </c>
       <c r="AA10" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="AB10" t="s">
         <v>1252</v>
@@ -8817,10 +8970,10 @@
         <v>1239</v>
       </c>
       <c r="AH10" t="s">
-        <v>1441</v>
+        <v>1225</v>
       </c>
       <c r="AI10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -8831,13 +8984,13 @@
         <v>3998490</v>
       </c>
       <c r="C11" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="D11" t="s">
-        <v>1488</v>
+        <v>1619</v>
       </c>
       <c r="E11" t="s">
-        <v>1487</v>
+        <v>1618</v>
       </c>
       <c r="G11" t="s">
         <v>706</v>
@@ -8864,13 +9017,13 @@
         <v>404</v>
       </c>
       <c r="Y11" t="s">
-        <v>1437</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="s">
         <v>1434</v>
       </c>
       <c r="AA11" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="AB11" t="s">
         <v>1436</v>
@@ -8894,7 +9047,7 @@
         <v>1481</v>
       </c>
       <c r="AI11" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -8911,7 +9064,7 @@
         <v>1492</v>
       </c>
       <c r="E12" t="s">
-        <v>1491</v>
+        <v>1620</v>
       </c>
       <c r="G12" t="s">
         <v>653</v>
@@ -8979,13 +9132,13 @@
         <v>2184142</v>
       </c>
       <c r="C13" t="s">
-        <v>874</v>
+        <v>1461</v>
       </c>
       <c r="D13" t="s">
-        <v>1496</v>
+        <v>1622</v>
       </c>
       <c r="E13" t="s">
-        <v>1495</v>
+        <v>1621</v>
       </c>
       <c r="G13" t="s">
         <v>452</v>
@@ -9000,25 +9153,25 @@
         <v>1493</v>
       </c>
       <c r="U13" t="s">
-        <v>1494</v>
+        <v>1432</v>
       </c>
       <c r="V13" t="s">
-        <v>1432</v>
+        <v>1239</v>
       </c>
       <c r="W13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="X13" t="s">
         <v>1257</v>
       </c>
-      <c r="X13" t="s">
-        <v>1485</v>
-      </c>
       <c r="Y13" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="Z13" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA13" t="s">
         <v>1434</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>1436</v>
       </c>
       <c r="AB13" t="s">
         <v>799</v>
@@ -9033,7 +9186,7 @@
         <v>1466</v>
       </c>
       <c r="AF13" t="s">
-        <v>1239</v>
+        <v>1494</v>
       </c>
       <c r="AG13" t="s">
         <v>1469</v>
@@ -9042,7 +9195,7 @@
         <v>1453</v>
       </c>
       <c r="AI13" t="s">
-        <v>874</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -9053,13 +9206,13 @@
         <v>2795791</v>
       </c>
       <c r="C14" t="s">
-        <v>1503</v>
+        <v>821</v>
       </c>
       <c r="D14" t="s">
-        <v>1468</v>
+        <v>1626</v>
       </c>
       <c r="E14" t="s">
-        <v>1504</v>
+        <v>1625</v>
       </c>
       <c r="G14" t="s">
         <v>653</v>
@@ -9074,16 +9227,16 @@
         <v>464</v>
       </c>
       <c r="U14" t="s">
-        <v>1497</v>
+        <v>789</v>
       </c>
       <c r="V14" t="s">
-        <v>1498</v>
+        <v>791</v>
       </c>
       <c r="W14" t="s">
         <v>1218</v>
       </c>
       <c r="X14" t="s">
-        <v>789</v>
+        <v>1469</v>
       </c>
       <c r="Y14" t="s">
         <v>1499</v>
@@ -9095,13 +9248,13 @@
         <v>1454</v>
       </c>
       <c r="AB14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AC14" t="s">
         <v>1252</v>
       </c>
       <c r="AD14" t="s">
-        <v>1502</v>
+        <v>1623</v>
       </c>
       <c r="AE14" t="s">
         <v>693</v>
@@ -9110,13 +9263,13 @@
         <v>565</v>
       </c>
       <c r="AG14" t="s">
-        <v>1469</v>
+        <v>1624</v>
       </c>
       <c r="AH14" t="s">
         <v>767</v>
       </c>
       <c r="AI14" t="s">
-        <v>1503</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -9127,13 +9280,13 @@
         <v>228724</v>
       </c>
       <c r="C15" t="s">
-        <v>778</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>1508</v>
+        <v>1628</v>
       </c>
       <c r="E15" t="s">
-        <v>1507</v>
+        <v>1627</v>
       </c>
       <c r="G15" t="s">
         <v>706</v>
@@ -9148,49 +9301,49 @@
         <v>1466</v>
       </c>
       <c r="U15" t="s">
-        <v>1485</v>
+        <v>1432</v>
       </c>
       <c r="V15" t="s">
-        <v>1432</v>
+        <v>943</v>
       </c>
       <c r="W15" t="s">
         <v>1457</v>
       </c>
       <c r="X15" t="s">
-        <v>943</v>
+        <v>1485</v>
       </c>
       <c r="Y15" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Z15" t="s">
         <v>1436</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>1459</v>
       </c>
       <c r="AA15" t="s">
         <v>383</v>
       </c>
       <c r="AB15" t="s">
-        <v>1460</v>
+        <v>682</v>
       </c>
       <c r="AC15" t="s">
-        <v>682</v>
+        <v>1252</v>
       </c>
       <c r="AD15" t="s">
-        <v>1252</v>
+        <v>1610</v>
       </c>
       <c r="AE15" t="s">
         <v>693</v>
       </c>
       <c r="AF15" t="s">
-        <v>1239</v>
+        <v>1459</v>
       </c>
       <c r="AG15" t="s">
         <v>1505</v>
       </c>
       <c r="AH15" t="s">
-        <v>1506</v>
+        <v>1228</v>
       </c>
       <c r="AI15" t="s">
-        <v>778</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -9201,13 +9354,13 @@
         <v>2185186</v>
       </c>
       <c r="C16" t="s">
-        <v>1511</v>
+        <v>785</v>
       </c>
       <c r="D16" t="s">
-        <v>1278</v>
+        <v>1630</v>
       </c>
       <c r="E16" t="s">
-        <v>1512</v>
+        <v>1629</v>
       </c>
       <c r="G16" t="s">
         <v>672</v>
@@ -9234,7 +9387,7 @@
         <v>947</v>
       </c>
       <c r="Y16" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="Z16" t="s">
         <v>1436</v>
@@ -9246,7 +9399,7 @@
         <v>794</v>
       </c>
       <c r="AC16" t="s">
-        <v>1501</v>
+        <v>1623</v>
       </c>
       <c r="AD16" t="s">
         <v>682</v>
@@ -9258,13 +9411,13 @@
         <v>806</v>
       </c>
       <c r="AG16" t="s">
-        <v>1510</v>
+        <v>805</v>
       </c>
       <c r="AH16" t="s">
         <v>685</v>
       </c>
       <c r="AI16" t="s">
-        <v>1511</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -9275,13 +9428,13 @@
         <v>2317783</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>1381</v>
+        <v>1632</v>
       </c>
       <c r="E17" t="s">
-        <v>1514</v>
+        <v>1631</v>
       </c>
       <c r="G17" t="s">
         <v>706</v>
@@ -9308,7 +9461,7 @@
         <v>1513</v>
       </c>
       <c r="Y17" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="Z17" t="s">
         <v>1436</v>
@@ -9332,13 +9485,13 @@
         <v>1239</v>
       </c>
       <c r="AG17" t="s">
-        <v>1510</v>
+        <v>805</v>
       </c>
       <c r="AH17" t="s">
         <v>400</v>
       </c>
       <c r="AI17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -9349,13 +9502,13 @@
         <v>364277</v>
       </c>
       <c r="C18" t="s">
-        <v>1461</v>
+        <v>844</v>
       </c>
       <c r="D18" t="s">
-        <v>1517</v>
+        <v>1271</v>
       </c>
       <c r="E18" t="s">
-        <v>1516</v>
+        <v>1633</v>
       </c>
       <c r="G18" t="s">
         <v>706</v>
@@ -9388,7 +9541,7 @@
         <v>1436</v>
       </c>
       <c r="AA18" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="AB18" t="s">
         <v>1434</v>
@@ -9412,7 +9565,7 @@
         <v>812</v>
       </c>
       <c r="AI18" t="s">
-        <v>1461</v>
+        <v>844</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -9423,13 +9576,13 @@
         <v>1396639</v>
       </c>
       <c r="C19" t="s">
-        <v>829</v>
+        <v>1470</v>
       </c>
       <c r="D19" t="s">
-        <v>1520</v>
+        <v>1566</v>
       </c>
       <c r="E19" t="s">
-        <v>1519</v>
+        <v>1634</v>
       </c>
       <c r="G19" t="s">
         <v>706</v>
@@ -9444,40 +9597,40 @@
         <v>1466</v>
       </c>
       <c r="U19" t="s">
-        <v>1218</v>
+        <v>1457</v>
       </c>
       <c r="V19" t="s">
+        <v>943</v>
+      </c>
+      <c r="W19" t="s">
         <v>1518</v>
       </c>
-      <c r="W19" t="s">
-        <v>1457</v>
-      </c>
       <c r="X19" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AA19" t="s">
         <v>1436</v>
       </c>
-      <c r="Y19" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>947</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1499</v>
-      </c>
       <c r="AB19" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC19" t="s">
         <v>799</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>1252</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>682</v>
       </c>
       <c r="AE19" t="s">
         <v>1480</v>
       </c>
       <c r="AF19" t="s">
-        <v>943</v>
+        <v>1218</v>
       </c>
       <c r="AG19" t="s">
         <v>817</v>
@@ -9486,7 +9639,7 @@
         <v>735</v>
       </c>
       <c r="AI19" t="s">
-        <v>829</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -9497,13 +9650,13 @@
         <v>1339989</v>
       </c>
       <c r="C20" t="s">
-        <v>778</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="E20" t="s">
-        <v>1522</v>
+        <v>1635</v>
       </c>
       <c r="G20" t="s">
         <v>452</v>
@@ -9542,7 +9695,7 @@
         <v>682</v>
       </c>
       <c r="AC20" t="s">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="AD20" t="s">
         <v>1252</v>
@@ -9560,7 +9713,7 @@
         <v>1469</v>
       </c>
       <c r="AI20" t="s">
-        <v>778</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -9577,7 +9730,7 @@
         <v>1404</v>
       </c>
       <c r="E21" t="s">
-        <v>1524</v>
+        <v>1636</v>
       </c>
       <c r="G21" t="s">
         <v>706</v>
@@ -9651,7 +9804,7 @@
         <v>1528</v>
       </c>
       <c r="E22" t="s">
-        <v>1527</v>
+        <v>1637</v>
       </c>
       <c r="G22" t="s">
         <v>706</v>
@@ -9719,13 +9872,13 @@
         <v>2340261</v>
       </c>
       <c r="C23" t="s">
-        <v>1461</v>
+        <v>778</v>
       </c>
       <c r="D23" t="s">
-        <v>1531</v>
+        <v>1630</v>
       </c>
       <c r="E23" t="s">
-        <v>1530</v>
+        <v>1638</v>
       </c>
       <c r="G23" t="s">
         <v>706</v>
@@ -9737,43 +9890,43 @@
         <v>307</v>
       </c>
       <c r="T23" t="s">
-        <v>1529</v>
+        <v>1248</v>
       </c>
       <c r="U23" t="s">
         <v>1485</v>
       </c>
       <c r="V23" t="s">
+        <v>971</v>
+      </c>
+      <c r="W23" t="s">
         <v>943</v>
       </c>
-      <c r="W23" t="s">
-        <v>971</v>
-      </c>
       <c r="X23" t="s">
-        <v>1273</v>
+        <v>1434</v>
       </c>
       <c r="Y23" t="s">
-        <v>947</v>
+        <v>383</v>
       </c>
       <c r="Z23" t="s">
         <v>1436</v>
       </c>
       <c r="AA23" t="s">
-        <v>383</v>
+        <v>947</v>
       </c>
       <c r="AB23" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AC23" t="s">
         <v>682</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>1526</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>1252</v>
       </c>
       <c r="AE23" t="s">
         <v>399</v>
       </c>
       <c r="AF23" t="s">
-        <v>1434</v>
+        <v>1273</v>
       </c>
       <c r="AG23" t="s">
         <v>1239</v>
@@ -9782,7 +9935,7 @@
         <v>1513</v>
       </c>
       <c r="AI23" t="s">
-        <v>1461</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -9799,7 +9952,7 @@
         <v>1536</v>
       </c>
       <c r="E24" t="s">
-        <v>1535</v>
+        <v>1639</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -9867,13 +10020,13 @@
         <v>2719892</v>
       </c>
       <c r="C25" t="s">
-        <v>1538</v>
+        <v>841</v>
       </c>
       <c r="D25" t="s">
-        <v>1540</v>
+        <v>1349</v>
       </c>
       <c r="E25" t="s">
-        <v>1539</v>
+        <v>1640</v>
       </c>
       <c r="G25" t="s">
         <v>653</v>
@@ -9888,49 +10041,49 @@
         <v>1220</v>
       </c>
       <c r="U25" t="s">
+        <v>971</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1537</v>
+      </c>
+      <c r="W25" t="s">
         <v>1472</v>
       </c>
-      <c r="V25" t="s">
-        <v>707</v>
-      </c>
-      <c r="W25" t="s">
-        <v>971</v>
-      </c>
       <c r="X25" t="s">
+        <v>980</v>
+      </c>
+      <c r="Y25" t="s">
         <v>1434</v>
       </c>
-      <c r="Y25" t="s">
-        <v>1203</v>
-      </c>
       <c r="Z25" t="s">
-        <v>1437</v>
+        <v>383</v>
       </c>
       <c r="AA25" t="s">
-        <v>383</v>
+        <v>1469</v>
       </c>
       <c r="AB25" t="s">
-        <v>1501</v>
+        <v>682</v>
       </c>
       <c r="AC25" t="s">
-        <v>682</v>
+        <v>1502</v>
       </c>
       <c r="AD25" t="s">
-        <v>1502</v>
+        <v>1623</v>
       </c>
       <c r="AE25" t="s">
         <v>693</v>
       </c>
       <c r="AF25" t="s">
-        <v>1537</v>
+        <v>707</v>
       </c>
       <c r="AG25" t="s">
         <v>750</v>
       </c>
       <c r="AH25" t="s">
-        <v>1469</v>
+        <v>1203</v>
       </c>
       <c r="AI25" t="s">
-        <v>1538</v>
+        <v>841</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -9941,13 +10094,13 @@
         <v>122847</v>
       </c>
       <c r="C26" t="s">
-        <v>785</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>1383</v>
+        <v>1642</v>
       </c>
       <c r="E26" t="s">
-        <v>1541</v>
+        <v>1641</v>
       </c>
       <c r="G26" t="s">
         <v>653</v>
@@ -9962,40 +10115,40 @@
         <v>693</v>
       </c>
       <c r="U26" t="s">
+        <v>1457</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="W26" t="s">
         <v>1432</v>
       </c>
-      <c r="V26" t="s">
-        <v>1457</v>
-      </c>
-      <c r="W26" t="s">
-        <v>1485</v>
-      </c>
       <c r="X26" t="s">
-        <v>404</v>
+        <v>943</v>
       </c>
       <c r="Y26" t="s">
         <v>1436</v>
       </c>
       <c r="Z26" t="s">
-        <v>1459</v>
+        <v>404</v>
       </c>
       <c r="AA26" t="s">
         <v>383</v>
       </c>
       <c r="AB26" t="s">
-        <v>799</v>
+        <v>1610</v>
       </c>
       <c r="AC26" t="s">
         <v>1275</v>
       </c>
       <c r="AD26" t="s">
-        <v>1460</v>
+        <v>799</v>
       </c>
       <c r="AE26" t="s">
         <v>1480</v>
       </c>
       <c r="AF26" t="s">
-        <v>943</v>
+        <v>1459</v>
       </c>
       <c r="AG26" t="s">
         <v>1440</v>
@@ -10004,7 +10157,7 @@
         <v>817</v>
       </c>
       <c r="AI26" t="s">
-        <v>785</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -10015,13 +10168,13 @@
         <v>362369</v>
       </c>
       <c r="C27" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
       <c r="D27" t="s">
-        <v>1543</v>
+        <v>1644</v>
       </c>
       <c r="E27" t="s">
-        <v>1542</v>
+        <v>1643</v>
       </c>
       <c r="G27" t="s">
         <v>653</v>
@@ -10039,37 +10192,37 @@
         <v>1432</v>
       </c>
       <c r="V27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="W27" t="s">
         <v>1457</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>971</v>
       </c>
-      <c r="X27" t="s">
-        <v>1472</v>
-      </c>
       <c r="Y27" t="s">
-        <v>1459</v>
+        <v>1436</v>
       </c>
       <c r="Z27" t="s">
-        <v>1436</v>
+        <v>404</v>
       </c>
       <c r="AA27" t="s">
-        <v>404</v>
+        <v>1499</v>
       </c>
       <c r="AB27" t="s">
-        <v>1501</v>
+        <v>1623</v>
       </c>
       <c r="AC27" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AD27" t="s">
         <v>682</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>1252</v>
       </c>
       <c r="AE27" t="s">
         <v>693</v>
       </c>
       <c r="AF27" t="s">
-        <v>1499</v>
+        <v>1459</v>
       </c>
       <c r="AG27" t="s">
         <v>943</v>
@@ -10078,7 +10231,7 @@
         <v>1505</v>
       </c>
       <c r="AI27" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -10095,7 +10248,7 @@
         <v>1545</v>
       </c>
       <c r="E28" t="s">
-        <v>1544</v>
+        <v>1645</v>
       </c>
       <c r="G28" t="s">
         <v>706</v>
@@ -10149,7 +10302,7 @@
         <v>1481</v>
       </c>
       <c r="AH28" t="s">
-        <v>1441</v>
+        <v>1225</v>
       </c>
       <c r="AI28" t="s">
         <v>771</v>
@@ -10163,13 +10316,13 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
-        <v>1547</v>
+        <v>1647</v>
       </c>
       <c r="E29" t="s">
-        <v>1546</v>
+        <v>1646</v>
       </c>
       <c r="G29" t="s">
         <v>653</v>
@@ -10196,7 +10349,7 @@
         <v>1436</v>
       </c>
       <c r="Y29" t="s">
-        <v>1444</v>
+        <v>679</v>
       </c>
       <c r="Z29" t="s">
         <v>1490</v>
@@ -10226,7 +10379,7 @@
         <v>750</v>
       </c>
       <c r="AI29" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -10237,13 +10390,13 @@
         <v>23487</v>
       </c>
       <c r="C30" t="s">
-        <v>1259</v>
+        <v>1648</v>
       </c>
       <c r="D30" t="s">
-        <v>1549</v>
+        <v>1650</v>
       </c>
       <c r="E30" t="s">
-        <v>1548</v>
+        <v>1649</v>
       </c>
       <c r="G30" t="s">
         <v>452</v>
@@ -10267,31 +10420,31 @@
         <v>1452</v>
       </c>
       <c r="X30" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y30" t="s">
         <v>1515</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>1436</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>1490</v>
       </c>
-      <c r="AA30" t="s">
-        <v>1459</v>
-      </c>
       <c r="AB30" t="s">
-        <v>799</v>
+        <v>682</v>
       </c>
       <c r="AC30" t="s">
         <v>1447</v>
       </c>
       <c r="AD30" t="s">
-        <v>682</v>
+        <v>799</v>
       </c>
       <c r="AE30" t="s">
         <v>693</v>
       </c>
       <c r="AF30" t="s">
-        <v>943</v>
+        <v>1459</v>
       </c>
       <c r="AG30" t="s">
         <v>817</v>
@@ -10300,7 +10453,7 @@
         <v>806</v>
       </c>
       <c r="AI30" t="s">
-        <v>1259</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -10311,13 +10464,13 @@
         <v>360554</v>
       </c>
       <c r="C31" t="s">
-        <v>1550</v>
+        <v>785</v>
       </c>
       <c r="D31" t="s">
-        <v>1552</v>
+        <v>1520</v>
       </c>
       <c r="E31" t="s">
-        <v>1551</v>
+        <v>1651</v>
       </c>
       <c r="G31" t="s">
         <v>452</v>
@@ -10335,31 +10488,31 @@
         <v>971</v>
       </c>
       <c r="V31" t="s">
+        <v>1432</v>
+      </c>
+      <c r="W31" t="s">
         <v>1457</v>
       </c>
-      <c r="W31" t="s">
-        <v>1218</v>
-      </c>
       <c r="X31" t="s">
-        <v>1432</v>
+        <v>943</v>
       </c>
       <c r="Y31" t="s">
-        <v>1515</v>
+        <v>1436</v>
       </c>
       <c r="Z31" t="s">
         <v>404</v>
       </c>
       <c r="AA31" t="s">
-        <v>1436</v>
+        <v>1515</v>
       </c>
       <c r="AB31" t="s">
-        <v>1460</v>
+        <v>682</v>
       </c>
       <c r="AC31" t="s">
         <v>1252</v>
       </c>
       <c r="AD31" t="s">
-        <v>682</v>
+        <v>1610</v>
       </c>
       <c r="AE31" t="s">
         <v>1466</v>
@@ -10368,13 +10521,13 @@
         <v>1459</v>
       </c>
       <c r="AG31" t="s">
-        <v>943</v>
+        <v>1218</v>
       </c>
       <c r="AH31" t="s">
         <v>817</v>
       </c>
       <c r="AI31" t="s">
-        <v>1550</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -10385,13 +10538,13 @@
         <v>2090014</v>
       </c>
       <c r="C32" t="s">
-        <v>913</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>1383</v>
+        <v>1653</v>
       </c>
       <c r="E32" t="s">
-        <v>1553</v>
+        <v>1652</v>
       </c>
       <c r="G32" t="s">
         <v>706</v>
@@ -10421,7 +10574,7 @@
         <v>1515</v>
       </c>
       <c r="Z32" t="s">
-        <v>1437</v>
+        <v>980</v>
       </c>
       <c r="AA32" t="s">
         <v>1436</v>
@@ -10430,7 +10583,7 @@
         <v>1252</v>
       </c>
       <c r="AC32" t="s">
-        <v>1501</v>
+        <v>1623</v>
       </c>
       <c r="AD32" t="s">
         <v>682</v>
@@ -10448,7 +10601,7 @@
         <v>817</v>
       </c>
       <c r="AI32" t="s">
-        <v>913</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -10459,13 +10612,13 @@
         <v>158870</v>
       </c>
       <c r="C33" t="s">
-        <v>1461</v>
+        <v>778</v>
       </c>
       <c r="D33" t="s">
-        <v>1556</v>
+        <v>1650</v>
       </c>
       <c r="E33" t="s">
-        <v>1555</v>
+        <v>1654</v>
       </c>
       <c r="G33" t="s">
         <v>653</v>
@@ -10480,40 +10633,40 @@
         <v>693</v>
       </c>
       <c r="U33" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V33" t="s">
         <v>1457</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1485</v>
       </c>
       <c r="W33" t="s">
         <v>1432</v>
       </c>
       <c r="X33" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AA33" t="s">
         <v>1490</v>
       </c>
-      <c r="Y33" t="s">
-        <v>1459</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1554</v>
-      </c>
       <c r="AB33" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD33" t="s">
         <v>799</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1460</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>682</v>
       </c>
       <c r="AE33" t="s">
         <v>1466</v>
       </c>
       <c r="AF33" t="s">
-        <v>943</v>
+        <v>1459</v>
       </c>
       <c r="AG33" t="s">
         <v>1440</v>
@@ -10522,7 +10675,7 @@
         <v>817</v>
       </c>
       <c r="AI33" t="s">
-        <v>1461</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -10540,9 +10693,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -11073,29 +11226,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -11784,26 +11937,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="24" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -14154,27 +14307,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="33" max="34" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -14972,9 +15125,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15366,10 +15519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="6" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15755,10 +15908,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -17113,10 +17266,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -17384,16 +17537,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -20169,27 +20322,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="29" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -22688,10 +22841,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="13" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/EdisonLogs/weather.xlsx
+++ b/EdisonLogs/weather.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7929" uniqueCount="1894">
   <si>
     <t>Places</t>
   </si>
@@ -4995,6 +4995,723 @@
   </si>
   <si>
     <t>157,970</t>
+  </si>
+  <si>
+    <t>Pickford TOT (H)</t>
+  </si>
+  <si>
+    <t>Reguilón EVE (A)</t>
+  </si>
+  <si>
+    <t>Thiago Silva BUR (H)</t>
+  </si>
+  <si>
+    <t>Dias MUN (A)</t>
+  </si>
+  <si>
+    <t>Salah WHU (A)$ captain</t>
+  </si>
+  <si>
+    <t>Rashica BRE (A)</t>
+  </si>
+  <si>
+    <t>Benrahma LIV (H)</t>
+  </si>
+  <si>
+    <t>Son EVE (A)</t>
+  </si>
+  <si>
+    <t>Vardy LEE (A)</t>
+  </si>
+  <si>
+    <t>Antonio LIV (H)</t>
+  </si>
+  <si>
+    <t>Begović TOT (H)</t>
+  </si>
+  <si>
+    <t>Tsimikas WHU (A)</t>
+  </si>
+  <si>
+    <t>Bissouma NEW (H)</t>
+  </si>
+  <si>
+    <t>Reid LIV (H)</t>
+  </si>
+  <si>
+    <t>713,278</t>
+  </si>
+  <si>
+    <t>Ramsdale WAT (H)</t>
+  </si>
+  <si>
+    <t>Azpilicueta BUR (H)</t>
+  </si>
+  <si>
+    <t>Cancelo MUN (A)</t>
+  </si>
+  <si>
+    <t>Alexander-Arnold WHU (A)</t>
+  </si>
+  <si>
+    <t>Chilwell BUR (H)</t>
+  </si>
+  <si>
+    <t>Smith Rowe WAT (H)</t>
+  </si>
+  <si>
+    <t>Foden MUN (A)</t>
+  </si>
+  <si>
+    <t>Mbeumo NOR (H)</t>
+  </si>
+  <si>
+    <t>Foster ARS (A)</t>
+  </si>
+  <si>
+    <t>A.Armstrong 9</t>
+  </si>
+  <si>
+    <t>Brownhill CHE (A)</t>
+  </si>
+  <si>
+    <t>65,945</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>Rüdiger BUR (H)</t>
+  </si>
+  <si>
+    <t>White WAT (H)</t>
+  </si>
+  <si>
+    <t>Havertz BUR (H)</t>
+  </si>
+  <si>
+    <t>Gallagher WOL (H)</t>
+  </si>
+  <si>
+    <t>Ederson MUN (A)</t>
+  </si>
+  <si>
+    <t>Hwang CRY (A)</t>
+  </si>
+  <si>
+    <t>Manquillo BHA (A)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>701,254</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>Sánchez NEW (H)</t>
+  </si>
+  <si>
+    <t>James BUR (H)</t>
+  </si>
+  <si>
+    <t>Raphinha LEI (H)</t>
+  </si>
+  <si>
+    <t>Jesus MUN (A)</t>
+  </si>
+  <si>
+    <t>Jiménez CRY (A)</t>
+  </si>
+  <si>
+    <t>Toney NOR (H)</t>
+  </si>
+  <si>
+    <t>Kovacic BUR (H)</t>
+  </si>
+  <si>
+    <t>171,362</t>
+  </si>
+  <si>
+    <t>Mendy BUR (H)</t>
+  </si>
+  <si>
+    <t>Jansson NOR (H)</t>
+  </si>
+  <si>
+    <t>Duffy NEW (H)</t>
+  </si>
+  <si>
+    <t>Gray TOT (H)</t>
+  </si>
+  <si>
+    <t>Saint-Maximin BHA (A)</t>
+  </si>
+  <si>
+    <t>Raya NOR (H)</t>
+  </si>
+  <si>
+    <t>Allan TOT (H)</t>
+  </si>
+  <si>
+    <t>Dennis ARS (A)</t>
+  </si>
+  <si>
+    <t>759,731</t>
+  </si>
+  <si>
+    <t>Martínez 2</t>
+  </si>
+  <si>
+    <t>van Dijk WHU (A)</t>
+  </si>
+  <si>
+    <t>Coady CRY (A)</t>
+  </si>
+  <si>
+    <t>Grealish MUN (A)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1,236,032</t>
+  </si>
+  <si>
+    <t>Townsend TOT (H)</t>
+  </si>
+  <si>
+    <t>Tielemans LEE (A)</t>
+  </si>
+  <si>
+    <t>Jota WHU (A)</t>
+  </si>
+  <si>
+    <t>Ronaldo MCI (H)</t>
+  </si>
+  <si>
+    <t>Iheanacho LEE (A)</t>
+  </si>
+  <si>
+    <t>Dier EVE (A)</t>
+  </si>
+  <si>
+    <t>1,841,712</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>Greenwood MCI (H)</t>
+  </si>
+  <si>
+    <t>Kane EVE (A)$ captain</t>
+  </si>
+  <si>
+    <t>Cash 2</t>
+  </si>
+  <si>
+    <t>Cucho ARS (A)</t>
+  </si>
+  <si>
+    <t>2,945,595</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>Alisson WHU (A)</t>
+  </si>
+  <si>
+    <t>Salah WHU (A)</t>
+  </si>
+  <si>
+    <t>Zaha WOL (H)</t>
+  </si>
+  <si>
+    <t>Skipp EVE (A)</t>
+  </si>
+  <si>
+    <t>Broja 1</t>
+  </si>
+  <si>
+    <t>Jesus MUN (A)$ captain</t>
+  </si>
+  <si>
+    <t>Guaita WOL (H)</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka MCI (H)</t>
+  </si>
+  <si>
+    <t>Doucouré TOT (H)</t>
+  </si>
+  <si>
+    <t>Williams BRE (A)</t>
+  </si>
+  <si>
+    <t>5,032,482</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>Aubameyang WAT (H)$ captain</t>
+  </si>
+  <si>
+    <t>Steele NEW (H)</t>
+  </si>
+  <si>
+    <t>Ødegaard WAT (H)</t>
+  </si>
+  <si>
+    <t>257,280</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>Keane TOT (H)</t>
+  </si>
+  <si>
+    <t>Dallas LEI (H)</t>
+  </si>
+  <si>
+    <t>3,084,753</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>McCarthy 9</t>
+  </si>
+  <si>
+    <t>Shaw MCI (H)</t>
+  </si>
+  <si>
+    <t>Pinnock NOR (H)</t>
+  </si>
+  <si>
+    <t>Cresswell LIV (H)</t>
+  </si>
+  <si>
+    <t>Rice LIV (H)</t>
+  </si>
+  <si>
+    <t>S.Longstaff BHA (A)</t>
+  </si>
+  <si>
+    <t>Street WOL (H)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2,340,648</t>
+  </si>
+  <si>
+    <t>Schmeichel LEE (A)</t>
+  </si>
+  <si>
+    <t>Sarr ARS (A)</t>
+  </si>
+  <si>
+    <t>Watkins 2</t>
+  </si>
+  <si>
+    <t>Gunn BRE (A)</t>
+  </si>
+  <si>
+    <t>Højbjerg EVE (A)</t>
+  </si>
+  <si>
+    <t>Amartey LEE (A)</t>
+  </si>
+  <si>
+    <t>N.Williams WHU (A)</t>
+  </si>
+  <si>
+    <t>1,528,627</t>
+  </si>
+  <si>
+    <t>de Gea MCI (H)</t>
+  </si>
+  <si>
+    <t>Aarons BRE (A)</t>
+  </si>
+  <si>
+    <t>Kilman CRY (A)</t>
+  </si>
+  <si>
+    <t>De Bruyne MUN (A)$ captain</t>
+  </si>
+  <si>
+    <t>Ward-Prowse 3</t>
+  </si>
+  <si>
+    <t>Kane EVE (A)</t>
+  </si>
+  <si>
+    <t>Maupay NEW (H)</t>
+  </si>
+  <si>
+    <t>Carson MUN (A)</t>
+  </si>
+  <si>
+    <t>5,064,743</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>Maguire MCI (H)</t>
+  </si>
+  <si>
+    <t>Rodrigo LEI (H)</t>
+  </si>
+  <si>
+    <t>Holding WAT (H)</t>
+  </si>
+  <si>
+    <t>Alonso BUR (H)</t>
+  </si>
+  <si>
+    <t>Xhaka WAT (H)</t>
+  </si>
+  <si>
+    <t>5,526,623</t>
+  </si>
+  <si>
+    <t>Mings 2</t>
+  </si>
+  <si>
+    <t>Mount BUR (H)</t>
+  </si>
+  <si>
+    <t>Lukaku BUR (H)$ captain</t>
+  </si>
+  <si>
+    <t>Gabriel WAT (H)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7,776,939</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Marçal CRY (A)</t>
+  </si>
+  <si>
+    <t>1,729,787</t>
+  </si>
+  <si>
+    <t>Smith Rowe WAT (H)$ captain</t>
+  </si>
+  <si>
+    <t>Klich LEI (H)</t>
+  </si>
+  <si>
+    <t>Omobamidele BRE (A)</t>
+  </si>
+  <si>
+    <t>3,204,203</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>Pukki BRE (A)</t>
+  </si>
+  <si>
+    <t>1,500,940</t>
+  </si>
+  <si>
+    <t>844,399</t>
+  </si>
+  <si>
+    <t>Tomiyasu WAT (H)</t>
+  </si>
+  <si>
+    <t>Bergwijn EVE (A)</t>
+  </si>
+  <si>
+    <t>Walker MUN (A)</t>
+  </si>
+  <si>
+    <t>Moder NEW (H)</t>
+  </si>
+  <si>
+    <t>2,135,564</t>
+  </si>
+  <si>
+    <t>1,929,253</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>Veltman NEW (H)</t>
+  </si>
+  <si>
+    <t>Scarlett EVE (A)</t>
+  </si>
+  <si>
+    <t>1,157,994</t>
+  </si>
+  <si>
+    <t>Bernardo MUN (A)</t>
+  </si>
+  <si>
+    <t>2,255,184</t>
+  </si>
+  <si>
+    <t>Lloris EVE (A)</t>
+  </si>
+  <si>
+    <t>Ward LEE (A)</t>
+  </si>
+  <si>
+    <t>Gilmour BRE (A)</t>
+  </si>
+  <si>
+    <t>1,160,439</t>
+  </si>
+  <si>
+    <t>1,062,855</t>
+  </si>
+  <si>
+    <t>Chalobah BUR (H)</t>
+  </si>
+  <si>
+    <t>1,816,158</t>
+  </si>
+  <si>
+    <t>Tierney WAT (H)</t>
+  </si>
+  <si>
+    <t>Söyüncü LEE (A)</t>
+  </si>
+  <si>
+    <t>Saka WAT (H)</t>
+  </si>
+  <si>
+    <t>Digne TOT (H)</t>
+  </si>
+  <si>
+    <t>2,198,896</t>
+  </si>
+  <si>
+    <t>4 (-8 pts)</t>
+  </si>
+  <si>
+    <t>800,027</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>Christensen BUR (H)</t>
+  </si>
+  <si>
+    <t>Aubameyang WAT (H)</t>
+  </si>
+  <si>
+    <t>776,825</t>
+  </si>
+  <si>
+    <t>McArthur WOL (H)</t>
+  </si>
+  <si>
+    <t>Ayling LEI (H)</t>
+  </si>
+  <si>
+    <t>1,619,402</t>
+  </si>
+  <si>
+    <t>1,208,292</t>
+  </si>
+  <si>
+    <t>Laporte MUN (A)</t>
+  </si>
+  <si>
+    <t>479,668</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>581,576</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>145,153</t>
+  </si>
+  <si>
+    <t>Richardson CHE (A)</t>
+  </si>
+  <si>
+    <t>723,282</t>
+  </si>
+  <si>
+    <t>Matip WHU (A)</t>
+  </si>
+  <si>
+    <t>744,893</t>
+  </si>
+  <si>
+    <t>Krul BRE (A)</t>
+  </si>
+  <si>
+    <t>156,667</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>3,704,250</t>
+  </si>
+  <si>
+    <t>Son EVE (A)$ captain</t>
+  </si>
+  <si>
+    <t>492,428</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>108,413</t>
+  </si>
+  <si>
+    <t>358,196</t>
+  </si>
+  <si>
+    <t>Normann BRE (A)</t>
+  </si>
+  <si>
+    <t>110,129</t>
+  </si>
+  <si>
+    <t>Toney NOR (H)$ captain</t>
+  </si>
+  <si>
+    <t>179,093</t>
+  </si>
+  <si>
+    <t>513,108</t>
+  </si>
+  <si>
+    <t>542,429</t>
+  </si>
+  <si>
+    <t>176,460</t>
+  </si>
+  <si>
+    <t>Cancelo 11</t>
+  </si>
+  <si>
+    <t>Foden 3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Ederson 6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Greenwood 2</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka 1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Shaw 1</t>
+  </si>
+  <si>
+    <t>de Gea 2</t>
+  </si>
+  <si>
+    <t>De Bruyne 6$ captain</t>
+  </si>
+  <si>
+    <t>Maguire 1</t>
+  </si>
+  <si>
+    <t>Walker 6</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Bernardo 7</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Laporte 0</t>
+  </si>
+  <si>
+    <t>433,179</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>93,903</t>
+  </si>
+  <si>
+    <t>280,985</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>153,270</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>129,863</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>410,731</t>
+  </si>
+  <si>
+    <t>435,478</t>
   </si>
 </sst>
 </file>
@@ -5828,28 +6545,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.51953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.0234375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.58984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="21" max="22" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.8515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.12109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="25.12109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="25.12109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.12109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="22.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.36328125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="22.36328125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.9765625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.8515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.9921875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.31640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.00390625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.11328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -5973,16 +6692,16 @@
         <v>5695560</v>
       </c>
       <c r="C2" t="s">
-        <v>874</v>
+        <v>1690</v>
       </c>
       <c r="D2" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="E2" t="s">
-        <v>1561</v>
+        <v>1669</v>
       </c>
       <c r="G2" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="R2" t="s">
         <v>883</v>
@@ -5991,52 +6710,52 @@
         <v>882</v>
       </c>
       <c r="T2" t="s">
-        <v>1557</v>
+        <v>1655</v>
       </c>
       <c r="U2" t="s">
-        <v>554</v>
+        <v>1656</v>
       </c>
       <c r="V2" t="s">
-        <v>1365</v>
+        <v>1657</v>
       </c>
       <c r="W2" t="s">
-        <v>971</v>
+        <v>424</v>
       </c>
       <c r="X2" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="Y2" t="s">
-        <v>1558</v>
+        <v>1660</v>
       </c>
       <c r="Z2" t="s">
-        <v>1434</v>
+        <v>1661</v>
       </c>
       <c r="AA2" t="s">
-        <v>383</v>
+        <v>1662</v>
       </c>
       <c r="AB2" t="s">
-        <v>1252</v>
+        <v>1663</v>
       </c>
       <c r="AC2" t="s">
         <v>1559</v>
       </c>
       <c r="AD2" t="s">
-        <v>682</v>
+        <v>1664</v>
       </c>
       <c r="AE2" t="s">
-        <v>1560</v>
+        <v>1665</v>
       </c>
       <c r="AF2" t="s">
-        <v>750</v>
+        <v>1666</v>
       </c>
       <c r="AG2" t="s">
-        <v>1469</v>
+        <v>1667</v>
       </c>
       <c r="AH2" t="s">
-        <v>881</v>
+        <v>1668</v>
       </c>
       <c r="AI2" t="s">
-        <v>874</v>
+        <v>1690</v>
       </c>
       <c r="AJ2" t="s">
         <v>653</v>
@@ -6053,16 +6772,16 @@
         <v>1153704</v>
       </c>
       <c r="C3" t="s">
-        <v>1563</v>
+        <v>1863</v>
       </c>
       <c r="D3" t="s">
-        <v>1414</v>
+        <v>1682</v>
       </c>
       <c r="E3" t="s">
-        <v>1564</v>
+        <v>1681</v>
       </c>
       <c r="G3" t="s">
-        <v>452</v>
+        <v>653</v>
       </c>
       <c r="R3" t="s">
         <v>886</v>
@@ -6071,52 +6790,52 @@
         <v>885</v>
       </c>
       <c r="T3" t="s">
-        <v>693</v>
+        <v>1670</v>
       </c>
       <c r="U3" t="s">
-        <v>971</v>
+        <v>1671</v>
       </c>
       <c r="V3" t="s">
-        <v>1218</v>
+        <v>1861</v>
       </c>
       <c r="W3" t="s">
-        <v>1457</v>
+        <v>1673</v>
       </c>
       <c r="X3" t="s">
-        <v>1432</v>
+        <v>1674</v>
       </c>
       <c r="Y3" t="s">
-        <v>1485</v>
+        <v>1675</v>
       </c>
       <c r="Z3" t="s">
-        <v>1515</v>
+        <v>1862</v>
       </c>
       <c r="AA3" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="AB3" t="s">
-        <v>1459</v>
+        <v>1677</v>
       </c>
       <c r="AC3" t="s">
-        <v>1252</v>
+        <v>1663</v>
       </c>
       <c r="AD3" t="s">
-        <v>682</v>
+        <v>1664</v>
       </c>
       <c r="AE3" t="s">
-        <v>1466</v>
+        <v>1678</v>
       </c>
       <c r="AF3" t="s">
-        <v>1435</v>
+        <v>424</v>
       </c>
       <c r="AG3" t="s">
-        <v>1562</v>
+        <v>1679</v>
       </c>
       <c r="AH3" t="s">
-        <v>817</v>
+        <v>1680</v>
       </c>
       <c r="AI3" t="s">
-        <v>1563</v>
+        <v>1863</v>
       </c>
       <c r="AJ3" t="s">
         <v>452</v>
@@ -6133,16 +6852,16 @@
         <v>440807</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>1865</v>
       </c>
       <c r="D4" t="s">
-        <v>1492</v>
+        <v>1692</v>
       </c>
       <c r="E4" t="s">
-        <v>1491</v>
+        <v>1691</v>
       </c>
       <c r="G4" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R4" t="s">
         <v>418</v>
@@ -6151,52 +6870,52 @@
         <v>289</v>
       </c>
       <c r="T4" t="s">
-        <v>1489</v>
+        <v>1670</v>
       </c>
       <c r="U4" t="s">
-        <v>1440</v>
+        <v>424</v>
       </c>
       <c r="V4" t="s">
-        <v>971</v>
+        <v>1683</v>
       </c>
       <c r="W4" t="s">
-        <v>1472</v>
+        <v>943</v>
       </c>
       <c r="X4" t="s">
-        <v>943</v>
+        <v>1684</v>
       </c>
       <c r="Y4" t="s">
-        <v>1490</v>
+        <v>1685</v>
       </c>
       <c r="Z4" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="AA4" t="s">
-        <v>776</v>
+        <v>1862</v>
       </c>
       <c r="AB4" t="s">
-        <v>1435</v>
+        <v>1675</v>
       </c>
       <c r="AC4" t="s">
-        <v>1252</v>
+        <v>1686</v>
       </c>
       <c r="AD4" t="s">
-        <v>682</v>
+        <v>1663</v>
       </c>
       <c r="AE4" t="s">
-        <v>1466</v>
+        <v>1864</v>
       </c>
       <c r="AF4" t="s">
-        <v>692</v>
+        <v>1688</v>
       </c>
       <c r="AG4" t="s">
-        <v>1445</v>
+        <v>1664</v>
       </c>
       <c r="AH4" t="s">
-        <v>1478</v>
+        <v>1689</v>
       </c>
       <c r="AI4" t="s">
-        <v>671</v>
+        <v>1865</v>
       </c>
       <c r="AJ4" t="s">
         <v>578</v>
@@ -6213,16 +6932,16 @@
         <v>4642646</v>
       </c>
       <c r="C5" t="s">
-        <v>712</v>
+        <v>1714</v>
       </c>
       <c r="D5" t="s">
-        <v>1566</v>
+        <v>1297</v>
       </c>
       <c r="E5" t="s">
-        <v>1565</v>
+        <v>1700</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>706</v>
       </c>
       <c r="R5" t="s">
         <v>888</v>
@@ -6231,52 +6950,52 @@
         <v>887</v>
       </c>
       <c r="T5" t="s">
-        <v>693</v>
+        <v>1693</v>
       </c>
       <c r="U5" t="s">
-        <v>707</v>
+        <v>1694</v>
       </c>
       <c r="V5" t="s">
         <v>943</v>
       </c>
       <c r="W5" t="s">
-        <v>1457</v>
+        <v>1684</v>
       </c>
       <c r="X5" t="s">
-        <v>1432</v>
+        <v>1673</v>
       </c>
       <c r="Y5" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="Z5" t="s">
-        <v>404</v>
+        <v>1695</v>
       </c>
       <c r="AA5" t="s">
-        <v>1434</v>
+        <v>1675</v>
       </c>
       <c r="AB5" t="s">
         <v>1526</v>
       </c>
       <c r="AC5" t="s">
-        <v>1501</v>
+        <v>1697</v>
       </c>
       <c r="AD5" t="s">
-        <v>799</v>
+        <v>1698</v>
       </c>
       <c r="AE5" t="s">
-        <v>1438</v>
+        <v>1678</v>
       </c>
       <c r="AF5" t="s">
-        <v>1435</v>
+        <v>1861</v>
       </c>
       <c r="AG5" t="s">
-        <v>1440</v>
+        <v>1661</v>
       </c>
       <c r="AH5" t="s">
-        <v>1453</v>
+        <v>1699</v>
       </c>
       <c r="AI5" t="s">
-        <v>712</v>
+        <v>1714</v>
       </c>
       <c r="AJ5" t="s">
         <v>706</v>
@@ -6293,13 +7012,13 @@
         <v>1364835</v>
       </c>
       <c r="C6" t="s">
-        <v>908</v>
+        <v>1866</v>
       </c>
       <c r="D6" t="s">
-        <v>1280</v>
+        <v>1523</v>
       </c>
       <c r="E6" t="s">
-        <v>1567</v>
+        <v>1709</v>
       </c>
       <c r="G6" t="s">
         <v>706</v>
@@ -6311,52 +7030,52 @@
         <v>889</v>
       </c>
       <c r="T6" t="s">
-        <v>1220</v>
+        <v>1701</v>
       </c>
       <c r="U6" t="s">
-        <v>1485</v>
+        <v>1674</v>
       </c>
       <c r="V6" t="s">
-        <v>1432</v>
+        <v>1673</v>
       </c>
       <c r="W6" t="s">
-        <v>1457</v>
+        <v>1861</v>
       </c>
       <c r="X6" t="s">
-        <v>1257</v>
+        <v>1702</v>
       </c>
       <c r="Y6" t="s">
-        <v>1510</v>
+        <v>1703</v>
       </c>
       <c r="Z6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AG6" t="s">
         <v>1505</v>
       </c>
-      <c r="AA6" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>1453</v>
-      </c>
       <c r="AH6" t="s">
-        <v>1481</v>
+        <v>1708</v>
       </c>
       <c r="AI6" t="s">
-        <v>908</v>
+        <v>1866</v>
       </c>
       <c r="AJ6" t="s">
         <v>578</v>
@@ -6373,16 +7092,16 @@
         <v>5306515</v>
       </c>
       <c r="C7" t="s">
-        <v>1550</v>
+        <v>1867</v>
       </c>
       <c r="D7" t="s">
-        <v>1569</v>
+        <v>1463</v>
       </c>
       <c r="E7" t="s">
-        <v>1568</v>
+        <v>1715</v>
       </c>
       <c r="G7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="R7" t="s">
         <v>898</v>
@@ -6391,52 +7110,52 @@
         <v>897</v>
       </c>
       <c r="T7" t="s">
-        <v>1521</v>
+        <v>1710</v>
       </c>
       <c r="U7" t="s">
-        <v>727</v>
+        <v>1711</v>
       </c>
       <c r="V7" t="s">
-        <v>971</v>
+        <v>424</v>
       </c>
       <c r="W7" t="s">
-        <v>707</v>
+        <v>1694</v>
       </c>
       <c r="X7" t="s">
         <v>943</v>
       </c>
       <c r="Y7" t="s">
-        <v>1434</v>
+        <v>1661</v>
       </c>
       <c r="Z7" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="AA7" t="s">
-        <v>776</v>
+        <v>1695</v>
       </c>
       <c r="AB7" t="s">
-        <v>682</v>
+        <v>1664</v>
       </c>
       <c r="AC7" t="s">
         <v>1526</v>
       </c>
       <c r="AD7" t="s">
-        <v>1559</v>
+        <v>1705</v>
       </c>
       <c r="AE7" t="s">
-        <v>1557</v>
+        <v>1655</v>
       </c>
       <c r="AF7" t="s">
-        <v>404</v>
+        <v>1712</v>
       </c>
       <c r="AG7" t="s">
-        <v>1498</v>
+        <v>972</v>
       </c>
       <c r="AH7" t="s">
-        <v>817</v>
+        <v>1680</v>
       </c>
       <c r="AI7" t="s">
-        <v>1550</v>
+        <v>1867</v>
       </c>
       <c r="AJ7" t="s">
         <v>672</v>
@@ -6453,13 +7172,13 @@
         <v>2249991</v>
       </c>
       <c r="C8" t="s">
-        <v>841</v>
+        <v>1868</v>
       </c>
       <c r="D8" t="s">
-        <v>1367</v>
+        <v>1723</v>
       </c>
       <c r="E8" t="s">
-        <v>1571</v>
+        <v>1722</v>
       </c>
       <c r="G8" t="s">
         <v>653</v>
@@ -6471,52 +7190,52 @@
         <v>899</v>
       </c>
       <c r="T8" t="s">
-        <v>1557</v>
+        <v>1693</v>
       </c>
       <c r="U8" t="s">
         <v>943</v>
       </c>
       <c r="V8" t="s">
-        <v>971</v>
+        <v>1703</v>
       </c>
       <c r="W8" t="s">
-        <v>1485</v>
+        <v>1674</v>
       </c>
       <c r="X8" t="s">
-        <v>1437</v>
+        <v>1716</v>
       </c>
       <c r="Y8" t="s">
-        <v>1533</v>
+        <v>1717</v>
       </c>
       <c r="Z8" t="s">
-        <v>1525</v>
+        <v>1718</v>
       </c>
       <c r="AA8" t="s">
-        <v>1436</v>
+        <v>1659</v>
       </c>
       <c r="AB8" t="s">
-        <v>682</v>
+        <v>1664</v>
       </c>
       <c r="AC8" t="s">
-        <v>1447</v>
+        <v>683</v>
       </c>
       <c r="AD8" t="s">
-        <v>1570</v>
+        <v>1720</v>
       </c>
       <c r="AE8" t="s">
-        <v>1438</v>
+        <v>1655</v>
       </c>
       <c r="AF8" t="s">
-        <v>1510</v>
+        <v>1707</v>
       </c>
       <c r="AG8" t="s">
-        <v>1455</v>
+        <v>1721</v>
       </c>
       <c r="AH8" t="s">
-        <v>1239</v>
+        <v>424</v>
       </c>
       <c r="AI8" t="s">
-        <v>841</v>
+        <v>1868</v>
       </c>
       <c r="AJ8" t="s">
         <v>672</v>
@@ -6533,13 +7252,13 @@
         <v>2056865</v>
       </c>
       <c r="C9" t="s">
-        <v>884</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
-        <v>1575</v>
+        <v>1729</v>
       </c>
       <c r="E9" t="s">
-        <v>1574</v>
+        <v>1728</v>
       </c>
       <c r="G9" t="s">
         <v>706</v>
@@ -6551,52 +7270,52 @@
         <v>902</v>
       </c>
       <c r="T9" t="s">
-        <v>1220</v>
+        <v>1701</v>
       </c>
       <c r="U9" t="s">
-        <v>1432</v>
+        <v>1673</v>
       </c>
       <c r="V9" t="s">
-        <v>971</v>
+        <v>1702</v>
       </c>
       <c r="W9" t="s">
-        <v>1452</v>
+        <v>1694</v>
       </c>
       <c r="X9" t="s">
-        <v>1445</v>
+        <v>1686</v>
       </c>
       <c r="Y9" t="s">
-        <v>1203</v>
+        <v>1869</v>
       </c>
       <c r="Z9" t="s">
-        <v>1444</v>
+        <v>1704</v>
       </c>
       <c r="AA9" t="s">
-        <v>1435</v>
+        <v>1675</v>
       </c>
       <c r="AB9" t="s">
-        <v>1525</v>
+        <v>1718</v>
       </c>
       <c r="AC9" t="s">
-        <v>1252</v>
+        <v>1688</v>
       </c>
       <c r="AD9" t="s">
-        <v>901</v>
+        <v>1725</v>
       </c>
       <c r="AE9" t="s">
-        <v>693</v>
+        <v>1678</v>
       </c>
       <c r="AF9" t="s">
-        <v>1572</v>
+        <v>424</v>
       </c>
       <c r="AG9" t="s">
-        <v>1257</v>
+        <v>1726</v>
       </c>
       <c r="AH9" t="s">
-        <v>1573</v>
+        <v>1727</v>
       </c>
       <c r="AI9" t="s">
-        <v>884</v>
+        <v>672</v>
       </c>
       <c r="AJ9" t="s">
         <v>706</v>
@@ -6613,13 +7332,13 @@
         <v>5142355</v>
       </c>
       <c r="C10" t="s">
-        <v>913</v>
+        <v>1871</v>
       </c>
       <c r="D10" t="s">
-        <v>827</v>
+        <v>1741</v>
       </c>
       <c r="E10" t="s">
-        <v>1580</v>
+        <v>1740</v>
       </c>
       <c